--- a/toop-project/toop-project/res/TestResults.xlsx
+++ b/toop-project/toop-project/res/TestResults.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omman\Source\Repos\toop-project\toop-project\toop-project\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="618">
   <si>
     <t>Jacobi</t>
   </si>
@@ -1107,12 +1107,786 @@
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>16 6.8 -0.265714285714286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.68275234029099E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0000000256011 6.80000000031417 -0.265714287604093                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.64786543700105E-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714287                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286 Предобусловливание LLt : NaN для элемента диагонали №2                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.19242117815949E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714285                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102.362707329307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321.824633722995 695.063763288072 72.9677678859979                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.231688275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2654.89326421774 -1128.32963729253 493.049119650809                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.14486645612832E-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0338868153128905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9999999999998 6.8 -0.265714285714275                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.427405359313823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286 Предобусловливание LLt : NaN для элемента диагонали №2                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8432067610769E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714285                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2194705277634E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.04851238974959E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714286 Предобусловливание LLt : NaN для элемента диагонали №2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.23450259552716E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 6.8 -0.265714285714285                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.15954482736879E-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.42614754108621E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.49999999999021 -5.85714285713802 -5.30952380953568 -5.9455782313244 -1.78911564626013 -0.879494654812735 -0.57981049514234 0.0144210755198572 0.705768429533455 2.230013536455 1.6256371762383 2.45134823129737                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.28582211722218E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.50000000000001 -5.85714285714278 -5.30952380952335 -5.94557823129282 -1.78911564625967 -0.879494655008476 -0.579810495624675 0.0144210745125564 0.705768430211192 2.2300135359258 1.62563717653389 2.45134823114859                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.8516729708371E-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.42118634427028E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.49999999973 -5.85714285750254 -5.30952380886314 -5.94557823072475 -1.78911564671304 -0.879494655014991 -0.579810495778421 0.0144210744764508 0.70576842966536 2.23001353620251 1.62563717661092 2.45134823128974                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.01128557647819E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.01442107455227 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.9365872781614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.13835891972511 -15.7430751274488 -13.7974486982314 -6.99394258074659 14.9433885561539 27.2875458400629 25.5320363743519 35.1606906205128 -85.6699453459829 -65.4317217458917 25.7312004698579 103.849803128497                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.0334635346397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74234242540626 31.7960446108569 17.6901089799584 1.39480002135121 -9.26061927769894 -58.6221870235695 -79.1284180892516 0.168840201869231 157.312426242945 84.9738758945023 -75.6659858868135 -204.430662233563                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.56801477801485E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.05982270093156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.46590664948616 -12.3233873381813 -19.2264197612846 -15.2822983360227 10.518449851503 13.9537825355065 -3.91979629258818 -8.02396172368655 -2.71402978796767 4.19924666491059 6.87100312255631 2.98802087066514                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.67904073599756E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.68614252344188E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.49999999999992 -5.85714285714269 -5.30952380952134 -5.94557823128784 -1.78911564625481 -0.879494655007583 -0.579810495640512 0.0144210744196091 0.705768430642443 2.23001353666673 1.62563717663539 2.45134823068115                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.05629597830109E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.50000000000002 -5.85714285714334 -5.30952380952616 -5.94557823130117 -1.78911564626409 -0.879494654953398 -0.579810495448474 0.0144210746116042 0.705768428874743 2.23001353560321 1.62563717655709 2.45134823072718                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.80620295233378E-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.49999999979274 -5.85714285711144 -5.30952380974563 -5.94557823132112 -1.78911564600702 -0.879494654997631 -0.579810495691573 0.0144210746024703 0.705768429766661 2.23001353601227 1.62563717668787 2.45134823122796                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.01442107455227 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.71527721339402E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714285 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004858 -0.579810495626822 0.0144210745522702 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.17873786119262E-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714285 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522693 0.705768429820906 2.23001353602665 1.62563717663936 2.4513482312264                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.32637670814186E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522698 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.49282721125717E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.0144210745522703 0.705768429820907 2.23001353602666 1.62563717663936 2.45134823122641                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.59717087293748E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 -5.85714285714286 -5.30952380952381 -5.94557823129252 -1.7891156462585 -0.879494655004859 -0.579810495626822 0.01442107455227 0.705768429820908 2.23001353602666 1.62563717663936 2.45134823122641                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.88093854496809E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99999982638287 41.0000000385815 36.1111111111111 -3.9230769270854 3.45552390224845 4.57288992156294                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.20870583248678E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00000000037481 41.0000000022342 36.1111111130446 -3.92307692296898 3.45552389880929 4.5728899206444                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.5030585758974E-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.20082047178193E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99999998340829 40.9999999993235 36.1111111064258 -3.92307692323584 3.45552389992999 4.5728899205146                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.92552752058718E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 113.926034793029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6911040586899 -371.105104364881 -171.649259161596 487.34972728441 2002.20376656903 -512.333218675776                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 106.092438825926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.1471803726935 -240.131308852149 -191.632279700404 -163.773636062063 793.906789475837 1382.5259289201                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.76801502894199E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58.7243773770771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8984.56728205215 3826.04812008623 6562.31283710903 -1067.12800416149 -1705.91532384602 307.608726344206                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.43225586918264E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00756658150119184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00000009780215 40.9999999772845 36.1111111123193 -3.92307692096027 3.4555238985012 4.57288992010984                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00702781251222269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00000000034254 40.9999999953017 36.1111111128781 -3.92307692398986 3.45552390168798 4.57288991938096                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00030171473281669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99999999999986 41 36.111111111111 -3.9230769230769 3.4555238999684 4.57288992062654                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.05907972695606E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00000000000001 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.11597842039663E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062654                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.30389895388989E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.29324703374359E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996835 4.57288992062655                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.20378266771153E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 41 36.1111111111111 -3.92307692307692 3.45552389996834 4.57288992062655                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Предобусловливание LLt : NaN для элемента диагонали №4                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Предобусловливание LLt : NaN для элемента диагонали №4              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Residual is NaN. It is impossible to solve this SLAE by GMRES.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Residual is NaN. It is impossible to solve this SLAE by GMRES.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Residual is NaN. It is impossible to solve this SLAE by GMRES.         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Предобусловливание LLt : NaN для элемента диагонали №4                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 0 0 0 0 0 0 0 0 Residual is NaN. It is impossible to solve this SLAE by GMRES.       </t>
+  </si>
+  <si>
+    <t>anonymous\1</t>
+  </si>
+  <si>
+    <t>anonymous\2</t>
+  </si>
+  <si>
+    <t>anonymous\3</t>
+  </si>
+  <si>
+    <t>anonymous\4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.31650827730423E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932599364541 2.00011634175436 3.00002421192936 4.0000424307212 5.00001393445016 5.99995234614591 7.0001409889566 8.0000073993651 8.99999220579063 9.99997070724521 10.9999967392787 12.0001551058643 13.000029830449 14.0000188116296 15.0000824994718 16.0000123914511 16.9998636765483 17.9999201024786 18.9999358694607 20.0000682271167 21.0000551668046 22.0000146577498 23.0000178845655 23.9999245438669 24.9999635815834 26.0000100963423 26.9999516829921 28.0000080069494 29.0000471093272 29.99986453739 31.0000207564132 31.9999495951101 33.0000359986503 34.0000665430304 35.0000422224517 35.9999236839034 36.9998363194191 38.0000110913297 38.9999816186223 39.9999080408801 40.999957508371 41.9997709208682 42.9997305164016 43.9998288772142 44.9999702959273 46.0000146067093 46.9999664085599 47.9997331642318 49.0000456252881 50.0001080856823                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.20281579164249E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932600640815 2.00011634298704 3.00002421874366 4.00004243104701 5.00001394262713 5.99995235440692 7.00014099824316 8.00000741077702 8.99999220160797 9.99997070919918 10.9999967391818 12.0001551122758 13.0000298266821 14.000018816465 15.0000825054424 16.0000124043922 16.9998636880119 17.9999201027308 18.9999358579029 20.0000682362041 21.0000551724325 22.0000146620939 23.0000178860833 23.9999245488489 24.9999635839791 26.0000101027821 26.9999516831747 28.0000080215237 29.0000471095085 29.9998645296034 31.0000207604526 31.9999495968341 33.0000360009121 34.0000665481456 35.0000422286168 35.9999236930549 36.9998363270077 38.0000111057969 38.9999816181699 39.9999080353403 40.9999575087122 41.9997709173395 42.9997305203869 43.9998288822512 44.9999703000587 46.000014593257 46.9999664111514 47.9997331677659 49.0000456334788 50.000108090604               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.67893510992849E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932594748219 2.00011634670924 3.00002420460247 4.00004243162156 5.00001393093217 5.99995235409999 7.00014099872807 8.00000740930048 8.99999217964804 9.99997070542787 10.9999967408261 12.000155104288 13.0000298341922 14.0000188095626 15.0000825033493 16.0000124227474 16.9998637061424 17.9999201031115 18.9999358751802 20.0000682439582 21.0000551623635 22.000014660618 23.0000178879662 23.9999245406109 24.9999635802031 26.0000100984666 26.9999516804945 28.0000080064251 29.0000470988427 29.9998645398181 31.0000207603148 31.9999495962272 33.0000360056875 34.0000665372001 35.0000422217874 35.9999236874743 36.9998363192545 38.0000111110548 38.9999816216011 39.9999080464755 40.9999575005605 41.9997709126999 42.9997305193612 43.9998288697844 44.999970302317 46.0000146059347 46.99996641146 47.9997331666788 49.0000456281342 50.0001080926817                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.95782005576706E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932597854365 2.0001163425384 3.00002421339483 4.00004243120378 5.00001393692332 5.99995234475004 7.00014099490553 8.00000740680589 8.99999220137081 9.9999707125827 10.9999967433033 12.0001551045566 13.0000298362949 14.0000188152221 15.0000825024797 16.000012401881 16.9998636871883 17.9999201049281 18.9999358684936 20.0000682294171 21.0000551698625 22.0000146606659 23.0000178804577 23.9999245423707 24.9999635856483 26.0000100983501 26.9999516833815 28.0000080108956 29.0000471097856 29.999864539733 31.0000207571004 31.999949593986 33.0000359971726 34.0000665443233 35.0000422293544 35.9999236868373 36.9998363231332 38.000011101194 38.9999816241655 39.9999080443894 40.9999575079075 41.9997709211659 42.9997305177178 43.9998288802113 44.9999702969993 46.0000146049104 46.9999664110172 47.9997331668328 49.0000456322312 50.0001080847389                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.46178686548034E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932600899487 2.00011634249083 3.00002421321774 4.00004243328939 5.00001393531142 5.99995234775802 7.00014098993688 8.00000740197844 8.99999220222533 9.99997071254861 10.9999967429622 12.000155110693 13.0000298317949 14.0000188124104 15.0000825010774 16.0000123933756 16.999863680362 17.9999201045715 18.9999358734646 20.0000682317813 21.000055166316 22.0000146598515 23.0000178872446 23.9999245473106 24.9999635873499 26.0000100991895 26.9999516854756 28.0000080061596 29.000047107039 29.9998645387031 31.0000207566913 31.9999495962701 33.0000360020329 34.0000665464555 35.000042224728 35.999923684089 36.9998363212816 38.0000110950133 38.9999816174191 39.999908038445 40.9999575031916 41.9997709171833 42.9997305199979 43.9998288837129 44.9999703017002 46.0000146044946 46.9999664114662 47.9997331672923 49.0000456250202 50.0001080899927                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.76627657912912E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932596094749 2.00011634527317 3.00002420939064 4.00004243239024 5.00001392930187 5.9999523447541 7.00014099970747 8.00000740415786 8.99999220694376 9.99997071328911 10.9999967405203 12.0001551094437 13.0000298340779 14.0000188138735 15.0000825012894 16.0000123978675 16.9998636750949 17.9999201056683 18.9999358719952 20.0000682319782 21.0000551649557 22.0000146597792 23.0000178862519 23.9999245452287 24.999963585123 26.0000100982772 26.9999516856946 28.0000080078354 29.0000471120878 29.9998645394866 31.000020758123 31.9999495990955 33.0000360007116 34.0000665410982 35.0000422240253 35.9999236860232 36.9998363213307 38.000011090961 38.9999816203549 39.999908044434 40.9999575096332 41.9997709218389 42.9997305183101 43.9998288794926 44.9999702976311 46.0000146100285 46.9999664105714 47.9997331660798 49.0000456263022 50.00010808767                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.06026959369677E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932600702912 2.00011634364404 3.0000242136773 4.00004243283257 5.00001393612415 5.99995234824642 7.00014099083492 8.00000740099581 8.99999220770057 9.99997070863584 10.9999967411998 12.0001551078704 13.0000298323998 14.000018813713 15.0000825016129 16.0000123932375 16.9998636765585 17.9999201045575 18.9999358720045 20.0000682289618 21.000055167364 22.000014659903 23.0000178868969 23.9999245459837 24.999963583587 26.0000100981437 26.9999516845734 28.0000080079461 29.0000471111038 29.9998645397667 31.0000207580691 31.9999495975613 33.0000360001384 34.0000665450582 35.0000422240956 35.9999236858711 36.9998363212073 38.0000110930577 38.9999816205808 39.9999080432893 40.9999575093544 41.9997709228437 42.9997305181143 43.9998288784041 44.9999702977976 46.0000146089172 46.9999664098007 47.9997331659408 49.0000456269626 50.0001080877141                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.257912947897841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05665904653374 -6.40052131009813 31.6922467480624 -10.1510334179967 19.7576163695668 -5.37664360029478 -34.3173781654359 -43.0635196261089 69.7288520448942 31.0347944179106 1.41210322390768 48.2663273330809 -51.6959357475399 14.8715472004835 -1.39614759944898 -43.8770174820039 20.3232972746507 32.1866386326557 11.0123755420615 -2.19737181617486 38.8824812370138 21.4387025019249 24.7097242985634 37.0267972681598 33.1829912018088 31.6974283220113 31.8394672214371 53.3048759433605 78.3974122771449 62.7099935549344 25.1127237637969 57.9036545944096 32.3546295513478 59.6236485958907 38.2786826034358 37.2792161371504 34.8426021184517 -27.2612713195753 25.5985437637556 6.17701316081227 71.3606158204239 59.8406044059436 57.4165284564004 75.2005491224732 13.7447320304418 88.354404574114 46.4021865455451 38.6452269955177 20.6090167319134 44.0590785530444             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.60882715663419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.73207082458 71.430901030333 67.7504414149847 -124.660206546668 214.610693592192 -14.5457192781905 103.388183063248 -124.947152568709 395.563163865288 -28.8747991582058 -110.458252474114 -226.398619445294 -208.96539282713 93.880529351218 -121.808632757284 -136.932505900892 -227.746537848191 183.949984643752 -53.7740186505484 -290.116737941909 136.941421881172 -53.9328276708185 269.587980558732 258.788915795824 70.2546150591071 2.32502697282734 41.726481101391 23.3706516346399 183.967372073588 -53.5146597836943 18.6685642912452 -0.569196193135577 -155.159128260546 207.581225357032 52.267536725095 21.4233012526521 109.954416726246 -327.391610060423 -11.7345205422289 152.205881386817 314.524670410627 288.404614862003 -45.6713990454249 246.146393330638 21.9912997963783 156.332979232435 61.662790410784 37.5426189664645 -78.9395860423339 -234.674094333844         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.40863577908613E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99998064325981 2.00076425902862 3.00022580835997 4.00034952090474 5.0006194872838 6.00013058871079 6.99990367286953 8.000620625339 8.99980538699834 10.0007351282158 11.0005703006151 12.0010409888192 12.9998114826742 13.9994077194771 14.9995842238592 15.9995984893745 17.0005553405023 17.999361582478 19.0007057031103 20.0011802601609 20.9986568335741 22.0013424434696 23.0001141749626 23.9998621822909 25.000988394499 26.000621588089 26.99948290521 27.9995082782431 28.9979531278798 29.9998144290998 31.0008945305766 32.0004090849542 33.0016900713571 34.0003293136752 35.0001331123609 36.0009736813343 36.9995957214174 38.0002637059625 39.000546143373 40.0017922768205 40.9967121997991 41.9980336893568 42.9993231967026 43.9994894405265 45.0008684180334 45.998733868049 47.0007746515254 47.9999600333138 48.9994977447689 50.0002408587591                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.7236984497211</t>
+  </si>
+  <si>
+    <t>-460.023791614412 -132.503199920211 1496.68266757813 365.369691891153 -235.300266574935 -305.387189115332 710.698829816977 9.00359297892835 -1150.67218334382 1068.94547252412 -59.5904124932857 -579.445800286033 1263.11689683119 -404.232105861413 294.70854</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.40863577908621E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999980643259808 2.00076425902862 3.00022580835997 4.00034952090473 5.0006194872838 6.00013058871079 6.99990367286953 8.000620625339 8.99980538699834 10.0007351282157 11.0005703006151 12.0010409888192 12.9998114826742 13.9994077194771 14.9995842238592 15.9995984893745 17.0005553405023 17.999361582478 19.0007057031103 20.0011802601609 20.9986568335741 22.0013424434696 23.0001141749626 23.9998621822909 25.000988394499 26.000621588089 26.99948290521 27.9995082782431 28.9979531278798 29.9998144290998 31.0008945305766 32.0004090849542 33.0016900713571 34.0003293136752 35.0001331123609 36.0009736813343 36.9995957214174 38.0002637059625 39.000546143373 40.0017922768205 40.9967121997991 41.9980336893568 42.9993231967026 43.9994894405265 45.0008684180334 45.9987338680491 47.0007746515254 47.9999600333138 48.9994977447689 50.0002408587591                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6566775166047E-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932598748473 2.00011635035764 3.00002420863209 4.00004243225105 5.0000139333118 5.99995235226114 7.00014099748463 8.00000740587124 8.9999921930435 9.99997070917885 10.9999967437041 12.0001550984836 13.0000298323607 14.0000188076542 15.0000824998941 16.0000124100281 16.9998637047389 17.9999201043859 18.9999358678802 20.0000682371524 21.0000551654777 22.0000146607573 23.0000178839843 23.9999245415272 24.9999635808472 26.0000100985186 26.9999516832186 28.000008010046 29.0000471037965 29.9998645418252 31.0000207545897 31.9999495941066 33.0000360043631 34.0000665385919 35.0000422256881 35.9999236873887 36.9998363219942 38.0000111039075 38.9999816241394 39.9999080409291 40.9999575040947 41.9997709184549 42.9997305200754 43.9998288725019 44.9999702958241 46.0000146048724 46.9999664123555 47.9997331636808 49.000045630014 50.0001080915172                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.59895234155249E-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99993260424223 2.00011634473734 3.00002421400921 4.00004243855036 5.00001393553508 5.99995235522392 7.0001409862245 8.00000739807527 8.99999221538146 9.99997070167401 10.9999967402655 12.0001551124552 13.000029833814 14.0000188131501 15.0000824990832 16.0000123822087 16.9998636568919 17.9999201023925 18.9999358785504 20.0000682317159 21.0000551653219 22.0000146606535 23.0000178922294 23.9999245477505 24.9999635800826 26.0000100971321 26.9999516859326 28.0000080068591 29.0000471093006 29.9998645356955 31.0000207625458 31.999949604266 33.0000360053202 34.0000665502504 35.0000422187846 35.999923686137 36.9998363172007 38.0000110873463 38.9999816166865 39.999908046058 40.9999575118016 41.9997709265 42.9997305176354 43.9998288753926 44.9999703008195 46.0000146141162 46.9999664084254 47.9997331659655 49.0000456231459 50.0001080923438                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.44721593035934E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932601465241 2.00011634640581 3.0000242139744 4.00004243265272 5.00001393592941 5.99995234973746 7.00014099211473 8.00000740350012 8.99999220121957 9.99997071090756 10.9999967440003 12.0001551083074 13.0000298325906 14.0000188121752 15.0000825014806 16.0000123939519 16.9998636785768 17.9999201049137 18.9999358763315 20.0000682337706 21.0000551613082 22.0000146628708 23.000017888403 23.9999245457599 24.9999635870102 26.00001009871 26.9999516837421 28.0000080049501 29.0000470994558 29.9998645411905 31.0000207592476 31.9999495966013 33.0000360039299 34.0000665425768 35.0000422225069 35.999923687278 36.9998363213563 38.0000110960623 38.9999816175672 39.9999080483277 40.9999574968882 41.9997709220417 42.9997305152812 43.9998288737333 44.9999703005479 46.0000146011451 46.9999664077869 47.9997331613435 49.0000456239642 50.000108087765                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.65499528513846E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932595192338 2.0001163419116 3.00002420948358 4.00004243332244 5.00001393287182 5.99995234435107 7.0001409957447 8.00000740013102 8.99999221012066 9.99997071295734 10.9999967406447 12.0001551050778 13.0000298385357 14.0000188140837 15.0000825002638 16.0000123939899 16.9998636797107 17.9999201069792 18.9999358701305 20.0000682254026 21.0000551687127 22.0000146603489 23.0000178874173 23.9999245460152 24.9999635841181 26.0000100990405 26.9999516856716 28.0000080081782 29.0000471094881 29.9998645379223 31.0000207588836 31.9999495976566 33.0000359994636 34.0000665431462 35.0000422236521 35.9999236854914 36.9998363220539 38.0000110912868 38.9999816209618 39.999908044848 40.9999575103399 41.9997709224178 42.9997305176848 43.9998288792448 44.9999702986576 46.0000146090492 46.9999664104594 47.9997331657428 49.000045627229 50.0001080872565                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.44721593035986E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932601465242 2.0001163464058 3.0000242139744 4.00004243265272 5.00001393592941 5.99995234973746 7.00014099211472 8.00000740350011 8.99999220121958 9.99997071090756 10.9999967440003 12.0001551083074 13.0000298325906 14.0000188121752 15.0000825014806 16.0000123939519 16.9998636785768 17.9999201049137 18.9999358763315 20.0000682337706 21.0000551613082 22.0000146628708 23.000017888403 23.99992454576 24.9999635870102 26.00001009871 26.9999516837421 28.0000080049501 29.0000470994558 29.9998645411905 31.0000207592476 31.9999495966013 33.0000360039299 34.0000665425768 35.0000422225069 35.999923687278 36.9998363213563 38.0000110960622 38.9999816175672 39.9999080483277 40.9999574968882 41.9997709220417 42.9997305152812 43.9998288737333 44.9999703005479 46.0000146011451 46.9999664077869 47.9997331613436 49.0000456239642 50.000108087765                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.45004050233032E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932602582838 2.00011634111168 3.00002421730993 4.00004242659408 5.00001393626675 5.99995235302767 7.00014100262349 8.00000739365201 8.99999221062869 9.99997070819609 10.9999967411047 12.000155081178 13.0000298360639 14.0000188172815 15.0000825002371 16.0000123864872 16.9998637069166 17.9999201049153 18.9999358703445 20.0000682319849 21.0000551674212 22.0000146592366 23.0000178895457 23.9999245465816 24.9999635843956 26.0000101005671 26.9999516849584 28.0000080074715 29.000047111579 29.9998645386025 31.0000207553205 31.999949606408 33.0000359916256 34.0000665381193 35.0000422246022 35.9999236866102 36.9998363234029 38.0000110937682 38.9999816261652 39.9999080310156 40.9999575102013 41.9997709330188 42.999730518552 43.9998288759014 44.9999702995099 46.0000146056787 46.999966411092 47.999733168267 49.0000456163953 50.0001080885711                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.35260735057735E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932600477742 2.0001163435358 3.00002421368123 4.00004243264802 5.00001393614185 5.99995234795428 7.00014099087316 8.00000740134211 8.99999220781569 9.99997070886009 10.9999967411895 12.00015510788 13.0000298323721 14.0000188136465 15.0000825013784 16.0000123934611 16.9998636786173 17.999920104401 18.9999358713611 20.000068228956 21.0000551686882 22.000014659732 23.0000178865187 23.9999245457973 24.999963583503 26.0000100983586 26.9999516845549 28.0000080088196 29.0000471112918 29.9998645392471 31.0000207580262 31.9999495970395 33.000036000251 34.0000665450988 35.0000422243823 35.9999236858491 36.9998363214328 38.0000110933174 38.9999816206225 39.9999080430045 40.9999575099756 41.9997709228138 42.9997305184059 43.9998288790019 44.9999702978595 46.0000146086502 46.9999664103058 47.999733166118 49.0000456272713 50.0001080876968                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.51758868940009E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99993260047775 2.0001163435358 3.00002421368122 4.00004243264801 5.00001393614186 5.99995234795426 7.00014099087317 8.0000074013421 8.99999220781568 9.99997070886007 10.9999967411894 12.00015510788 13.0000298323721 14.0000188136465 15.0000825013784 16.0000123934611 16.9998636786173 17.999920104401 18.999935871361 20.0000682289559 21.0000551686882 22.000014659732 23.0000178865187 23.9999245457973 24.999963583503 26.0000100983586 26.9999516845549 28.0000080088196 29.0000471112918 29.9998645392471 31.0000207580262 31.9999495970395 33.000036000251 34.0000665450988 35.0000422243823 35.9999236858491 36.9998363214328 38.0000110933174 38.9999816206225 39.9999080430045 40.9999575099756 41.9997709228138 42.9997305184059 43.9998288790018 44.9999702978595 46.0000146086502 46.9999664103058 47.9997331661179 49.0000456272713 50.0001080876968                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.63062450243006E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99993260047774 2.0001163435358 3.00002421368122 4.000042432648 5.00001393614185 5.99995234795427 7.00014099087324 8.00000740134211 8.99999220781568 9.9999707088601 10.9999967411894 12.00015510788 13.0000298323721 14.0000188136465 15.0000825013784 16.0000123934611 16.9998636786172 17.999920104401 18.9999358713611 20.000068228956 21.0000551686882 22.000014659732 23.0000178865187 23.9999245457973 24.999963583503 26.0000100983586 26.9999516845549 28.0000080088196 29.0000471112918 29.9998645392471 31.0000207580262 31.9999495970395 33.0000360002511 34.0000665450988 35.0000422243823 35.9999236858491 36.9998363214329 38.0000110933174 38.9999816206225 39.9999080430044 40.9999575099756 41.9997709228138 42.9997305184059 43.9998288790019 44.9999702978594 46.0000146086502 46.9999664103058 47.9997331661179 49.0000456272712 50.0001080876968                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6982648810584E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999932600477742 2.0001163435358 3.00002421368122 4.00004243264801 5.00001393614185 5.99995234795427 7.00014099087315 8.0000074013421 8.99999220781567 9.99997070886009 10.9999967411894 12.00015510788 13.0000298323721 14.0000188136465 15.0000825013784 16.0000123934611 16.9998636786172 17.999920104401 18.9999358713611 20.0000682289559 21.0000551686882 22.000014659732 23.0000178865187 23.9999245457972 24.999963583503 26.0000100983586 26.9999516845549 28.0000080088196 29.0000471112918 29.9998645392471 31.0000207580262 31.9999495970395 33.000036000251 34.0000665450988 35.0000422243823 35.9999236858491 36.9998363214328 38.0000110933174 38.9999816206225 39.9999080430044 40.9999575099756 41.9997709228138 42.9997305184058 43.9998288790018 44.9999702978595 46.0000146086502 46.9999664103058 47.9997331661179 49.0000456272712 50.0001080876968                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.16745140933309E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010239528262 2.00032309655319 2.99997711198364 4.00020656885999 5.0001776962668 5.99987390833189 6.99992990476977 8.00015226853003 9.0000163396623 10.0003907994678 10.999922574299 12.0011917762814 13.0004168092531 14.0001852287136 14.9999949257532 15.9999213246967 16.9998928770658 18.0015571789415 19.0001009319605 20.0002623752079 21.0003389000898 22.0000320625017 23.0003025124107 24.0000302737177 25.0002216240189 26.0000562988209 27.0000013860994 28.000103340582 28.9999218511019 29.9999269364428 31.0000579493291 31.9998611627734 33.0002322639649 34.0004056698405 34.9996708840793 36.0002614172204 36.9998093532338 37.9999196892094 39.0000829937528 39.9999165500457 40.9982174451579 42.0015801033581 43.0000084920918 43.9992053270952 44.9999029068747 45.9998424607587 46.9996914928906 48.0000383744434 49.0000186471007 50.0000296188838 50.9997071778282 52.000423444618 52.9999820244278 54.0002169095762 55.0002040032066 55.9998846140222 57.000292012762 58.0001992802165 59.0000390182647 59.9996856070581 61.0000586450853 61.9983640445283 62.9999088630036 63.9999507577833 65.0001297491879 66.0008073164598 67.0002296072582 67.9992240407784 68.9999321535925 70.0003523791593 70.9999568019134 71.9999584922734 73.0001030020233 74.000005678042 74.9983282220381 76.0003881979527 77.0001967486115 77.9999523664126 79.0011297499867 79.9997871462696 80.9999405762521 82.0005574259651 83.0014682752615 84.0002826593213 85.0000343768455 86.0001591090642 86.9999919021491 88.000426454352 88.9998960279392 90.0001743345855 90.9999066416196 91.9985440721113 92.9985374133199 94.0001704975193 95.0000421802628 95.9986664175694 96.9995005674401 97.9997886373054 99.0010330111601 100.000516900244 101.000230732246 101.999613784944 102.999518566862 103.998722444844 104.998982855723 105.999886145672 107.000090331156 107.999896001494 109.000065594067 109.998242118313 110.999906509758 111.999605860818 112.999338344987 113.999881651109 115.002052520773 115.999357851249 117.001070541447 118.001559142025 119.000277904177 120.000420878913 120.999583849471 122.000520157296 123.000496024552 124.001137777347 125.00217124267 125.999749657525 127.001677965751 127.999926277939 128.99966714206 129.998546773157 130.998003442424 132.000180751776 133.000006157737 133.999667310374 135.000720281316 136.000406085703 137.001379617985 137.998241547678 138.999316557378 140.00003755649 141.000075259252 142.000329122173 143.000590020023 144.002041900008 145.001725719495 146.000433900197 146.99982234315 147.999879086922 148.998170215819 150.000961253097 150.999402900114 151.998862501481 153.000206061911 153.999162929265 155.001615606556 156.000785535477 157.000586013807 157.998482312713 158.998272062846 160.000773119366 161.001058326319 161.999696499117 163.002057777707 164.000293479419 164.997760255196 166.000389400678 166.999453004807 167.999708258892 169.000447424467 170.001579892074 170.999514825057 172.001131191399 173.000814798714 173.998428824011 174.997950501166 176.000373742902 177.002059655677 177.999378525988 178.999656373983 180.001800819824 180.999179293385 182.001355652648 182.998036477735 184.000193889328 184.999143464904 185.998914244709 186.99919178711 187.999994139566 188.998875330931 189.999771624406 191.002597341982 192.001248306776 192.99888876083 194.001799172448 194.999094303423 195.997790841425 196.999467588598 197.999099556517 199.00049416894 200.000021315216 201.000727792815 201.998094528247 202.997961044747 204.000514807915 204.998583112512 206.001282053832 207.00094501933 208.000440223509 208.999354842466 210.001250131425 210.999938005949 212.000792779989 213.000320042946 214.000339648234 214.999416714254 216.00080243177 217.001783648796 217.998301272951 219.001723558659 220.000507750828 220.99995836838 221.999431249605 223.000272928818 223.998499176156 224.997469730612 225.998516808109 226.999431760122 228.000379662758 229.00160349575 229.998973971976 230.998160289617 232.000568231423 233.00052857291 233.99875958263 234.997960324876 236.002116155406 236.998882160392 237.99912362452 239.000548483908 240.001014476666 241.00118666329 242.00019161437 243.001641871051 243.998566832726 244.999357465103 245.999686488714 246.9996804858 248.000834544323 249.000222149611 249.997462190562 250.999783181706 251.997521635214 252.999363802228 253.998848256444 254.9986690786 255.99852705894 256.99941985807 257.998481735695 259.000925467014 259.999211002256 261.001508100749 262.002333993413 263.001428409905 263.998081427106 265.00137691084 265.999357198555 267.000586604891 268.001202677508 268.998667643464 270.001214928405 270.997516468738 271.998515791176 273.000090952211 273.999298056 275.000823653946 275.999001298552 276.998772698925 278.000959101675 279.001258785307 279.999265109316 280.999748181255 282.000662237914 282.99871687412 283.998333959144 285.0018215702 285.9985439124 286.998893784793 288.001446135324 288.998042306626 289.998600378193 290.997013823708 292.000738237789 292.998664024584 294.001639456081 295.001399747379 296.001708106468 297.000033099875 298.000470491144 299.000440491364 299.998533449219 301.001871339195 301.997346679267 302.999266852719 304.000301052098 305.000448943173 306.000627055598 307.000624847432 307.999928242884 308.99876019089 309.997897031454 310.998455242139 312.000157565991 312.998923122778 313.998194388302 315.000191073448 315.999729235523 317.000301371492 318.001206214948 318.998872435125 319.997979182572 320.998635822339 321.999779120115 322.998659776531 324.00185820314 324.99958355254 326.000412920922 326.998929863586 328.00166612929 328.999307638097 330.000062747396 330.999324135407 332.000590474619 332.998399946532 333.998018876178 334.998749260471 336.002252931492 337.000872192695 338.000983204151 338.998478844101 339.998644846357 340.997978343457 341.999854758475 342.997780263649 344.000367277193 345.001263678222 346.002062400596 346.997759033888 348.000897414135 349.001566143567 350.001734033679 351.000935487745 352.000624892547 353.002331853822 354.002644832365 354.999264653062 355.998413028541 357.000949826745 357.999650767111 359.001296710307 359.999298466882 360.998884255319 362.001490006604 363.00084967625 364.000498495862 364.998148897742 366.000032419854 366.999690672126 368.000017855941 369.001677297655 370.00202309974 370.99807330458 372.001185755198 373.000505322424 373.997865334414 375.000186855249 376.002087549087 376.998011881902 378.000182552627 379.0021882059 380.000807041599 380.998023168979 382.002275905896 383.000698257478 383.997459002709 384.999504819175 385.998830474992 387.000373987412 388.001357811856 389.00008818145 389.999573336295 390.999418529148 392.000997760986 392.999651980003 393.999411066125 394.999757211813 396.000149644202 396.999166567574 397.998900157126 399.002349578453 399.999140076435 401.001771148608 402.001742176701 402.999707519474 404.002283990167 404.997599873485 405.999002401344 407.000096990369 407.997701919842 409.000387704624 409.998440264937 410.999441023216 411.998162237705 413.000604813513 413.999892201954 414.997408616644 415.998422029187 416.999145085498 418.0017363747 419.000305310825 419.997919775143 420.999668841728 421.998326418598 422.99900130964 423.998368614715 424.998405076303 425.99941242315 427.000482365832 428.000801020889 428.998727934896 429.999591773067 430.999682521572 431.997523703886 433.000757689755 433.999188625595 434.998530833606 435.998685264814 436.998567584123 438.002111205147 439.000638878316 439.998562734345 441.002295487494 442.001618432623 443.001574396866 444.000344371974 445.002728092317 446.001899534571 446.99826979696 447.999042503129 448.999078271901 449.999286538682 451.00268366038 451.997769246876 453.000344842893 453.998144223112 455.002927513447 456.000157951649 456.999960654388 457.998842349257 459.000247717096 460.000022647788 460.997728979365 461.999097423096 462.999401076961 463.999390389286 465.000454302305 465.997967333796 467.000290271911 467.999076868408 468.999044883343 469.99840808402 471.001808524625 472.000154024467 473.002402708848 473.998499430012 475.001077069986 475.998484290375 477.001063915954 478.00101327758 479.00063237478 480.001859334354 480.999626868087 481.998137547057 483.000661600442 483.999850299185 484.998338402818 485.998835320197 487.000227539138 487.999048462784 489.000398353869 489.997380626091 490.99942288693 491.999985526369 492.999089523241 493.999847164632 494.998026267295 495.998774826255 496.998077964896 498.001272378849 498.997627088086 500.001811248253 501.002217460355 501.999116902348 503.001607606745 504.001487264061 505.000543294587 506.000249463329 507.000837497655 507.99880730624 509.001082273404 510.002773037096 511.000628248237 511.99920130818 513.002726681174 514.000514151135 515.000242730619 515.998421062862 517.001316124024 517.999574464665 518.999930003221 519.999371357007 521.000424942639 521.9979261634 522.998893430428 524.001769247351 524.999688763334 525.999178361932 527.000644688451 527.99975128242 528.998028305499 529.999854758656 530.998577756318 532.001223596597 532.999173320763 533.998738923313 535.000442774101 535.99960941831 536.999147327609 538.000977393805 538.997753325483 540.00245955101 541.00172841834 541.999172949732 543.001931286034 543.998965044084 545.001014373812 546.001595788417 547.000852003385 547.998392420663 549.00078243153 549.999215149004 550.996274537774 552.001577526015 553.001010387678 554.001574483661 554.998447805781 555.9993277296 556.998892537023 558.001356483861 558.998773910669 560.000917912615 561.001103945741 561.997038551201 563.001719273622 563.997823364479 564.999593143355 566.000183613564 566.997678158153 568.001363835299 569.000527639945 570.002250090182 571.000336073914 572.002144405491 573.002100447915 573.998575464614 575.001123237809 576.002418134117 577.001392419649 578.001098505632 579.000755773494 580.000584051493 581.00142281347 582.002616314295 583.001470959675 583.998743977984 584.998087803929 586.000124521333 587.000241139426 588.002558731136 588.99744542655 590.001680845921 590.998943953564 591.998619835982 593.000559480284 593.997433334451 594.999844046274 595.998794064262 596.999670919441 598.001372233019 598.999766592771 599.99803186321 601.000279454117 601.998148985127 602.998737689272 603.998133733021 605.000881854314 606.000922443289 606.998991963702 607.998661614669 608.998926764898 610.000919344881 610.999086799886 611.998596268172 612.999993449962 613.998746484215 615.000269984126 615.999099079508 616.99897127729 617.999720382992 619.001508644724 619.999498446551 621.0013768887 621.999825943897 622.999739267023 624.001715971134 625.003058271805 626.000213608609 626.998911602971 627.998735338497 628.997509413275 630.001654873534 630.998753444464 632.000597458052 633.000354023668 634.000178731734 634.996721770716 635.999084613593 636.998933867073 638.000151381107 638.998778687484 640.001008069562 640.998158249988 641.998768076764 642.999154384681 644.002580305616 645.000700086054 645.998408029462 646.999832923305 647.998734953652 648.998349523314 649.999519859843 651.00175372727 651.999562200533 652.996320494378 654.001325899226 654.99982762867 656.000277168898 656.998445998225 658.002361591105 659.001476593204 659.999095220233 661.001425650163 661.998627885487 662.99895854069 663.998926404578 665.001429695302 665.999482753138 667.001048968905 667.999596432924 668.998738139205 670.002760525803 671.001100990184 672.000915334645 672.999892843216 674.004074121341 675.00263888611 676.001368252242 677.000770497989 677.99914758531 678.999413851752 680.001299147813 681.001537076117 681.999807863514 682.997488145632 684.001642827708 685.000495088598 686.000059147245 687.002030008382 688.000636958257 688.999879668253 689.99892618944 691.00163525609 691.999595532688 693.001864227038 693.999231797353 695.000501284393 695.999638910037 696.998001173223 698.001345815265 699.000678798122 699.999976546698 701.000867351887 702.000217166068 702.99830959115 703.998564477823 705.002716183482 705.998505795916 706.998832122676 707.999648420307 709.00187883359 709.999663740307 710.998318418707 711.998174525665 713.001183792545 713.999138973905 714.996063366385 716.000457293413 716.999640418911 717.999970804452 718.999317986772 719.99822014434 721.000478296819 722.001343339019 723.000292390787 724.001762011835 725.000515418371 725.99843574559 726.996461567353 727.999515084149 728.998845479896 730.000044676448 730.998214969455 731.998771364415 733.0000080727 734.000167016219 734.998243064134 735.997083509979 736.999079484362 738.000273025771 738.998176610974 739.999792246358 741.000378916674 742.001045183352 742.999260100619 744.001273562253 744.997623674015 746.003579037027 747.001053965909 748.00233111453 748.998270534749 749.998918728457 751.00071835974 752.000745790895 752.999280387998 753.999703700833 754.999729883544 756.000633699648 756.998931302348 757.999050686499 758.998545144325 759.998325440725 760.998980020398 762.000644470708 763.000221277467 764.001128523558 764.999872400113 766.002228767668 766.998387947069 768.000608958194 768.998072504143 769.998875283349 771.002621269835 771.997453799914 772.99875976347 774.001589253837 774.997802065717 776.000541009857 776.99821425351 777.998527234827 778.999321379525 779.998038061376 781.000281632939 782.000668307202 783.000967631602 783.999526310289 785.002713094607 786.001463317316 786.999375308604 787.99749552403 788.997342766584 789.999531514625 790.996239094862 792.00067750984 793.003174964441 794.001950830961 795.000356444089 796.000548093954 796.999538804918 798.001513580625 799.000517992272 799.999394776499 800.997663946269 801.998996754559 803.000613234229 803.99985762015 805.0016049881 806.00147652072 807.000002298452 808.001595535071 808.999803938435 810.00022382916 810.998677796807 811.997122206076 813.002815599537 813.99901929096 815.000540783348 815.999074805813 817.000849043358 817.999929703456 819.000123182255 820.000345272608 821.002140275719 821.998411472792 823.004120334884 823.997128189616 825.001575572042 826.000958736494 826.999531868728 827.99933609714 829.000959113406 830.000037030996 831.001840336658 831.997620690074 833.000607685645 834.000845137581 834.999374101692 835.999890528337 836.9996075039 838.000613929647 838.99971020996 840.002750265133 841.001544616953 841.997260016161 843.002603084821 844.003294135728 844.998565330323 846.001094593599 847.000573914066 847.998043980483 849.000369350128 849.999620041245 851.000478976646 852.001828953464 853.002777379517 853.999713629971 855.000435346205 855.997160961979 856.998319288125 857.999847086217 859.001060159638 860.0017793825 861.001810058129 861.997232118198 862.996336342262 863.997456875401 864.997387835633 866.001296866833 867.001906593563 868.000509976544 869.002022382794 869.998641061934 871.002113670104 871.999556858555 872.997078676108 873.999158420371 874.99913925319 875.999868462376 876.996106170402 878.002377759229 878.996538138627 880.000499740534 880.999116465078 881.999510114036 882.998531953402 883.998459898376 885.001088290541 886.000524923139 886.998266708521 888.000187321615 889.001061613889 889.997621160461 890.999563480744 891.996699250497 892.999597466759 894.00124414454 895.003940683953 896.000423133985 897.000841445959 898.000383709505 899.002553781356 899.998886301315 900.997161973937 901.998650685357 902.999048797535 903.998141545543 904.998939636065 906.001208885201 907.001794836301 908.002101516425 908.999647139134 909.998865259307 910.998452696068 912.000534390692 913.000363146116 913.999020358565 914.99762679342 915.996441592423 916.995640019864 918.002780567171 918.999648147543 919.997865135333 921.000879741337 921.99921334165 922.99965711906 923.997299011041 924.996343490298 925.998249797294 926.998971633314 927.997635201705 929.000539139379 930.000235039342 931.001642640951 931.998587744392 933.000495538968 933.999298994302 934.995602722898 935.997928693145 937.00120906816 937.999487112169 938.998265685353 939.998834726051 940.999563684285 942.000214133546 942.999494710673 944.00048885123 945.001576800407 946.000602945157 947.001461456643 947.997913686066 948.997203671703 949.997816913356 951.000099559075 951.997712374571 953.002231201078 953.998733459276 954.999918235867 956.003154289964 956.999706452367 957.999012900151 959.000757298719 960.000632843935 960.997980267557 961.997940531844 963.000335916664 963.999096546139 965.000846142622 965.998659506809 967.001050706264 967.999951411063 969.003599311363 970.002512853279 971.00157338347 971.999183808633 973.000042361487 973.999301432393 974.998858961722 976.00161850626 976.998034964338 978.000606307377 979.001447213428 979.998174212077 980.999686478999 981.999682359438 983.000713319744 983.999392142027 985.002190646234 985.99810085232 987.000335116373 988.002917405368 989.000146355168 989.998655763408 991.001209655359 992.00050405072 992.999814427126 994.001833565908 995.00227865224 996.001377068874 997.002697482451 997.997564915842 999.000795322498 999.997974358932                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.93014402899572E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010234922968 2.00032304943528 2.99997705580739 4.00020651436688 5.00017764793859 5.99987385730321 6.99992985741841 8.00015221734731 9.0000162882709 10.0003907494575 10.9999225208772 12.0011917332176 13.0004167602975 14.0001851802941 14.9999948662008 15.9999212735335 16.9998928253191 18.0015571322018 19.0001008787988 20.0002623240844 21.000338854249 22.000032011264 23.0003024625984 24.0000302226442 25.0002215741005 26.0000562570841 27.0000013381958 28.0001032836728 28.9999218002298 29.9999268832351 31.0000579046678 31.999861107525 33.0002322148224 34.0004056215779 34.99967083803 36.0002613676574 36.999809304535 37.9999196391477 39.0000829494372 39.9999165014219 40.9982173962675 42.001580052781 43.0000084371675 43.9992052799466 44.9999028581929 45.9998424121263 46.9996914423506 48.0000383262713 49.0000186065394 50.0000295662622 50.9997071249809 52.0004233975437 52.9999819727647 54.0002168650008 55.0002039509153 55.9998845658189 57.0002919604262 58.0001992373283 59.0000389625046 59.9996855534383 61.0000585956025 61.9983639934121 62.9999088104868 63.9999507083589 65.0001296943568 66.0008072703627 67.0002295547176 67.999223986915 68.9999320997096 70.0003523288588 70.9999567590733 71.9999584467384 73.0001029570912 74.0000056247096 74.9983281792398 76.000388148262 77.0001966990141 77.9999523169376 79.0011297030204 79.9997870909299 80.9999405250137 82.0005573744314 83.0014682303408 84.0002826085657 85.0000343313267 86.0001590534046 86.9999918533472 88.0004264059546 88.9998959724543 90.000174291683 90.9999065931753 91.9985440241971 92.9985373667537 94.0001704441609 95.0000421260628 95.9986663704839 96.9995005203651 97.9997885923312 99.0010329601733 100.000516848426 101.000230686273 101.999613730452 102.999518521147 103.998722398076 104.998982805975 105.999886096442 107.000090268548 107.999895951029 109.000065530093 109.998242069519 110.999906451828 111.999605808275 112.999338302304 113.999881598612 115.002052471907 115.999357800012 117.001070493781 118.001559089139 119.000277849754 120.00042082201 120.999583811278 122.000520103407 123.000495973715 124.001137728378 125.002171188799 125.999749608841 127.001677910466 127.99992622932 128.999667092734 129.998546727992 130.998003390746 132.000180696339 133.000006102553 133.999667261371 135.000720236041 136.000406032936 137.001379567173 137.998241497732 138.999316509911 140.00003750472 141.000075214787 142.000329069066 143.000589968141 144.002041852624 145.001725667764 146.000433848357 146.999822289247 147.999879037273 148.998170168349 150.000961203802 150.999402845641 151.998862452002 153.000206012086 153.999162875221 155.001615558908 156.000785479724 157.000585953489 157.998482265865 158.998272008733 160.000773076237 161.001058269721 161.999696443083 163.002057731475 164.000293426258 164.997760208018 166.000389346713 166.999452953233 167.999708206997 169.000447370292 170.001579841912 170.999514772505 172.001131142034 173.000814750219 173.998428771411 174.997950453578 176.000373691632 177.002059604697 177.999378476452 178.999656326437 180.001800765204 180.999179240697 182.001355596897 182.998036427868 184.000193834391 184.99914341314 185.998914193428 186.999191735594 187.999994086787 188.998875285032 189.999771570102 191.002597294946 192.001248264383 192.998888715549 194.001799131902 194.99909425848 195.997790792398 196.99946753892 197.999099501552 199.000494117629 200.000021261382 201.000727745107 201.998094483435 202.997961004182 204.000514749516 204.998583057442 206.001282005105 207.000944963087 208.000440172119 208.999354801558 210.00125008075 210.999937961673 212.00079273239 213.000319990809 214.000339590254 214.99941666489 216.000802381085 217.001783597599 217.998301223055 219.001723503864 220.000507700238 220.999958316734 221.999431200145 223.00027287926 223.998499125163 224.997469680359 225.998516750925 226.999431707488 228.000379612444 229.001603445572 229.998973917249 230.998160242633 232.000568177872 233.000528519299 233.998759537468 234.997960275614 236.002116101539 236.99888210913 237.999123567609 239.000548438028 240.001014429145 241.001186609697 242.000191563401 243.001641820596 243.998566780667 244.999357412895 245.999686442007 246.999680434969 248.000834496349 249.000222097202 249.997462141872 250.999783122964 251.997521581836 252.999363753494 253.998848211065 254.998669019423 255.998527011534 256.999419813878 257.998481694967 259.00092541244 259.999210951809 261.001508053099 262.002333935376 263.001428358405 263.998081381326 265.001376855611 265.999357148382 267.000586556246 268.001202621626 268.998667593489 270.001214876576 270.997516420041 271.998515746232 273.000090901549 273.999298002074 275.00082360888 275.99900124803 276.998772650983 278.00095905759 279.001258730316 279.999265059809 280.99974813258 282.000662191222 282.998716820018 283.998333913428 285.001821522074 285.998543863689 286.998893729186 288.001446085327 288.998042260728 289.998600328767 290.997013780857 292.000738185718 292.998663970705 294.001639400181 295.001399697673 296.001708062255 297.000033048258 298.000470440967 299.00044043383 299.998533398886 301.001871286503 301.997346616337 302.999266794796 304.000300990781 305.000448891957 306.000627007804 307.000624803088 307.999928197414 308.998760143909 309.997896984668 310.998455189471 312.000157516869 312.998923066749 313.998194340193 315.000191026485 315.999729186452 317.000301321701 318.001206172008 318.998872387283 319.997979129283 320.99863576945 321.999779070202 322.998659723766 324.001858146932 324.999583507621 326.000412870266 326.99892981013 328.001666077463 328.999307591735 330.000062694744 330.999324090743 332.000590421372 332.998399895454 333.998018830085 334.998749207286 336.002252882302 337.000872145632 338.000983153865 338.998478791522 339.998644791604 340.997978289649 341.999854709429 342.997780214592 344.000367230848 345.001263629682 346.002062356934 346.997758977772 348.000897361841 349.001566090474 350.001733982563 351.000935435867 352.000624839725 353.002331798162 354.002644781488 354.999264602648 355.998412977829 357.000949769641 357.999650714084 359.001296667253 359.999298423905 360.998884210066 362.00148995478 363.000849624124 364.000498446275 364.998148835142 366.000032368264 366.999690626557 368.000017803761 369.001677246841 370.002023045657 370.998073256226 372.001185703263 373.000505273673 373.997865277781 375.000186803749 376.002087505384 376.998011830713 378.000182501812 379.00218815067 380.000806992509 380.998023119264 382.002275856349 383.000698205776 383.997458953877 384.999504760645 385.998830422292 387.000373929857 388.001357769341 389.00008813265 389.999573286813 390.9994184769 392.00099770896 392.999651940369 393.999411013145 394.999757166045 396.000149596972 396.999166517392 397.998900105699 399.002349530897 399.999140031898 401.001771100551 402.001742122517 402.999707469823 404.002283943851 404.997599823975 405.999002352601 407.00009693963 407.997701863962 409.00038765248 409.998440211044 410.999440978131 411.998162188234 413.000604756876 413.999892154033 414.997408568326 415.998421986066 416.999145035263 418.001736317229 419.000305258997 419.997919728427 420.999668791001 421.998326378589 422.999001258316 423.998368564942 424.998405017974 425.999412366844 427.000482313659 428.000800968222 428.998727883922 429.999591718606 430.99968246683 431.997523654102 433.000757636873 433.999188580571 434.998530782418 435.998685207203 436.998567528676 438.002111153645 439.000638831526 439.998562687805 441.002295435031 442.001618384566 443.001574336966 444.000344325117 445.00272804351 446.001899486144 446.99826974638 447.999042457162 448.999078222613 449.999286485726 451.002683613024 451.997769198556 453.000344797118 453.998144172953 455.002927457739 456.000157901931 456.999960606835 457.998842300639 459.000247662486 460.000022604804 460.997728928721 461.999097372439 462.999401026652 463.999390342108 465.000454252972 465.997967285689 467.000290224158 467.999076817265 468.999044838879 469.998408035666 471.001808475962 472.000153974149 473.002402656701 473.998499378767 475.001077022451 475.998484240554 477.001063866414 478.001013226979 479.000632321567 480.001859284328 480.999626812924 481.9981374917 483.000661550861 483.999850256107 484.998338355628 485.998835266403 487.000227489074 487.999048412057 489.0003983039 489.997380575516 490.999422833539 491.999985475481 492.999089464274 493.999847106119 494.998026214279 495.998774775042 496.998077912901 498.001272332991 498.997627034984 500.001811199589 501.002217410978 501.99911685602 503.00160755561 504.001487218446 505.00054324695 506.000249415443 507.000837442968 507.998807255994 509.001082221396 510.002772987475 511.000628196878 511.999201261211 513.002726632549 514.00051409754 515.000242678562 515.99842101841 517.00131607938 517.999574421313 518.999929960434 519.99937130438 521.000424891794 521.997926112386 522.99889338167 524.001769197825 524.999688710257 525.999178314272 527.000644639832 527.999751230393 528.998028252377 529.99985470782 530.99857770342 532.001223548933 532.999173268293 533.998738870856 535.000442723317 535.999609363451 536.999147276224 538.000977338552 538.997753272451 540.002459496278 541.001728370029 541.999172906001 543.001931233805 543.998965002154 545.001014318909 546.001595740827 547.000851955815 547.998392370691 549.000782382417 549.99921509717 550.99627449163 552.001577471458 553.001010330554 554.001574437403 554.99844775689 555.999327683905 556.998892497574 558.001356431315 558.99877385429 560.000917856017 561.001103897826 561.997038500261 563.001719221092 563.997823315951 564.999593092893 566.000183567718 566.997678109502 568.001363785474 569.00052758758 570.002250037615 571.000336033563 572.002144350807 573.002100402555 573.998575414296 575.001123190036 576.002418085891 577.001392363765 578.00109845434 579.000755723368 580.000583999936 581.001422764614 582.002616258979 583.001470899718 583.998743929648 584.998087752503 586.000124477657 587.000241084178 588.00255867969 588.997445379073 590.001680795064 590.998943907187 591.998619789529 593.000559434322 593.997433288299 594.999843996499 595.998794015672 596.999670873103 598.001372182592 598.999766545081 599.998031814532 601.000279410559 601.998148933106 602.998737640383 603.998133685833 605.000881801968 606.000922393039 606.998991916133 607.998661566489 608.998926717246 610.000919293148 610.999086748709 611.998596219076 612.999993401332 613.998746432025 615.000269933272 615.999099029279 616.998971226649 617.999720326788 619.001508593614 619.999498392884 621.001376836693 621.999825891037 622.999739215017 624.001715920857 625.003058222319 626.000213560052 626.998911550344 627.998735284977 628.997509365152 630.00165482077 630.998753394907 632.00059740599 633.000353971786 634.000178678476 634.996721719238 635.999084568664 636.998933814813 638.000151328388 638.998778640639 640.001008016966 640.998158199496 641.998768019317 642.999154334183 644.002580255456 645.00070004032 645.998407973921 646.999832877942 647.998734898498 648.998349468217 649.999519807939 651.001753675001 651.999562152621 652.9963204455 654.00132584656 654.999827575241 656.000277114452 656.998445944837 658.002361540709 659.001476546862 659.999095171466 661.001425600271 661.998627830456 662.998958484015 663.998926355239 665.001429651817 665.999482697033 667.001048913462 667.999596382055 668.998738083888 670.002760473018 671.001100943809 672.000915287951 672.999892798756 674.004074073553 675.002638836539 676.001368206218 677.000770446256 677.999147536082 678.999413802741 680.001299096973 681.001537024738 681.999807817242 682.997488099291 684.001642777201 685.000495043238 686.00005909674 687.002029956265 688.000636903765 688.999879619879 689.998926147214 691.001635202773 691.999595483021 693.001864181538 693.999231751052 695.000501231568 695.999638857696 696.99800112354 698.001345761668 699.00067874365 699.999976496922 701.000867302421 702.000217114857 702.998309544254 703.998564422849 705.002716135127 705.998505739367 706.99883207517 707.999648370963 709.001878789264 709.999663690932 710.998318362933 711.998174473008 713.001183740015 713.999138927275 714.996063313927 716.000457245797 716.99964036696 717.999970761176 718.999317936235 719.998220096038 721.000478254087 722.001343285038 723.000292337811 724.001761959842 725.000515371522 725.998435697231 726.996461519221 727.999515032859 728.998845432089 730.000044629926 730.998214922155 731.998771316486 733.0000080192 734.000166957394 734.998243007837 735.997083463239 736.999079433864 738.000272981455 738.998176565928 739.999792195893 741.000378872721 742.001045133883 742.999260044649 744.001273513319 744.997623631577 746.003578990438 747.001053914726 748.002331054697 748.998270483101 749.998918681013 751.000718303113 752.000745742343 752.999280344857 753.999703649574 754.999729830799 756.000633646728 756.998931251386 757.99905063531 758.99854509294 759.998325388425 760.998979974647 762.000644420659 763.000221226008 764.001128476985 764.999872346319 766.002228713687 766.99838789237 768.00060890547 768.998072455522 769.998875230797 771.002621213498 771.997453747537 772.998759715767 774.001589195447 774.997802016725 776.000540955144 776.998214205314 777.998527190979 778.999321330434 779.99803801347 781.000281582385 782.000668255168 783.00096758634 783.999526259884 785.002713041437 786.001463269066 786.999375260642 787.997495471532 788.997342722043 789.999531461607 790.996239042424 792.000677460463 793.003174917121 794.001950782949 795.000356393537 796.000548043439 796.999538757579 798.001513530629 799.000517936729 799.999394722084 800.997663896544 801.998996702676 803.000613184484 803.999857566309 805.001604936794 806.001476473485 807.000002247282 808.001595484005 808.999803889561 810.000223781194 810.998677750316 811.99712215502 813.00281555171 813.999019238967 815.000540738925 815.999074753992 817.000848991843 817.999929653886 819.000123135544 820.000345221366 821.002140216254 821.998411421496 823.004120282594 823.997128136476 825.00157552359 826.000958682361 826.999531820663 827.999336043357 829.000959059793 830.000036980555 831.001840288907 831.997620642438 833.000607631645 834.000845086466 834.999374055508 835.999890476073 836.999607448591 838.000613879477 838.999710159113 840.0027502119 841.001544562849 841.997259960981 843.00260302913 844.003294078784 844.998565283378 846.001094548731 847.000573859709 847.998043930239 849.000369306746 849.999619985021 851.000478921945 852.001828907947 853.002777329878 853.999713580898 855.000435284909 855.99716091789 856.99831923776 857.999847037413 859.001060111015 860.001779328623 861.001810006946 861.997232066916 862.996336291662 863.997456823391 864.997387786367 866.001296821472 867.001906540398 868.00050992768 869.002022335082 869.998641008979 871.002113618245 871.999556802258 872.997078628773 873.999158370058 874.999139201226 875.999868415307 876.996106109387 878.002377708392 878.996538083141 880.000499689094 880.999116415932 881.999510067201 882.998531900732 883.998459842631 885.001088237384 886.000524874014 886.99826666459 888.000187266428 889.001061562148 889.99762110512 890.999563429255 891.996699200942 892.999597412483 894.001244091385 895.003940640776 896.000423081326 897.00084139865 898.000383655647 899.002553724512 899.998886247812 900.99716193063 901.998650635596 902.999048753563 903.998141501064 904.998939585551 906.001208842408 907.001794787603 908.002101459368 908.999647089056 909.998865210533 910.998452649654 912.00053434045 913.000363097565 913.999020306431 914.997626742197 915.996441541492 916.995639969054 918.002780524628 918.999648104648 919.997865091978 921.000879694138 921.999213293162 922.999657071793 923.997298957985 924.996343434052 925.998249744505 926.998971585575 927.997635144272 929.000539093519 930.000234989132 931.001642591873 931.998587687799 933.000495486586 933.999298952148 934.995602669223 935.997928642383 937.001209009959 937.99948704444 938.998265636686 939.998834674107 940.999563635995 942.00021408238 942.999494664772 944.000488796354 945.001576752834 946.000602896911 947.001461406519 947.997913634013 948.997203616257 949.997816858511 951.000099500586 951.997712319738 953.002231146263 953.998733412912 954.999918186418 956.003154232623 956.999706400195 957.999012843605 959.000757253304 960.000632802707 960.997980218957 961.997940485314 963.000335870631 963.999096494102 965.00084608438 965.998659453377 967.00105066525 967.999951366067 969.003599254782 970.002512802122 971.001573334993 971.999183759839 973.00004231035 973.999301378733 974.998858914453 976.001618454314 976.998034914223 978.000606254889 979.001447158654 979.998174159518 980.999686427735 981.999682311635 983.000713279927 983.999392093319 985.002190597581 985.998100802356 987.000335064053 988.002917350443 989.00014630533 989.998655703396 991.001209605887 992.000504001434 992.999814370932 994.00183352164 995.00227860459 996.001377015732 997.00269743572 997.997564868835 999.000795272901 999.997974304971                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.47388254291015E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010233491385 2.00032304320828 2.99997707179041 4.00020653147002 5.00017767179575 5.99987387915115 6.99992984677986 8.00015220128502 9.00001630142387 10.0003907389803 10.9999225350023 12.0011917215669 13.0004167530733 14.0001851912868 14.9999948705674 15.9999212747529 16.9998928212756 18.0015571587323 19.0001008946981 20.0002623257682 21.0003388847535 22.0000320312847 23.0003024525586 24.0000302247318 25.000221611994 26.0000562544622 27.0000013524651 28.0001032751051 28.9999218338031 29.999926898013 31.0000579298879 31.9998611341211 33.0002322328035 34.0004056035613 34.999670844955 36.0002613896749 36.9998093034979 37.999919688831 39.0000829262721 39.9999165064875 40.9982173944164 42.0015800429442 43.0000084113533 43.9992052733704 44.9999028529465 45.9998423978165 46.9996914429631 48.0000383483847 49.0000185990337 50.000029581738 50.9997071121608 52.0004234199469 52.9999819612642 54.0002168652132 55.000203964094 55.999884572557 57.0002919488421 58.0001992762308 59.0000389437116 59.999685541389 61.0000585964691 61.9983639880099 62.9999088422625 63.9999506941575 65.0001296968546 66.0008072804902 67.0002295601152 67.9992240082153 68.9999321093776 70.0003523156038 70.9999567959606 71.9999584693436 73.0001029771457 74.0000056320028 74.9983281601211 76.0003881261808 77.0001967013914 77.9999523114553 79.0011297004105 79.9997871061207 80.9999404977861 82.0005573687761 83.0014682349307 84.0002825987926 85.0000343742247 86.0001590544406 86.999991839507 88.0004263940804 88.9998959855218 90.0001742625034 90.9999065808039 91.998544041257 92.998537399452 94.0001704222626 95.0000421217268 95.9986663676105 96.9995005345641 97.9997885482025 99.0010329582511 100.000516867196 101.000230673757 101.999613750244 102.999518519811 103.99872238169 104.998982775572 105.999886114838 107.000090307062 107.999895964089 109.000065545436 109.9982420865 110.99990648473 111.999605826062 112.999338303875 113.999881621778 115.00205245713 115.999357811423 117.001070461769 118.00155910401 119.000277864696 120.000420831787 120.999583798199 122.000520096329 123.000495986567 124.001137746395 125.00217120055 125.999749610161 127.001677922747 127.999926237144 128.999667130018 129.998546734457 130.998003402198 132.000180739895 133.00000614896 133.999667267521 135.000720230254 136.000406065232 137.001379595595 137.998241500131 138.999316506336 140.000037536324 141.000075229787 142.000329085925 143.000589939083 144.002041808144 145.001725661789 146.000433853984 146.999822301771 147.999879065797 148.998170158484 150.000961195779 150.999402865743 151.998862428075 153.000206002066 153.999162865738 155.001615581651 156.000785504146 157.000585979619 157.998482274643 158.998272023385 160.000773064437 161.001058297185 161.999696463356 163.002057707699 164.000293412354 164.997760206945 166.000389340309 166.999452925546 167.99970821787 169.000447432556 170.001579865903 170.999514755887 172.001131204052 173.000814771565 173.998428815535 174.997950457168 176.000373694534 177.002059598464 177.999378489292 178.999656314493 180.001800786331 180.999179253841 182.001355628985 182.998036402783 184.000193839761 184.999143403427 185.998914204857 186.999191752212 187.999994081885 188.998875289154 189.9997716117 191.002597275921 192.001248255367 192.99888868828 194.001799126618 194.999094247755 195.997790816889 196.999467554489 197.999099518464 199.000494105198 200.000021302513 201.00072773668 201.998094463654 202.997960978612 204.000514790214 204.998583046934 206.001282016398 207.000944991557 208.000440204196 208.999354789509 210.001250083117 210.999937996777 212.000792725737 213.000320015931 214.000339616404 214.999416675413 216.000802359564 217.001783582236 217.998301207523 219.001723484714 220.000507702863 220.999958335784 221.999431175054 223.000272887457 223.998499124713 224.99746968473 225.998516766631 226.99943173841 228.000379632103 229.001603461433 229.998973954637 230.998160235518 232.000568182445 233.000528541953 233.998759542274 234.997960261909 236.002116124803 236.998882081313 237.999123597446 239.000548421114 240.00101439984 241.001186603024 242.000191549048 243.001641803009 243.998566752769 244.999357439177 245.999686432448 246.999680417313 248.000834500785 249.000222126359 249.997462179271 250.999783114059 251.99752160258 252.999363739669 253.998848178119 254.998669044719 255.998527018446 256.99941982844 257.998481669277 259.000925422483 259.99921095161 261.001508055193 262.002333945769 263.001428366532 263.998081351443 265.001376870904 265.999357125773 267.000586571315 268.001202588434 268.998667600324 270.001214897043 270.997516420585 271.998515725593 273.000090883163 273.999297995115 275.000823638345 275.999001229474 276.99877266017 278.000959084594 279.001258729953 279.999265073784 280.999748127771 282.000662193221 282.998716813887 283.998333913119 285.001821556949 285.998543871449 286.9988937321 288.001446106912 288.998042213179 289.998600324751 290.997013768145 292.000738179772 292.998663979171 294.001639432713 295.001399696754 296.001708078055 297.000033041197 298.000469911422 299.000440438988 299.998533396793 301.001871296007 301.997346633788 302.99926682493 304.00030099215 305.000448886387 306.000627008194 307.000624798394 307.999928216381 308.998760143605 309.997896991636 310.998455179317 312.000157535342 312.998923061834 313.998194348796 315.000191007241 315.999729200427 317.000301353704 318.001206201831 318.998872423401 319.997979159294 320.998635758183 321.999779080198 322.998659732793 324.001858137146 324.999583489928 326.000412860764 326.998929860004 328.001666090727 328.999307630591 330.000062717966 330.999324083252 332.000590400586 332.998399889858 333.998018833781 334.998749196543 336.002252889635 337.00087214286 338.000983150319 338.998478790256 339.998644769075 340.997978284897 341.999854714048 342.997780234206 344.000367255478 345.001263626475 346.002062385438 346.997758994431 348.000897390161 349.00156606891 350.001733977409 351.000935459441 352.00062484049 353.002331790642 354.00264474591 354.999264630614 355.998412994226 357.000949833153 357.999650733098 359.001296675555 359.999298445737 360.998884209661 362.001489953375 363.000849660901 364.000498422782 364.998148852336 366.000032326854 366.999690632049 368.000017789087 369.001677227965 370.002023059026 370.998073248781 372.001185691281 373.000505290566 373.997865282393 375.000186839116 376.002087492361 376.998011814488 378.000182483525 379.002188177239 380.000806998234 380.998023126525 382.002275836901 383.000698212006 383.997458956393 384.99950478171 385.998830429958 387.000373925067 388.001357781283 389.00008813426 389.999573282266 390.99941847769 392.000997732355 392.99965191125 393.999411016961 394.999757168498 396.000149608201 396.999166536428 397.998900108652 399.00234951094 399.999140047589 401.00177108669 402.001742100078 402.999707456412 404.002283962054 404.997599826285 405.999002387583 407.000096943953 407.99770188328 409.000387651037 409.998440237221 410.999440985696 411.998162229219 413.00060475022 413.99989216673 414.997408574676 415.99842198945 416.999145021017 418.001736308098 419.000305288782 419.997919758257 420.999668820157 421.998326377239 422.999001203817 423.998368555337 424.998405047344 425.999412396581 427.000482318037 428.000800971177 428.998727895404 429.999591728213 430.999682483373 431.997523655694 433.00075763301 433.999188580124 434.998530773811 435.998685212837 436.998567529076 438.002111189805 439.000638831702 439.998562693395 441.002295440708 442.001618376388 443.001574354254 444.000344332351 445.002728074167 446.00189946991 446.998269790552 447.999042455306 448.999078198483 449.999286478098 451.00268361039 451.997769153848 453.000344784594 453.99814418997 455.002927469741 456.000157921594 456.999960605122 457.99884231854 459.000247675396 460.00002258716 460.997728909513 461.99909735402 462.99940101613 463.999390318214 465.000454256935 465.997967269594 467.000290195435 467.999076815199 468.999044838038 469.998408023679 471.001808454676 472.000153984341 473.002402642619 473.998499361838 475.001077050355 475.998484246347 477.001063864683 478.001013237471 479.000632303555 480.001859294519 480.999626808654 481.998137480046 483.000661562468 483.999850217137 484.998338342587 485.99883528805 487.000227492108 487.999048413449 489.00039831705 489.99738056828 490.999422844004 491.999985496779 492.999089553379 493.99984710547 494.998026221333 495.998774775307 496.998077927255 498.001272324073 498.997627041841 500.001811219713 501.002217415476 501.999116845767 503.001607553712 504.001487230887 505.00054323032 506.000249427287 507.000837435523 507.998807272662 509.001082189529 510.002772987386 511.000628196936 511.9992012439 513.002726630973 514.000514088019 515.000242688073 515.998420990699 517.001316047992 517.999574395865 518.999929947779 519.999371331934 521.000424911187 521.997926114781 522.998893433581 524.001769214654 524.999688714554 525.999178301956 527.00064466241 527.999751234943 528.998028261225 529.999854716926 530.998577688459 532.001223553016 532.999173257829 533.998738877952 535.000442744082 535.999609362462 536.999147250849 538.000977349288 538.997753258682 540.002459517711 541.00172834678 541.99917291222 543.001931238262 543.998964997492 545.001014303793 546.001595768926 547.000851972404 547.998392382826 549.000782376499 549.999215092997 550.996274484287 552.00157746743 553.001010364092 554.001574430637 554.998447746441 555.999327675645 556.998892490153 558.001356451273 558.998773839738 560.000917872344 561.001103928706 561.997038490394 563.001719182487 563.997823311973 564.999593111909 566.000183560456 566.997678092293 568.001363781653 569.000527595103 570.002250037953 571.000336019497 572.002144379487 573.002100399403 573.998575377294 575.001123152734 576.002418071987 577.0013923756 578.001098454437 579.000755760644 580.000584024572 581.00142274312 582.002616278832 583.001470931991 583.998743928678 584.998087759873 586.000124486177 587.000241134596 588.002558686399 588.997445379752 590.001680803497 590.998943900824 591.998619762971 593.000559434304 593.997433273391 594.999844006032 595.998794037213 596.999670889167 598.001372175125 598.999766557158 599.998031838871 601.000279401264 601.998148962716 602.998737650697 603.998133684166 605.000881780546 606.00092238893 606.998991910598 607.998661547575 608.998926718717 610.00091928504 610.999086769684 611.998596220734 612.999993406252 613.998746399042 615.000269971006 615.999099021452 616.998971240776 617.999720356617 619.001508581658 619.999498436609 621.001376840578 621.999825902602 622.999739201426 624.001715914536 625.003058213973 626.000213572437 626.998911545205 627.998735296464 628.997509364935 630.001654816618 630.998753397117 632.000597441131 633.000353995116 634.000178695611 634.996721777358 635.999084596417 636.998933826534 638.000151310585 638.998778623538 640.001008035787 640.998158196499 641.998768042046 642.99915433273 644.002580274445 645.000700029111 645.998407996999 646.99983288133 647.998734918632 648.99834947567 649.999519800798 651.001753674254 651.999562165163 652.99632046042 654.001325867949 654.9998275868 656.000277111232 656.998445926056 658.00236154028 659.001476521316 659.999095146962 661.00142559173 661.998627825777 662.998958525278 663.998926357782 665.001429619567 665.999482720195 667.001048929237 667.999596352236 668.998738071612 670.002760484598 671.001100950353 672.000915277731 672.999892795248 674.004074033529 675.002638856565 676.001368213951 677.000770455884 677.999147510612 678.999413799157 680.001299115428 681.001537027814 681.999807812888 682.997488113513 684.001642766623 685.000495037836 686.000059087674 687.002029953206 688.000636908402 688.999879613724 689.998926112278 691.00163520987 691.999595470185 693.001864183671 693.999231758673 695.000501184446 695.999638871195 696.998001126894 698.001345771333 699.000678767113 699.999976527221 701.000867312595 702.000217115714 702.998309545392 703.998564444997 705.00271616743 705.998505770975 706.998832072758 707.999648395605 709.001878788193 709.999663679595 710.998318386731 711.998174450448 713.001183734195 713.999138912043 714.996063331588 716.000457245083 716.999640331578 717.999970725765 718.999317940765 719.998220104784 721.000478282819 722.00134328361 723.000292357807 724.001761979919 725.000515369825 725.998435693974 726.996461498043 727.999515018539 728.998845417094 730.000044635762 730.998214914108 731.998771326235 733.000008028785 734.000166961691 734.998243020553 735.997083462083 736.99907942773 738.00027297551 738.998176558659 739.999792190104 741.00037887603 742.00104513379 742.99926003912 744.001273525248 744.99762364485 746.003578969632 747.001053909696 748.002331057811 748.998270509687 749.998918681017 751.00071832012 752.000745767661 752.999280342689 753.999703649984 754.999729864833 756.000633668878 756.998931233746 757.999050640336 758.998545112296 759.998325378297 760.998979991672 762.000644395804 763.000221261315 764.001128487065 764.99987234083 766.002228724 766.998387885622 768.00060891542 768.998072462277 769.998875244615 771.002621224816 771.997453763846 772.998759724339 774.001589182655 774.997802018924 776.000540947332 776.998214204261 777.998527192005 778.999321339479 779.998037996465 781.000281593796 782.00066829365 783.000967599158 783.999526277587 785.002713032413 786.00146327266 786.999375254045 787.997495514759 788.997342718065 789.999531464563 790.996239044279 792.000677464908 793.003174916715 794.00195076915 795.000356396294 796.000548042443 796.999538760826 798.00151349758 799.000517957056 799.999394736806 800.997663896471 801.998996721798 803.000613171556 803.999857559618 805.001604931365 806.001476500838 807.000002242561 808.001595484406 808.999803881568 810.000223811113 810.998677734027 811.997122173213 813.002815523928 813.999019253069 815.000540733501 815.999074723986 817.000848968563 817.99992968202 819.00012313738 820.000345200523 821.002140232703 821.998411456663 823.004120186399 823.997128162562 825.001575537323 826.000958703908 826.999531795865 827.999336066258 829.000959072391 830.000036981182 831.001840316033 831.997620613429 833.000607646104 834.000845122038 834.999374068141 835.999890469966 836.999607464971 838.000613902364 838.999710163444 840.002750220396 841.001544569081 841.997259967067 843.002603102957 844.003294105733 844.998565319906 846.001094495167 847.00057387519 847.998043936743 849.00036932553 849.999620000284 851.000478954371 852.001828885688 853.002777318214 853.99971358709 855.000435273414 855.997160914932 856.998319235587 857.999847039774 859.001060103577 860.001779307847 861.001809988791 861.997232060355 862.996336258737 863.997456872006 864.997387790431 866.001296830458 867.001906508398 868.000509924442 869.002022340316 869.998641015578 871.002113632078 871.999556819347 872.997078623782 873.999158384223 874.999139201319 875.999868438041 876.996106109238 878.002377692839 878.996538089446 880.000499682825 880.999116418733 881.999510115622 882.998531897924 883.998459850856 885.001088235066 886.000524871426 886.998266653847 888.000187276765 889.001061529842 889.997621131391 890.999563407567 891.996699168423 892.999597415435 894.001244095075 895.003940618616 896.000423089557 897.000841405659 898.00038365628 899.002553702109 899.998886260217 900.997161930686 901.998650619399 902.999048752163 903.998141517765 904.998939564397 906.001208823799 907.001794760323 908.002101453598 908.999647076039 909.998865214653 910.99845268772 912.000534325944 913.000363117564 913.999020330549 914.997626770714 915.996441542858 916.995639994428 918.002780542453 918.999648117429 919.997865086529 921.000879697692 921.99921329353 922.999657074515 923.997298979482 924.996343425695 925.998249768543 926.998971564709 927.997635154576 929.000539128927 930.000234979773 931.001642630106 931.998587704075 933.000495463414 933.999298938421 934.995602652572 935.997928673099 937.001209058311 937.999487094558 938.998265608491 939.998834666263 940.999563625255 942.000214076586 942.999494679763 944.000488811943 945.001576745657 946.000602900925 947.00146141976 947.997913639076 948.997203660295 949.997816876511 951.000099481217 951.997712297337 953.002231166503 953.998733402806 954.999918212591 956.003154246514 956.999706393309 957.99901288013 959.000757235575 960.000632779086 960.997980213872 961.997940488227 963.000335895607 963.999096483314 965.000846120719 965.998659493812 967.00105069674 967.999951347557 969.003599310604 970.00251281089 971.001573347789 971.999183779874 973.000042319775 973.999301406983 974.998858873603 976.001618446065 976.998034914469 978.000606197296 979.001447198647 979.998174155966 980.999686437084 981.999682306764 983.000713296243 983.999392117786 985.002190568407 985.998100798485 987.000335057401 988.002917333188 989.000146328702 989.998655730519 991.0012096134 992.000503988768 992.999814295503 994.001833545067 995.002278606051 996.001376997257 997.002697410175 997.997564857798 999.000795267202 999.997974332195                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.13697162000186E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010234584361 2.00032304789545 2.99997708460881 4.00020650454294 5.00017765553133 5.99987382269398 6.99992984531685 8.00015220732338 9.00001628437105 10.0003907922835 10.9999225396522 12.0011917351777 13.0004167685484 14.0001851747639 14.9999948830448 15.9999212850244 16.9998928180573 18.0015571258493 19.0001008906403 20.0002623158786 21.0003388308775 22.0000320333828 23.0003024810807 24.0000302442257 25.0002215760231 26.0000562674311 27.0000013291011 28.0001033082448 28.9999218014363 29.9999269146266 31.0000578839526 31.9998610865421 33.0002322130446 34.0004056250818 34.999670791564 36.0002613877993 36.9998093053423 37.999919660192 39.0000829277156 39.9999164501087 40.9982173457901 42.0015800665363 43.000008428356 43.9992053041518 44.9999028571919 45.9998423685849 46.9996914362171 48.0000383722749 49.0000185908068 50.0000295268395 50.9997070859089 52.0004234196445 52.9999819547834 54.000216808079 55.0002039820298 55.999884589677 57.0002919792554 58.0001992318374 59.0000389649949 59.9996855871525 61.0000585807133 61.9983640205753 62.9999088270668 63.9999507178746 65.000129680733 66.0008072684535 67.000229521451 67.9992239892906 68.9999321034613 70.0003523244005 70.9999567844061 71.9999584240564 73.000102968964 74.000005655158 74.9983281541449 76.0003881920465 77.0001966989688 77.9999523348347 79.0011297283612 79.9997871164428 80.9999405556492 82.0005573641393 83.001468239448 84.0002825700722 85.0000342949386 86.0001590749421 86.9999918708602 88.0004263896699 88.9998959862007 90.0001743379145 90.9999065881876 91.9985440470351 92.9985373829923 94.0001704283825 95.0000421321955 95.9986663851087 96.9995005207477 97.9997885871362 99.0010329587364 100.000516863347 101.000230684795 101.999613712107 102.999518549971 103.998722404864 104.998982809535 105.999886097888 107.000090269753 107.999895951302 109.000065529779 109.998242067725 110.999906484785 111.999605801384 112.999338306936 113.99988162674 115.002052505238 115.999357767836 117.001070505262 118.001559058861 119.000277871446 120.000420823269 120.999583815962 122.000520121166 123.000495975221 124.001137711208 125.00217117397 125.999749582128 127.001677891725 127.999926275916 128.999667110062 129.998546701852 130.998003369537 132.000180689385 133.000006090154 133.999667232247 135.000720242907 136.000405995751 137.001379529947 137.998241490444 138.999316515067 140.000037478259 141.000075217173 142.000329066089 143.000589967592 144.002041832496 145.001725668068 146.000433829518 146.999822299529 147.999879056234 148.998170147136 150.000961173536 150.999402894908 151.998862457501 153.000205985868 153.999162822346 155.001615580465 156.000785525958 157.000585959439 157.998482245446 158.998272036164 160.000773046719 161.001058259192 161.999696419746 163.002057711139 164.000293449674 164.997760183908 166.000389353506 166.999452977443 167.999708249021 169.000447386714 170.001579857988 170.999514781565 172.001131175135 173.000814722425 173.998428790622 174.997950481133 176.000373720292 177.002059601796 177.999378458554 178.999656319993 180.001800794084 180.999179257665 182.001355636016 182.998036442795 184.000193821231 184.999143407375 185.998914212362 186.999191773597 187.999994067792 188.998875275744 189.999771612004 191.002597247394 192.001248290727 192.998888709256 194.001799092679 194.999094255224 195.997790853291 196.999467499882 197.999099495207 199.000494127581 200.000021267518 201.000727746857 201.998094486652 202.99796096513 204.000514776901 204.998583064865 206.00128194165 207.000944986924 208.000440200472 208.999354785979 210.00125007678 210.999937921691 212.000792698072 213.000319989417 214.00033962397 214.999416659392 216.000802352961 217.001783578697 217.998301248379 219.001723531505 220.00050770409 220.999958340862 221.999431256974 223.000272864087 223.998499107272 224.997469712513 225.998516786187 226.999431722431 228.000379613691 229.00160344629 229.998973878954 230.99816025401 232.000568184678 233.000528557016 233.998759535864 234.997960264983 236.002116107245 236.998882111529 237.999123608269 239.000548397837 240.001014459279 241.001186605741 242.000191505898 243.001641824489 243.998566794814 244.999357424011 245.999686418855 246.999680438253 248.000834500164 249.000222077486 249.997462126125 250.999783109925 251.997521623002 252.999363738761 253.998848177565 254.998669007336 255.998527022235 256.999419842646 257.99848164806 259.000925470411 259.999210998467 261.001508004822 262.00233393811 263.001428345271 263.998081363935 265.001376820042 265.999357188546 267.000586540224 268.001202662199 268.998667598793 270.001214892034 270.997516424523 271.998515785516 273.000090927571 273.999298024956 275.000823592019 275.999001262394 276.998772693526 278.000959032923 279.001258736706 279.99926503328 280.999748101711 282.000662171674 282.998716808181 283.99833390267 285.001821534201 285.998543903465 286.998893763134 288.001446075073 288.998042291052 289.998600308644 290.997013741664 292.000738177496 292.998663968672 294.001639394517 295.001399709287 296.001708133541 297.000033034094 298.000470442451 299.000440456676 299.998533337906 301.001871292637 301.997346607214 302.999266785467 304.000301020743 305.00044889806 306.000627014895 307.00062480917 307.999928190258 308.998760175646 309.997896957156 310.998455201652 312.00015748448 312.998923082425 313.998194323193 315.000191013808 315.999729206117 317.000301324535 318.001206195121 318.998872366036 319.997979165132 320.998635809685 321.999779100462 322.998659742693 324.001858147174 324.999583481113 326.000412879205 326.998929809163 328.001666076933 328.999307573692 330.000062685595 330.999324077044 332.000590425762 332.998399889057 333.998018822275 334.998749188347 336.002252867185 337.000872153961 338.000983124494 338.998478828274 339.998644829223 340.9979783056 341.999854717421 342.997780206668 344.000367229999 345.001263605398 346.002062355831 346.997759009763 348.000897341024 349.001566138788 350.00173397127 351.000935390604 352.000624883765 353.002331772346 354.002644752805 354.999264629185 355.998412957317 357.00094978895 357.999650748157 359.001296693029 359.999298409549 360.998884193231 362.001489964866 363.000849627927 364.000498414749 364.998148811107 366.000032377892 366.999690589496 368.000017785305 369.001677229058 370.002023072516 370.998073277615 372.001185692812 373.000505291048 373.997865260233 375.0001868313 376.002087498008 376.998011800804 378.000182464974 379.002188185335 380.000806982388 380.998023098057 382.002275927006 383.000698204849 383.997458929176 384.999504735466 385.998830426494 387.000373950322 388.001357772054 389.00008809504 389.99957326969 390.999418460613 392.000997696096 392.999651910114 393.99941101379 394.999757150749 396.000149586975 396.999166500014 397.998900081485 399.002349483979 399.999139990523 401.001771122062 402.00174209026 402.999707458075 404.002283914427 404.997599805285 405.999002382637 407.000096926007 407.99770184688 409.000387680889 409.998440193838 410.99944096161 411.998162239711 413.000604757918 413.999892160564 414.997408566103 415.998421904297 416.999145036471 418.001736337238 419.000305278405 419.997919726764 420.999668788808 421.998326384056 422.99900128739 423.998368565996 424.998404983171 425.999412333188 427.000482328692 428.000800951917 428.998727891206 429.99959174045 430.999682487087 431.997523708636 433.00075763577 433.999188562125 434.998530850452 435.998685196798 436.998567521913 438.00211115952 439.000638767724 439.998562689608 441.002295414192 442.001618410975 443.001574411053 444.000344357634 445.002728081132 446.001899441771 446.998269702991 447.99904251232 448.99907819312 449.999286519219 451.002683621641 451.997769219852 453.000344743264 453.998144160599 455.002927448337 456.000157899749 456.999960587844 457.998842247991 459.000247622449 460.000022614285 460.997728929713 461.999097385935 462.999401014562 463.999390304731 465.000454223863 465.99796729531 467.000290195099 467.999076802973 468.999044878159 469.998408051432 471.00180845232 472.000153985861 473.002402656959 473.998499400337 475.001077046137 475.998484266474 477.001063898734 478.001013258151 479.000632347286 480.001859206263 480.999626802862 481.998137501291 483.000661562988 483.9998502511 484.998338366293 485.998835279488 487.000227495409 487.99904841643 489.000398372992 489.997380587573 490.999422805721 491.999985473233 492.999089475257 493.999847111879 494.998026206549 495.998774814414 496.998077947484 498.00127234244 498.997627040815 500.001811233645 501.002217413331 501.999116828893 503.00160755301 504.001487270922 505.000543273071 506.000249420393 507.000837435148 507.998807240598 509.001082217352 510.002772950389 511.000628166817 511.999201278844 513.002726638374 514.000514126074 515.000242684007 515.998420961971 517.001316112847 517.999574426646 518.999929965396 519.999371354918 521.000424904934 521.997926101411 522.998893404137 524.001769169784 524.999688689193 525.999178301433 527.000644654331 527.999751226894 528.998028295786 529.999854726544 530.998577735219 532.001223550059 532.999173261437 533.998738881765 535.000442725717 535.999609395925 536.999147270391 538.000977352772 538.997753285452 540.002459533822 541.001728386622 541.999172844265 543.001931252576 543.998964986287 545.001014253057 546.001595756527 547.000851963936 547.998392393062 549.000782381662 549.999215127113 550.996274513167 552.001577473288 553.001010361183 554.001574463439 554.99844772418 555.999327680215 556.998892482623 558.001356448773 558.998773876097 560.000917856031 561.001103929914 561.99703855342 563.001719216312 563.997823308662 564.99959310073 566.000183573748 566.997678128936 568.001363788443 569.000527558027 570.002250052331 571.000335993625 572.002144366669 573.002100373768 573.998575427481 575.001123186738 576.00241805865 577.001392354525 578.001098513 579.000755729228 580.000583943778 581.001422765786 582.002616299992 583.001470946866 583.998743944587 584.998087744662 586.000124478917 587.000241114419 588.002558678477 588.997445402018 590.00168078134 590.998943901882 591.998619768035 593.00055941499 593.997433279477 594.999844005731 595.998793999305 596.999670909213 598.001372193018 598.99976654307 599.998031870197 601.00027943697 601.998148965856 602.998737666882 603.998133740728 605.000881789919 606.000922403286 606.998991965643 607.998661552459 608.998926747191 610.000919279206 610.999086706348 611.99859621179 612.999993358184 613.998746424344 615.000269936235 615.9990990503 616.998971221337 617.999720355536 619.001508614953 619.999498388967 621.001376793689 621.999825913809 622.999739204948 624.001715932493 625.00305826658 626.000213576129 626.998911576082 627.998735262552 628.997509352879 630.001654798847 630.998753431892 632.000597369925 633.000353970475 634.000178667499 634.996721663424 635.99908454034 636.998933837826 638.000151331692 638.998778639526 640.001008025399 640.998158208586 641.998768005097 642.999154291524 644.002580250475 645.000700015393 645.998407996165 646.999832859585 647.998734919144 648.998349488064 649.99951977426 651.001753673018 651.999562158924 652.996320446324 654.001325842287 654.999827593122 656.00027709125 656.998445991652 658.002361531916 659.001476525212 659.999095156553 661.001425602797 661.998627844906 662.998958571037 663.998926283164 665.001429630043 665.999482774123 667.001048916693 667.99959635681 668.998738082345 670.002760487064 671.001100947561 672.000915258398 672.999892795823 674.004074100056 675.002638813717 676.001368168635 677.000770454183 677.99914752526 678.999413683868 680.001299077533 681.001537038992 681.999807830338 682.997488094479 684.00164272589 685.000495066234 686.000059111354 687.002030005157 688.000636895614 688.999879610631 689.998926165031 691.001635193139 691.99959548414 693.001864204427 693.999231731184 695.0005011893 695.999638893927 696.99800109567 698.001345781107 699.000678756171 699.999976501451 701.000867338299 702.000217101374 702.998309539651 703.998564416394 705.002716108832 705.998505719273 706.998832045938 707.999648342457 709.001878777134 709.99966366465 710.998318390327 711.998174491639 713.001183721036 713.999138946042 714.996063325715 716.000457266949 716.999640344273 717.999970743801 718.999317945427 719.998220104298 721.000478337597 722.001343297151 723.000292317962 724.00176203386 725.000515412211 725.998435720845 726.996461539904 727.999515046598 728.998845417993 730.000044622102 730.998214894506 731.998771290602 733.000008007557 734.000166998587 734.998242978023 735.997083458611 736.999079484139 738.000272956422 738.998176561524 739.999792230497 741.000378880699 742.001045119351 742.999260021593 744.001273518883 744.997623622609 746.003578981237 747.001053907658 748.002331071636 748.998270480831 749.998918694716 751.000718302279 752.000745781655 752.999280290933 753.999703642124 754.999729836006 756.000633656931 756.998931266994 757.999050632225 758.998545124518 759.998325372965 760.998979974328 762.000644448166 763.000221219605 764.001128502449 764.999872329907 766.002228713191 766.998387860731 768.000608897681 768.998072459677 769.998875253217 771.002621241565 771.997453777367 772.99875970239 774.001589177897 774.997801980423 776.000541023151 776.99821418988 777.998527212418 778.999321350302 779.99803802062 781.00028156142 782.000668242802 783.000967557508 783.999526198868 785.002713064739 786.001463343523 786.999375258879 787.997495460846 788.997342716868 789.999531494817 790.996239005126 792.000677440849 793.003174884625 794.001950781174 795.000356408951 796.000548045209 796.999538761131 798.001513505604 799.000517965849 799.999394756494 800.997663911 801.998996657293 803.000613165688 803.999857614691 805.001604932303 806.001476459749 807.000002263243 808.001595496436 808.999803884865 810.000223776608 810.998677715405 811.997122130021 813.002815533773 813.999019231128 815.000540714972 815.999074707016 817.000849018981 817.999929660842 819.000123139665 820.000345168598 821.002140256068 821.998411393325 823.004120293535 823.997128128049 825.001575518733 826.00095866182 826.999531826784 827.999336078428 829.000959090463 830.000036968859 831.001840279592 831.997620605498 833.000607603954 834.000845098877 834.999374073782 835.999890501165 836.999607469295 838.0006139157 838.999710159549 840.002750216477 841.001544579518 841.997259954418 843.002603009273 844.003294114029 844.99856531106 846.001094569796 847.000573833584 847.998043913292 849.000369342409 849.999620017468 851.000478968517 852.001828927701 853.00277729361 853.999713537553 855.000435263726 855.997160912654 856.998319221952 857.999847064913 859.001060078322 860.001779388163 861.001810014218 861.997232020618 862.996336298313 863.997456848183 864.997387800826 866.001296851698 867.001906549359 868.000509933035 869.002022336749 869.998640980583 871.00211365751 871.999556805459 872.997078611664 873.999158382685 874.999139159901 875.999868413491 876.996106122629 878.00237772179 878.996538079455 880.000499708176 880.999116418086 881.999510028678 882.998531933595 883.998459887034 885.001088219545 886.00052489645 886.998266680259 888.000187278819 889.001061567833 889.997621077187 890.999563411097 891.996699243139 892.99959744088 894.0012440906 895.003940598404 896.000423087297 897.000841353251 898.0003836716 899.002553702886 899.998886252188 900.997161932042 901.99865066371 902.999048736443 903.998141497495 904.998939575945 906.001208836568 907.001794765933 908.00210143935 908.999647092188 909.998865222759 910.99845268894 912.000534314257 913.000363125233 913.999020286535 914.997626771146 915.996441562027 916.99563992321 918.002780520033 918.999648074315 919.997865051365 921.000879689797 921.999213321042 922.999657072888 923.99729894397 924.996343411081 925.998249791849 926.998971618555 927.997635138742 929.000539068401 930.000234975822 931.00164254092 931.998587667651 933.000495494098 933.999298941423 934.995602704301 935.9979286563 937.001209062927 937.999487068153 938.998265593319 939.998834637459 940.999563655163 942.000214088468 942.999494548978 944.000488799426 945.001576756796 946.000602866662 947.001461396186 947.997913613526 948.997203649044 949.997816892594 951.000099498104 951.99771234456 953.002231126119 953.998733427911 954.999918191232 956.00315426177 956.999706411496 957.999012883853 959.000757246265 960.000632786431 960.99798018634 961.997940471783 963.000335876827 963.999096509812 965.00084608517 965.998659458928 967.001050677188 967.99995137382 969.003599297014 970.00251279917 971.001573386442 971.999183772189 973.000042282538 973.99930137785 974.998858873196 976.001618493519 976.998034909672 978.000606318068 979.001447149452 979.998174131473 980.999686417856 981.999682348002 983.000713256463 983.999392049131 985.002190627339 985.998100818395 987.000335059598 988.002917364385 989.000146326071 989.998655732424 991.001209613367 992.000504010959 992.999814367499 994.001833574388 995.002278531832 996.001377016751 997.002697386103 997.997564865392 999.000795299274 999.997974276803                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.37627805734837E-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235219692 2.00032305367213 2.99997706930892 4.00020652604173 5.0001776537043 5.99987386543217 6.99992986216659 8.00015222502065 9.00001629757788 10.0003907562873 10.999922531242 12.001191733065 13.0004167655958 14.0001851855588 14.9999948828664 15.9999212818962 16.9998928336502 18.0015571358974 19.0001008890705 20.0002623323244 21.0003388564527 22.0000320193383 23.0003024688316 24.0000302307329 25.000221580755 26.0000562559665 27.0000013425129 28.0001032973839 28.9999218079666 29.9999268940554 31.0000579058071 31.9998611185332 33.0002322192047 34.0004056263471 34.9996708406909 36.000261374355 36.9998093105719 37.999919645688 39.0000829502774 39.9999165066214 40.9982174018017 42.0015800591797 43.0000084480593 43.9992052831252 44.9999028641785 45.9998424158205 46.9996914509778 48.0000383309839 49.000018604209 50.0000295751943 50.9997071346855 52.0004234004147 52.9999819814662 54.0002168665454 55.0002039584804 55.9998845712028 57.0002919690989 58.0001992358102 59.0000389761206 59.9996855636146 61.0000586009725 61.9983640020797 62.9999088189164 63.9999507142573 65.0001297052485 66.0008072732676 67.0002295617892 67.9992239980293 68.9999321107253 70.0003523354049 70.9999567581653 71.9999584477551 73.000102958536 74.000005634218 74.9983281798083 76.0003881550409 77.000196704834 77.9999523220476 79.0011297069339 79.9997871039543 80.9999405318613 82.0005573822171 83.0014682315165 84.0002826160508 85.0000343335359 86.000159064217 86.9999918580708 88.0004264110519 88.9998959820597 90.0001742907406 90.9999065989962 91.9985440276947 92.9985373692925 94.0001704536094 95.0000421349588 95.9986663748219 96.999500524326 97.9997885939802 99.0010329685748 100.000516856365 101.000230688695 101.999613740959 102.999518522907 103.998722401296 104.998982811062 105.999886101161 107.000090285573 107.999895958265 109.000065546898 109.998242073984 110.999906466933 111.999605817332 112.999338301578 113.999881606643 115.002052477311 115.999357807525 117.00107049717 118.001559098918 119.000277858916 120.000420835365 120.999583805555 122.000520111935 123.000495979969 124.001137734173 125.002171198567 125.999749613925 127.001677922578 127.999926231218 128.999667098433 129.998546730095 130.998003398612 132.000180707271 133.000006114558 133.999667266089 135.000720238106 136.000406042092 137.001379573373 137.998241503424 138.999316513396 140.000037511327 141.000075216917 142.000329076758 143.000589976123 144.002041855728 145.001725676924 146.000433857299 146.999822300043 147.999879042211 148.998170172298 150.000961209755 150.999402856553 151.998862458771 153.000206017839 153.999162885905 155.001615563004 156.000785492315 157.000585971753 157.998482269221 158.998272018798 160.000773075923 161.001058281561 161.999696453644 163.002057735229 164.000293436728 164.997760211264 166.000389356385 166.999452961141 167.999708217169 169.000447382271 170.001579845297 170.999514781643 172.001131149577 173.00081475328 173.99842877987 174.9979504576 176.000373698801 177.00205961164 177.999378481871 178.999656330353 180.001800777216 180.999179248908 182.001355608998 182.998036433918 184.000193845736 184.999143420376 185.998914199891 186.999191743674 187.999994096074 188.998875283754 189.999771577108 191.002597298186 192.001248264387 192.998888715336 194.001799127915 194.999094259575 195.997790795606 196.999467545225 197.99909951389 199.000494124827 200.000021272074 201.000727748757 201.998094485291 202.997961000676 204.000514763616 204.998583067067 206.001282008721 207.000944975513 208.000440180364 208.999354798215 210.00125008603 210.999937964011 212.000792736302 213.00031999865 214.000339606508 214.999416671975 216.00080238829 217.001783604471 217.998301231153 219.001723513861 220.000507708811 220.999958323516 221.99943120515 223.000272884593 223.998499131366 224.997469688291 225.998516763821 226.999431717294 228.000379619305 229.001603451556 229.998973928393 230.99816024601 232.000568188065 233.00052852824 233.998759537747 234.997960278923 236.002116110803 236.998882116321 237.999123576169 239.000548439295 240.00101443159 241.001186619051 242.000191571464 243.001641827879 243.998566789129 244.999357422284 245.999686443593 246.999680441311 248.000834499614 249.000222105037 249.997462147922 250.999783136477 251.997521593833 252.999363760288 253.998848212416 254.998669035673 255.99852701411 256.999419815062 257.998481691868 259.00092542357 259.999210959609 261.001508057338 262.00233394703 263.001428367729 263.998081383492 265.001376867844 265.99935715415 267.000586560736 268.001202631 268.998667599431 270.001214884687 270.997516424899 271.998515748241 273.000090911708 273.999298010732 275.000823609884 275.999001254094 276.998772655209 278.000959057151 279.001258743425 279.999265063848 280.999748137107 282.00066219342 282.998716831133 283.998333915247 285.001821526273 285.99854386823 286.998893740135 288.001446092527 288.998042263675 289.998600333208 290.997013779517 292.000738193858 292.998663981376 294.001639413922 295.001399701571 296.001708063731 297.000033058667 298.000470447143 299.000440449059 299.998533405961 301.001871297319 301.997346637896 302.999266810897 304.000301008556 305.000448898827 306.000627012269 307.000624804159 307.999928198965 308.998760149867 309.997896987926 310.998455200873 312.000157521358 312.998923079056 313.998194345589 315.000191030181 315.999729192496 317.000301329895 318.001206171881 318.998872392549 319.997979139761 320.998635781511 321.999779074655 322.998659730606 324.001858159424 324.999583506579 326.000412876359 326.998929819643 328.001666086857 328.999307595789 330.000062702831 330.99932409295 332.000590433861 332.998399903499 333.99801883093 334.998749218857 336.002252886399 337.000872149425 338.000983160377 338.998478799376 339.998644803768 340.997978303152 341.999854713962 342.997780218347 344.000367234127 345.001263634558 346.002062358472 346.997758992227 348.000897369688 349.001566100551 350.001733992047 351.000935444361 352.000624851282 353.002331809228 354.002644788232 354.999264609003 355.998412988444 357.000949788312 357.999650723407 359.001296665328 359.999298423848 360.998884211653 362.001489963687 363.000849631235 364.00049845411 364.998148851452 366.000032376253 366.999690631393 368.00001781546 369.001677253944 370.00202305506 370.998073261959 372.001185710416 373.00050527984 373.997865290402 375.000186809609 376.002087504929 376.998011837995 378.000182509808 379.002188161926 380.000806999214 380.998023124041 382.002275859652 383.000698212561 383.997458959961 384.99950477686 385.998830432287 387.000373941643 388.001357768858 389.00008813714 389.999573290921 390.999418487028 392.000997718139 392.999651936728 393.999411023196 394.999757167557 396.000149601596 396.999166523876 397.99890011492 399.002349535388 399.999140035154 401.001771105108 402.001742136507 402.999707478055 404.002283944965 404.997599830197 405.999002355688 407.000096944364 407.997701876574 409.000387663299 409.9984402244 410.999440977969 411.998162195734 413.000604768404 413.99989216136 414.997408574077 415.998421986186 416.99914504197 418.001736330065 419.000305267185 419.997919729615 420.999668796746 421.998326374744 422.999001264333 423.998368570888 424.998405034137 425.9994123807 427.000482322447 428.000800978758 428.998727892698 429.999591731059 430.999682479101 431.997523661332 433.000757647645 433.999188583437 434.998530791741 435.99868522175 436.9985675418 438.002111163238 439.000638834614 439.998562692636 441.002295441764 442.001618388163 443.001574352755 444.000344327774 445.002728050072 446.001899489896 446.998269753654 447.999042459785 448.999078228908 449.999286492781 451.00268361584 451.997769203524 453.000344802659 453.998144178273 455.002927472221 456.000157907867 456.999960612568 457.998842307079 459.00024767553 460.000022604506 460.997728934139 461.999097380211 462.999401031916 463.999390346184 465.000454259432 465.997967291837 467.000290228816 467.999076825961 468.99904484067 469.998408041766 471.001808479296 472.000153982454 473.002402662867 473.998499384831 475.001077026008 475.998484244101 477.001063875297 478.001013233685 479.000632333739 480.001859292949 480.999626824656 481.998137504021 483.000661561197 483.999850256409 484.998338358903 485.998835275563 487.000227494222 487.999048420123 489.000398310253 489.997380581598 490.999422845246 491.999985479694 492.999089479498 493.999847121986 494.998026223909 495.998774780284 496.998077923262 498.001272336891 498.997627045222 500.001811204385 501.002217418275 501.999116861165 503.001607562854 504.001487221465 505.000543249631 506.000249418045 507.000837455423 507.998807262398 509.00108223398 510.002772994683 511.000628202409 511.999201266253 513.002726641169 514.000514110946 515.000242688058 515.998421022752 517.001316079 517.999574420336 518.999929957753 519.999371313134 521.000424899492 521.997926119366 522.998893387526 524.001769205555 524.999688718895 525.999178320285 527.000644642527 527.999751237782 528.998028261787 529.999854717564 530.998577714093 532.001223553187 532.999173277195 533.998738878554 535.000442729998 535.999609374028 536.999147282778 538.000977348354 538.997753278175 540.002459505944 541.001728374638 541.999172905662 543.001931243811 543.998965001717 545.001014331851 546.001595744429 547.000851958574 547.998392379009 549.000782387993 549.999215104157 550.996274494483 552.001577484159 553.00101034556 554.00157443993 554.998447762627 555.999327685005 556.998892495016 558.001356438689 558.998773865012 560.000917869527 561.001103901626 561.997038506066 563.001719230437 563.997823322238 564.999593101446 566.000183570776 566.99767811357 568.001363790881 569.000527596993 570.002250047411 571.000336029356 572.002144360289 573.002100404306 573.998575423016 575.001123195217 576.002418090105 577.00139237915 578.001098462625 579.000755726712 580.000584006991 581.00142277002 582.00261626786 583.001470917733 583.998743933922 584.998087762062 586.00012447574 587.000241095787 588.002558687877 588.997445382324 590.001680798411 590.998943908693 591.998619790729 593.000559436868 593.99743329142 594.999844005282 595.99879402019 596.999670875421 598.00137219105 598.999766552488 599.998031818704 601.000279411781 601.99814893827 602.998737643403 603.998133691008 605.000881812042 606.000922401078 606.998991918044 607.998661572707 608.998926722295 610.000919303413 610.999086753274 611.998596226451 612.999993406307 613.998746439482 615.00026994012 615.999099038582 616.998971234413 617.999720342964 619.001508599821 619.999498401755 621.001376846914 621.999825898754 622.999739226018 624.001715927911 625.003058230316 626.000213566567 626.998911558399 627.998735298174 628.997509370493 630.001654832531 630.998753399753 632.000597414885 633.000353979602 634.000178688048 634.996721729484 635.999084574065 636.99893382057 638.000151335373 638.998778643153 640.00100802656 640.99815820505 641.998768031134 642.999154342865 644.002580263917 645.00070004356 645.99840798768 646.999832878076 647.998734908625 648.99834948157 649.999519816447 651.001753681529 651.999562154836 652.996320453899 654.001325857378 654.999827583277 656.000277124876 656.998445955071 658.002361547671 659.001476548407 659.999095176617 661.001425609028 661.998627839357 662.998958498238 663.998926363042 665.001429652017 665.99948270833 667.001048924969 667.999596387455 668.998738095385 670.002760486728 671.001100951622 672.000915287489 672.999892799375 674.004074078991 675.002638842109 676.001368209111 677.000770455984 677.999147544352 678.999413807973 680.001299104973 681.001537034464 681.999807821109 682.99748810193 684.001642783201 685.000495046745 686.000059105267 687.002029966249 688.000636911986 688.999879624394 689.998926149471 691.001635210803 691.99959549112 693.001864184238 693.999231750443 695.000501239954 695.999638866904 696.998001128641 698.001345774433 699.000678755021 699.999976506237 701.000867306474 702.000217120385 702.998309547874 703.998564435031 705.002716140966 705.998505749732 706.998832080196 707.999648378128 709.001878788903 709.999663694743 710.998318374138 711.998174483853 713.0011837498 713.999138931171 714.996063324049 716.000457250165 716.999640377558 717.999970763255 718.99931794277 719.998220103183 721.000478251078 722.001343293351 723.000292349614 724.001761964643 725.000515375585 725.998435701935 726.996461526687 727.999515041489 728.998845434465 730.000044633538 730.998214927854 731.998771319461 733.000008030726 734.000166969645 734.998243020963 735.997083466391 736.999079441835 738.000272983582 738.998176565584 739.999792201745 741.000378873957 742.001045139155 742.999260058007 744.001273516069 744.997623629086 746.003578993175 747.001053921727 748.002331067741 748.998270489926 749.998918686679 751.000718318345 752.00074574546 752.999280345818 753.999703655155 754.999729840345 756.000633661075 756.998931258679 757.999050643641 758.998545102799 759.998325396328 760.998979975438 762.000644426838 763.000221234899 764.001128482585 764.999872357661 766.002228726689 766.998387904088 768.000608915104 768.998072463589 769.998875241362 771.002621227724 771.997453756699 772.998759717453 774.001589212317 774.997802025587 776.000540967258 776.99821420847 777.99852719187 778.999321336029 779.998038017213 781.00028159289 782.000668262347 783.000967589299 783.999526263857 785.002713051322 786.001463269447 786.999375264595 787.997495480361 788.997342720583 789.999531469071 790.996239052004 792.000677466966 793.003174922436 794.001950786337 795.000356400777 796.000548049924 796.999538761284 798.001513537013 799.000517950443 799.999394733226 800.997663902623 801.998996708359 803.00061319134 803.999857578564 805.001604941042 806.001476479876 807.000002256603 808.001595492973 808.999803897319 810.000223787735 810.99867775369 811.997122163332 813.002815554328 813.99901924646 815.000540740339 815.999074762553 817.000849003436 817.999929661927 819.000123141052 820.000345230802 821.002140235322 821.998411432654 823.004120292119 823.997128148486 825.001575529294 826.000958689773 826.999531825796 827.99933605484 829.000959071141 830.000036989575 831.001840292654 831.997620651307 833.000607640439 834.00084509306 834.999374057154 835.999890484342 836.999607463682 838.00061388659 838.999710169054 840.002750224351 841.001544573185 841.997259974633 843.00260304088 844.00329409295 844.998565288525 846.001094552385 847.000573870804 847.998043937262 849.000369305694 849.999619996529 851.000478930737 852.001828912043 853.002777339861 853.999713589917 855.000435301239 855.997160916874 856.998319244089 857.999847045858 859.001060116786 860.001779339409 861.001810015519 861.997232073618 862.99633630058 863.997456830523 864.99738779227 866.00129682606 867.001906550773 868.000509934471 869.002022340489 869.998641021076 871.002113628642 871.99955681589 872.997078629582 873.999158378661 874.99913920991 875.999868420165 876.996106127005 878.002377717203 878.996538095768 880.000499698089 880.999116427612 881.999510071714 882.998531908063 883.99845985387 885.001088246395 886.000524884662 886.998266666014 888.000187278299 889.001061574054 889.997621117259 890.99956343946 891.996699205034 892.999597423217 894.001244103865 895.003940644071 896.000423092085 897.000841404287 898.00038366422 899.002553739983 899.998886258531 900.997161930875 901.998650642118 902.999048758171 903.998141504318 904.99893959633 906.001208842452 907.001794795354 908.002101473863 908.999647095945 909.998865215548 910.998452655399 912.000534350169 913.000363105281 913.99902031774 914.997626751268 915.996441549133 916.995639978294 918.002780524826 918.999648104104 919.997865091661 921.000879700223 921.999213298298 922.999657076631 923.997298965885 924.996343445095 925.998249755162 926.998971585822 927.997635160674 929.000539095996 930.000234994111 931.001642601545 931.998587701573 933.000495496588 933.999298950167 934.9956026794 935.997928652289 937.001209025944 937.999487067114 938.998265640275 939.998834681715 940.99956363832 942.000214089054 942.999494670812 944.000488808416 945.001576757645 946.000602900108 947.001461415062 947.997913640852 948.997203629677 949.99781687196 951.000099516082 951.997712332243 953.002231161144 953.998733414706 954.999918192152 956.003154248684 956.999706412031 957.999012853008 959.000757254893 960.000632800942 960.997980222996 961.997940488762 963.000335873143 963.999096503877 965.00084610041 965.99865946486 967.001050663893 967.999951369744 969.003599266496 970.002512807615 971.001573339326 971.999183763884 973.000042318729 973.999301390062 974.998858920499 976.001618464113 976.998034923316 978.000606262785 979.001447170051 979.998174169128 980.999686436608 981.999682319096 983.00071327727 983.999392098941 985.002190606163 985.998100809087 987.000335072583 988.002917363631 989.000146312941 989.998655722808 991.001209611589 992.000504007843 992.999814384522 994.001833520662 995.002278608606 996.001377029878 997.002697442431 997.997564874703 999.000795279091 999.997974315814                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.86300675008199E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010245724368 2.00032308337925 2.99997681653459 4.0002067153377 5.00017752256859 5.99987383628607 6.99992991004992 8.00015225270196 9.00001623842448 10.0003908078567 10.9999226460325 12.0011919050163 13.0004167163626 14.0001851929489 14.9999949535938 15.9999213424632 16.9998927718509 18.0015571320905 19.0001009401907 20.0002620933111 21.0003387298646 22.0000321286434 23.0003024407443 24.0000301741597 25.0002214878439 26.0000562018755 27.0000013276515 28.0001032752872 28.9999217215674 29.9999268478309 31.0000578961595 31.9998610793985 33.0002322268152 34.0004055739269 34.9996709532681 36.0002612455302 36.9998093766505 37.9999196664165 39.0000829499348 39.9999166038406 40.9982172770101 42.0015800826579 43.0000083773635 43.9992053660802 44.9999028730113 45.9998423300461 46.9996914036534 48.0000384784597 49.0000185649849 50.0000296488603 50.9997070538807 52.0004233548103 52.9999818858985 54.0002167091516 55.0002039602955 55.9998845231936 57.0002919702137 58.0001992525377 59.0000389838707 59.9996856658208 61.0000586340052 61.9983639139113 62.9999087621524 63.9999506903628 65.0001295923013 66.0008072947967 67.0002296505796 67.9992240885952 68.999932184843 70.000352294025 70.9999566417717 71.9999585676263 73.0001029054178 74.0000056826346 74.9983281921726 76.000388017171 77.0001967215015 77.9999522275126 79.001129755046 79.9997871557463 80.9999404502986 82.0005572994473 83.0014682070751 84.0002823961263 85.0000344356059 86.0001591877969 86.999991780223 88.0004265663946 88.9998959279109 90.0001744207986 90.9999066424677 91.9985440078898 92.998537304913 94.0001703605723 95.0000422327958 95.9986663726772 96.9995005772981 97.999788543306 99.0010330381366 100.000516904501 101.000230675787 101.999613736712 102.999518365888 103.99872242104 104.998982780293 105.999886023361 107.000090184991 107.999895943842 109.000065609565 109.998242010808 110.999906365869 111.999605770476 112.999338260445 113.9998815842 115.002052475248 115.99935781105 117.001070482526 118.001559080678 119.000277850289 120.000420844936 120.999583840007 122.000520234209 123.000495921963 124.001137797053 125.002171314318 125.999749574469 127.001678013468 127.999926196186 128.999667086749 129.99854673011 130.99800338321 132.000180626312 133.000006064026 133.999667263779 135.000720296631 136.00040609655 137.001379676723 137.998241300125 138.999316537848 140.000037554471 141.000075132793 142.000329073391 143.000589976784 144.002041850152 145.00172564691 146.000433838629 146.999822431447 147.999879017491 148.998170130398 150.000961095937 150.99940281442 151.998862437421 153.000206048521 153.99916289795 155.001615555027 156.000785501273 157.000586012254 157.998482208055 158.998272032539 160.000773024539 161.001058379121 161.999696512535 163.002057678971 164.000293473106 164.99776018044 166.000389327272 166.999453023554 167.999708293073 169.000447367605 170.001579950056 170.999514656294 172.00113119473 173.000814742168 173.99842874777 174.997950404371 176.000373660528 177.002059646436 177.999378428771 178.999656408375 180.001800773405 180.999179282886 182.00135562547 182.998036337226 184.000193682454 184.999143370494 185.998914270298 186.999191810407 187.999994121135 188.998875201234 189.999771581016 191.002597264004 192.001248246326 192.998888729742 194.001799072254 194.999094302684 195.997790876785 196.999467580751 197.999099526433 199.000494092218 200.000021261292 201.000727743666 201.998094492965 202.997961078438 204.000514821671 204.998583144475 206.001281938647 207.000945023154 208.000440097189 208.999354872159 210.001250026386 210.999937885981 212.000792782119 213.000320055253 214.000339623697 214.999416602295 216.000802365989 217.001783556531 217.998301224042 219.001723462413 220.000507746912 220.999958449476 221.999431319842 223.000272793385 223.998499170824 224.997469690483 225.998516809327 226.999431628921 228.000379616045 229.001603535782 229.998973990962 230.998160283673 232.000568151045 233.000528469593 233.998759559449 234.99796031953 236.002116113674 236.998882111611 237.999123613502 239.00054845716 240.001014382522 241.001186625591 242.000191547498 243.001641848587 243.9985668619 244.999357403571 245.999686398632 246.999680504849 248.000834427305 249.000222105749 249.99746211395 250.999783066068 251.997521600836 252.999363763856 253.998848256793 254.998669064548 255.998527039062 256.99941975922 257.998481619147 259.00092546188 259.999210954546 261.001507987885 262.002333964607 263.00142830208 263.998081461969 265.001376856544 265.999357113735 267.00058655736 268.001202645933 268.998667630671 270.001214899842 270.997516404565 271.998515721549 273.000090925021 273.999298033189 275.000823596792 275.99900123568 276.998772608302 278.000959090112 279.001258737864 279.999265059486 280.999748134668 282.000662173922 282.9987168545 283.998333892051 285.001821554136 285.99854388934 286.998893761698 288.001446007191 288.998042273642 289.998600344801 290.99701378906 292.000738155656 292.998664028868 294.001639468477 295.001399730884 296.001708002953 297.000033011704 298.000470412605 299.000440452091 299.998533403485 301.001871267802 301.997346653145 302.999266833678 304.000301015251 305.000448912144 306.000627025832 307.000624795872 307.999928232294 308.998760123828 309.997896925079 310.99845522952 312.000157529956 312.998923066534 313.998194357542 315.000191020027 315.999729222147 317.000301364848 318.001206151247 318.998872399154 319.997979178297 320.998635753362 321.999779087548 322.998659694047 324.001858113504 324.999583491716 326.000412920195 326.998929811594 328.001666077008 328.999307616209 330.000062674867 330.999324040384 332.000590479948 332.998399884426 333.998018827837 334.998749226144 336.002252898926 337.000872143599 338.00098317543 338.998478817314 339.998644808475 340.997978361153 341.999854696471 342.997780192538 344.000367249164 345.001263629375 346.002062344977 346.997759011739 348.000897406856 349.001566117538 350.001734013068 351.000935479392 352.000624842972 353.002331795655 354.002644750137 354.999264571009 355.998412968171 357.000949821942 357.999650682615 359.001296689272 359.999298431704 360.99888419064 362.001489982591 363.000849629962 364.000498486261 364.998148881156 366.000032390288 366.999690585415 368.000017850074 369.001677179058 370.002023111017 370.998073278399 372.001185733882 373.000505268592 373.997865325969 375.000186827719 376.002087515896 376.998011874401 378.00018250564 379.002188178983 380.000806999406 380.998023209565 382.002275889859 383.000698195062 383.997459000016 384.999504787248 385.998830471828 387.000373971679 388.001357796165 389.000088131065 389.999573319404 390.999418483327 392.000997752872 392.999651958793 393.999411028844 394.999757171957 396.000149598551 396.999166478921 397.99890010915 399.002349539562 399.999140016344 401.001771073302 402.001742121454 402.999707464451 404.002283960197 404.997599839438 405.999002381968 407.000096946736 407.997701889068 409.000387656243 409.998440296182 410.999441031784 411.998162180874 413.000604774335 413.999892189118 414.997408616535 415.998421989648 416.999145071532 418.001736350271 419.000305273076 419.997919741966 420.999668778945 421.998326367985 422.999001272251 423.998368539792 424.998405047607 425.999412368737 427.000482351427 428.000800990437 428.998727916109 429.999591742072 430.999682493531 431.99752366131 433.000757655813 433.999188575609 434.998530805376 435.998685243481 436.998567528651 438.002111142601 439.000638844434 439.998562702097 441.002295477921 442.001618408317 443.001574372405 444.000344372129 445.002728059139 446.001899479546 446.998269761354 447.999042453872 448.999078196756 449.999286505779 451.002683617478 451.9977692258 453.000344781177 453.998144196801 455.002927506734 456.000157906017 456.999960599157 457.998842312899 459.000247692541 460.000022616295 460.997728958346 461.999097372906 462.999401046576 463.999390360843 465.000454254932 465.997967290715 467.00029023063 467.999076803254 468.999044857743 469.99840806013 471.001808486665 472.000154005072 473.002402654139 473.998499382509 475.001077034727 475.998484256897 477.001063866743 478.001013264052 479.000632361739 480.001859319355 480.999626886568 481.99813748763 483.000661544263 483.999850276168 484.998338367303 485.998835286813 487.000227508785 487.999048420175 489.000398283036 489.997380602151 490.999422852735 491.999985489711 492.999089524499 493.999847149286 494.998026221979 495.998774796482 496.998077946629 498.001272299919 498.997627034821 500.001811203361 501.002217402478 501.999116862038 503.001607583049 504.001487233169 505.000543245661 506.000249423951 507.000837462019 507.99880726816 509.001082248903 510.002772981805 511.000628212762 511.999201272251 513.002726646394 514.000514089529 515.00024272403 515.998421005464 517.001316069056 517.999574404243 518.999929960455 519.999371336739 521.000424890249 521.997926136923 522.998893435215 524.001769209609 524.999688752778 525.999178323854 527.00064464095 527.999751259211 528.998028255417 529.999854716842 530.99857772465 532.001223562115 532.999173270951 533.99873889604 535.000442715283 535.999609378134 536.999147301276 538.0009773741 538.997753300073 540.002459521743 541.00172836296 541.999172893808 543.00193124836 543.998964996095 545.00101435292 546.001595743541 547.000851954845 547.998392400279 549.000782374742 549.999215112274 550.996274488036 552.001577509575 553.001010348711 554.001574446935 554.998447792556 555.999327696817 556.998892489994 558.001356456748 558.998773868186 560.000917885429 561.001103927458 561.997038515061 563.001719234654 563.997823337696 564.999593113578 566.000183583529 566.997678123723 568.001363794089 569.000527618017 570.002250036871 571.000336020824 572.002144355235 573.002100413385 573.998575448652 575.001123205545 576.002418082089 577.001392407041 578.001098481777 579.000755744589 580.000583990205 581.001422746335 582.002616299153 583.001470926243 583.998743946883 584.998087795273 586.000124475704 587.000241102675 588.002558698417 588.997445406726 590.001680804381 590.99894391534 591.998619786845 593.000559444819 593.997433323028 594.999844018692 595.998794037196 596.999670907515 598.001372185592 598.999766553887 599.998031841854 601.000279434314 601.998148967963 602.998737663214 603.998133701121 605.000881815096 606.000922402 606.998991919391 607.998661566656 608.99892671398 610.000919311225 610.999086761014 611.998596220979 612.999993414702 613.998746468072 615.000269935634 615.999099043645 616.998971241825 617.999720359176 619.001508608927 619.99949841717 621.001376879921 621.999825906506 622.999739240977 624.001715925953 625.003058232163 626.000213574375 626.998911558279 627.998735293142 628.997509385852 630.001654838289 630.998753420319 632.000597412746 633.000353969495 634.000178702236 634.996721710131 635.999084584325 636.998933842269 638.000151363368 638.998778639002 640.001008031533 640.998158211297 641.998768038554 642.999154361077 644.002580258923 645.000700067666 645.998408003054 646.999832872521 647.99873490201 648.998349497772 649.999519817574 651.001753693531 651.999562161677 652.996320450303 654.001325863644 654.999827603739 656.000277126049 656.998445973975 658.002361546624 659.001476564371 659.99909518606 661.001425602907 661.998627853552 662.998958497408 663.998926367044 665.001429664891 665.999482728633 667.001048930285 667.999596398668 668.998738113915 670.002760512537 671.001100964624 672.000915295757 672.999892794138 674.004074101821 675.002638843392 676.001368199587 677.000770473052 677.999147560061 678.999413818536 680.001299116895 681.001537032425 681.999807832068 682.997488121965 684.001642781897 685.000495049492 686.00005910823 687.002029983298 688.000636918651 688.999879637244 689.998926160944 691.001635234387 691.999595496997 693.00186418727 693.999231758283 695.000501277207 695.999638873878 696.998001144525 698.001345778699 699.000678760809 699.99997649806 701.000867333625 702.000217128295 702.998309546535 703.998564443 705.002716141707 705.998505772775 706.998832092398 707.999648391736 709.001878790641 709.999663697037 710.998318387221 711.998174483802 713.001183752851 713.999138934518 714.996063331034 716.000457267809 716.999640382375 717.999970773081 718.999317944838 719.99822010554 721.000478276194 722.001343303341 723.000292362109 724.001761988322 725.000515387899 725.99843572528 726.996461534568 727.999515041035 728.998845430588 730.000044631259 730.998214940914 731.998771322531 733.000008044956 734.0001669863 734.99824303189 735.997083466813 736.999079458022 738.000272991773 738.99817656956 739.999792207395 741.000378877165 742.001045157276 742.999260075555 744.001273527453 744.997623624109 746.003578990738 747.001053923136 748.00233108419 748.998270496769 749.998918700949 751.000718329963 752.000745756938 752.999280346661 753.999703674542 754.999729851008 756.000633666887 756.998931280129 757.999050652783 758.998545101143 759.998325403866 760.998979979999 762.000644436129 763.000221244704 764.001128485486 764.999872365503 766.002228729564 766.998387925128 768.000608932595 768.99807248018 769.998875253517 771.002621242441 771.997453769938 772.998759718023 774.001589227801 774.997802018906 776.000540970308 776.998214211111 777.998527192024 778.999321344327 779.998038024164 781.000281599473 782.000668274287 783.000967596271 783.99952627529 785.002713069338 786.001463289396 786.999375278347 787.997495489707 788.997342735971 789.999531477209 790.99623906127 792.000677475612 793.003174935079 794.001950784423 795.000356405643 796.000548066647 796.99953876343 798.001513555889 799.000517967296 799.999394751154 800.997663911584 801.998996717479 803.000613197493 803.999857585789 805.001604961462 806.001476473034 807.000002277862 808.001595506818 808.999803911817 810.000223786998 810.998677764363 811.997122166428 813.002815571563 813.999019269195 815.000540742764 815.999074770972 817.000849010962 817.999929665821 819.000123141995 820.000345233016 821.002140257612 821.998411448791 823.004120329033 823.997128156688 825.001575538254 826.000958695544 826.999531827448 827.999336070576 829.000959080772 830.000036989882 831.001840299546 831.997620659895 833.000607656963 834.000845099859 834.999374077395 835.99989051201 836.999607467478 838.000613897622 838.999710176257 840.002750233184 841.001544588139 841.997259982763 843.002603053525 844.003294105483 844.998565298915 846.001094558424 847.000573883268 847.998043948999 849.000369318548 849.999620007551 851.000478947316 852.001828926515 853.002777350991 853.999713600567 855.000435324399 855.99716092888 856.998319264228 857.999847059469 859.001060131778 860.001779349136 861.001810022023 861.997232088505 862.996336307339 863.997456841363 864.997387801871 866.001296835943 867.001906559478 868.000509936662 869.002022342189 869.998641024985 871.002113638406 871.999556825746 872.997078645687 873.999158383547 874.999139215889 875.999868432133 876.996106149925 878.002377721 878.996538115226 880.000499704398 880.999116430125 881.999510076976 882.998531916604 883.998459872262 885.001088254983 886.000524890561 886.99826666942 888.000187296328 889.001061573947 889.997621126159 890.999563451614 891.996699218599 892.999597435256 894.001244109595 895.003940657271 896.000423105316 897.000841406434 898.00038367321 899.002553756172 899.998886278148 900.997161943484 901.998650652992 902.999048759959 903.998141513973 904.998939605722 906.001208852942 907.001794800656 908.002101483428 908.999647105249 909.998865215144 910.998452656823 912.000534356376 913.000363104544 913.999020325916 914.997626757181 915.996441555412 916.995639987494 918.002780529484 918.999648110851 919.997865096779 921.000879709357 921.999213311345 922.99965708977 923.997298977743 924.99634346225 925.998249770829 926.998971599138 927.997635169042 929.000539108031 930.000235011491 931.001642604801 931.998587717983 933.000495504504 933.999298953633 934.995602687913 935.997928662253 937.001209038177 937.999487087276 938.998265657721 939.998834699161 940.999563650994 942.000214102535 942.999494678024 944.000488816949 945.001576763897 946.000602909505 947.001461425002 947.997913648457 948.997203639676 949.997816882026 951.000099526612 951.997712343424 953.00223116972 953.99873342479 954.999918203892 956.003154266308 956.999706418564 957.999012867612 959.000757258232 960.000632807608 960.997980235039 961.997940499427 963.000335883056 963.999096515103 965.00084611227 965.998659476786 967.001050671749 967.999951376053 969.003599285858 970.00251282057 971.001573354457 971.999183774281 973.000042332563 973.999301405151 974.998858920607 976.001618473209 976.998034927562 978.000606276768 979.001447185308 979.998174176907 980.999686446016 981.999682321493 983.000713282054 983.999392107509 985.002190614272 985.998100816996 987.000335087912 988.002917372041 989.000146321177 989.998655739369 991.001209620174 992.000504015402 992.999814395717 994.001833535055 995.002278620404 996.001377034976 997.002697448143 997.997564883197 999.000795286525 999.997974326389                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.33998432604808E-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235223867 2.00032305370771 2.99997706934734 4.0002065260506 5.00017765373306 5.99987386545961 6.99992986218348 8.00015222506113 9.00001629760985 10.0003907563111 10.999922531255 12.0011917330897 13.0004167656418 14.0001851855879 14.9999948828514 15.9999212819378 16.9998928336673 18.0015571359289 19.0001008890785 20.0002623323165 21.0003388564353 22.000032019376 23.0003024688603 24.0000302307616 25.0002215807598 26.0000562559939 27.0000013425511 28.0001032974145 28.9999218080202 29.9999268940897 31.000057905797 31.9998611185588 33.0002322192401 34.0004056263817 34.9996708407469 36.0002613743168 36.9998093105942 37.9999196457048 39.0000829502704 39.9999165066459 40.9982174018298 42.0015800592039 43.0000084480416 43.9992052831728 44.9999028641732 45.9998424158535 46.9996914509911 48.0000383309923 49.0000186042745 50.0000295751556 50.9997071347479 52.0004234003879 52.9999819815185 54.0002168665585 55.0002039585634 55.9998845712394 57.0002919690844 58.0001992358488 59.000038976054 59.9996855635969 61.0000586009984 61.998364002019 62.9999088188464 63.9999507142764 65.0001297052987 66.00080727331 67.0002295618828 67.999223998 68.9999321107303 70.0003523354205 70.999956758207 71.9999584477916 73.0001029585418 74.0000056342437 74.9983281797538 76.0003881550764 77.000196704889 77.9999523220156 79.0011297069608 79.9997871038297 80.99994053188 82.0005573822233 83.0014682315286 84.0002826161006 85.0000343335354 86.0001590642378 86.9999918581283 88.0004264110494 88.9998959820817 90.0001742907853 90.9999065989333 91.9985440276024 92.998537369353 94.0001704535839 95.0000421348891 95.9986663747793 96.9995005243256 97.9997885939703 99.001032968611 100.000516856379 101.00023068867 101.999613740974 102.999518522938 103.998722401241 104.998982811108 105.999886101151 107.000090285626 107.999895958143 109.000065546897 109.998242074044 110.999906466928 111.999605817268 112.999338301617 113.999881606572 115.002052477345 115.999357807443 117.001070497113 118.001559098873 119.000277858911 120.000420835372 120.99958380554 122.000520111935 123.000495979954 124.00113773415 125.00217119847 125.999749613968 127.001677922446 127.999926231264 128.999667098468 129.998546730061 130.998003398598 132.000180707282 133.000006114536 133.999667266015 135.000720238081 136.000406042026 137.001379573425 137.998241503452 138.99931651331 140.000037511302 141.000075216842 142.000329076683 143.000589976095 144.002041855741 145.001725676815 146.00043385726 146.999822299989 147.999879042272 148.998170172339 150.000961209686 150.999402856502 151.998862458732 153.000206017793 153.999162885875 155.00161556297 156.000785492319 157.000585971619 157.998482269121 158.998272018747 160.000773075922 161.001058281563 161.999696453566 163.002057735183 164.000293436583 164.997760211228 166.000389356362 166.999452961129 167.999708217097 169.000447382192 170.001579845406 170.999514781589 172.001131149496 173.000814753331 173.998428779845 174.997950457572 176.000373698717 177.002059611545 177.999378481776 178.999656330332 180.00180077712 180.999179248926 182.001355608976 182.998036433887 184.000193845758 184.999143420277 185.99891419979 186.999191743576 187.999994096004 188.998875283681 189.999771577138 191.002597298186 192.00124826431 192.998888715253 194.001799127947 194.999094259542 195.997790795616 196.999467545195 197.999099513765 199.000494124809 200.000021271908 201.000727748744 201.998094485174 202.997961000706 204.000514763532 204.998583067021 206.0012820087 207.000944975518 208.000440180319 208.999354798181 210.001250085985 210.99993796397 212.000792736229 213.000319998632 214.00033960619 214.999416671826 216.000802388209 217.001783604391 217.99830123101 219.001723513898 220.000507708746 220.999958323432 221.999431205098 223.000272884547 223.998499131393 224.997469688274 225.998516763746 226.99943171729 228.000379619297 229.001603451499 229.998973928295 230.998160245903 232.000568187968 233.000528528164 233.998759537724 234.997960279007 236.002116110771 236.998882116241 237.999123576133 239.000548439266 240.001014431567 241.001186619002 242.000191571369 243.001641827732 243.998566788976 244.999357422224 245.999686443663 246.99968044121 248.000834499662 249.000222104945 249.99746214788 250.999783136367 251.997521593718 252.999363760165 253.998848212313 254.998669035525 255.998527014085 256.999419814974 257.99848169186 259.000925423526 259.999210959577 261.001508057241 262.002333947152 263.001428367614 263.998081383376 265.001376867723 265.999357154151 267.0005865607 268.001202630879 268.998667599362 270.001214884588 270.997516424846 271.998515748138 273.000090911474 273.999298010731 275.000823609873 275.999001254148 276.998772655125 278.000959057143 279.001258743227 279.999265063828 280.999748136981 282.000662193363 282.998716830993 283.998333915258 285.001821526198 285.998543868174 286.998893740056 288.001446092479 288.99804226368 289.998600333158 290.997013779503 292.000738193675 292.9986639813 294.001639413783 295.001399701554 296.001708063689 297.000033058482 298.000470447071 299.000440448872 299.998533405941 301.001871297089 301.997346637793 302.999266810596 304.000301008396 305.000448898733 306.000627012108 307.000624804094 307.999928199027 308.998760149822 309.997896987905 310.998455200699 312.000157521326 312.998923078856 313.998194345578 315.000191030066 315.999729192431 317.000301329687 318.001206171782 318.998872392356 319.997979139739 320.998635781346 321.999779074629 322.998659730628 324.001858159441 324.999583506683 326.000412876351 326.998929819663 328.001666086614 328.999307595708 330.000062702788 330.99932409291 332.000590433718 332.998399903363 333.998018830935 334.998749218709 336.002252886376 337.000872149343 338.00098316029 338.998478799341 339.998644803606 340.997978302947 341.999854713882 342.997780218252 344.000367234087 345.001263634375 346.00206235838 346.997758992109 348.000897369605 349.001566100493 350.001733991995 351.000935444152 352.000624851068 353.002331809094 354.002644788041 354.999264609002 355.998412988347 357.000949787855 357.999650723277 359.001296665377 359.999298423795 360.998884211505 362.001489963491 363.000849631269 364.000498454092 364.998148851317 366.000032376217 366.999690631295 368.000017815356 369.001677253987 370.002023055022 370.99807326184 372.001185710363 373.000505279712 373.997865290251 375.000186809729 376.002087504907 376.998011837966 378.000182509794 379.00218816191 380.000806999054 380.998023123947 382.00227585961 383.000698212528 383.997458959765 384.99950477668 385.998830432174 387.000373941687 388.001357768864 389.000088137148 389.999573290892 390.999418486919 392.000997717987 392.999651936616 393.999411023157 394.999757167499 396.000149601476 396.999166523926 397.998900114745 399.002349535284 399.999140035079 401.00177110499 402.001742136313 402.99970747801 404.002283944791 404.997599830112 405.999002355725 407.000096944215 407.997701876543 409.000387663029 409.99844022426 410.999440977942 411.998162195644 413.000604768371 413.999892161159 414.997408574004 415.998421986096 416.999145041826 418.001736329957 419.000305267074 419.997919729519 420.999668796674 421.998326374725 422.999001264131 423.998368570928 424.998405034071 425.999412380495 427.000482322545 428.00080097864 428.998727892601 429.999591730833 430.999682479056 431.997523661198 433.000757647454 433.999188583336 434.998530791769 435.998685221625 436.998567541807 438.002111162973 439.00063883459 439.998562692578 441.002295441754 442.00161838816 443.001574352659 444.000344327655 445.002728050079 446.001899489865 446.99826975353 447.999042459837 448.999078228824 449.999286492752 451.002683615799 451.997769203395 453.000344802484 453.998144178246 455.002927472119 456.000157907863 456.999960612429 457.998842306963 459.000247675457 460.00002260442 460.997728934149 461.999097380139 462.99940103194 463.99939034614 465.0004542593 465.997967291771 467.000290228658 467.999076826097 468.999044840628 469.998408041645 471.001808479265 472.0001539824 473.002402662891 473.998499384859 475.001077026001 475.998484244258 477.001063875089 478.00101323371 479.000632333627 480.001859292876 480.999626824545 481.998137503913 483.000661561038 483.999850256402 484.998338358926 485.998835275603 487.000227494255 487.999048420057 489.000398310053 489.997380581514 490.999422845215 491.99998547978 492.999089479492 493.999847121968 494.998026223799 495.998774780406 496.998077923281 498.001272336934 498.997627045181 500.001811204409 501.002217418268 501.999116861117 503.001607562921 504.001487221436 505.00054324961 506.000249417957 507.000837455403 507.998807262437 509.00108223384 510.002772994748 511.000628202424 511.999201266273 513.002726641141 514.000514110811 515.000242688046 515.998421022583 517.001316079084 517.999574420251 518.999929957853 519.999371313314 521.000424899556 521.9979261194 522.998893387538 524.001769205548 524.999688718905 525.999178320353 527.000644642551 527.999751237879 528.998028261694 529.99985471749 530.998577714159 532.001223553044 532.999173277297 533.998738878542 535.000442730031 535.999609374162 536.999147282794 538.000977348287 538.997753278127 540.002459505941 541.001728374502 541.999172905718 543.001931243761 543.998965001822 545.001014331706 546.001595744422 547.000851958714 547.998392378799 549.000782388029 549.999215104245 550.996274494446 552.001577484159 553.001010345531 554.001574439865 554.998447762648 555.999327685188 556.998892495052 558.001356438651 558.998773865113 560.000917869596 561.001103901643 561.997038506073 563.001719230507 563.997823322263 564.999593101411 566.000183570632 566.997678113594 568.00136379084 569.000527596929 570.002250047162 571.000336029552 572.002144360306 573.002100404363 573.998575423071 575.001123195142 576.002418090207 577.001392379136 578.001098462591 579.000755726737 580.000584007138 581.001422770161 582.00261626782 583.001470917703 583.998743933911 584.998087762083 586.00012447572 587.000241095828 588.002558687835 588.997445382266 590.001680798635 590.998943908701 591.998619790864 593.000559436954 593.997433291329 594.999844005197 595.998794020332 596.999670875439 598.001372190943 598.999766552497 599.998031818764 601.000279411888 601.998148938453 602.998737643466 603.998133690977 605.000881811997 606.000922401037 606.998991918151 607.998661572719 608.998926722208 610.000919303297 610.999086753437 611.998596226535 612.999993406429 613.998746439448 615.000269940176 615.999099038701 616.998971234378 617.999720342965 619.001508599956 619.999498401863 621.001376846978 621.999825898789 622.999739225951 624.001715927993 625.003058230285 626.000213566584 626.998911558469 627.998735297918 628.997509370473 630.00165483257 630.998753399921 632.000597414956 633.000353979758 634.000178687996 634.996721729463 635.999084573933 636.998933820611 638.000151335493 638.998778643186 640.00100802666 640.998158205313 641.998768031093 642.99915434293 644.002580263795 645.000700043588 645.998407987628 646.999832878217 647.998734908619 648.998349481593 649.999519816517 651.001753681726 651.999562155046 652.996320453746 654.001325857329 654.999827583394 656.0002771249 656.998445955239 658.00236154773 659.001476548411 659.999095176864 661.001425609066 661.998627839367 662.998958498174 663.998926363075 665.00142965197 665.999482708314 667.001048924935 667.999596387623 668.99873809537 670.002760486774 671.001100951649 672.000915287563 672.99989279946 674.00407407915 675.002638842299 676.001368209167 677.000770455977 677.999147544294 678.999413808227 680.001299104972 681.001537034463 681.999807821254 682.997488101885 684.00164278328 685.000495046704 686.000059105376 687.002029966247 688.000636912114 688.999879624411 689.998926149555 691.001635210965 691.999595491104 693.00186418435 693.9992317507 695.000501240046 695.999638867087 696.998001128805 698.001345774524 699.000678754978 699.99997650627 701.000867306529 702.000217120421 702.998309547933 703.998564435055 705.002716140968 705.998505749852 706.998832080229 707.999648378236 709.001878789019 709.999663694877 710.998318374214 711.99817448376 713.001183749917 713.999138931304 714.996063324131 716.000457250288 716.999640377632 717.999970763095 718.999317942821 719.998220103494 721.000478251221 722.001343293484 723.000292349798 724.001761964827 725.000515375511 725.998435702258 726.996461526655 727.999515041596 728.998845434594 730.000044633696 730.998214927988 731.998771319841 733.000008030787 734.000166969905 734.998243021177 735.997083466478 736.999079441905 738.000272983739 738.998176565756 739.999792201765 741.000378874135 742.00104513932 742.999260057878 744.001273516299 744.997623629246 746.003578993408 747.001053921997 748.002331067928 748.998270490026 749.998918686756 751.000718318345 752.000745745538 752.999280346182 753.999703655219 754.999729840454 756.000633660848 756.998931258823 757.999050643967 758.998545102944 759.99832539636 760.99897997555 762.000644427045 763.000221235114 764.001128482738 764.999872357649 766.002228726789 766.998387904301 768.000608915229 768.998072463625 769.998875241457 771.002621227819 771.99745375683 772.998759717579 774.001589212412 774.997802025594 776.000540967385 776.998214208594 777.998527192059 778.99932133617 779.998038017455 781.000281592788 782.0006682625 783.000967589476 783.999526263969 785.002713051368 786.001463269631 786.999375264633 787.997495480496 788.997342720836 789.999531469358 790.996239052093 792.000677467076 793.003174922606 794.001950786485 795.000356400914 796.000548050053 796.999538761529 798.001513537134 799.000517950709 799.999394733205 800.997663902717 801.998996708519 803.000613191583 803.99985757876 805.001604941163 806.001476479907 807.000002256654 808.001595492976 808.999803897374 810.000223787929 810.998677753815 811.997122163423 813.002815554559 813.999019246466 815.000540740493 815.999074762713 817.000849003557 817.999929662064 819.000123140963 820.000345230868 821.002140235214 821.998411432825 823.004120292448 823.997128148812 825.001575529441 826.000958690147 826.999531826067 827.99933605508 829.000959071331 830.000036989632 831.00184029288 831.997620651326 833.000607640658 834.000845093187 834.999374057368 835.999890484467 836.999607463685 838.000613886964 838.999710169256 840.002750224439 841.001544573315 841.997259974739 843.002603041155 844.0032940929 844.998565288626 846.001094552581 847.00057387085 847.998043937313 849.000369305839 849.999619996662 851.00047893077 852.001828912253 853.002777340072 853.999713590151 855.000435301442 855.997160917064 856.998319244396 857.999847045995 859.001060117114 860.001779339619 861.001810015631 861.997232073819 862.996336300712 863.997456830756 864.997387792384 866.001296826343 867.001906550836 868.000509934552 869.002022340692 869.998641021153 871.002113628803 871.999556815901 872.997078629724 873.999158378695 874.999139210197 875.999868420249 876.996106127107 878.002377717539 878.996538095991 880.000499698205 880.999116427656 881.99951007186 882.99853190816 883.998459853901 885.001088246622 886.000524884959 886.998266666177 888.000187278411 889.00106157423 889.997621117321 890.999563439495 891.996699205326 892.999597423317 894.001244104137 895.003940644078 896.000423092402 897.000841404369 898.000383664451 899.002553740154 899.998886258883 900.997161930994 901.998650642169 902.999048758234 903.998141504417 904.998939596583 906.001208842695 907.001794795471 908.002101473807 908.99964709602 909.998865215781 910.998452655528 912.000534350286 913.0003631055 913.999020317925 914.997626751314 915.996441549424 916.995639978309 918.002780525104 918.999648104255 919.997865091869 921.00087970025 921.999213298492 922.999657076585 923.997298966066 924.996343445324 925.998249755594 926.99897158605 927.997635160936 929.000539096269 930.000234994196 931.001642601652 931.998587701735 933.000495496451 933.999298950383 934.995602679756 935.997928652567 937.001209026074 937.99948706723 938.998265640291 939.998834681865 940.999563638697 942.000214089393 942.999494670923 944.000488808623 945.001576757805 946.000602900251 947.001461415296 947.997913640996 948.997203629872 949.997816872037 951.00009951619 951.997712332593 953.002231161485 953.99873341492 954.999918192464 956.003154249071 956.999706412391 957.999012853132 959.000757255146 960.000632801085 960.997980223211 961.997940488833 963.000335873428 963.999096503904 965.000846100619 965.998659465001 967.001050664078 967.999951369817 969.003599266711 970.002512807886 971.001573339392 971.999183764034 973.000042318941 973.999301390131 974.998858920697 976.001618464275 976.99803492353 978.000606263043 979.001447170212 979.998174169395 980.999686436796 981.999682319187 983.000713277544 983.999392099231 985.002190606403 985.998100809207 987.000335072742 988.002917363761 989.000146313135 989.998655722894 991.001209611805 992.000504008085 992.999814384602 994.00183352107 995.002278609074 996.001377030055 997.00269744248 997.997564874946 999.000795279196 999.997974316125                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.33805339499648E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010245550196 2.00032303229164 2.99997712943552 4.00020650676397 5.00017777283657 5.99987388912387 6.99992997700604 8.00015219291725 9.0000163036881 10.0003908914699 10.9999224096296 12.0011917655876 13.0004168367269 14.000185143081 14.9999949056775 15.9999212670803 16.9998928135956 18.0015570640685 19.0001010295105 20.0002622840141 21.0003387868444 22.0000319737073 23.0003024881265 24.0000302892906 25.0002217095611 26.0000561471226 27.0000014064263 28.0001032135268 28.9999218255277 29.9999267599377 31.0000579022299 31.9998611800029 33.0002321839162 34.0004056105637 34.9996708946884 36.0002615019974 36.9998093084572 37.9999195153535 39.0000829631356 39.9999164584604 40.9982174796188 42.0015801964237 43.000008578242 43.9992053490728 44.999902904087 45.999842356625 46.9996913397359 48.0000383439064 49.0000186434844 50.0000296262286 50.9997071721008 52.000423390698 52.9999819477637 54.0002168841561 55.0002040441265 55.9998845022688 57.0002920142012 58.0001993018014 59.0000388902555 59.9996856588357 61.0000585683478 61.9983638921494 62.9999089594013 63.9999508279665 65.0001296959103 66.0008071650463 67.0002295660622 67.9992240336533 68.999932146296 70.0003523329144 70.9999569424608 71.9999585038272 73.0001030179617 74.0000055531679 74.9983281841707 76.0003882410085 77.0001966063351 77.9999523860828 79.0011296773368 79.9997871114274 80.9999405101624 82.0005574812153 83.0014682077484 84.0002826000406 85.0000342602757 86.0001591086586 86.9999918977077 88.0004263233386 88.9998960207718 90.0001741261783 90.9999065667459 91.9985441217545 92.9985374010072 94.000170305824 95.0000421458355 95.998666369975 96.9995005108162 97.999788742157 99.0010330757453 100.000516885822 101.000230694219 101.999613651873 102.999518589294 103.998722452134 104.998982841515 105.999886126376 107.000090456031 107.999895962564 109.000065460336 109.998242072258 110.999906544976 111.999605867006 112.999338247736 113.999881685346 115.002052485683 115.999357810043 117.001070606603 118.001559121472 119.000277882143 120.000420898245 120.999583835714 122.000520106297 123.000495971823 124.001137663064 125.002171179465 125.999749672253 127.001677872472 127.999926263723 128.999667238562 129.998546722361 130.998003416286 132.000180656454 133.000006230712 133.999667230516 135.000720130508 136.000406049722 137.001379655889 137.998241534966 138.999316450117 140.000037570076 141.000075189765 142.000329081802 143.000590041932 144.002042009101 145.001725765993 146.000433839185 146.999822284322 147.99987912899 148.998170047653 150.000961254487 150.999402833245 151.998862645322 153.000206116023 153.99916294757 155.001615587908 156.000785505289 157.000585871655 157.998482299032 158.998272024923 160.000772982892 161.001058170199 161.999696396579 163.002057663439 164.000293325534 164.997760260779 166.000389332206 166.99945288234 167.99970828449 169.000447506296 170.001579874171 170.999514740604 172.001131353657 173.0008147167 173.998428728184 174.997950619542 176.000373708238 177.00205968883 177.999378532032 178.999656315317 180.001800872502 180.999179314811 182.001355649209 182.998036343424 184.000193870491 184.99914339507 185.998914248335 186.999191647254 187.999994069347 188.998875322607 189.999771723657 191.002597243041 192.001248313435 192.998888690474 194.001799165659 194.999094272218 195.997790853079 196.999467382711 197.999099607655 199.000494131424 200.000021385427 201.000727820512 201.998094392217 202.997961039119 204.000514585321 204.998582978589 206.001282007 207.000944901935 208.000440179451 208.999354751223 210.001250042441 210.99993799325 212.000792727766 213.000320078532 214.000339559614 214.999416779072 216.00080246481 217.001783710426 217.998301301219 219.00172365192 220.000507783998 220.999958315073 221.999431099229 223.000272810414 223.99849912513 224.997469689035 225.998516753412 226.999431856697 228.000379699766 229.00160348802 229.998973952098 230.998160218259 232.000568134907 233.000528612768 233.99875948555 234.997960231107 236.002116133406 236.998882179992 237.999123682032 239.000548386223 240.001014376108 241.001186635557 242.000191637437 243.001641798665 243.998566820573 244.999357472296 245.999686490834 246.999680342694 248.000834551949 249.00022214133 249.997462188615 250.999783098097 251.997521596378 252.999363802995 253.998848220313 254.998668951433 255.998527092509 256.999419902001 257.998481592666 259.000925517953 259.999210970979 261.001507948676 262.002333963612 263.001428399506 263.998081300568 265.001376823631 265.999357298804 267.000586528779 268.001202640583 268.99866759806 270.001214869153 270.99751639745 271.998515705572 273.000090854358 273.999298029274 275.000823631007 275.999001243701 276.998772731886 278.000959097133 279.001258776064 279.999265067769 280.999748174485 282.000662250338 282.998716853037 283.998333783277 285.001821521916 285.99854396124 286.998893861448 288.001446108387 288.998042055892 289.998600404707 290.997013804334 292.000738079476 292.998664045936 294.001639398766 295.001399774386 296.001708248534 297.000033038696 298.000470460906 299.000440467451 299.998533554057 301.001871348778 301.99734668638 302.999266858473 304.000300950359 305.000448831465 306.000627032711 307.00062496584 307.999928270977 308.998760145418 309.99789688599 310.998455267218 312.000157577421 312.998923155497 313.998194395968 315.000190920329 315.999729194198 317.000301246031 318.001206319063 318.998872374959 319.99797916277 320.998635865728 321.999779091228 322.99865963199 324.001858122513 324.999583534822 326.000412785381 326.998929826855 328.001666116862 328.999307448738 330.00006270359 330.999324043416 332.000590349371 332.998399906706 333.998018769193 334.998749217306 336.002252848851 337.000872059638 338.000983209021 338.998478701585 339.998644882288 340.997978389755 341.999854772454 342.997780271068 344.000367309826 345.001263644309 346.002062435469 346.997759112778 348.000897455706 349.001566177196 350.001734004166 351.000935434277 352.00062493766 353.002331683871 354.002644783959 354.99926470045 355.998412977233 357.000949825745 357.999650765381 359.001296618711 359.999298491702 360.99888431051 362.001489895121 363.000849604277 364.000498393 364.998148939828 366.000032374114 366.999690666306 368.000017842198 369.001677182045 370.002023088502 370.998073144928 372.001185694226 373.000505270418 373.997865196686 375.000187019945 376.002087544727 376.998011971789 378.000182524615 379.002188255267 380.000807094932 380.998023198025 382.002275879522 383.000698257311 383.997458925744 384.999504754506 385.998830584761 387.000373946848 388.001357744179 389.000088171317 389.99957330083 390.999418298952 392.000997765989 392.999651900334 393.999411051912 394.999757134816 396.000149546041 396.999166537467 397.998900146469 399.002349478896 399.999139976061 401.001771240949 402.001741916619 402.999707517266 404.002284019707 404.997599760234 405.999002309769 407.000096995728 407.997701819094 409.000387714419 409.998440242655 410.999441046278 411.998162235095 413.000604776028 413.999892134175 414.997408556312 415.998421988949 416.999145084868 418.001736348207 419.000305264636 419.997919793087 420.999668951481 421.998326370402 422.99900115229 423.998368508972 424.998405070712 425.999412391031 427.000482410344 428.000800962669 428.998727930935 429.999591818439 430.999682540485 431.997523705372 433.000757639996 433.999188580707 434.998530847582 435.998685213373 436.998567605186 438.002111256726 439.000638820555 439.99856266392 441.002295527175 442.001618306336 443.001574248134 444.00034436202 445.002727987064 446.001899502421 446.998269793898 447.999042373465 448.999078346616 449.99928647695 451.002683694747 451.997769092961 453.000344773834 453.99814417098 455.002927570507 456.000157884177 456.999960638468 457.998842397319 459.000247826329 460.000022540536 460.997728981712 461.999097460166 462.999401127438 463.999390415269 465.000454250343 465.997967222096 467.000290147216 467.999076755727 468.999044809303 469.998408011538 471.001808428784 472.000153980931 473.002402793373 473.998499378118 475.001076975298 475.998484228207 477.001063862857 478.00101324602 479.000632227009 480.001859294914 480.999626764467 481.998137535446 483.000661648788 483.999850298755 484.998338486902 485.998835253084 487.000227505737 487.999048495602 489.000398283856 489.997380505172 490.999422902714 491.999985586379 492.999089620383 493.999847097174 494.998026167223 495.99877493409 496.998077950514 498.001272306081 498.997627115916 500.001811299166 501.002217394781 501.999116942013 503.001607616263 504.001487263522 505.000543364794 506.000249340551 507.000837373517 507.998807269612 509.00108218246 510.002772989387 511.000628281467 511.999201308014 513.002726699782 514.000514179009 515.000242711938 515.998421110004 517.001316040039 517.999574503336 518.999930019817 519.999371354003 521.000425006892 521.997926160179 522.99889347968 524.001769294394 524.99968866063 525.999178291402 527.000644789939 527.99975129833 528.9980283012 529.999854831661 530.998577719885 532.001223721771 532.9991733407 533.998738959053 535.000442752097 535.99960933145 536.999147175492 538.000977364815 538.997753275863 540.002459524753 541.001728226755 541.999172860712 543.001931242941 543.998964901742 545.001014195983 546.001595787764 547.000852061062 547.998392385964 549.00078242518 549.99921499535 550.996274486821 552.001577509623 553.001010435697 554.00157447791 554.99844785575 555.999327715165 556.998892486314 558.001356417964 558.99877378194 560.000917880901 561.001104062064 561.997038389951 563.001719242316 563.997823395682 564.999592995072 566.000183455657 566.997678083296 568.001363882528 569.000527609856 570.002250047194 571.000335940802 572.002144409583 573.002100449417 573.998575474105 575.001123304032 576.002417992162 577.001392370185 578.001098425824 579.000755846575 580.000584127183 581.001422897514 582.002616271756 583.001470999572 583.998743889458 584.998087760234 586.000124457502 587.000241109005 588.002558730015 588.99744540089 590.001680837821 590.998943938012 591.998619843933 593.000559530554 593.997433292957 594.999843955721 595.998794111249 596.999670918128 598.00137214821 598.999766566732 599.998031929672 601.000279431527 601.99814886278 602.998737621334 603.998133683583 605.000881756047 606.000922375117 606.998991899905 607.998661453379 608.998926710027 610.000919258227 610.999086929217 611.998596179386 612.99999342849 613.998746569349 615.000269918312 615.999099056036 616.99897114336 617.999720499546 619.001508589683 619.999498502457 621.001376787093 621.999825970864 622.99973926972 624.00171593851 625.003058174506 626.000213510711 626.998911578778 627.998735338138 628.997509384356 630.001654853312 630.998753325256 632.000597348429 633.000353973152 634.000178722386 634.996721856385 635.999084499828 636.998933736201 638.000151350955 638.998778643646 640.00100807002 640.998158087753 641.998768130446 642.999154435901 644.002580202112 645.000700043171 645.998408118774 646.999832749715 647.99873484965 648.998349460265 649.999519812312 651.001753702932 651.999562163767 652.996320500682 654.00132584396 654.999827587404 656.000277188786 656.99844596814 658.002361568032 659.00147656392 659.999095135935 661.001425556396 661.998627779203 662.998958481837 663.998926329258 665.00142967079 665.999482638803 667.001049014599 667.999596277657 668.998738097717 670.00276048547 671.001100963937 672.000915310208 672.999892775697 674.004074000796 675.002638895214 676.001368267775 677.000770512096 677.999147323335 678.999413575119 680.001299092583 681.001537013553 681.999807854372 682.997488196526 684.001642856095 685.000495076024 686.000059104446 687.002030008407 688.000636872352 688.999879680149 689.998926115435 691.001635229106 691.99959551026 693.001864142529 693.999231786474 695.000501123247 695.999638907182 696.998001233991 698.001345792379 699.000678785283 699.999976420024 701.000867332842 702.000217077555 702.99830955492 703.998564403258 705.002715996263 705.998505687628 706.998832029149 707.999648446024 709.001878807948 709.999663734914 710.99831849737 711.998174449522 713.001183752371 713.999138910867 714.996063314404 716.000457241376 716.999640323293 717.999970753472 718.999317941258 719.998220072052 721.000478402766 722.001343365234 723.000292440587 724.001762003629 725.000515520985 725.998435735158 726.99646144261 727.999515010938 728.998845540429 730.000044668372 730.998214900113 731.998771288246 733.000008043111 734.000167016154 734.998243044975 735.997083505873 736.99907942082 738.000272995552 738.998176558505 739.999792245494 741.000378918455 742.001045176942 742.999260046498 744.001273571192 744.99762363459 746.003579035048 747.001053951927 748.002331055608 748.998270599901 749.998918698456 751.000718275056 752.000745729296 752.999280544163 753.999703692873 754.99972995558 756.000633671262 756.998931303711 757.999050761869 758.998545147866 759.998325436399 760.998980020929 762.000644282025 763.000221178729 764.001128457324 764.999872437425 766.002228595937 766.998388035257 768.000608840717 768.998072390712 769.99887537257 771.002621340746 771.997453718499 772.998759666544 774.001589323588 774.997802153953 776.000540904152 776.998214149192 777.998527222073 778.999321406681 779.998038095676 781.000281470445 782.000668263323 783.000967598093 783.999526382713 785.002713066187 786.001463276117 786.999375210967 787.997495488969 788.997342724118 789.999531588417 790.996239059904 792.000677499993 793.003174791669 794.001950622449 795.000356405492 796.000548023765 796.999538777932 798.001513505134 799.000517993345 799.999394590083 800.997663930587 801.998996768314 803.000613158613 803.999857514849 805.001604968572 806.001476426418 807.000002253865 808.001595497537 808.999803876533 810.000223927876 810.998677777874 811.997122149129 813.002815501234 813.99901924169 815.000540787143 815.999074658295 817.000849069007 817.999929775228 819.00012307972 820.000345363267 821.002140196563 821.998411418006 823.004120208146 823.99712816299 825.00157558834 826.000958702756 826.999531712972 827.99933623063 829.00095908476 830.000037038539 831.001840315317 831.997620498601 833.000607673367 834.000845088701 834.99937413625 835.999890498149 836.999607431947 838.000613949643 838.999710219044 840.00275030336 841.001544687815 841.997260052842 843.002602595906 844.003294173265 844.998565272718 846.001094605001 847.000573810192 847.998044009082 849.000369294578 849.999619918136 851.000478895648 852.001828965346 853.002777309996 853.999713582726 855.000435166104 855.997160912475 856.998319352734 857.999847165874 859.001060156085 860.001779470537 861.001810021787 861.99723205737 862.99633623739 863.997456998319 864.99738780358 866.001296901707 867.001906428044 868.000510005574 869.002022323558 869.998640995622 871.002113640601 871.999556837951 872.997078703053 873.999158378645 874.999139249137 875.99986845791 876.996106114617 878.002377822296 878.996538188392 880.000499653518 880.999116387481 881.999510133975 882.998531947863 883.998459810234 885.001088209159 886.000524767806 886.998266585001 888.000187213699 889.001061451433 889.997621158979 890.99956337977 891.996699184444 892.999597459653 894.001244158411 895.003940588823 896.000423167139 897.000841276914 898.000383684947 899.002553668553 899.99888622813 900.99716195357 901.998650801504 902.999048701896 903.998141498786 904.998939553518 906.001208827395 907.001794822285 908.002101526606 908.999647138648 909.9988653078 910.998452798005 912.000534260199 913.000363169091 913.999020289805 914.997626883127 915.996441566246 916.995639957826 918.002780452853 918.999648127445 919.997865142875 921.000879656434 921.999213231203 922.999657162929 923.997298976587 924.996343378768 925.99824984554 926.998971553266 927.997635065342 929.000539097945 930.000234957798 931.001642485165 931.998587638549 933.000495560225 933.99929896519 934.995602588687 935.997928581209 937.001209212138 937.999487211352 938.998265598776 939.998834679101 940.999563604191 942.000214010735 942.999494636865 944.000488591046 945.001576830815 946.000602907564 947.001461396376 947.997913706451 948.997203732559 949.997816832423 951.000099465409 951.997712227832 953.002231261368 953.998733409657 954.999918135266 956.003154266768 956.999706332006 957.999013009651 959.000757193713 960.000632957344 960.997980220117 961.997940523048 963.000335836903 963.999096415392 965.000846105468 965.998659531772 967.00105078147 967.999951432329 969.003599331444 970.00251279747 971.001573358542 971.99918387369 973.000042280493 973.999301404366 974.998859046389 976.001618535023 976.998034813499 978.00060617324 979.001447258944 979.998174227967 980.999686328598 981.999682409667 983.000713298796 983.99939225128 985.00219060231 985.99810087037 987.000335087556 988.002917207629 989.000146342261 989.99865567059 991.00120953249 992.000504056522 992.99981453595 994.001833665556 995.002278563999 996.001376990065 997.002697428197 997.997564826531 999.00079526949 999.997974206501                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.59079197865468E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010312095402 2.00032468603273 2.99997633715506 4.00020779773056 5.0001784593685 5.99987605571486 6.99993005731078 8.00015388498182 9.00001616274462 10.0003891401764 10.9999222926499 12.0011911667508 13.0004166746588 14.0001870273238 14.9999937939638 15.9999223597893 16.9998943077932 18.0015566135429 19.0001008082166 20.000262883381 21.0003390981298 22.0000311090529 23.0003026423655 24.0000296158018 25.0002203913988 26.0000562413575 27.0000010369102 28.0001022841472 28.9999202306808 29.9999266430539 31.0000585186048 31.9998614852355 33.0002322962464 34.0004045262775 34.9996727033685 36.0002606829434 36.9998084565668 37.9999196542765 39.0000832684724 39.9999191046072 40.9982187132433 42.0015803736203 43.0000085739933 43.9992054762271 44.9999032134742 45.9998451765351 46.999691738471 48.0000356148007 49.0000209845894 50.0000317508806 50.9997096260737 52.0004213293854 52.9999828730068 54.0002194041322 55.0002031898876 55.9998840045178 57.0002915024948 58.0002000802483 59.0000394632609 59.9996844216529 61.0000585467262 61.9983612092252 62.9999081272981 63.9999499498911 65.0001306409631 66.0008075689275 67.000231534793 67.9992240273848 68.9999325601039 70.0003519793615 70.9999560402466 71.9999586947016 73.0001024631334 74.0000044616016 74.9983278970681 76.0003861805098 77.0001968839015 77.9999525794065 79.0011270039181 79.9997875671924 80.9999392425505 82.0005575376381 83.0014675891436 84.0002852292906 85.0000363406933 86.0001578900471 86.9999906261909 88.000425568857 88.9998969631843 90.0001720183084 90.9999063092471 91.9985436765052 92.9985363058675 94.0001727774242 95.0000428464044 95.9986656604491 96.9995014072618 97.9997878076105 99.0010331270556 100.000515188386 101.000229515733 101.99961559538 102.999517112811 103.998721460419 104.998981931866 105.99988518106 107.000090323565 107.999894987722 109.000066394925 109.998241787772 110.999904640215 111.999605427028 112.999338089395 113.999880434851 115.002051843436 115.999359425819 117.001070007514 118.001560863231 119.000277779365 120.000421280587 120.999581531698 122.000519089454 123.000494432868 124.001138310731 125.002173036453 125.999750507232 127.001680283776 127.999924471261 128.99966673007 129.99854722592 130.998004177855 132.000182404226 133.000006798593 133.999669195671 135.000719131949 136.000408099906 137.001381300428 137.998242430222 138.999314957078 140.000038947618 141.000075814706 142.000329388572 143.000589322518 144.002042593522 145.001725504125 146.000434681533 146.999823851082 147.999877992643 148.998171373927 150.000962200067 150.999401340291 151.998862375209 153.00020781999 153.999166419426 155.001613943732 156.000782389528 157.000586321152 157.998483003611 158.99827041828 160.000774634656 161.001059109901 161.999698844423 163.002057907461 164.000291627849 164.997761443447 166.000388733577 166.999452580703 167.999706759418 169.000447316063 170.001580323248 170.999514346748 172.001129609023 173.000817058396 173.998427362773 174.997948481399 176.000372698204 177.002062944245 177.999378931511 178.99965667246 180.001799341305 180.999178491628 182.001354904409 182.998038522587 184.000194585517 184.999142313213 185.998913154494 186.999189639764 187.999995454009 188.998876207711 189.999772213591 191.002598557836 192.001246573446 192.998889930736 194.001799873738 194.999093053636 195.997788593961 196.999469656577 197.999098164644 199.000493438151 200.000020774623 201.000727423616 201.998093631617 202.997961708281 204.000515278832 204.998582017362 206.001284108036 207.000943378872 208.000439105101 208.999355249612 210.001250098492 210.999939614551 212.000794368772 213.000319803157 214.000337286262 214.999418094261 216.000804290169 217.001784463824 217.998299359356 219.001722988281 220.000506874164 220.999956568612 221.999429438387 223.000273227686 223.998500165564 224.997467492333 225.998514427082 226.999430908414 228.000380083606 229.001603075528 229.998976916023 230.99815985182 232.000566863253 233.000526191073 233.99875924695 234.997959492713 236.002115084629 236.998880698924 237.999122098603 239.000550887425 240.001011743814 241.001187158106 242.000194372477 243.001641522011 243.998566141603 244.999358197357 245.999687213527 246.999680889944 248.000833743144 249.000222893202 249.997462695635 250.999785192332 251.997519756528 252.999364653141 253.998848940725 254.998669452747 255.998527279167 256.999418346194 257.998483912732 259.00092230931 259.999208252725 261.001509223133 262.00233635563 263.00142889676 263.99808089211 265.00137937727 265.999355747902 267.000587485813 268.001202817818 268.998667862204 270.001213413693 270.997515238869 271.998514012464 273.000090308478 273.999298048468 275.000823445616 275.999001356565 276.998770599884 278.000959953251 279.001258871162 279.999266507068 280.999749530771 282.000662208362 282.998717994984 283.998333886439 285.001820962422 285.998541287161 286.998892445779 288.001446403481 288.998040885579 289.998600334536 290.997016960291 292.000738706501 292.998663688584 294.001640299954 295.001399916397 296.001703476232 297.000033720204 298.00047097047 299.000438341355 299.998535835791 301.001870811149 301.99734810505 302.999265761824 304.000299022304 305.000447024633 306.000626106728 307.000623600856 307.999928131753 308.998758243398 309.997899205085 310.998455904563 312.000158665842 312.998921504872 313.998195222428 315.000191760826 315.999727216742 317.000300215117 318.001206671317 318.99887264674 319.997977146687 320.998633637688 321.999778607804 322.998658689015 324.001857912083 324.999584302006 326.000411518402 326.998929906321 328.00166652102 328.999308368763 330.000062958559 330.99932356735 332.000589714926 332.998400582003 333.998019604828 334.998749825731 336.002253535321 337.00087034672 338.000983641728 338.998477520368 339.998643229264 340.997977349205 341.999852810486 342.997781129437 344.000367576351 345.001263099498 346.002062245146 346.997758165273 348.000899020877 349.001564159243 350.001734393485 351.000938112034 352.000622246904 353.002332965662 354.002645352131 354.999264540779 355.998413822132 357.000948488272 357.999649234867 359.001295006439 359.999298489985 360.998884850818 362.001489956352 363.000849720095 364.000500371135 364.998151013983 366.00003089569 366.999692673603 368.000018771947 369.001679649282 370.002022159949 370.998072497483 372.00118705885 373.000503293234 373.997867004123 375.000187485145 376.002087544914 376.998013944151 378.000184278466 379.002186962057 380.000808231344 380.998022542085 382.002272143115 383.000699650619 383.997458759701 384.999507527105 385.998829577859 387.000374033949 388.001358434673 389.000090439298 389.999575202771 390.999419759736 392.000997815062 392.999650521974 393.999411451863 394.999757526075 396.000150184427 396.999168457048 397.998900676403 399.00235141871 399.99914093132 401.001771088709 402.001743200744 402.999707955553 404.002285399462 404.997600588519 405.99900175572 407.000098269536 407.99770318122 409.000388092853 409.998442183986 410.999441885116 411.99816024582 413.000605711311 413.999890939388 414.99740907722 415.998425977745 416.999145296121 418.001735247575 419.000305025969 419.997919488891 420.999669039931 421.998326042371 422.99900127374 423.998367959164 424.998405891367 425.999414328709 427.00048043152 428.000801523613 428.998727925145 429.999590539659 430.999682202511 431.997522101644 433.000757603769 433.999189951205 434.998527310571 435.998686214811 436.998567463034 438.002111231106 439.000640600314 439.998562620756 441.002297662495 442.001617463614 443.00157183377 444.000342789222 445.002725333456 446.001901829177 446.998272270477 447.999040555125 448.999078899024 449.999284727 451.002682228716 451.997767703654 453.000345892726 453.998144947296 455.002927501105 456.000158632063 456.999961170781 457.998845287654 459.000250832719 460.000021328844 460.997729665456 461.999097752896 462.999400778205 463.999391051937 465.000454486317 465.997966769708 467.00029037183 467.999076786447 468.999043594004 469.998408348507 471.001808521535 472.000153766569 473.00240292796 473.998499034407 475.001074951533 475.998483372174 477.001061773147 478.001013212822 479.000631070043 480.001862591848 480.99962751714 481.998137087879 483.000660904184 483.999849724502 484.998338860742 485.998835803898 487.000226774918 487.999047936629 489.000394770844 489.997379225095 490.999425889628 491.999986499378 492.999090053765 493.999847232207 494.99802726892 495.998774153431 496.998075938595 498.001272375805 498.99762628969 500.001810078336 501.0022172209 501.999117711536 503.00160761652 504.001484665283 505.000542696929 506.000248930216 507.000838374856 507.998808782001 509.001082054094 510.002774537735 511.000629593006 511.999200202856 513.002726428301 514.000511587458 515.000242058105 515.998423599253 517.001314009196 517.999572841763 518.999929956417 519.999369125853 521.000424530659 521.997925350918 522.998891965931 524.001769200167 524.999689127161 525.999179207761 527.000644008043 527.999751606089 528.998025465237 529.99985454757 530.9985770989 532.001222042365 532.999173855901 533.998739672263 535.000442297601 535.999608153029 536.999148261483 538.000978482546 538.997754305273 540.002459463449 541.001727174565 541.999175816549 543.001929338709 543.998966118871 545.001016784147 546.001595028564 547.000851276075 547.998391785773 549.000783180144 549.999215165623 550.996274418202 552.001576959527 553.001009993297 554.001572411535 554.998449992851 555.999328112306 556.998892421194 558.001356280713 558.998773590516 560.000918107 561.001102465841 561.997035178649 563.001719576188 563.997824201884 564.999592211771 566.000180659388 566.997677080848 568.001363948154 569.000528128207 570.002250697339 571.000335994373 572.002143902265 573.002100579801 573.998574765504 575.001124189303 576.002418138185 577.001392478581 578.001096118319 579.000755978692 580.000586965468 581.001424027935 582.002615083878 583.001469289958 583.998742240805 584.9980877845 586.000125629879 587.000240156782 588.002558251252 588.997444386298 590.001682247056 590.998944795025 591.998621581967 593.000560073521 593.997433731795 594.999843398107 595.998796233206 596.999668536343 598.001372151621 598.999767514611 599.998029406392 601.00027692536 601.998148492011 602.998737020058 603.998131934391 605.000880818002 606.000921432535 606.998989291759 607.998661249256 608.998924444973 610.000920410658 610.999088323099 611.998596619363 612.999995190596 613.998748219472 615.00027009426 615.999097814793 616.998971999393 617.999717981763 619.001509051796 619.999497561044 621.001378724018 621.999825789612 622.999739090524 624.001714444583 625.003056447856 626.000213038104 626.998910797256 627.998735772095 628.997509807196 630.001655405293 630.998752274419 632.000599041364 633.000354225444 634.000179249739 634.996724568162 635.999086150222 636.998932503612 638.000150223879 638.998778908541 640.001007537114 640.998158695408 641.998769758252 642.999155749348 644.002579519172 645.000700480058 645.998407043545 646.999834535432 647.99873272732 648.998348630515 649.999520901047 651.001753790881 651.999561779486 652.996320310165 654.001325338899 654.999827249947 656.000280478473 656.998445813613 658.002361489649 659.001476537395 659.999098015185 661.00142660283 661.998627261147 662.998954444196 663.998930121786 665.001431110017 665.999480201075 667.001047531752 667.999596895734 668.998737957468 670.002758474822 671.001100860575 672.000916154229 672.999893317886 674.004073035731 675.002640877947 676.001371578727 677.000769513738 677.999148222735 678.999418232363 680.001299879328 681.001536706 681.999808010293 682.997488702609 684.001645378158 685.000494880164 686.000056668278 687.00202723981 688.000636847711 688.999880542001 689.998924765616 691.001636982147 691.999595648667 693.001863536723 693.999232332102 695.000503463443 695.999637338251 696.998002220493 698.001345371264 699.000677322301 699.999976230449 701.000865651713 702.000217767256 702.998308836212 703.998565523638 705.002716883878 705.998507735568 706.998832069321 707.999648344753 709.001878754656 709.999665027681 710.998317510282 711.998174904665 713.001184817162 713.999138257875 714.996061680696 716.000456708657 716.999642430175 717.99996898986 718.999318620649 719.998219186216 721.000474636483 722.001343153996 723.000294320096 724.001757258785 725.00051245214 725.998435122769 726.996459306774 727.999515984853 728.998846255531 730.000046255956 730.998215150832 731.998772950511 733.000007968935 734.000166696212 734.998244563291 735.997083188074 736.999077504189 738.000274531317 738.998177433966 739.999792038923 741.000378854997 742.001045494374 742.999260833752 744.001274254307 744.997624964524 746.003580439836 747.001054650592 748.002330348594 748.998271379668 749.998917690422 751.000717594867 752.000744707859 752.999282356738 753.999703669961 754.999728668513 756.000631311128 756.998930366929 757.999051299531 758.998543399064 759.998327899743 760.998978176778 762.000644701647 763.000220915624 764.001125798292 764.999873596272 766.002230029188 766.998389903848 768.000611070453 768.99807145638 769.998873961484 771.002621217819 771.997453533361 772.998760225298 774.001591661867 774.997802553351 776.000537857205 776.998215622393 777.998526197695 778.99932167345 779.998038297305 781.000281454477 782.000669439453 783.000968348766 783.999530475579 785.00271233653 786.001460397922 786.999375551372 787.997494725255 788.99734278448 789.999531694523 790.996241321262 792.000678485683 793.003176786256 794.001951173391 795.000354468521 796.000549323866 796.999538996995 798.001515533615 799.00051762839 799.999393302183 800.997663156652 801.998998781341 803.000614858807 803.999856946589 805.001605249037 806.001477907391 807.000002205523 808.00159510086 808.999804144283 810.000223533962 810.998680253731 811.99712344058 813.002817212511 813.999018805261 815.000541321346 815.999076534364 817.000846027946 817.999929220107 819.000123218336 820.000346658172 821.002139953981 821.998413874215 823.004119508789 823.997129202366 825.001576230288 826.000961479287 826.999532629174 827.999336478619 829.000958159258 830.000036684188 831.001839811804 831.997620783988 833.000609231856 834.000844640389 834.999373136807 835.999888295326 836.999605866378 838.000613755204 838.999710383462 840.002750814137 841.001543469286 841.997260343525 843.002604256996 844.003293292154 844.998564091461 846.001093269921 847.000575054997 847.99804375838 849.00036729418 849.999618788058 851.000476184237 852.001828543822 853.002779445662 853.999715422921 855.000436132823 855.997160941775 856.998320914509 857.999844850194 859.001062834241 860.001777437317 861.001809409619 861.997234364532 862.996335209227 863.997456994904 864.997386068927 866.001296570417 867.00190676437 868.000508809337 869.002023060883 869.998642931034 871.002111529273 871.999555797 872.99708061465 873.999156826957 874.999141477076 875.999868319154 876.996105272028 878.002377535093 878.996539181985 880.000498995526 880.999115647547 881.999511640098 882.998530890207 883.998458228144 885.00108877883 886.000525403677 886.998265667724 888.000186294073 889.001060625646 889.997622118887 890.999565787087 891.996698774445 892.999596827068 894.001244563094 895.003942637665 896.000423442222 897.000844183163 898.000383047733 899.002554991911 899.998887769845 900.997160085543 901.998649807684 902.999049181459 903.998142101703 904.998940121056 906.001209818228 907.001796294033 908.002103075228 908.99964683375 909.998865338011 910.998451536206 912.000536024712 913.00036107792 913.999021200692 914.997626770219 915.996441106634 916.995641657697 918.002781310461 918.999649110427 919.997867476327 921.000879484683 921.999211708224 922.999656661746 923.997298205541 924.996345833591 925.998247500369 926.998969617731 927.997636497558 929.000541331729 930.000235815977 931.001645080951 931.998589766656 933.000496289691 933.99929963297 934.995601338622 935.997928375295 937.00120747549 937.999486375678 938.998266320599 939.998836232728 940.999562609068 942.000215116785 942.999500084719 944.00048927514 945.001574895298 946.000603782753 947.00146123642 947.997914403926 948.997202877055 949.997815704074 951.00010090367 951.997710884895 953.002233089632 953.998733338106 954.999918755774 956.003153268102 956.999705972319 957.999009914524 959.000758495401 960.000633327968 960.997981270256 961.997941448841 963.000335431603 963.999095707525 965.000846761385 965.998658681832 967.001049912085 967.99995131997 969.003596642125 970.002513857727 971.001571151304 971.999183692765 973.00004426846 973.999302034887 974.998861635221 976.001616534903 976.9980343988 978.00060324244 979.001447918852 979.998175814957 980.999688081748 981.999680041885 983.000715309593 983.999393285674 985.002188620114 985.998101225634 987.000335423443 988.002916855462 989.000145746165 989.998653610189 991.001210854039 992.000503432578 992.999816499822 994.001829120233 995.002282494648 996.00137653285 997.00269928866 997.997564986994 999.000794323402 999.997976407768                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.50450698053334E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010229802486 2.00032300994265 2.99997702817267 4.0002065061358 5.00017761095398 5.99987383128268 6.99992982940917 8.00015217526062 9.000016258583 10.0003907056283 10.9999224983246 12.0011916902937 13.0004167189346 14.0001851423354 14.999994873315 15.9999212334525 16.9998927907821 18.0015570894232 19.0001008559669 20.0002623140978 21.0003388167142 22.000031974844 23.0003024106722 24.000030191549 25.000221546625 26.0000562108153 27.0000012879539 28.0001032547771 28.9999217469895 29.9999268490724 31.0000578642277 31.9998610683673 33.0002321727156 34.0004055816582 34.9996707854921 36.0002613589731 36.9998092692661 37.999919592072 39.000082923294 39.9999164569324 40.9982173468712 42.0015800075651 43.0000084131447 43.9992052079735 44.9999028312631 45.999842350281 46.9996914051434 48.0000382731817 49.000018531706 50.0000295568076 50.9997070793496 52.0004233553446 52.9999819268505 54.0002168247489 55.0002038735475 55.9998845164333 57.0002919265117 58.00019916948 59.0000389720887 59.9996855273892 61.0000585450076 61.9983639841334 62.9999088056965 63.9999506633298 65.0001296512454 66.000807230665 67.0002294755437 67.999223976248 68.9999320812831 70.0003522842148 70.9999566883804 71.9999583827764 73.0001029093151 74.0000055764378 74.9983281787205 76.0003881035845 77.0001966430297 77.9999522839037 79.001129658952 79.9997871270025 80.9999404722571 82.0005573325278 83.0014681841128 84.0002825488562 85.0000342937087 86.0001590078711 86.9999917733741 88.0004263824157 88.999895902389 90.000174209753 90.9999065707034 91.998544016755 92.9985372909902 94.0001704318772 95.0000420966091 95.9986663485757 96.9995004817559 97.9997885696567 99.0010329198337 100.000516801404 101.000230651997 101.999613687677 102.99951844602 103.998722386606 104.998982756302 105.999886018769 107.000090233143 107.999895951678 109.000065524412 109.998241996423 110.999906432278 111.999605812869 112.999338239097 113.999881568058 115.002052434091 115.999357798733 117.001070478441 118.001559075636 119.000277812759 120.000420793834 120.999583760983 122.000520068753 123.000495926147 124.001137719957 125.002171167959 125.999749558768 127.001677958537 127.99992612879 128.999667033023 129.998546694468 130.998003356012 132.000180661791 133.000006063265 133.999667259752 135.000720216149 136.000406029607 137.001379522901 137.998241451913 138.999316512778 140.000037474957 141.0000751884 142.000329032949 143.000589938762 144.002041803087 145.00172568236 146.000433832009 146.999822270439 147.999878955045 148.998170108544 150.00096118717 150.999402832334 151.998862426372 153.000205997526 153.99916286153 155.001615524923 156.000785458331 157.00058601754 157.998482255666 158.998272004948 160.00077303054 161.001058228026 161.999696398933 163.002057714429 164.000293477105 164.997760190617 166.000389322027 166.999452925887 167.999708229039 169.000447386162 170.001579735122 170.999514784208 172.001131147425 173.000814685776 173.998428750059 174.997950430032 176.000373698531 177.00205957661 177.99937848387 178.999656314025 180.001800804455 180.99917918072 182.001355584336 182.998036383603 184.000193791616 184.999143398093 185.998914154113 186.999191759817 187.999994082602 188.998875225538 189.999771508567 191.00259727592 192.001248236513 192.998888690191 194.001799069697 194.999094232897 195.997790731679 196.999467523761 197.999099529968 199.000494083459 200.000021308665 201.000727690368 201.99809451866 202.997960926086 204.000514785428 204.998583023058 206.001281947025 207.000944939646 208.000440160989 208.999354749602 210.001250055801 210.99993795448 212.000792746733 213.000319970374 214.00033976298 214.999416706889 216.000802376284 217.001783576099 217.998301288055 219.001723498203 220.000507710915 220.999958324348 221.999431151716 223.000272871784 223.998499093597 224.997469695005 225.99851675321 226.999431675391 228.000379599703 229.001603424192 229.998973973806 230.998160286196 232.00056821707 233.000528532641 233.99875950012 234.997960226596 236.002116091954 236.998882103921 237.999123538864 239.000548426755 240.001014392791 241.001186617147 242.000191609077 243.001641870613 243.998566809447 244.999357417481 245.999686386163 246.999680413996 248.000834447266 249.000222127554 249.997462117664 250.999783157255 251.997521624389 252.999363765138 253.998848198237 254.998669107445 255.9985269975 256.999419814985 257.998481661092 259.000925416707 259.999211000857 261.001508083064 262.002333875763 263.001428415396 263.998081398903 265.001376959456 265.999357071655 267.000586543297 268.001202657544 268.998667613532 270.00121490663 270.997516452552 271.998515758581 273.000091007782 273.999297995984 275.000823559416 275.99900122016 276.998772673852 278.00095900768 279.001258831829 279.999265023181 280.999748125231 282.000662171724 282.998716890377 283.998333871913 285.001821521683 285.998543869692 286.998893780333 288.001446128425 288.998042266949 289.998600349 290.997013765287 292.000738250713 292.998663989101 294.001639486438 295.001399684394 296.00170807015 297.00003316671 298.000470488126 299.00044056679 299.998533388217 301.00187142783 301.997346717255 302.999266940809 304.000301105167 305.000448950486 306.0006271112 307.00062484237 307.999928132592 308.998760189162 309.997896987415 310.998455291452 312.000157513383 312.998923172028 313.998194329521 315.000191025967 315.999729203723 317.000301419922 318.001206175373 318.99887246078 319.997979152648 320.998635857248 321.999779040033 322.998659720126 324.001858184675 324.999583438139 326.000412854235 326.998929798325 328.001666169087 328.999307604036 330.000062692905 330.999324066899 332.000590539563 332.998399951474 333.998018778933 334.998749304533 336.002252905737 337.000872158543 338.000983220522 338.998478819396 339.998644922593 340.997978415245 341.999854729689 342.997780210137 344.000367246804 345.001263701646 346.002062424879 346.997759048743 348.000897411629 349.001566177068 350.001734042909 351.000935556165 352.000624960873 353.002331842603 354.002644902376 354.999264604839 355.998413077093 357.000950054282 357.999650811863 359.001296614758 359.999298432421 360.998884227161 362.001490073088 363.000849637915 364.000498477211 364.998148947077 366.00003240081 366.999690671324 368.000017902924 369.001677229538 370.002023087077 370.998073295866 372.00118575977 373.000505329872 373.997865347946 375.000186758507 376.002087491293 376.998011834515 378.000182487678 379.002188185734 380.000807068499 380.998023177774 382.002275856914 383.000698252675 383.997459029956 384.999504868713 385.998830531059 387.000373963931 388.001357758696 389.000088185843 389.999573294867 390.999418559797 392.000997786667 392.999651976688 393.999411038948 394.999757206567 396.000149665774 396.999166577748 397.998900180409 399.002349593471 399.999140070065 401.001771135909 402.001742205844 402.99970750713 404.002284016514 404.997599837988 405.999002355035 407.000096983369 407.997701937766 409.000387832537 409.998440335722 410.999440994305 411.998162291723 413.000604841195 413.999892284259 414.997408625335 415.998422027053 416.999145111734 418.001736375591 419.0003053031 419.997919754665 420.999668851857 421.998326379384 422.99900133473 423.998368587881 424.998405130222 425.999412520941 427.000482307685 428.000801037045 428.998727986221 429.999591910015 430.999682608396 431.997523656298 433.00075778253 433.999188623121 434.998530822685 435.998685301367 436.998567601547 438.002111291847 439.000638867659 439.998562740393 441.002295421144 442.001618434289 443.001574442689 444.000344378392 445.002728026342 446.001899482446 446.998269799915 447.999042452209 448.999078287664 449.999286517366 451.002683629732 451.997769239465 453.000344902509 453.998144204699 455.002927614375 456.000157920369 456.999960722428 457.998842389786 459.000247780305 460.00002263936 460.997728927899 461.999097435097 462.999401030663 463.999390386341 465.000454301192 465.9979673252 467.00029033705 467.999076851065 468.999044854426 469.998408145385 471.001808483868 472.00015401741 473.002402686621 473.998499388344 475.001077094488 475.99848421223 477.001064011554 478.001013216548 479.000632429819 480.001859395121 480.999626974903 481.998137630969 483.000661681757 483.999850239068 484.998338382916 485.998835310963 487.000227512063 487.999048422836 489.000398385351 489.997380640984 490.999422857136 491.9999854294 492.999089603459 493.999847224539 494.998026297894 495.99877470831 496.998077987048 498.001272335333 498.997627090357 500.001811225776 501.002217442837 501.99911694275 503.00160759772 504.001487275005 505.000543243475 506.000249407677 507.000837508568 507.99880727444 509.00108237865 510.002773007061 511.000628235386 511.999201289865 513.002726696175 514.000514227292 515.000242728468 515.998421096519 517.001316023081 517.999574446597 518.999929896223 519.999371321314 521.000424934443 521.997926083386 522.998893403913 524.001769257721 524.999688789345 525.999178295225 527.00064464958 527.999751223933 528.998028367021 529.999854766581 530.998577777935 532.001223613067 532.999173301713 533.998738921615 535.000442732829 535.999609347897 536.999147311162 538.000977396306 538.997753326765 540.002459546174 541.001728467477 541.999172922332 543.001931321537 543.998964969565 545.001014493205 546.001595740402 547.000851897393 547.998392520126 549.000782400356 549.999215117355 550.996274531688 552.001577523273 553.001010433512 554.001574483613 554.998447829791 555.999327659979 556.998892479935 558.001356495833 558.998773809138 560.000917912201 561.001103947471 561.997038551389 563.001719214062 563.997823339122 564.999593178791 566.000183628255 566.997678145904 568.001363857882 569.000527684592 570.002250131196 571.000335938922 572.002144418483 573.002100386868 573.998575437695 575.001123261742 576.00241807358 577.001392468592 578.001098574424 579.000755751678 580.000584001747 581.001422688125 582.002616308984 583.001471028639 583.998743954798 584.998087821346 586.000124440971 587.000241182369 588.002558753743 588.997445444278 590.001680721004 590.998943933625 591.998619750931 593.000559366876 593.997433348729 594.999844006659 595.998793994195 596.999670900913 598.00137229888 598.999766603405 599.998031768115 601.000279378619 601.998148890475 602.998737629413 603.998133743765 605.000881843504 606.000922434654 606.998991857657 607.998661605339 608.998926762629 610.000919396481 610.999086684256 611.998596243786 612.999993377446 613.998746468623 615.000269900622 615.99909905476 616.998971275856 617.999720387671 619.001508540923 619.999498384318 621.001376867186 621.999825928037 622.99973929612 624.00171590653 625.0030582966 626.000213590995 626.998911601199 627.99873544359 628.997509381619 630.001654864669 630.998753344614 632.000597404528 633.000353961464 634.000178735348 634.996721763434 635.999084684801 636.998933837864 638.000151307109 638.998778651162 640.001008065299 640.998158100197 641.998768094405 642.999154398404 644.00258034791 645.000700057665 645.998408073971 646.999832835282 647.998734937242 648.998349552764 649.999519770334 651.001753613458 651.999562071738 652.996320592002 654.001325946737 654.999827546671 656.000277181617 656.998445925929 658.002361582936 659.001476525494 659.999095137538 661.001425612654 661.998627909877 662.998958583407 663.998926385998 665.001429673105 665.999482733921 667.001049017007 667.999596322104 668.998738101049 670.002760529648 671.001100971846 672.000915269439 672.999892765883 674.004074075032 675.002638809019 676.001368179484 677.000770464505 677.999147621463 678.999413761476 680.0012991539 681.001537066749 681.999807766949 682.997488117971 684.001642812125 685.000495101876 686.000059095179 687.002029985483 688.000636878261 688.99987960798 689.998926155573 691.001635180541 691.999595598665 693.001864139976 693.999231629955 695.000501254852 695.999638828304 696.998001107977 698.001345796699 699.000678808625 699.999976492075 701.000867330444 702.000217096913 702.998309582925 703.998564481721 705.00271619741 705.998505757182 706.998832103819 707.999648329644 709.001878711644 709.999663631362 710.998318371693 711.998174471718 713.001183716441 713.999138883815 714.99606332629 716.000457207227 716.999640406651 717.999970870424 718.999317937613 719.998219959208 721.000478154639 722.001343268285 723.000292329707 724.001761866587 725.000515407886 725.998435577883 726.996461537623 727.99951500177 728.998845375886 730.000044591225 730.998214912673 731.998771122753 733.000008036771 734.000166876556 734.998242971861 735.997083415988 736.999079415494 738.000272894224 738.998176515532 739.999792194596 741.000378816974 742.001045071628 742.99926017079 744.001273418684 744.997623596299 746.003578900327 747.001053862124 748.002331012457 748.998270449441 749.998918670248 751.000718396441 752.000745748188 752.999280195578 753.999703652486 754.999729829905 756.000633797504 756.998931240202 757.999050551671 758.998545083917 759.998325405982 760.998979919874 762.000644367481 763.000221158866 764.001128463169 764.999872417348 766.00222868698 766.998387886548 768.000608862583 768.998072466382 769.998875248624 771.002621246081 771.997453698834 772.998759667225 774.001589256149 774.997802059934 776.000540936404 776.998214088077 777.998527081302 778.9993212644 779.998037905169 781.000281693401 782.000668201678 783.000967519277 783.99952621007 785.002713044686 786.001463206553 786.999375277931 787.997495444737 788.997342560034 789.999531424906 790.996239049684 792.000677456367 793.003174892367 794.00195077873 795.000356340172 796.000547961976 796.999538666502 798.001513479815 799.000517860688 799.999394784821 800.997663898213 801.998996667645 803.000613070452 803.999857515649 805.001604886941 806.001476446433 807.000002263273 808.001595497651 808.999803892514 810.000223722161 810.998677696455 811.997122152896 813.002815527895 813.99901920684 815.000540678606 815.999074727323 817.000848978196 817.999929627092 819.000123184098 820.000345284365 821.002140346758 821.998411430377 823.00412019002 823.997128040694 825.001575516021 826.000958484902 826.999531708874 827.999335958273 829.000959002654 830.00003700359 831.001840172123 831.997620656158 833.000607531891 834.000845028645 834.999373943183 835.999890437229 836.999607537396 838.000613738755 838.999710110805 840.002750207913 841.0015445547 841.997259964052 843.002602919489 844.003294140863 844.998565237641 846.001094491656 847.000573843668 847.998043946671 849.000369170463 849.999619950123 851.000478953335 852.00182883137 853.002777292593 853.999713485102 855.000435327054 855.997160794469 856.998319099915 857.999846988784 859.00105996949 860.001779211528 861.001810004019 861.997232021812 862.996336268389 863.997456703804 864.997387759492 866.001296671545 867.001906549871 868.000509903549 869.002022247741 869.998641013426 871.002113534882 871.999556816942 872.997078538142 873.999158403383 874.999139115059 875.999868335971 876.996106111839 878.002377574251 878.996538065447 880.000499663764 880.999116426913 881.999510018214 882.998531818955 883.998459861447 885.001088169026 886.000524743719 886.998266590083 888.000187254658 889.001061518484 889.997621115682 890.999563424698 891.996699124712 892.999597376849 894.001244024144 895.003940664634 896.000423012422 897.000841349101 898.000383610181 899.002553755556 899.998886155931 900.997161815316 901.998650597452 902.999048712603 903.998141426569 904.998939550573 906.001208665932 907.001794738976 908.002101529307 908.999647072267 909.998865092572 910.99845259791 912.000534310886 913.000362976214 913.999020268662 914.997626687048 915.996441408697 916.995639998764 918.002780385275 918.999648020726 919.997864947041 921.000879675742 921.999213146726 922.999657079667 923.997298867675 924.996343330817 925.998249607945 926.998971423159 927.997635117352 929.000538906687 930.000234979761 931.001642534236 931.998587654388 933.000495517214 933.999298801552 934.995602484753 935.99792850306 937.001208935434 937.999487133399 938.998265674634 939.998834610425 940.999563509384 942.000213940255 942.999494609863 944.000488763629 945.001576706298 946.00060283929 947.001461329363 947.997913544714 948.997203574018 949.997816815383 951.000099514425 951.997712188144 953.002231030432 953.998733323725 954.999918058111 956.003154106616 956.999706262894 957.999012858563 959.000757108868 960.000632678561 960.99798009044 961.99794047533 963.000335698539 963.999096468056 965.000846056276 965.99865946999 967.00105051375 967.99995128192 969.003599217333 970.00251262467 971.001573271162 971.99918363767 973.000042224229 973.999301368765 974.998858801823 976.001618372263 976.99803484109 978.000606167362 979.001447181625 979.998173989881 980.999686356386 981.999682295302 983.000713072416 983.99939194738 985.002190545157 985.998100785087 987.000334941936 988.002917290411 989.000146199282 989.998655801306 991.001209477642 992.000503903156 992.999814398201 994.001833324341 995.002278355296 996.001376967001 997.00269740927 997.997564769072 999.000795235266 999.997974225798                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.81166991777431E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010228054479 2.00032318815263 2.99997700813452 4.00020656255246 5.00017764629096 5.99987397458533 6.99992974821057 8.00015213045189 9.00001619347292 10.0003907626593 10.9999224387099 12.0011917932065 13.0004168213733 14.0001852993635 14.9999949593678 15.9999211974524 16.9998929535571 18.0015571517819 19.000101064142 20.0002625689376 21.0003387450433 22.0000318615996 23.0003027751143 24.0000300759285 25.0002219039591 26.0000562761143 27.0000014615802 28.0001033178111 28.9999218779899 29.9999270105864 31.0000577495699 31.9998612992951 33.0002323965357 34.0004058114831 34.9996710128981 36.0002614876843 36.9998090700072 37.9999197151294 39.0000828584818 39.9999165587347 40.998217318751 42.0015800806856 43.0000086013214 43.9992053834745 44.9999024851084 45.9998425206552 46.9996913469158 48.0000384045418 49.0000184633066 50.0000296455874 50.9997072043935 52.0004233825683 52.9999819731026 54.0002170391967 55.0002041681191 55.999884512244 57.0002921291737 58.0001991145048 59.0000389759401 59.9996856715417 61.0000587532698 61.9983640879896 62.9999090100013 63.9999506393069 65.0001295349246 66.0008071361517 67.0002296810707 67.9992242192467 68.9999322499788 70.0003521510331 70.9999566423921 71.9999585921107 73.0001029404476 74.0000055611911 74.998328357812 76.000388245414 77.0001968388516 77.9999523016749 79.0011295105465 79.9997870756576 80.9999404584796 82.0005573168649 83.0014682638257 84.0002826806219 85.0000342602287 86.0001590626263 86.9999919931395 88.0004260774919 88.9998962210912 90.0001741818376 90.9999064815946 91.9985441532617 92.9985375159786 94.0001705030566 95.0000424214907 95.9986660915727 96.9995003840784 97.9997886789005 99.0010327647619 100.00051694612 101.000230825388 101.999613757887 102.99951837033 103.998722313424 104.998982822457 105.999885955974 107.000090408169 107.999896204316 109.000065415057 109.998242183964 110.99990655422 111.999605751096 112.999338268649 113.999881505384 115.00205246467 115.999357701918 117.001070446548 118.001558961996 119.000277894551 120.000420954455 120.999583910377 122.000520049084 123.000496374357 124.001137746684 125.002171205469 125.999749689699 127.001677906814 127.999926095341 128.999666844591 129.998546646435 130.998003439471 132.000180824485 133.00000627549 133.999667254594 135.000720179344 136.000406162992 137.001379418022 137.998241600509 138.999316321234 140.00003780602 141.000075045649 142.000329189066 143.000590279117 144.002041883358 145.001725606866 146.000433698016 146.999822122899 147.999879034961 148.998170365687 150.000961111953 150.999402704277 151.99886241672 153.000206057592 153.999162800489 155.001615546531 156.000785733795 157.000586098493 157.998482247876 158.998271994543 160.00077288137 161.001058273394 161.999696523299 163.00205772309 164.000293510922 164.997760386658 166.000389416097 166.999452810193 167.999708351895 169.000447699075 170.001580144126 170.999514823788 172.001131096385 173.000814717065 173.998428827643 174.997950578251 176.000373767909 177.002059470014 177.999378475446 178.999656390498 180.001800675798 180.999179333369 182.001355782153 182.998036274575 184.000193671446 184.999143492619 185.9989143993 186.999191591599 187.99999403803 188.998874987917 189.999771554476 191.00259755472 192.001248133787 192.99888865703 194.001799263868 194.999094384807 195.997790880206 196.999467678427 197.999099449722 199.000494209365 200.000021126335 201.000727742083 201.998094490697 202.997960674691 204.000514826625 204.998583285456 206.001282089583 207.000944938372 208.00044024591 208.999354694065 210.001250069215 210.999938060633 212.000792763591 213.000319959703 214.000339624362 214.999416637882 216.000802365351 217.001783616442 217.99830121963 219.00172350678 220.000507763942 220.999958126505 221.999431031399 223.000272797706 223.998499159344 224.997469631272 225.998516690883 226.999431651776 228.000379794786 229.001603393383 229.998973984617 230.998160452126 232.00056821345 233.000528538172 233.99875944047 234.997960331922 236.002116201609 236.998882204093 237.999123552296 239.000548338194 240.001014461427 241.001186667741 242.000191591905 243.001641782044 243.998566940831 244.999357517532 245.999686398204 246.999680472186 248.000834565804 249.000222169264 249.997462122821 250.999783404359 251.997521677988 252.999363702418 253.99884818724 254.998669139472 255.998527049449 256.999419703251 257.998481707366 259.000925310687 259.999211037288 261.001508177077 262.00233386327 263.001428477772 263.998081483475 265.00137678546 265.999357112045 267.000586437277 268.00120249264 268.998667421994 270.001214964299 270.997516562546 271.998515771949 273.000090960293 273.999298009732 275.000823698968 275.999001081983 276.99877262877 278.00095894865 279.001258865652 279.999265206031 280.999748131658 282.000662405112 282.998716775064 283.998333836721 285.001821411343 285.998543981425 286.99889379913 288.001446231105 288.998042266127 289.998600347586 290.997013542896 292.000738369346 292.998663980671 294.001639288825 295.001399519578 296.001708126528 297.000033082813 298.000470411912 299.000440401009 299.998533406289 301.001871384008 301.997346623708 302.999266951768 304.00030113646 305.000448944531 306.000627070928 307.000624776156 307.999928109006 308.998760073531 309.997896935976 310.998455344109 312.000157571603 312.998923059816 313.998194308684 315.000191188006 315.999729217252 317.000301394306 318.001206029044 318.998872387714 319.99797912595 320.998635753877 321.999779199121 322.998659840939 324.001858263812 324.999583539982 326.00041290893 326.998929831173 328.00166611913 328.999307539511 330.000062679834 330.999324050674 332.00059046695 332.998399992766 333.998018784553 334.998749293761 336.00225298474 337.000872153738 338.000983230139 338.998478707938 339.998644788736 340.99797844211 341.999854624188 342.997780162121 344.0003672045 345.001263733836 346.002062366731 346.997758897285 348.000897419339 349.001566041884 350.001734132152 351.000935554199 352.000624914097 353.002331797485 354.002644935344 354.999264614671 355.998412802268 357.000949967542 357.999650740351 359.00129650958 359.999298473865 360.998884216887 362.001489917543 363.000849812703 364.000498431297 364.99814878364 366.000032572667 366.999690639512 368.000017841482 369.001677151684 370.00202303393 370.998073227525 372.001185697755 373.000505281835 373.997865251528 375.000186728116 376.002087469107 376.998011824357 378.000182329368 379.002188234047 380.00080708916 380.998023184052 382.00227595377 383.0006982627 383.997458920813 384.999504721158 385.998830476382 387.000373896718 388.001357704931 389.000088014877 389.999573277532 390.999418467287 392.000997756517 392.999652081094 393.999411007936 394.999757216835 396.000149533045 396.999166358384 397.998900064041 399.002349568791 399.999139946446 401.001771128836 402.001742113893 402.999707438281 404.002284096687 404.997599968204 405.999002400203 407.000097125004 407.997701790587 409.000387579774 409.998440249241 410.999440946751 411.998162245062 413.000604850283 413.999892244887 414.997408375848 415.998422127349 416.99914517512 418.001736407832 419.000305078148 419.997919772715 420.999668754385 421.998326257171 422.999001143851 423.998368615973 424.998405024677 425.999412350403 427.000482423907 428.000801080963 428.998727837204 429.999591800879 430.999682387125 431.997523729054 433.000757699632 433.999188591958 434.998530819804 435.998685271101 436.998567673634 438.002111083017 439.000638855462 439.998562661419 441.002295402999 442.001618503718 443.001574380746 444.000344491362 445.002728150714 446.001899490218 446.998269866776 447.99904255679 448.999078246428 449.999286608164 451.002683692886 451.997769325776 453.000344854131 453.9981442448 455.00292758763 456.000157956807 456.99996064021 457.998842341739 459.000247773548 460.000022649568 460.997729035374 461.999097326094 462.999401052527 463.9993903787 465.000454246089 465.997967208847 467.000290445438 467.999076925148 468.99904488441 469.998408054036 471.001808486731 472.000154149621 473.002402661478 473.998499359584 475.001076987809 475.998484197685 477.001063798544 478.001013234683 479.000632416997 480.001859294609 480.9996270567 481.99813749044 483.000661443639 483.999850315855 484.998338315515 485.998835333935 487.000227441041 487.99904832412 489.000398242441 489.997380710633 490.999422765279 491.999985406822 492.999089490835 493.999847217775 494.998026159827 495.998774820218 496.998077930514 498.001272141516 498.997627106036 500.00181119797 501.002217488503 501.999116882351 503.00160754522 504.001487200413 505.000543299682 506.000249328979 507.000837417276 507.998807211981 509.001082276451 510.002772956962 511.000628354276 511.999201367815 513.00272670005 514.000514115936 515.000242724367 515.998421044099 517.001316049088 517.999574379063 518.99993004084 519.999371316964 521.000424985489 521.997926067044 522.998893413438 524.001769163102 524.999688823362 525.999178255731 527.000644479407 527.999751308062 528.998028219599 529.999854635614 530.998577759338 532.001223504032 532.999173282276 533.998738918069 535.000442772939 535.999609430884 536.999147344094 538.000977245267 538.997753305336 540.002459508242 541.001728289291 541.999172889773 543.001931247849 543.998964870396 545.001014404035 546.001595692116 547.000851931482 547.998392411617 549.000782327118 549.99921513771 550.996274543076 552.001577452121 553.001010426208 554.001574396196 554.99844787446 555.999327647671 556.998892380511 558.001356519669 558.998773851928 560.000917893332 561.001103970787 561.997038484131 563.001719198177 563.99782330745 564.999593199906 566.000183584557 566.997678163177 568.00136376502 569.000527579148 570.002249968896 571.000336053306 572.002144320258 573.002100453755 573.998575486106 575.001123127034 576.002418055541 577.001392360386 578.001098496782 579.000755819004 580.00058399393 581.001422710852 582.002616204429 583.001470951519 583.998744012256 584.998087824406 586.000124453649 587.000241161179 588.002558725176 588.997445490563 590.001680854117 590.998943880763 591.998619754511 593.000559501147 593.997433346432 594.999844029685 595.998794038947 596.999670911126 598.001372253161 598.999766629697 599.998031976521 601.000279512745 601.998148996113 602.998737639851 603.998133635085 605.000881845389 606.000922397589 606.998991948082 607.998661559895 608.99892677451 610.000919389896 610.999086757265 611.998596281661 612.999993393579 613.998746460449 615.000269975446 615.999099029736 616.998971271499 617.999720415333 619.001508515923 619.99949859262 621.00137693121 621.999825903504 622.999739224018 624.001715924697 625.003058251837 626.00021358527 626.998911514972 627.998735283263 628.997509371799 630.001654842837 630.99875341694 632.00059743 633.000353978233 634.000178612003 634.99672174991 635.999084486586 636.998933923498 638.000151346653 638.998778700266 640.001008067072 640.998158269478 641.998768109954 642.999154403891 644.002580228138 645.000700110755 645.99840803106 646.999832833424 647.99873491651 648.998349497201 649.999519849959 651.001753658589 651.999562151855 652.996320462048 654.001325849505 654.999827696105 656.000277106142 656.99844592982 658.002361487264 659.001476538732 659.999095201822 661.001425596324 661.998627966953 662.998958470595 663.9989264291 665.001429608496 665.999482822025 667.001049045337 667.999596552256 668.998738161146 670.002760515729 671.001101035258 672.000915283018 672.999892757412 674.004074144678 675.002638776127 676.00136819116 677.000770451346 677.999147610524 678.999413855341 680.001299114595 681.001537059634 681.999807881435 682.997488160658 684.001642765532 685.000495053249 686.000059147855 687.002030043886 688.000637054809 688.9998796125 689.99892610774 691.001635213776 691.999595491181 693.001864265544 693.999231749468 695.000501307934 695.999638898075 696.998001158215 698.001345799713 699.000678753552 699.999976555118 701.000867323786 702.000217166959 702.998309612003 703.998564493941 705.002716138924 705.998505803669 706.998832123345 707.99964840691 709.001878778276 709.999663668028 710.998318414833 711.998174508881 713.001183748993 713.999138862233 714.996063397205 716.000457199201 716.99964039234 717.999970796568 718.99931800137 719.998220132939 721.000478286941 722.001343323069 723.000292359933 724.00176207732 725.000515436986 725.998435700316 726.996461526422 727.999515024853 728.998845363817 730.000044553594 730.998214964004 731.998771306285 733.00000805762 734.000166993445 734.998243041095 735.997083382595 736.999079530728 738.000272936911 738.998176542477 739.999792177897 741.000378839179 742.00104526797 742.999260042507 744.00127353857 744.99762361655 746.003578980087 747.00105391686 748.002331098737 748.998270466759 749.998918666357 751.000718339295 752.000745769021 752.999280307197 753.999703692262 754.999729878462 756.000633636771 756.998931343741 757.999050668068 758.99854509873 759.99832538962 760.998979989147 762.000644399492 763.000221223555 764.00112843932 764.99987232431 766.00222872402 766.998387963367 768.000608943583 768.998072445124 769.998875189537 771.002621271849 771.99745376754 772.998759648522 774.001589174455 774.997802009457 776.00054101445 776.998214184716 777.998527202069 778.999321362095 779.998038018652 781.000281611991 782.000668289382 783.000967548075 783.999526281491 785.002713089611 786.001463312558 786.999375294023 787.997495561312 788.997342727438 789.999531458267 790.996239055281 792.000677452056 793.003174928311 794.001950774504 795.000356395831 796.000548072658 796.999538751883 798.001513554667 799.000517979458 799.999394765015 800.997663880801 801.998996710579 803.000613240902 803.999857579256 805.001604967233 806.001476448555 807.00000225157 808.0015954718 808.999803957569 810.000223744557 810.998677752688 811.99712208692 813.0028155885 813.999019270888 815.000540742584 815.999074785192 817.000849103673 817.999929663824 819.000123129437 820.000345244266 821.002140293251 821.9984115387 823.00412044 823.997128162921 825.001575565315 826.000958690863 826.999531798744 827.99933610039 829.000959087875 830.000036966997 831.001840284526 831.997620692879 833.000607662215 834.000845125591 834.999374100143 835.999890509585 836.999607515396 838.000613897417 838.999710205438 840.002750238104 841.001544616101 841.997260011513 843.002603083696 844.00329413066 844.99856533131 846.001094573323 847.000573909982 847.998043971331 849.000369359131 849.999620022793 851.00047896432 852.001828963395 853.002777355883 853.999713581237 855.000435356325 855.997160896255 856.998319257883 857.999847083007 859.001060141978 860.00177936281 861.001810032146 861.997232091474 862.996336301215 863.997456830343 864.997387807803 866.001296846372 867.001906568027 868.000509947082 869.002022300643 869.998641014261 871.002113650715 871.999556843618 872.997078639081 873.999158383375 874.9991392152 875.999868460408 876.996106169118 878.002377700554 878.996538121407 880.000499709573 880.999116419402 881.99951008323 882.998531892413 883.998459927342 885.00108825414 886.000524917877 886.998266665193 888.000187301374 889.001061595383 889.997621155095 890.999563455666 891.996699216099 892.99959743986 894.001244120424 895.003940676947 896.000423119866 897.000841423936 898.000383676814 899.002553780809 899.998886296617 900.997161966036 901.998650662981 902.999048764599 903.99814154254 904.998939596357 906.001208851756 907.001794798798 908.002101505737 908.999647107833 909.998865226075 910.9984526733 912.000534375828 913.000363125808 913.999020360428 914.997626755145 915.996441549153 916.995640001154 918.00278051576 918.999648111306 919.997865097289 921.000879712309 921.999213317612 922.999657126401 923.997298968392 924.996343442463 925.998249797901 926.998971593938 927.997635199805 929.000539094973 930.000235005713 931.001642631975 931.998587727472 933.000495506974 933.999298944851 934.995602688905 935.997928660009 937.001209059682 937.999487096507 938.998265681062 939.998834707778 940.999563652272 942.000214100688 942.999494690373 944.000488828796 945.001576794663 946.000602924773 947.001461442968 947.997913655609 948.997203674484 949.997816887196 951.000099527366 951.997712361379 953.002231190046 953.998733449945 954.99991821473 956.003154272918 956.999706427075 957.999012886954 959.000757251789 960.000632808464 960.997980261807 961.997940509544 963.000335879437 963.999096541683 965.00084612845 965.998659492495 967.001050678553 967.999951378429 969.003599308379 970.002512824558 971.001573370513 971.999183782375 973.000042340072 973.999301423882 974.998858927258 976.001618486301 976.998034947513 978.000606282179 979.001447201737 979.998174184975 980.999686452375 981.999682335567 983.000713297199 983.99939212853 985.002190619333 985.998100823754 987.00033509474 988.002917390153 989.000146329661 989.998655762813 991.001209626439 992.000504026249 992.999814405393 994.001833537597 995.002278623071 996.001377055332 997.002697459706 997.997564895259 999.000795301161 999.997974352132                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.50450698053196E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010229802495 2.0003230099426 2.99997702817275 4.0002065061359 5.00017761095384 5.99987383128269 6.99992982940922 8.00015217526059 9.00001625858302 10.0003907056282 10.9999224983246 12.0011916902936 13.0004167189345 14.0001851423355 14.9999948733151 15.9999212334526 16.9998927907821 18.0015570894231 19.0001008559668 20.0002623140977 21.0003388167142 22.000031974844 23.0003024106723 24.000030191549 25.000221546625 26.0000562108152 27.0000012879539 28.0001032547772 28.9999217469893 29.9999268490724 31.0000578642276 31.9998610683673 33.0002321727157 34.0004055816583 34.9996707854921 36.0002613589732 36.999809269266 37.9999195920721 39.000082923294 39.9999164569325 40.9982173468713 42.0015800075651 43.0000084131446 43.9992052079736 44.9999028312629 45.9998423502811 46.9996914051435 48.0000382731818 49.000018531706 50.0000295568077 50.9997070793496 52.0004233553447 52.9999819268505 54.000216824749 55.0002038735474 55.9998845164332 57.0002919265117 58.00019916948 59.0000389720887 59.9996855273892 61.0000585450076 61.9983639841334 62.9999088056965 63.9999506633299 65.0001296512453 66.000807230665 67.0002294755437 67.9992239762479 68.9999320812832 70.0003522842148 70.9999566883803 71.9999583827763 73.0001029093152 74.0000055764375 74.9983281787204 76.0003881035845 77.0001966430298 77.9999522839037 79.0011296589518 79.9997871270025 80.9999404722573 82.0005573325278 83.0014681841128 84.0002825488561 85.0000342937088 86.0001590078712 86.999991773374 88.0004263824156 88.9998959023889 90.000174209753 90.9999065707033 91.9985440167551 92.99853729099 94.0001704318772 95.0000420966092 95.9986663485757 96.9995004817558 97.9997885696566 99.0010329198335 100.000516801404 101.000230651997 101.999613687677 102.99951844602 103.998722386606 104.998982756302 105.999886018769 107.000090233143 107.999895951678 109.000065524412 109.998241996423 110.999906432278 111.999605812868 112.999338239098 113.999881568058 115.002052434091 115.999357798733 117.001070478441 118.001559075636 119.000277812759 120.000420793834 120.999583760983 122.000520068753 123.000495926147 124.001137719957 125.002171167959 125.999749558768 127.001677958537 127.99992612879 128.999667033023 129.998546694468 130.998003356012 132.000180661791 133.000006063265 133.999667259752 135.000720216148 136.000406029606 137.001379522901 137.998241451913 138.999316512778 140.000037474957 141.0000751884 142.000329032949 143.000589938762 144.002041803087 145.00172568236 146.000433832009 146.999822270439 147.999878955045 148.998170108545 150.00096118717 150.999402832334 151.998862426372 153.000205997526 153.99916286153 155.001615524923 156.000785458331 157.00058601754 157.998482255666 158.998272004947 160.00077303054 161.001058228026 161.999696398933 163.002057714429 164.000293477105 164.997760190617 166.000389322027 166.999452925887 167.999708229039 169.000447386162 170.001579735122 170.999514784208 172.001131147425 173.000814685775 173.998428750059 174.997950430032 176.000373698531 177.002059576611 177.99937848387 178.999656314025 180.001800804455 180.99917918072 182.001355584336 182.998036383603 184.000193791616 184.999143398093 185.998914154113 186.999191759818 187.999994082602 188.998875225538 189.999771508567 191.00259727592 192.001248236514 192.998888690191 194.001799069697 194.999094232897 195.997790731679 196.999467523761 197.999099529968 199.000494083459 200.000021308665 201.000727690368 201.99809451866 202.997960926086 204.000514785428 204.998583023058 206.001281947025 207.000944939646 208.000440160989 208.999354749602 210.001250055801 210.99993795448 212.000792746733 213.000319970374 214.00033976298 214.999416706889 216.000802376284 217.0017835761 217.998301288055 219.001723498203 220.000507710915 220.999958324348 221.999431151716 223.000272871784 223.998499093597 224.997469695005 225.99851675321 226.999431675391 228.000379599703 229.001603424192 229.998973973806 230.998160286196 232.00056821707 233.000528532641 233.99875950012 234.997960226597 236.002116091954 236.998882103921 237.999123538864 239.000548426755 240.001014392791 241.001186617148 242.000191609077 243.001641870613 243.998566809446 244.999357417481 245.999686386163 246.999680413996 248.000834447266 249.000222127554 249.997462117664 250.999783157256 251.997521624389 252.999363765138 253.998848198237 254.998669107445 255.9985269975 256.999419814986 257.998481661092 259.000925416707 259.999211000857 261.001508083063 262.002333875763 263.001428415396 263.998081398903 265.001376959456 265.999357071655 267.000586543297 268.001202657544 268.998667613532 270.001214906629 270.997516452552 271.998515758581 273.000091007782 273.999297995984 275.000823559416 275.99900122016 276.998772673852 278.00095900768 279.001258831829 279.999265023181 280.999748125231 282.000662171724 282.998716890377 283.998333871913 285.001821521683 285.998543869692 286.998893780333 288.001446128424 288.998042266949 289.998600349 290.997013765287 292.000738250713 292.9986639891 294.001639486439 295.001399684394 296.00170807015 297.00003316671 298.000470488126 299.00044056679 299.998533388217 301.00187142783 301.997346717255 302.999266940809 304.000301105167 305.000448950486 306.0006271112 307.00062484237 307.999928132592 308.998760189162 309.997896987415 310.998455291452 312.000157513383 312.998923172028 313.998194329521 315.000191025967 315.999729203723 317.000301419922 318.001206175372 318.99887246078 319.997979152648 320.998635857247 321.999779040033 322.998659720126 324.001858184675 324.999583438139 326.000412854234 326.998929798325 328.001666169086 328.999307604036 330.000062692905 330.999324066899 332.000590539563 332.998399951474 333.998018778933 334.998749304533 336.002252905737 337.000872158543 338.000983220522 338.998478819396 339.998644922593 340.997978415245 341.999854729689 342.997780210137 344.000367246804 345.001263701646 346.002062424879 346.997759048743 348.000897411629 349.001566177068 350.001734042909 351.000935556165 352.000624960873 353.002331842603 354.002644902376 354.999264604839 355.998413077093 357.000950054281 357.999650811863 359.001296614758 359.999298432421 360.99888422716 362.001490073088 363.000849637914 364.000498477211 364.998148947077 366.00003240081 366.999690671323 368.000017902924 369.001677229538 370.002023087077 370.998073295866 372.00118575977 373.000505329872 373.997865347946 375.000186758507 376.002087491293 376.998011834515 378.000182487678 379.002188185734 380.000807068499 380.998023177774 382.002275856914 383.000698252675 383.997459029956 384.999504868713 385.998830531059 387.000373963931 388.001357758696 389.000088185842 389.999573294867 390.999418559797 392.000997786668 392.999651976688 393.999411038948 394.999757206568 396.000149665774 396.999166577748 397.998900180409 399.002349593471 399.999140070065 401.001771135909 402.001742205844 402.99970750713 404.002284016514 404.997599837988 405.999002355036 407.000096983369 407.997701937766 409.000387832537 409.998440335722 410.999440994305 411.998162291723 413.000604841195 413.999892284259 414.997408625335 415.998422027053 416.999145111734 418.001736375591 419.0003053031 419.997919754665 420.999668851857 421.998326379384 422.999001334731 423.998368587881 424.998405130222 425.999412520941 427.000482307685 428.000801037045 428.998727986221 429.999591910015 430.999682608397 431.997523656298 433.00075778253 433.999188623121 434.998530822685 435.998685301367 436.998567601548 438.002111291847 439.000638867659 439.998562740393 441.002295421144 442.001618434289 443.001574442689 444.000344378392 445.002728026342 446.001899482446 446.998269799915 447.999042452209 448.999078287664 449.999286517366 451.002683629732 451.997769239465 453.000344902509 453.998144204699 455.002927614375 456.00015792037 456.999960722428 457.998842389786 459.000247780305 460.00002263936 460.997728927899 461.999097435097 462.999401030663 463.999390386341 465.000454301192 465.9979673252 467.00029033705 467.999076851065 468.999044854426 469.998408145385 471.001808483868 472.00015401741 473.002402686621 473.998499388344 475.001077094488 475.99848421223 477.001064011554 478.001013216548 479.00063242982 480.001859395121 480.999626974903 481.99813763097 483.000661681757 483.999850239068 484.998338382915 485.998835310962 487.000227512063 487.999048422836 489.000398385351 489.997380640983 490.999422857136 491.9999854294 492.99908960346 493.999847224539 494.998026297894 495.99877470831 496.998077987048 498.001272335333 498.997627090357 500.001811225776 501.002217442837 501.999116942749 503.00160759772 504.001487275005 505.000543243475 506.000249407677 507.000837508568 507.99880727444 509.00108237865 510.002773007061 511.000628235386 511.999201289865 513.002726696175 514.000514227292 515.000242728468 515.998421096519 517.001316023081 517.999574446596 518.999929896223 519.999371321314 521.000424934443 521.997926083386 522.998893403913 524.001769257721 524.999688789346 525.999178295225 527.00064464958 527.999751223933 528.998028367022 529.999854766581 530.998577777935 532.001223613067 532.999173301713 533.998738921615 535.000442732829 535.999609347897 536.999147311162 538.000977396306 538.997753326766 540.002459546174 541.001728467477 541.999172922332 543.001931321538 543.998964969565 545.001014493204 546.001595740402 547.000851897393 547.998392520126 549.000782400356 549.999215117355 550.996274531688 552.001577523273 553.001010433512 554.001574483613 554.998447829791 555.999327659979 556.998892479935 558.001356495834 558.998773809137 560.000917912201 561.001103947471 561.997038551389 563.001719214062 563.997823339122 564.999593178791 566.000183628255 566.997678145904 568.001363857883 569.000527684592 570.002250131196 571.000335938922 572.002144418483 573.002100386868 573.998575437695 575.001123261742 576.00241807358 577.001392468591 578.001098574424 579.000755751678 580.000584001747 581.001422688125 582.002616308984 583.001471028638 583.998743954798 584.998087821346 586.000124440971 587.000241182369 588.002558753743 588.997445444278 590.001680721003 590.998943933625 591.998619750931 593.000559366876 593.997433348729 594.999844006659 595.998793994195 596.999670900914 598.00137229888 598.999766603404 599.998031768115 601.000279378619 601.998148890475 602.998737629413 603.998133743765 605.000881843504 606.000922434654 606.998991857658 607.998661605339 608.998926762629 610.000919396481 610.999086684256 611.998596243786 612.999993377446 613.998746468623 615.000269900622 615.999099054759 616.998971275856 617.999720387671 619.001508540923 619.999498384318 621.001376867186 621.999825928037 622.999739296119 624.00171590653 625.003058296599 626.000213590995 626.998911601199 627.99873544359 628.997509381619 630.001654864668 630.998753344614 632.000597404527 633.000353961464 634.000178735348 634.996721763433 635.999084684801 636.998933837864 638.000151307109 638.998778651162 640.001008065299 640.998158100197 641.998768094405 642.999154398404 644.002580347909 645.000700057665 645.998408073971 646.999832835282 647.998734937242 648.998349552763 649.999519770334 651.001753613458 651.999562071738 652.996320592002 654.001325946737 654.999827546671 656.000277181617 656.998445925929 658.002361582935 659.001476525494 659.999095137539 661.001425612654 661.998627909877 662.998958583407 663.998926385998 665.001429673105 665.99948273392 667.001049017007 667.999596322104 668.998738101049 670.002760529649 671.001100971846 672.000915269439 672.999892765883 674.004074075032 675.002638809019 676.001368179484 677.000770464505 677.999147621462 678.999413761476 680.0012991539 681.001537066749 681.999807766949 682.997488117971 684.001642812125 685.000495101876 686.000059095179 687.002029985483 688.000636878261 688.99987960798 689.998926155573 691.001635180541 691.999595598665 693.001864139976 693.999231629955 695.000501254852 695.999638828304 696.998001107978 698.001345796699 699.000678808625 699.999976492075 701.000867330444 702.000217096914 702.998309582925 703.998564481721 705.00271619741 705.998505757182 706.998832103819 707.999648329643 709.001878711644 709.999663631363 710.998318371693 711.998174471718 713.001183716442 713.999138883815 714.996063326289 716.000457207227 716.999640406651 717.999970870425 718.999317937613 719.998219959208 721.00047815464 722.001343268285 723.000292329706 724.001761866586 725.000515407886 725.998435577883 726.996461537623 727.999515001771 728.998845375886 730.000044591225 730.998214912672 731.998771122753 733.000008036771 734.000166876556 734.998242971861 735.997083415988 736.999079415494 738.000272894224 738.998176515532 739.999792194596 741.000378816974 742.001045071628 742.99926017079 744.001273418683 744.997623596299 746.003578900327 747.001053862124 748.002331012457 748.998270449441 749.998918670248 751.000718396441 752.000745748188 752.999280195578 753.999703652486 754.999729829906 756.000633797503 756.998931240202 757.999050551671 758.998545083918 759.998325405982 760.998979919874 762.000644367481 763.000221158867 764.001128463169 764.999872417348 766.00222868698 766.998387886548 768.000608862584 768.998072466382 769.998875248624 771.002621246081 771.997453698835 772.998759667225 774.001589256149 774.997802059934 776.000540936404 776.998214088077 777.998527081302 778.9993212644 779.998037905169 781.000281693402 782.000668201678 783.000967519277 783.99952621007 785.002713044686 786.001463206553 786.999375277931 787.997495444737 788.997342560034 789.999531424906 790.996239049684 792.000677456367 793.003174892367 794.00195077873 795.000356340172 796.000547961976 796.999538666501 798.001513479815 799.000517860687 799.999394784821 800.997663898213 801.998996667645 803.000613070452 803.999857515649 805.001604886941 806.001476446433 807.000002263273 808.001595497651 808.999803892514 810.00022372216 810.998677696455 811.997122152896 813.002815527895 813.99901920684 815.000540678606 815.999074727323 817.000848978196 817.999929627091 819.000123184098 820.000345284365 821.002140346758 821.998411430376 823.00412019002 823.997128040694 825.001575516021 826.000958484903 826.999531708874 827.999335958273 829.000959002654 830.00003700359 831.001840172123 831.997620656159 833.000607531891 834.000845028645 834.999373943183 835.999890437229 836.999607537396 838.000613738756 838.999710110805 840.002750207914 841.0015445547 841.997259964052 843.00260291949 844.003294140863 844.998565237641 846.001094491656 847.000573843668 847.998043946671 849.000369170463 849.999619950123 851.000478953335 852.00182883137 853.002777292593 853.999713485102 855.000435327054 855.997160794468 856.998319099915 857.999846988783 859.00105996949 860.001779211527 861.001810004019 861.997232021812 862.996336268389 863.997456703804 864.997387759492 866.001296671545 867.001906549871 868.000509903549 869.002022247741 869.998641013426 871.002113534882 871.999556816942 872.997078538142 873.999158403383 874.999139115059 875.999868335972 876.996106111839 878.002377574251 878.996538065447 880.000499663764 880.999116426913 881.999510018214 882.998531818954 883.998459861447 885.001088169026 886.000524743719 886.998266590083 888.000187254658 889.001061518484 889.997621115682 890.999563424698 891.996699124712 892.999597376849 894.001244024144 895.003940664634 896.000423012422 897.000841349101 898.000383610181 899.002553755556 899.998886155931 900.997161815316 901.998650597452 902.999048712603 903.998141426569 904.998939550573 906.001208665931 907.001794738976 908.002101529307 908.999647072266 909.998865092572 910.99845259791 912.000534310886 913.000362976214 913.999020268661 914.997626687048 915.996441408698 916.995639998763 918.002780385275 918.999648020725 919.99786494704 921.000879675742 921.999213146726 922.999657079667 923.997298867675 924.996343330817 925.998249607945 926.99897142316 927.997635117352 929.000538906687 930.000234979761 931.001642534236 931.998587654387 933.000495517213 933.999298801552 934.995602484752 935.99792850306 937.001208935434 937.999487133399 938.998265674634 939.998834610425 940.999563509384 942.000213940256 942.999494609863 944.000488763629 945.001576706299 946.000602839289 947.001461329362 947.997913544714 948.997203574018 949.997816815383 951.000099514425 951.997712188144 953.002231030433 953.998733323724 954.999918058111 956.003154106616 956.999706262894 957.999012858563 959.000757108868 960.000632678561 960.997980090439 961.99794047533 963.000335698539 963.999096468056 965.000846056276 965.99865946999 967.00105051375 967.99995128192 969.003599217333 970.00251262467 971.001573271162 971.99918363767 973.000042224229 973.999301368765 974.998858801823 976.001618372263 976.99803484109 978.000606167362 979.001447181625 979.998173989881 980.999686356386 981.999682295302 983.000713072416 983.99939194738 985.002190545157 985.998100785087 987.000334941936 988.00291729041 989.000146199282 989.998655801306 991.001209477642 992.000503903156 992.999814398201 994.001833324341 995.002278355296 996.001376967001 997.00269740927 997.997564769072 999.000795235265 999.997974225798                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.32322532369953E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235727877 2.00032305328815 2.99997707538181 4.00020652211365 5.00017764651301 5.99987389521152 6.99992985176615 8.00015223527178 9.00001629367312 10.0003907415347 10.9999226212547 12.0011917399871 13.0004167291902 14.0001851900189 14.9999948779885 15.9999212831557 16.9998928329408 18.0015571502978 19.0001009039666 20.000262330209 21.0003388639115 22.0000320084247 23.0003024597409 24.0000302287225 25.0002215811311 26.0000562406137 27.0000013531565 28.0001032950915 28.9999218295686 29.9999268980335 31.0000579412361 31.9998611474226 33.000232225835 34.0004055886558 34.9996708330782 36.0002613988419 36.9998093061102 37.9999196463682 39.0000829440681 39.9999165020991 40.9982173947448 42.001580052695 43.0000084454237 43.9992052872654 44.9999028620226 45.9998424169807 46.9996914528405 48.0000383298877 49.0000186389628 50.0000295777969 50.9997071360433 52.0004234004835 52.9999819851998 54.0002168779784 55.0002039638694 55.9998845689204 57.0002919748749 58.0001992937075 59.0000389747608 59.9996855679042 61.0000586005827 61.9983640034219 62.9999088147666 63.9999507153825 65.0001297233681 66.0008073470281 67.000229530445 67.9992240192805 68.9999321098004 70.0003523351068 70.9999567625927 71.9999584387813 73.000103017915 74.000005632649 74.9983281757256 76.0003881529197 77.000196697733 77.9999523316602 79.0011297060896 79.9997871073763 80.9999405312991 82.0005574033336 83.0014682384792 84.0002826134943 85.0000343818795 86.0001590636876 86.9999918491823 88.0004264118766 88.9998959874368 90.0001743125896 90.9999065855762 91.9985440248784 92.9985373630679 94.0001704500071 95.0000421252002 95.9986663744713 96.9995005200406 97.9997885942089 99.0010329980233 100.000516857364 101.000230694015 101.999613748415 102.999518507826 103.99872237661 104.998982820802 105.99988609285 107.000090292202 107.999895960621 109.00006552594 109.998242077144 110.999906465144 111.999605814286 112.999338305171 113.999881612061 115.00205248295 115.999357800734 117.001070502467 118.001559085466 119.000277865669 120.000420827344 120.999583799367 122.000520113947 123.000495987046 124.001137757799 125.002171202564 125.999749622772 127.001677928323 127.99992627949 128.99966708697 129.998546736001 130.998003398077 132.000180714933 133.000006101638 133.999667266479 135.000720269895 136.000406059725 137.001379617755 137.998241514281 138.9993165133 140.000037504808 141.000075212663 142.000329093539 143.000589974367 144.002041851799 145.001725674118 146.000433854295 146.999822306763 147.999879041455 148.998170173293 150.000961204401 150.999402850391 151.998862448623 153.000206010917 153.99916284544 155.001615608568 156.000785497183 157.000585993767 157.998482265672 158.998272025913 160.000773072961 161.001058279184 161.999696445515 163.002057742919 164.000293429713 164.997760204268 166.00038936081 166.999452954841 167.999708211467 169.00044742551 170.001579871365 170.999514781741 172.001131176252 173.000814806518 173.998428762022 174.997950511495 176.00037369648 177.00205961871 177.999378478354 178.999656308715 180.001800766626 180.999179254809 182.001355615213 182.998036420196 184.000193847917 184.999143404706 185.998914192936 186.999191783478 187.999994105292 188.998875312025 189.999771582847 191.002597298041 192.001248246717 192.998888723913 194.001799139383 194.999094259195 195.997790787265 196.999467504483 197.999099505083 199.000494122566 200.000021276117 201.000727762928 201.998094489016 202.99796098761 204.000514759667 204.998583072519 206.001282008251 207.000944981581 208.000440182709 208.999354811573 210.001250086939 210.999937983946 212.000792756441 213.000320027923 214.000339613416 214.999416667364 216.000802391117 217.001783601932 217.998301236426 219.001723526794 220.000507711581 220.9999583356 221.999431205201 223.000272882413 223.998499137652 224.997469686023 225.998516765435 226.999431718801 228.000379624172 229.001603452346 229.998973957907 230.998160243041 232.000568191463 233.000528550419 233.998759545292 234.997960276314 236.00211611977 236.998882111949 237.999123636702 239.000548409799 240.001014437513 241.001186620729 242.000191596452 243.001641829223 243.998566762426 244.999357425528 245.999686445472 246.999680445562 248.000834506083 249.000222156054 249.997462124225 250.999783128469 251.997521588684 252.999363740634 253.99884822393 254.998669070521 255.998527013132 256.999419826988 257.998481685491 259.000925433855 259.999210962058 261.001508054049 262.002333957226 263.001428364087 263.998081382523 265.001376907402 265.999357166178 267.000586605229 268.001202636172 268.998667618091 270.001214877897 270.997516425758 271.998515743489 273.000090902513 273.999298010572 275.000823606425 275.999001248655 276.998772645315 278.000959051937 279.001258728739 279.999265069 280.999748131746 282.000662198179 282.998716830268 283.99833391408 285.001821547145 285.998543873197 286.998893737718 288.001446091812 288.998042263973 289.998600336033 290.997013768343 292.000738192503 292.998663978207 294.001639406992 295.001399746185 296.001708060498 297.000033059699 298.000469268935 299.000440470433 299.998533411171 301.001871296812 301.997346634407 302.999266813001 304.000300997555 305.000448896248 306.000627020139 307.000624778641 307.9999282023 308.998760136978 309.997896990765 310.998455197483 312.000157533142 312.99892309319 313.998194348499 315.000191035173 315.999729189292 317.00030129916 318.001206171987 318.998872388493 319.99797913623 320.998635776644 321.999779042303 322.998659716533 324.001858177337 324.999583518404 326.000412876621 326.998928913152 328.001666083147 328.999307597767 330.000062711186 330.999324090483 332.00059042453 332.998399890736 333.998018830017 334.998749216054 336.002252886422 337.0008721506 338.000983157038 338.998478833111 339.998644828139 340.997978303029 341.999854714472 342.997780261776 344.000367222395 345.00126363866 346.002062349968 346.997758991192 348.0008973653 349.001566084624 350.001733988421 351.000935450822 352.000624845518 353.002331805368 354.002644789485 354.999264587416 355.998412997123 357.000949748376 357.999650712862 359.00129666795 359.999298429187 360.998884206321 362.001489965648 363.000849702026 364.000498446271 364.998148872781 366.000032372436 366.999690626014 368.000017846187 369.001677252734 370.00202307574 370.998073263864 372.001185705676 373.000505290421 373.997865290259 375.0001868762 376.00208750989 376.998011836405 378.000182512783 379.002188164115 380.000806970154 380.998023119206 382.002275929568 383.000698204917 383.99745895987 384.999504798661 385.998830435902 387.000373946004 388.001357776505 389.000088138767 389.99957329731 390.9994184814 392.000997725868 392.999651922171 393.999411049994 394.999757194385 396.000149600052 396.999166499213 397.998900121311 399.002349534503 399.999140024332 401.0017711016 402.001742136075 402.999707482952 404.002283926729 404.997599830439 405.999002361084 407.00009694948 407.99770187769 409.000387656212 409.998440206397 410.999440979472 411.998162191368 413.000604759593 413.999892158903 414.997408572796 415.998421997463 416.999145045649 418.001736329464 419.000305285119 419.997919728556 420.999668783843 421.998326377577 422.999001267086 423.998368566649 424.998405046089 425.999412377032 427.000482339563 428.000800977675 428.998727889593 429.999591710539 430.999682461581 431.997523659947 433.000757638778 433.999188566327 434.998530787478 435.9986852193 436.998567547609 438.002111189734 439.000638839454 439.998562687505 441.0022954496 442.001618376916 443.001574353604 444.000344324304 445.002728047184 446.001899477505 446.998269745318 447.999042460807 448.99907821771 449.99928649615 451.002683613728 451.997769182758 453.000344787093 453.99814418695 455.002927469614 456.000157915923 456.99996061154 457.998842339538 459.000247616648 460.000022607308 460.997728913896 461.999097381054 462.999401039511 463.999390354887 465.000454270912 465.997967293346 467.000290225354 467.999076821091 468.999044846644 469.998408043919 471.001808482972 472.00015399012 473.002402659499 473.998499389297 475.001077030021 475.998484256698 477.001063861031 478.001013229408 479.000632326794 480.00185929224 480.99962683177 481.998137506976 483.000661551144 483.999850264447 484.998338394734 485.998835308761 487.000227502054 487.999048419379 489.000398307194 489.99738057455 490.999422854372 491.999985486885 492.99908974837 493.999847123593 494.998026330716 495.998774782799 496.998077948571 498.001272311594 498.997627041817 500.001811200037 501.002217410857 501.999116859078 503.001607561609 504.001487231233 505.00054325258 506.00024945082 507.000837454241 507.998807240254 509.001082229368 510.002772992519 511.000628224082 511.99920126357 513.00272663437 514.000514105949 515.000242689508 515.998421029597 517.00131608404 517.999574410329 518.999929960253 519.999371314909 521.000424901249 521.997926133732 522.998893381107 524.001769206647 524.999688725482 525.999178307708 527.000644696976 527.999751255752 528.998028259266 529.999854707773 530.998577709395 532.00122356597 532.999173271827 533.998738896633 535.000442733268 535.99960937196 536.999147288071 538.000977352624 538.997753275319 540.002459506258 541.001728369511 541.999172926418 543.00193124108 543.998964944639 545.001014346618 546.001595751608 547.000851962301 547.998392372048 549.000782373989 549.999215102168 550.996274484384 552.00157749926 553.001010338128 554.001574444835 554.9984477633 555.999327682596 556.998892478337 558.001356433003 558.99877399488 560.000917870532 561.001103904894 561.997038508348 563.001719235286 563.99782332211 564.999593122967 566.000183569611 566.997678128226 568.001363800774 569.000527591451 570.002249992078 571.000336004641 572.00214435086 573.002100415953 573.998575421703 575.001123211335 576.00241809196 577.00139238278 578.001098458491 579.000755739304 580.000584051563 581.001422775799 582.002616274963 583.001470926169 583.99874392607 584.998087760523 586.000124475401 587.000241100338 588.002558688996 588.997445382247 590.00168080301 590.998943912032 591.998619787947 593.000559422494 593.997433288899 594.999843993177 595.998794018617 596.999670871776 598.001372175992 598.999766549956 599.998031824797 601.000279413316 601.998148887296 602.998737650267 603.998133685498 605.000881815331 606.000922390668 606.998991920645 607.998661581257 608.998926712147 610.000919291894 610.999086724697 611.998596231576 612.999993400613 613.998746439975 615.000269940169 615.999099052402 616.998971278429 617.999720335838 619.001508608341 619.999498399211 621.001376849326 621.999825898376 622.999739207802 624.001715940047 625.003058228704 626.000213553857 626.998911556255 627.998735296981 628.997509325881 630.001654832121 630.998753371117 632.000597419383 633.000353972208 634.000178670858 634.996721793108 635.999084564534 636.998933820893 638.000151332893 638.998778668727 640.001008027119 640.99815820272 641.998768033837 642.999154342837 644.0025802526 645.000700046305 645.998407978512 646.99983289247 647.998734910497 648.998349471515 649.999519836378 651.001753679964 651.999562155446 652.996320436486 654.001325872962 654.999827588137 656.000277124641 656.998445992499 658.002361557652 659.001476553583 659.999095192503 661.001425603961 661.998627839675 662.998958501931 663.998926362201 665.001429646082 665.999482690187 667.001048920365 667.999596387699 668.998738080255 670.002760481042 671.001100947126 672.000915297768 672.99989280284 674.004074083025 675.002638839691 676.001368208818 677.000770450332 677.999147536364 678.999413840627 680.00129910225 681.001537009356 681.999807855034 682.997488104598 684.001642789857 685.000495052326 686.000059101881 687.002029974248 688.000636913134 688.999879630184 689.998926142184 691.001635219346 691.999595492681 693.001864192247 693.999231745632 695.000501292699 695.999638867715 696.998001154383 698.001345761004 699.000678737535 699.999976508915 701.000867301338 702.000217117194 702.998309541978 703.998564429788 705.002716178912 705.998505756082 706.99883207209 707.999648369021 709.00187880645 709.999663694368 710.99831838025 711.998174479923 713.001183739222 713.999138922524 714.996063329776 716.000457228748 716.999640371478 717.999970760284 718.999317952814 719.998220105143 721.000478387673 722.001343297278 723.000292353793 724.001761968415 725.000515400811 725.998435703449 726.996461520814 727.999515039773 728.998845443582 730.000044636503 730.99821492769 731.998771326404 733.000008006367 734.000166978935 734.998243017094 735.997083479089 736.999079444578 738.000272986311 738.998176568453 739.999792214784 741.000378864733 742.00104513782 742.999260059717 744.001273511594 744.997623683939 746.003578991796 747.001053954823 748.002331072312 748.998270490228 749.998918705585 751.000717929395 752.000745755723 752.999280348168 753.999703660983 754.999729844032 756.000633677974 756.998931265267 757.999050611867 758.998545095739 759.998325414489 760.998979979342 762.000644414195 763.00022123598 764.001128480834 764.999872362725 766.002228768917 766.998387878338 768.000608855816 768.998072465033 769.998875231537 771.002621218905 771.997453756006 772.998759715625 774.001589217865 774.997802022148 776.000540968181 776.99821421356 777.998527188014 778.999321356909 779.998038024238 781.000281585131 782.000668273232 783.000967588845 783.999526266627 785.002713048241 786.001463286565 786.999375263179 787.997495482179 788.997342711793 789.999531474824 790.996239092314 792.000677469346 793.003174915443 794.001950789428 795.00035642146 796.000548044263 796.999538776312 798.001513534916 799.000517999612 799.999394746799 800.997663912835 801.998996713762 803.00061318407 803.999857574845 805.001604948195 806.001476513489 807.000002300046 808.001595492643 808.999803899522 810.000223830738 810.998677738937 811.997122166702 813.002815553558 813.999019241954 815.000540738534 815.999074758028 817.000848995484 817.999929670125 819.00012314741 820.000345226338 821.002140254828 821.998411423639 823.00412037895 823.997128143112 825.00157555284 826.000958707431 826.999531800493 827.999336060925 829.000959072303 830.000036987513 831.001840282631 831.997620631689 833.000607633846 834.000845083027 834.999374057127 835.999890520785 836.999607459087 838.000613887844 838.99971016481 840.002750221106 841.001544573769 841.997259970105 843.002601973833 844.003294079826 844.998565285732 846.001094626192 847.000573875496 847.998043938163 849.0003693095 849.999619997035 851.000478928093 852.001828909338 853.002777326953 853.999713589723 855.00043529771 855.997160920692 856.998319232819 857.999847039308 859.001060111124 860.001779339766 861.001810018117 861.997232075278 862.996336291327 863.997456898585 864.997387795724 866.001296815095 867.001906543452 868.000509931997 869.002022339087 869.998641017317 871.002113633656 871.999556821247 872.997078635249 873.99915837054 874.999139229428 875.999868415577 876.996106116664 878.002377719675 878.996538092791 880.00049967868 880.999116426947 881.999510074517 882.99853188075 883.998459848304 885.001088352993 886.000524873275 886.998266664718 888.000187259873 889.001061566288 889.997621122542 890.999563427267 891.996699205133 892.99959742093 894.001244132358 895.003940616807 896.000423119556 897.000841418609 898.00038367194 899.002553788223 899.998886248174 900.997161927363 901.998650643444 902.999048758368 903.998141504847 904.998939589171 906.001208824386 907.001794794813 908.002101479728 908.999647094446 909.998865213598 910.998452631309 912.000534342992 913.000363095925 913.999020315282 914.997626747754 915.996441553615 916.995639973365 918.00278053362 918.999648138408 919.997865105699 921.000879704382 921.999213301364 922.999657073989 923.997298968237 924.996343458215 925.998249742634 926.998971586423 927.997635188637 929.000539139453 930.000235002035 931.001642600992 931.998587703801 933.000495490909 933.999298982321 934.995602674996 935.997928639034 937.00120902132 937.999487058144 938.998265660354 939.998834677687 940.999563636196 942.000214092709 942.999494666786 944.000488805318 945.001576754643 946.00060288787 947.001461426401 947.997913642624 948.997203623375 949.997816871961 951.000099510024 951.997712402215 953.002231145305 953.998733410293 954.99991819315 956.003154306993 956.999706412499 957.99901285613 959.000757268596 960.000632786002 960.997980224737 961.997940490021 963.000335891795 963.999096508766 965.000846103148 965.998659466956 967.001050668631 967.999951362183 969.003599270389 970.002512807712 971.001573342562 971.999183757108 973.000042319117 973.999301377559 974.99885894262 976.001618418637 976.998034916884 978.000606268383 979.001447168526 979.998174159379 980.999686469729 981.999682322292 983.000713330269 983.999392099859 985.00219059993 985.998100806829 987.000335076141 988.002917380208 989.000146344266 989.998655729558 991.001209611777 992.000504022518 992.999814424407 994.001833531999 995.002278599847 996.00137700236 997.002697434743 997.997564873272 999.000795280301 999.997974309313                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.44260317935378E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010236595159 2.0003230874136 2.99997706947742 4.00020651235321 5.00017766797282 5.99987384698684 6.99992984760798 8.00015221686337 9.00001627772017 10.0003907769605 10.9999225303649 12.0011917311685 13.0004167916465 14.0001851889775 14.9999948808711 15.999921306394 16.9998928227485 18.0015571341848 19.0001008924029 20.0002623333104 21.000338828327 22.0000320302687 23.0003024868693 24.0000302331804 25.0002216013978 26.0000562841511 27.0000013215591 28.0001032868421 28.9999217972447 29.9999269269541 31.0000578855781 31.9998610990494 33.0002322350433 34.0004056076164 34.9996707988917 36.0002613802409 36.9998092861025 37.999919659643 39.0000829474938 39.9999164593307 40.9982173732495 42.001580077398 43.0000084210157 43.9992053212996 44.9999028671479 45.9998423891913 46.9996914649972 48.0000383506521 49.0000186446 50.0000295402907 50.9997071116961 52.0004233995297 52.9999819952749 54.0002168302247 55.0002039877652 55.9998845875911 57.0002920015473 58.0001992586405 59.0000389884466 59.999685594743 61.0000586176899 61.9983639896787 62.9999088251759 63.9999507038851 65.0001296904171 66.000807299569 67.0002295359668 67.9992240039014 68.9999321342065 70.0003523164086 70.9999567651321 71.9999584352181 73.0001029753257 74.0000056450316 74.9983281422649 76.0003881931899 77.000196721992 77.9999523359075 79.0011297198533 79.9997871300536 80.9999405681739 82.0005573746627 83.0014682493312 84.0002825840938 85.000034334437 86.0001590799044 86.9999918617228 88.0004263833322 88.9998960039505 90.000174303387 90.9999065873329 91.9985440516269 92.9985373800984 94.0001704448641 95.0000421525312 95.9986664136658 96.9995005411332 97.999788610258 99.0010329812123 100.000516871225 101.000230667757 101.99961372124 102.999518574432 103.99872240347 104.9989828159 105.999886078581 107.000090279607 107.999895960332 109.000065529028 109.998242075218 110.99990647523 111.999605817802 112.999338306317 113.999881633823 115.002052498536 115.999357795064 117.001070525953 118.001559090868 119.000277849696 120.000420824847 120.999583800415 122.000520098638 123.000495982384 124.00113773757 125.002171209641 125.999749586262 127.001677930223 127.999926262968 128.999667095811 129.998546739216 130.998003398139 132.000180715496 133.000006092158 133.999667259375 135.000720257147 136.000406026317 137.001379553904 137.998241501276 138.999316519273 140.000037507463 141.000075237641 142.000329057376 143.000589983098 144.002041844671 145.001725670221 146.00043383974 146.99982232931 147.999879064834 148.998170149407 150.000961185592 150.999402900281 151.998862470892 153.00020601177 153.999162866436 155.001615574535 156.000785489079 157.000585962188 157.99848226536 158.998272001771 160.000773041081 161.001058255601 161.999696443739 163.002057727107 164.000293452118 164.997760196728 166.000389352387 166.999452990771 167.999708252196 169.000447378633 170.001579848553 170.999514799434 172.001131201021 173.000814744365 173.998428792272 174.997950479594 176.000373736864 177.002059642403 177.999378477589 178.999656306617 180.001800799294 180.999179243905 182.001355657216 182.998036464517 184.0001938272 184.999143397665 185.998914216155 186.999191790114 187.999994085078 188.998875276286 189.999771644053 191.002597252272 192.001248294023 192.998888713381 194.00179910077 194.999094247198 195.997790855804 196.999467548275 197.999099500926 199.000494130631 200.000021272223 201.000727751751 201.998094491542 202.997960993787 204.000514759757 204.998583055532 206.001281958495 207.000944969662 208.000440177008 208.99935479395 210.001250092906 210.999937971107 212.000792709474 213.000319982695 214.000339630881 214.999416677999 216.000802365072 217.001783586122 217.998301260453 219.001723531464 220.000507702441 220.999958329243 221.999431239652 223.000272864851 223.998499118208 224.997469724713 225.998516776694 226.999431705429 228.000379628832 229.001603424495 229.998973924805 230.998160268268 232.000568171114 233.000528555977 233.998759541537 234.997960260186 236.002116098977 236.998882119851 237.999123583935 239.000548417933 240.001014440429 241.00118661333 242.000191546001 243.001641831963 243.99856678426 244.999357451117 245.999686416661 246.999680465385 248.000834474477 249.000222113346 249.99746214368 250.999783135381 251.997521630758 252.999363762965 253.998848174717 254.998669003228 255.998527028319 256.999419817793 257.998481678449 259.000925425386 259.999210992027 261.0015080013 262.002333932978 263.00142836053 263.998081386879 265.001376843156 265.999357189725 267.000586546131 268.001202671307 268.998667615317 270.001214895497 270.997516409691 271.998515781809 273.000090954984 273.999298039164 275.000823605411 275.999001279608 276.998772701429 278.000959049492 279.001258731599 279.9992650488 280.999748120331 282.000662188325 282.99871682291 283.998333914132 285.001821549755 285.998543882527 286.998893751706 288.001446106387 288.9980422906 289.998600296918 290.997013762476 292.00073820314 292.998663983446 294.001639383752 295.001399731953 296.001708095486 297.0000330394 298.000470459589 299.000440431837 299.99853334975 301.001871307568 301.997346624679 302.999266770617 304.000300983673 305.000448879954 306.000627021476 307.000624808968 307.999928195474 308.998760178742 309.997896955532 310.998455230846 312.00015749839 312.998923079936 313.998194342138 315.000191019118 315.999729185189 317.000301320308 318.001206206111 318.998872388052 319.997979165228 320.99863579208 321.99977911141 322.998659736921 324.001858152743 324.999583514171 326.000412856315 326.998929817343 328.001666068162 328.999307580831 330.000062692123 330.999324087987 332.000590418777 332.998399891071 333.998018843396 334.998749189903 336.002252881251 337.000872113774 338.000983124464 338.998478827014 339.998644807043 340.997978297132 341.999854710729 342.997780179187 344.000367252498 345.001263609821 346.00206240407 346.997759007452 348.000897353222 349.001566114819 350.001733989127 351.000935414591 352.000624866843 353.002331767376 354.002644742758 354.999264606844 355.998412976059 357.000949795932 357.999650758724 359.001296680833 359.999298419572 360.998884187886 362.001489963543 363.000849639711 364.000498447461 364.998148835089 366.000032339025 366.999690633983 368.000017804447 369.001677258967 370.002023074344 370.998073301185 372.001185709662 373.000505286105 373.997865273977 375.000186829777 376.002087496879 376.998011828615 378.000182483677 379.0021881843 380.000806984693 380.998023116859 382.002275896956 383.000698247508 383.997458931598 384.999504763176 385.998830412249 387.000373920664 388.001357787214 389.000088106666 389.999573301302 390.999418472117 392.000997682479 392.999651896864 393.999411024645 394.999757162683 396.000149595015 396.99916654203 397.998900093331 399.002349490836 399.999140006619 401.001771118646 402.001742104067 402.999707473723 404.00228393755 404.997599826417 405.999002369139 407.000096947066 407.997701872753 409.000387695902 409.998440233379 410.999440982511 411.99816223748 413.000604763814 413.999892162804 414.997408563716 415.998421939789 416.999145043275 418.001736330291 419.00030526836 419.997919756921 420.999668808724 421.998326400274 422.999001293358 423.998368558469 424.998405005122 425.999412359299 427.000482334419 428.000800965042 428.998727886459 429.999591727325 430.999682487354 431.997523703879 433.000757638691 433.999188594943 434.998530834075 435.998685225398 436.998567495457 438.002111181458 439.000638780243 439.998562711155 441.002295452744 442.0016184033 443.001574395049 444.000344337926 445.002728055634 446.001899448671 446.998269738581 447.999042483331 448.999078183114 449.999286508037 451.002683615379 451.997769196895 453.000344780132 453.998144166357 455.002927458523 456.000157894019 456.999960618702 457.99884228162 459.00024766277 460.000022617897 460.997728937773 461.999097389038 462.999401027083 463.999390308344 465.000454233383 465.997967287303 467.000290199209 467.999076780602 468.999044879134 469.99840809199 471.001808470825 472.000153994644 473.002402648414 473.998499398623 475.001077029055 475.998484270302 477.001063869215 478.001013269676 479.000632337434 480.001859239889 480.999626804299 481.998137503152 483.000661581991 483.999850247046 484.99833839207 485.998835296233 487.000227492606 487.999048403057 489.000398328517 489.997380563442 490.999422830147 491.999985498333 492.999089483293 493.999847127995 494.998026213441 495.998774820141 496.998077933636 498.001272368336 498.997627046242 500.001811244863 501.002217412228 501.999116850979 503.001607535975 504.001487215806 505.000543282797 506.000249420387 507.000837458901 507.998807250966 509.001082255104 510.002772965658 511.00062819954 511.999201307118 513.002726641839 514.000514119941 515.000242688418 515.998420997046 517.001316103813 517.999574416628 518.999929970451 519.999371341832 521.000424913682 521.997926088844 522.998893385759 524.001769162973 524.999688717736 525.999178318109 527.000644654554 527.999751235708 528.998028279489 529.999854742432 530.998577732271 532.00122354826 532.999173252193 533.998738890845 535.000442712768 535.999609397994 536.99914729272 538.000977380037 538.997753287659 540.002459525232 541.001728407266 541.999172870032 543.001931192294 543.998964998402 545.001014269624 546.001595739457 547.000851947331 547.998392377045 549.000782394173 549.999215128892 550.996274528484 552.001577493595 553.001010353208 554.001574455537 554.998447752933 555.999327704454 556.998892467551 558.00135646608 558.998773881107 560.000917856611 561.001103936205 561.997038548405 563.001719226114 563.997823336299 564.999593113995 566.000183561074 566.997678129533 568.001363777059 569.00052754405 570.002250058049 571.000335991374 572.002144379407 573.002100377606 573.998575428129 575.001123184087 576.002418077347 577.001392336736 578.001098518358 579.000755721906 580.000583963455 581.001422744368 582.002616274506 583.001470936131 583.998743948203 584.998087747346 586.000124498512 587.000241085112 588.002558666947 588.99744540392 590.001680786043 590.998943916931 591.998619806416 593.000559402602 593.997433280724 594.999844030301 595.998794015069 596.999670898191 598.001372193982 598.999766552834 599.998031860744 601.000279433919 601.998148970265 602.998737659281 603.998133716394 605.000881780817 606.000922391975 606.998991947385 607.998661568184 608.99892673239 610.00091929567 610.999086727634 611.998596210527 612.999993371332 613.998746442722 615.000269967076 615.999099059878 616.998971225236 617.999720349815 619.001508625416 619.999498386982 621.001376831825 621.999825924463 622.999739213878 624.001715916923 625.003058225632 626.000213588791 626.998911586275 627.998735272186 628.997509367106 630.001654805023 630.998753429194 632.000597395016 633.00035397911 634.000178671225 634.996721689063 635.999084582055 636.998933820794 638.000151336211 638.99877864048 640.001008018917 640.998158223219 641.998768017321 642.999154290495 644.002580249778 645.000700030932 645.998407998017 646.999832873079 647.99873490189 648.998349495798 649.999519782129 651.001753663039 651.999562135479 652.996320443296 654.001325843533 654.999827579633 656.000277135684 656.99844598076 658.002361540308 659.00147654429 659.999095181962 661.001425590159 661.998627860381 662.998958559183 663.998926332658 665.001429663906 665.999482748316 667.001048914823 667.999596367615 668.998738089222 670.002760485567 671.001100969213 672.000915261995 672.999892797389 674.004074110021 675.002638807403 676.001368195435 677.000770449628 677.999147562462 678.999413737655 680.001299073064 681.001537061691 681.999807861111 682.997488128934 684.001642742597 685.000495093081 686.000059091059 687.002029984929 688.000636906379 688.999879618358 689.99892615881 691.00163519971 691.999595502845 693.001864211402 693.999231748779 695.00050119948 695.999638915962 696.998001113936 698.001345778022 699.000678741489 699.999976483413 701.000867358679 702.00021710188 702.998309534251 703.99856442806 705.002716135617 705.998505717948 706.998832057051 707.999648321796 709.001878770236 709.999663682724 710.998318376517 711.998174498491 713.001183753693 713.999138962482 714.996063345224 716.000457250329 716.999640369131 717.999970731891 718.999317974712 719.998220088635 721.000478309118 722.001343287859 723.00029233353 724.001761979897 725.000515383259 725.998435734247 726.996461546328 727.999515063893 728.998845436978 730.000044653822 730.998214886603 731.998771300406 733.00000800498 734.000167002125 734.99824297915 735.997083465213 736.999079490056 738.000272967351 738.998176586446 739.99979222396 741.000378862185 742.001045103394 742.999260029312 744.001273512438 744.997623647346 746.003578969281 747.00105390987 748.002331034494 748.998270499606 749.998918685429 751.000718307638 752.000745776278 752.999280325812 753.999703634749 754.999729839939 756.000633632645 756.998931290825 757.999050645771 758.998545125015 759.998325418358 760.998979957889 762.000644453165 763.000221221924 764.001128506422 764.999872366222 766.002228733305 766.99838789078 768.000608918334 768.998072459938 769.998875239979 771.002621248812 771.997453764542 772.998759709972 774.001589204555 774.997801997744 776.000541007526 776.998214193871 777.998527194497 778.999321357172 779.998038051644 781.000281557852 782.00066826586 783.000967576617 783.999526231997 785.00271304484 786.001463319744 786.999375280834 787.997495465144 788.997342708243 789.999531522854 790.996239026594 792.000677469322 793.003174917882 794.001950786515 795.00035642481 796.000548054796 796.999538777594 798.001513540378 799.000517981523 799.999394773647 800.99766392773 801.998996671683 803.000613201227 803.99985758513 805.001604955689 806.00147647714 807.000002281819 808.001595510889 808.999803904252 810.000223786081 810.998677721287 811.997122152794 813.002815553738 813.999019229375 815.000540743 815.999074728763 817.000849011453 817.999929669593 819.000123141732 820.000345184881 821.002140278778 821.998411422153 823.00412030453 823.997128136663 825.001575516133 826.000958673305 826.999531826276 827.999336097185 829.000959082208 830.000036962852 831.00184029523 831.997620606719 833.000607624892 834.00084508387 834.999374073773 835.999890483458 836.999607460823 838.000613927591 838.999710167584 840.002750221182 841.001544575914 841.997259950656 843.002603031333 844.00329410764 844.998565296064 846.001094576886 847.000573831374 847.998043938333 849.000369332968 849.999620009387 851.000478953013 852.001828914385 853.002777323378 853.999713561786 855.000435271066 855.997160941184 856.998319235727 857.999847060023 859.00106013118 860.001779358252 861.001810017099 861.997232017439 862.996336291026 863.99745682452 864.997387794694 866.001296873546 867.001906563955 868.000509913692 869.00202236208 869.998640997253 871.002113631455 871.999556805078 872.997078630097 873.999158369781 874.999139179531 875.999868413948 876.996106118216 878.002377713835 878.996538089784 880.000499720499 880.999116410005 881.999510060944 882.998531926048 883.99845987658 885.001088255812 886.000524920588 886.998266669292 888.000187314908 889.001061558906 889.997621092824 890.999563433633 891.99669923598 892.99959742849 894.001244083434 895.003940635438 896.000423109435 897.000841371186 898.000383672011 899.002553747041 899.998886265013 900.997161940428 901.998650655725 902.999048789772 903.998141516 904.998939577637 906.00120884252 907.001794798008 908.002101457991 908.999647089213 909.998865224241 910.998452713021 912.000534334785 913.000363127826 913.99902028913 914.997626806126 915.996441557637 916.99563993995 918.002780527382 918.99964809292 919.997865077729 921.000879701962 921.999213314864 922.999657077422 923.997298929989 924.996343418677 925.998249780633 926.998971604153 927.997635162057 929.000539087434 930.000235000457 931.001642543529 931.998587679996 933.000495486719 933.999298935992 934.995602696737 935.997928656339 937.001209056238 937.999487050444 938.99826557734 939.998834653109 940.99956365317 942.000214096206 942.999494589072 944.000488811329 945.001576746474 946.000602875074 947.001461407258 947.997913613457 948.997203646993 949.997816899897 951.000099511687 951.997712329549 953.00223114497 953.998733423153 954.999918192604 956.003154265166 956.999706397557 957.999012857702 959.000757262081 960.000632828 960.997980196921 961.997940498422 963.000335887182 963.999096484365 965.000846098249 965.99865944367 967.001050692317 967.999951371262 969.003599280803 970.002512831095 971.001573386793 971.999183786507 973.000042281375 973.999301397782 974.998858908238 976.001618480356 976.998034910941 978.000606289441 979.001447166857 979.998174146 980.99968642253 981.999682319481 983.000713293753 983.999392071822 985.002190607197 985.998100824788 987.000335068769 988.002917369762 989.000146331245 989.998655707372 991.001209615565 992.000504013576 992.999814407545 994.001833541708 995.002278583748 996.001377034734 997.002697401605 997.997564882325 999.000795301205 999.99797433095                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.56621025292511E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235141995 2.00032304937487 2.99997706654172 4.00020652651286 5.00017765229919 5.99987386258931 6.99992985780158 8.00015222916912 9.00001628145671 10.0003907593262 10.9999225331544 12.0011917330986 13.0004167646978 14.0001851870353 14.9999948912525 15.9999212789525 16.9998928440011 18.0015571349771 19.0001008877702 20.0002623352841 21.0003388777016 22.000032020236 23.0003024729472 24.0000302327629 25.0002215867182 26.0000562485914 27.000001343708 28.0001032913971 28.9999218082323 29.9999268944223 31.000057918707 31.9998611265439 33.000232222729 34.0004056246208 34.9996708365766 36.0002613840324 36.999809313332 37.9999196480446 39.0000829551097 39.9999165097405 40.9982174055593 42.0015800687923 43.0000084620835 43.9992052852469 44.9999028718957 45.9998424328234 46.9996914494887 48.0000383432467 49.0000185974968 50.0000295873537 50.9997071237292 52.0004234269256 52.9999819662112 54.0002168677828 55.0002039493851 55.9998845681576 57.0002919770465 58.0001992434959 59.0000389801312 59.9996855771991 61.0000586006056 61.9983640126823 62.9999088404657 63.9999507143616 65.0001297071453 66.000807252449 67.0002295624429 67.9992240014591 68.9999321149995 70.0003523440564 70.9999567629964 71.9999584422424 73.0001029685411 74.0000056391306 74.9983281831748 76.0003881524037 77.0001967120859 77.9999523512993 79.0011296999453 79.9997871239999 80.9999405486312 82.0005573899027 83.0014682392037 84.0002826079027 85.000034347406 86.0001590723828 86.9999918622822 88.0004264185607 88.9998960005317 90.0001742957134 90.999906612639 91.9985440624865 92.9985373591454 94.0001704577921 95.0000421697048 95.9986663695365 96.9995005344692 97.9997885933722 99.001032957511 100.000516857353 101.000230700432 101.999613748688 102.999518533392 103.998722420281 104.998982802239 105.999886129378 107.000090303983 107.99989598683 109.000065567066 109.998242069089 110.999906475493 111.999605836339 112.999338295054 113.999881640236 115.002052461819 115.999357816067 117.001070535165 118.00155911559 119.000277884281 120.0004208516 120.999583818162 122.000520121443 123.000495995845 124.001137740472 125.002171242466 125.999749597201 127.001677958158 127.999926253242 128.999667103328 129.998546738018 130.998003400529 132.00018072573 133.000006115616 133.999667290386 135.000720241953 136.000406073138 137.001379564467 137.998241511342 138.999316532365 140.000037539275 141.000075238064 142.00032912968 143.000589977635 144.002041867833 145.001725688856 146.000433861637 146.999822305669 147.999879033228 148.998170166144 150.000961223074 150.999402882836 151.998862477446 153.000206041134 153.999162901856 155.001615569725 156.000785486368 157.000585981163 157.998482309541 158.998272047302 160.000773091193 161.001058291978 161.999696500811 163.002057743889 164.000293454436 164.997760216851 166.000389365212 166.999452968328 167.99970820931 169.000447389798 170.001579856656 170.999514789056 172.001131141662 173.00081475342 173.998428785422 174.997950460988 176.000373729562 177.002059657538 177.99937852135 178.999656336414 180.001800789348 180.999179237684 182.001355611866 182.998036450994 184.000193853129 184.999143446721 185.998914241808 186.999191757437 187.999994118639 188.998875335777 189.999771588131 191.002597299173 192.001248283196 192.998888766299 194.001799127373 194.999094271563 195.997790824522 196.999467534308 197.999099533566 199.000494153044 200.000021294786 201.000727747787 201.998094513309 202.997961003027 204.000514772894 204.99858309926 206.001282034067 207.000944963331 208.000440191557 208.999354831281 210.001250118733 210.999937959289 212.000792761907 213.000320002512 214.000339676791 214.999416699684 216.000802417161 217.001783646428 217.998301246393 219.001723520535 220.00050770369 220.999958367623 221.999431233199 223.00027290896 223.998499128951 224.997469672306 225.998516801161 226.999431705209 228.00037962316 229.001603472857 229.998973942092 230.99816025487 232.00056821243 233.000528572546 233.99875955596 234.997960250409 236.002116120367 236.998882146301 237.999123605825 239.000548446629 240.001014448724 241.001186631953 242.000191570209 243.001641850553 243.9985668266 244.999357428814 245.999686425007 246.999680469918 248.000834492346 249.000222127546 249.997462155142 250.999783155242 251.997521585774 252.999363763962 253.998848266402 254.998669047667 255.998527016645 256.99941983937 257.998481700065 259.000925439236 259.999210923042 261.00150806574 262.002333889969 263.001428387419 263.998081424347 265.001376854082 265.999357156945 267.000586580677 268.001202648956 268.998667608291 270.001214907143 270.997516432931 271.998515773422 273.00009092987 273.999298008393 275.000823628934 275.999001215478 276.998772676388 278.000959077202 279.001258773067 279.999265084749 280.999748188681 282.000662213863 282.998716851808 283.998333917499 285.001821537614 285.998543886868 286.998893734702 288.001446083463 288.99804222962 289.998600354235 290.997013794894 292.000738244088 292.998663987103 294.001639399887 295.001399720038 296.001708064326 297.000033088006 298.000470456573 299.000440462664 299.998533416677 301.001871308763 301.997346619662 302.999266870012 304.000301016786 305.000448925641 306.000627051158 307.000624811358 307.999928186302 308.998760120349 309.997896979468 310.998455216673 312.000157519922 312.998923118149 313.998194331198 315.000191053075 315.999729188382 317.000301355463 318.001206193762 318.998872438526 319.997979133224 320.998635787071 321.999779098105 322.998659731179 324.001858127353 324.999583505383 326.000412883628 326.998929804574 328.001666140706 328.999307603249 330.000062712384 330.999324097223 332.000590424312 332.998399927432 333.998018858694 334.998749218665 336.00225291458 337.000872176016 338.000983143995 338.998478787898 339.998644820972 340.997978304934 341.999854742038 342.997780248712 344.000367217142 345.001263687504 346.002062355641 346.99775898979 348.000897387265 349.001566083179 350.001733973058 351.000935499675 352.000624875381 353.002331853203 354.002644831526 354.999264603416 355.998412951062 357.000949844745 357.999650748048 359.001296667478 359.999298445039 360.998884253391 362.001489990615 363.000849598971 364.000498436375 364.998148880265 366.000032378015 366.999690631522 368.000017805436 369.001677223483 370.002023054913 370.99807328231 372.001185717424 373.000505312605 373.997865326414 375.000186777511 376.002087540815 376.998011832414 378.000182521229 379.002188158863 380.000807018411 380.998023170139 382.002275904702 383.000698236671 383.997458989727 384.999504813151 385.998830448773 387.000373926235 388.001357747685 389.000088109364 389.999573316947 390.999418491575 392.000997730007 392.99965197649 393.999411009458 394.999757204554 396.00014961027 396.99916648492 397.998900142646 399.002349550635 399.999140024269 401.001771134112 402.001742149233 402.999707457481 404.002284022044 404.997599838166 405.999002346286 407.000097010456 407.997701871446 409.000387694572 409.998440210126 410.999440999626 411.998162159337 413.000604773447 413.999892180446 414.997408560871 415.998422020903 416.99914507491 418.001736347942 419.000305285513 419.997919774103 420.999668821114 421.998326380479 422.999001325837 423.998368553215 424.99840502662 425.999412418794 427.000482279701 428.000801003899 428.998727905164 429.999591739707 430.999682451008 431.997523692327 433.00075766791 433.999188609208 434.998530749223 435.998685246295 436.99856750061 438.002111223603 439.000638860235 439.998562681578 441.002295452275 442.001618402378 443.001574373044 444.000344369278 445.002728042856 446.00189950417 446.998269784237 447.999042447876 448.999078236103 449.999286521664 451.002683627982 451.997769236112 453.000344804172 453.998144202959 455.002927458968 456.000157900985 456.999960640431 457.99884229219 459.000247658315 460.000022618012 460.997728945156 461.999097387899 462.999401029112 463.9993903621 465.00045429762 465.997967299923 467.000290255923 467.99907674969 468.999044828873 469.998408054336 471.001808511745 472.0001539558 473.002402665249 473.998499388185 475.001077035352 475.998484239634 477.001063907338 478.001013244642 479.000632330048 480.001859280753 480.999626872001 481.998137544305 483.000661549188 483.999850266172 484.99833834434 485.998835263524 487.000227493901 487.99904844892 489.000398366808 489.997380604812 490.999422827021 491.999985491232 492.999089471466 493.999847073091 494.998026248628 495.998774760845 496.998077893761 498.001272310881 498.997627026078 500.001811211482 501.002217405154 501.999116849907 503.001607534649 504.001487214602 505.000543266316 506.000249490001 507.000837432484 507.998807244117 509.001082214385 510.002772963936 511.000628230748 511.999201226228 513.002726614791 514.000514096186 515.000242682768 515.998421031113 517.001316086841 517.999574479225 518.999929960779 519.999371267163 521.000424849244 521.997926121681 522.9988933708 524.001769184482 524.999688697722 525.999178270312 527.000644675571 527.999751230709 528.998028298129 529.999854704625 530.998577664367 532.001223603992 532.999173228615 533.998738900872 535.000442731556 535.999609338327 536.999147277024 538.000977400055 538.997753336908 540.00245951407 541.001728402443 541.999172895292 543.001931241612 543.998964980322 545.001014345115 546.001595748442 547.000851958024 547.998392415098 549.000782387331 549.999215065143 550.996274499471 552.001577469254 553.001010306357 554.001574489177 554.998447742393 555.999327627111 556.998892490311 558.001356452217 558.998773861045 560.00091781268 561.001103911056 561.9970385437 563.001719218016 563.99782327972 564.999593111249 566.00018360522 566.997678129046 568.001363842981 569.000527617325 570.002250110387 571.000335990832 572.002144367016 573.002100395961 573.998575348293 575.00112320081 576.002418090959 577.001392336726 578.001098485702 579.000755779018 580.000583963811 581.001422723491 582.002616303854 583.001470885633 583.998743983739 584.998087747859 586.000124504733 587.000241089884 588.002558721504 588.997445442816 590.001680791023 590.998943935223 591.998619776817 593.000559445338 593.997433322552 594.999844029012 595.99879399073 596.999670898087 598.001372200507 598.99976648831 599.998031820623 601.000279392583 601.998148937951 602.998737670621 603.998133697813 605.000881814509 606.000922406908 606.998991918177 607.998661547383 608.998926729488 610.000919326984 610.999086760703 611.99859620435 612.999993391502 613.998746481557 615.000269931373 615.999098965896 616.998971267164 617.999720323742 619.001508578679 619.999498368707 621.001376808724 621.999825912551 622.999739224083 624.001715908293 625.003058248537 626.000213553132 626.998911553135 627.99873535208 628.997509399114 630.001654797238 630.998753380594 632.000597400267 633.000353941675 634.000178708095 634.996721728346 635.999084568243 636.998933856293 638.000151352087 638.998778658212 640.001007963285 640.998158149673 641.99876805857 642.999154332639 644.00258027808 645.000700046494 645.998408005754 646.999832868619 647.998734960169 648.998349463842 649.999519774418 651.001753649628 651.999562158815 652.996320485243 654.001325879144 654.99982758792 656.000277122983 656.998445891823 658.002361530517 659.001476615506 659.999095116098 661.001425591958 661.998627906554 662.998958507316 663.998926346219 665.001429703207 665.999482753037 667.001048934693 667.999596375814 668.998738132926 670.002760433162 671.001100923217 672.000915341153 672.99989280137 674.004074040994 675.002638816355 676.001368237361 677.00077046208 677.999147552825 678.999413746493 680.00129911205 681.001537026065 681.999807811058 682.997488141395 684.001642796631 685.000495046151 686.000059056337 687.002029950536 688.000636897611 688.999879648864 689.99892613561 691.001635225124 691.999595494944 693.001864152184 693.999231747261 695.000501260129 695.999638822027 696.998001090618 698.001345739113 699.000678799144 699.999976474602 701.000867355571 702.000217139974 702.998309562541 703.998564445375 705.002716152407 705.998505763469 706.998832082452 707.999648382787 709.001878810139 709.999663713875 710.998318402768 711.99817453928 713.001183702367 713.999138918961 714.99606331871 716.000457236141 716.999640354791 717.999970807054 718.999317938532 719.998220001757 721.000478281871 722.001343296895 723.000292262611 724.001761972204 725.00051543209 725.998435633236 726.996461555636 727.999515027108 728.998845463161 730.000044582805 730.998214911812 731.99877125819 733.000008021012 734.000166916991 734.998242964224 735.997083462432 736.999079449764 738.00027297072 738.998176605313 739.999792219607 741.000378856149 742.001045144838 742.999260127243 744.001273498495 744.997623611433 746.003578933881 747.001053880778 748.002331060188 748.998270498629 749.998918689811 751.000718307344 752.000745793362 752.999280265425 753.999703709099 754.999729844463 756.000633719284 756.998931248849 757.999050568791 758.998545059079 759.998325441322 760.998979998419 762.000644396807 763.00022120829 764.001128443476 764.99987235018 766.002228685241 766.998387843968 768.00060892513 768.998072480235 769.998875234459 771.002621214704 771.99745377785 772.998759752114 774.001589164453 774.997802038132 776.000540962025 776.998214254935 777.998527189225 778.999321340568 779.998037974973 781.000281626342 782.000668265255 783.000967576855 783.999526295285 785.002713092534 786.001463316577 786.999375325264 787.997495457005 788.997342734057 789.999531428138 790.996239054325 792.000677446593 793.003174895622 794.0019507936 795.000356405244 796.000548069808 796.999538760509 798.001513537889 799.000517859487 799.9993947654 800.997663897544 801.998996701039 803.000613176475 803.999857512644 805.001604972311 806.001476482394 807.000002255408 808.0015955369 808.999803919652 810.000223738991 810.998677735125 811.997122164449 813.002815527794 813.999019309772 815.000540713408 815.999074732558 817.000848953017 817.999929646535 819.000123196066 820.000345218085 821.002140245203 821.998411359727 823.004120235063 823.997128056307 825.001575532627 826.000958653309 826.999531781683 827.999335998853 829.000959021844 830.000036986702 831.001840307408 831.997620673089 833.000607633122 834.000845121616 834.999374093249 835.999890506363 836.999607453046 838.00061379435 838.999710100332 840.002750183345 841.001544578351 841.997259938234 843.002602999523 844.003294161085 844.998565329084 846.001094534577 847.00057390036 847.998043980803 849.000369348615 849.999620019098 851.000478986695 852.001828873207 853.002777284918 853.999713533194 855.000435257363 855.997160931696 856.99831919986 857.999847030581 859.001060042183 860.001779310227 861.00180998794 861.997232055586 862.996336313263 863.997456816455 864.997387815929 866.001296785813 867.001906577968 868.000509937616 869.002022286588 869.998640991639 871.002113609148 871.999556857533 872.997078663463 873.999158395849 874.999139142217 875.999868436051 876.996106113821 878.002377637503 878.996538021652 880.000499712759 880.999116383898 881.999510087755 882.998531928445 883.998459905327 885.001088208854 886.000524776072 886.998266653338 888.000187288969 889.001061512392 889.997621121173 890.999563443429 891.99669917866 892.999597411317 894.001244024975 895.003940640866 896.000423040242 897.000841396123 898.000383649334 899.00255371111 899.998886156536 900.997161994807 901.998650662601 902.99904875649 903.998141506926 904.998939504518 906.001208824909 907.001794790395 908.002101499912 908.999647110273 909.998865186934 910.998452631559 912.000534336188 913.000363052714 913.999020287282 914.997626775487 915.996441522147 916.995640026844 918.002780503974 918.999648103758 919.997865110235 921.000879736301 921.99921331798 922.999657142075 923.997298984045 924.996343424293 925.99824963272 926.998971658454 927.997635069747 929.000539043937 930.000235063299 931.001642579105 931.998587673999 933.000495583198 933.999298968565 934.995602597681 935.997928583901 937.001209027592 937.999487034989 938.998265708077 939.998834693989 940.999563639336 942.000214043863 942.999494662244 944.000488762164 945.001576779341 946.000602923349 947.00146137942 947.99791365859 948.997203588963 949.997816868896 951.00009950791 951.997712227641 953.002231037601 953.998733444537 954.999918139459 956.003154161377 956.999706268858 957.999012891544 959.000757244757 960.000632826471 960.997980237139 961.997940522122 963.000335864053 963.999096523621 965.000846044596 965.998659451572 967.001050692547 967.999951399375 969.00359927789 970.002512822855 971.001573417088 971.999183795461 973.000042300355 973.999301411134 974.998858874383 976.001618452356 976.998034866548 978.000606270468 979.001447186818 979.998174129692 980.999686382335 981.999682322051 983.000713260488 983.999392074794 985.002190533562 985.998100826444 987.000335099021 988.002917353664 989.000146297486 989.998655708739 991.001209600438 992.000503973603 992.999814360429 994.001833485082 995.002278525768 996.001376979665 997.002697457653 997.997564849008 999.000795318333 999.997974242433                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.35759438773228E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010245083957 2.00032297029971 2.99997691069319 4.00020655494602 5.00017750297128 5.99987374808532 6.9999300851121 8.00015235607292 9.00001625724186 10.0003908116531 10.9999226642531 12.001191958838 13.0004167380028 14.0001851862059 14.9999948393554 15.9999211892199 16.9998926578977 18.0015570701144 19.0001008767612 20.0002619968947 21.0003387138113 22.0000322506638 23.0003022538477 24.000030235027 25.0002212060475 26.00005604824 27.0000013234065 28.0001032081723 28.9999216950055 29.9999268398621 31.0000580001916 31.9998609908669 33.0002321897809 34.0004054889243 34.9996708166163 36.0002613617101 36.9998095029573 37.9999197661267 39.0000829894805 39.9999166651998 40.9982172414935 42.0015801969229 43.0000081484862 43.9992053936776 44.9999030603814 45.9998422000846 46.9996914402673 48.0000384595742 49.0000185327818 50.0000296411187 50.9997071026978 52.0004233604514 52.999981870986 54.0002165443419 55.0002039543827 55.9998845167174 57.0002920487787 58.000199253858 59.0000390276329 59.9996855085338 61.0000586610867 61.9983638060815 62.9999084728402 63.9999507597586 65.0001295369976 66.0008074399369 67.0002296102651 67.999223993333 68.9999321520971 70.0003522690064 70.9999566516248 71.99995856895 73.0001028437329 74.0000058076068 74.99832815644 76.0003878366397 77.000196734752 77.9999522583263 79.0011298928296 79.9997872176612 80.999940571805 82.0005574730787 83.0014682646378 84.000282172708 85.0000344986734 86.0001592691759 86.999991745151 88.0004266173089 88.9998958613718 90.0001744773836 90.9999067339351 91.9985439779271 92.9985371848892 94.0001704601981 95.0000421352711 95.9986664508433 96.9995006598179 97.9997885886 99.0010330582963 100.000516936656 101.000230572979 101.999613727971 102.999518312024 103.998722393193 104.998982806428 105.999886137468 107.000090108134 107.999895877297 109.000065729219 109.998241999302 110.999906338608 111.999605898375 112.99933828424 113.999881645772 115.002052436099 115.99935788263 117.001070512023 118.001559111309 119.000277890113 120.000420654285 120.999583836819 122.000520249347 123.000495732224 124.001137869318 125.002171358463 125.999749560012 127.001678048145 127.999926263565 128.999667228444 129.998546699859 130.998003227765 132.000180435926 133.000006038289 133.999667182004 135.000720271473 136.000406144639 137.00137972024 137.99824118578 138.999316576387 140.000037287696 141.000075150544 142.000329000059 143.000589900654 144.002041796963 145.001725691836 146.000433860526 146.99982255919 147.999878997864 148.998170156959 150.000961075432 150.999402864893 151.998862472501 153.000206039136 153.99916294992 155.001615472719 156.000785449728 157.000585960959 157.998482186711 158.998271987425 160.000773042051 161.001058454464 161.999696375268 163.002057649608 164.000293562922 164.997760150453 166.000389295697 166.999453122813 167.999708149211 169.000447208263 170.001579791484 170.999514629677 172.001131237495 173.000814780085 173.998428737614 174.997950368965 176.000373650347 177.002059654408 177.999378431303 178.999656481641 180.001800790356 180.999179263287 182.001355509598 182.998036335206 184.000193655696 184.999143348314 185.998914161329 186.999191877452 187.999994079816 188.998875242447 189.99977155703 191.002597195843 192.001248302573 192.998888655905 194.001798970324 194.999094180366 195.997790825565 196.999467528019 197.999099502698 199.000494085042 200.000021322303 201.000727731863 201.998094561201 202.997961180463 204.000514775175 204.99858314488 206.001281942725 207.000945060367 208.000440048186 208.999354916747 210.00124998943 210.999937897574 212.000792703536 213.000320106475 214.000339677107 214.999416679139 216.000802362951 217.001783558117 217.998301235758 219.001723523059 220.000507712683 220.999958515396 221.999431369117 223.000272768243 223.998499125233 224.997469695414 225.998516847987 226.999431694351 228.000379596356 229.001603596271 229.998973986366 230.998160292541 232.00056815739 233.000528418867 233.998759607693 234.997960296569 236.002116052668 236.998882157574 237.999123746646 239.000548444643 240.001014304697 241.0011865039 242.000191500323 243.001641845466 243.998566837388 244.99935732674 245.999686355003 246.999680522564 248.000834429989 249.000222132876 249.997462196897 250.999782950112 251.997521573266 252.999363804319 253.998848254793 254.998669051219 255.998527085851 256.999419724825 257.998481544177 259.000925490008 259.99921098215 261.00150791327 262.002334030614 263.001428282583 263.998081445557 265.001376840424 265.999357102509 267.000586645336 268.001202677291 268.998667810499 270.001214932755 270.99751634658 271.998515641679 273.00009087579 273.999298051492 275.000823639426 275.999001315355 276.99877258463 278.000959178942 279.00125872834 279.999264999991 280.999748155357 282.000662125227 282.9987168467 283.998333942894 285.00182156138 285.998543887861 286.998893736442 288.001445945942 288.998042248695 289.998600335624 290.99701383055 292.000738033422 292.998664047472 294.001639482762 295.001399808753 296.001707997526 297.000033051819 298.000470437604 299.000440470589 299.998533454006 301.001871203277 301.997346662295 302.999266817202 304.000300992303 305.00044896141 306.000627026823 307.000624852807 307.99992830761 308.998760191803 309.997896929012 310.998455237067 312.000157592226 312.998923106337 313.99819442944 315.000190988979 315.999729223942 317.000301359855 318.001206210581 318.998872380827 319.997979261244 320.998635747162 321.999779062126 322.99865972417 324.001858024333 324.999583442791 326.00041290639 326.998929846162 328.001666135794 328.999307586015 330.000062657178 330.999324047738 332.000590522333 332.998399798286 333.998018841828 334.998749229491 336.002252907554 337.000872173465 338.000983177373 338.998478808969 339.998644793497 340.9979783299 341.999854720053 342.9977801827 344.00036726807 345.00126362895 346.00206236526 346.997759017794 348.000897388074 349.00156611343 350.001733994641 351.000935499878 352.000624840734 353.002331833294 354.002644741258 354.999264549609 355.998412993968 357.000949760794 357.999650670933 359.001296731489 359.999298448882 360.99888416077 362.001489974842 363.0008496178 364.000498492511 364.998148866909 366.000032360037 366.999690593613 368.000017838125 369.001677162713 370.002023083265 370.998073320114 372.001185755134 373.000505261109 373.997865366921 375.000186808331 376.002087537115 376.998011911018 378.00018253516 379.002188105478 380.00080699081 380.99802316092 382.002275878339 383.000698170805 383.997459082649 384.999504776266 385.998830462553 387.000374006541 388.001357805811 389.000088132811 389.999573291252 390.999418450232 392.000997771269 392.9996519794 393.99941099735 394.999757159665 396.000149598183 396.999166519791 397.998900093829 399.002349525522 399.999140092553 401.00177109717 402.001742141249 402.999707482413 404.002283914907 404.997599779921 405.999002414007 407.000096888367 407.997701926306 409.000387640253 409.998440285398 410.999441096664 411.998162172843 413.000604774191 413.999892156905 414.997408683236 415.998421955263 416.999145049523 418.001736350622 419.000305323582 419.997919744015 420.999668765052 421.998326401524 422.999001264884 423.998368549126 424.998405046772 425.999412350418 427.000482361654 428.000800982026 428.998727947171 429.999591720133 430.999682542175 431.997523620248 433.000757631991 433.9991885604 434.998530789801 435.998685248492 436.998567485862 438.002111149097 439.00063884583 439.998562716704 441.002295507062 442.001618394517 443.001574356374 444.000344323973 445.002728057797 446.001899482219 446.998269774932 447.999042451977 448.999078190868 449.999286504171 451.00268359825 451.997769204062 453.00034479254 453.998144171906 455.002927466103 456.000157911404 456.999960586648 457.998842313278 459.000247645443 460.000022608798 460.997728947807 461.999097378606 462.999401056596 463.999390361935 465.000454253641 465.997967315316 467.000290216974 467.99907678638 468.999044852636 469.998408070281 471.001808463966 472.000153941502 473.002402695228 473.998499362278 475.001077057616 475.998484277633 477.001063838967 478.001013244604 479.000632348932 480.001859297614 480.9996268279 481.998137498743 483.000661561353 483.999850301741 484.998338370898 485.998835256478 487.000227523991 487.999048441635 489.000398275689 489.997380578257 490.999422876117 491.999985506342 492.999089482578 493.999847142478 494.998026240069 495.998774765836 496.998077937397 498.001272330722 498.997627009795 500.001811206991 501.00221734712 501.999116892136 503.001607593054 504.001487216689 505.000543229045 506.000249434642 507.000837437569 507.99880727726 509.001082231493 510.002772991188 511.000628180899 511.999201254645 513.002726625376 514.000514095011 515.000242723305 515.998420990049 517.001316070372 517.99957441068 518.999929947356 519.999371332267 521.000424888818 521.997926152941 522.998893458812 524.001769232117 524.999688719401 525.999178345737 527.000644674363 527.999751239939 528.998028261969 529.999854748386 530.998577708628 532.001223590874 532.999173263535 533.9987388957 535.000442675061 535.999609367357 536.999147310532 538.000977397948 538.997753307005 540.002459526856 541.001728374542 541.999172895804 543.001931241353 543.998965019625 545.001014333065 546.001595786505 547.000851945434 547.998392403522 549.000782410369 549.999215095705 550.996274471231 552.001577530039 553.001010344047 554.001574472129 554.9984477443 555.999327719046 556.998892502729 558.001356444274 558.998773856246 560.000917868211 561.001103901441 561.997038516601 563.001719229432 563.997823340475 564.999593113912 566.000183579394 566.997678095226 568.001363797708 569.000527613351 570.002250049836 571.000336025044 572.002144351669 573.002100398773 573.998575445595 575.001123209694 576.002418070282 577.001392393893 578.001098462207 579.000755723019 580.000583972641 581.001422769566 582.002616279243 583.001470911946 583.998743923426 584.998087790513 586.00012450174 587.000241071017 588.002558675874 588.997445406094 590.001680823026 590.998943916247 591.998619781768 593.000559439145 593.997433304953 594.999844002346 595.998794039742 596.999670923398 598.001372158367 598.999766542548 599.998031829316 601.00027942247 601.998148957992 602.998737655919 603.998133726156 605.000881797095 606.000922391999 606.998991893906 607.998661548124 608.998926696991 610.000919296496 610.999086747814 611.998596215024 612.999993407721 613.998746458696 615.000269937771 615.999099047145 616.998971193539 617.999720337643 619.001508616885 619.99949839938 621.001376876762 621.999825883228 622.999739218506 624.001715915214 625.003058228728 626.000213567175 626.998911560221 627.998735277177 628.997509400989 630.001654845598 630.998753418433 632.00059740406 633.000353979503 634.000178718794 634.996721725897 635.999084583733 636.998933828902 638.000151348913 638.998778647186 640.001008022346 640.998158211765 641.998768017674 642.999154338849 644.002580264869 645.000700073938 645.998407983368 646.999832879486 647.998734913559 648.998349501774 649.99951981084 651.001753697225 651.999562161482 652.996320443882 654.001325875405 654.999827561462 656.000277133473 656.99844596934 658.002361562283 659.001476568266 659.999095171967 661.001425596693 661.998627827021 662.998958478172 663.998926359497 665.001429652081 665.999482703113 667.001048900378 667.999596410234 668.99873809418 670.002760492337 671.001100964918 672.000915294056 672.999892779145 674.004074102787 675.00263885275 676.001368193046 677.000770457173 677.999147553498 678.999413792573 680.001299090746 681.001537016717 681.99980782287 682.997488110815 684.001642798672 685.000495047059 686.0000591006 687.002029952765 688.000636893211 688.99987961639 689.998926154426 691.001635227299 691.999595491967 693.001864195633 693.999231747063 695.000501268548 695.999638859391 696.998001149187 698.001345759423 699.000678748487 699.999976492925 701.000867337271 702.000217111394 702.998309529193 703.998564427368 705.00271613452 705.998505750359 706.998832080707 707.999648365262 709.001878793201 709.999663698686 710.998318366502 711.998174466987 713.001183755839 713.999138925995 714.996063318429 716.000457273131 716.999640376656 717.999970785086 718.999317939084 719.998220093842 721.000478270942 722.001343293208 723.000292356288 724.001761960156 725.000515377151 725.998435724806 726.996461530681 727.999515033566 728.998845439172 730.000044650473 730.998214931886 731.998771332047 733.000008044452 734.00016698208 734.998243016065 735.997083479705 736.999079440509 738.000273000078 738.998176572761 739.999792215221 741.000378885069 742.001045125793 742.999260078356 744.001273521105 744.997623628437 746.003578988106 747.001053934219 748.002331084655 748.998270494092 749.998918697126 751.000718320208 752.000745758798 752.999280333337 753.999703654449 754.999729840625 756.000633662328 756.998931275294 757.999050644422 758.998545095775 759.998325394491 760.998979972711 762.000644452164 763.000221231176 764.001128504144 764.999872361434 766.002228720128 766.998387903007 768.000608914031 768.998072467428 769.9988752472 771.002621225026 771.997453757342 772.998759709271 774.001589214418 774.997802014947 776.00054096271 776.998214195511 777.998527191305 778.999321348049 779.998038023619 781.000281595251 782.000668259615 783.000967579357 783.999526251979 785.002713058392 786.001463284871 786.999375266574 787.997495478125 788.997342732055 789.999531475392 790.996239045622 792.000677475431 793.003174930197 794.001950782361 795.000356411465 796.000548058395 796.999538733819 798.001513546702 799.000517955085 799.999394742637 800.997663907288 801.998996711407 803.000613189937 803.999857571814 805.00160495105 806.001476474748 807.000002280826 808.001595496431 808.999803899199 810.000223792181 810.998677764553 811.997122164178 813.002815565324 813.999019269501 815.000540743571 815.999074766042 817.000848991794 817.999929654504 819.000123147507 820.000345228483 821.002140242649 821.998411440889 823.00412030107 823.997128146585 825.001575526771 826.000958695862 826.999531819868 827.999336060608 829.000959072524 830.000036977902 831.00184030042 831.997620649395 833.000607648209 834.00084508884 834.999374065704 835.999890511104 836.999607461289 838.000613891744 838.999710171418 840.0027502252 841.001544574594 841.997259979833 843.00260303326 844.003294092376 844.998565283416 846.001094548733 847.000573875024 847.998043935111 849.00036930336 849.999619991355 851.000478939209 852.00182891021 853.002777344382 853.999713599269 855.00043531035 855.997160932984 856.998319247866 857.999847051036 859.001060117416 860.001779337821 861.001810017718 861.997232079059 862.996336300865 863.997456833372 864.997387795078 866.001296823696 867.001906553154 868.000509926583 869.002022345547 869.998641017505 871.002113629951 871.999556816956 872.99707864 873.999158377993 874.999139206374 875.999868426393 876.996106138861 878.002377714492 878.996538116274 880.00049969263 880.999116427597 881.999510064678 882.9985319079 883.998459859666 885.001088242929 886.000524875472 886.998266661612 888.000187294426 889.001061557356 889.997621120648 890.999563434565 891.996699215485 892.999597426147 894.001244094104 895.003940654007 896.000423095045 897.000841394126 898.000383663896 899.002553743461 899.998886262822 900.997161937002 901.998650651559 902.999048750038 903.998141505763 904.998939602643 906.001208845095 907.001794789598 908.002101470133 908.999647105261 909.998865203663 910.998452647086 912.000534345336 913.00036309865 913.999020318208 914.997626762984 915.996441544543 916.99563997256 918.002780523754 918.99964810825 919.997865090064 921.000879703502 921.999213306401 922.999657075169 923.997298966099 924.996343451658 925.998249764694 926.998971590574 927.997635157006 929.000539102095 930.000235004992 931.001642593964 931.998587707668 933.000495501604 933.999298958533 934.995602679134 935.997928657717 937.001209025461 937.999487068796 938.998265644453 939.998834696295 940.99956364559 942.000214092622 942.99949466966 944.000488811311 945.001576745959 946.000602900028 947.001461414721 947.997913643896 948.997203628276 949.997816879103 951.000099520991 951.997712336332 953.002231159733 953.99873341437 954.999918199482 956.003154250561 956.999706407495 957.999012855937 959.000757257401 960.000632802509 960.997980225365 961.997940489035 963.000335878578 963.999096495034 965.000846106522 965.998659465202 967.001050664786 967.999951371323 969.00359927175 970.002512809209 971.001573345142 971.999183765868 973.000042322051 973.999301390797 974.998858917065 976.001618464767 976.998034915678 978.00060626837 979.00144717365 979.998174168819 980.9996864351 981.999682316409 983.000713271236 983.999392093978 985.002190606492 985.998100814216 987.000335076981 988.002917361448 989.000146314456 989.998655719477 991.001209613207 992.00050401383 992.999814393997 994.001833528315 995.002278609816 996.001377026371 997.00269744104 997.997564875946 999.000795277232 999.997974313553                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.56621025294394E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235141997 2.0003230493748 2.99997706654173 4.00020652651294 5.00017765229912 5.99987386258932 6.99992985780164 8.00015222916912 9.00001628145676 10.0003907593261 10.9999225331543 12.0011917330985 13.0004167646978 14.0001851870353 14.9999948912525 15.9999212789526 16.9998928440011 18.0015571349771 19.0001008877701 20.000262335284 21.0003388777016 22.000032020236 23.0003024729473 24.0000302327628 25.0002215867182 26.0000562485914 27.000001343708 28.0001032913971 28.9999218082321 29.9999268944222 31.000057918707 31.9998611265439 33.0002322227291 34.0004056246208 34.9996708365765 36.0002613840325 36.999809313332 37.9999196480447 39.0000829551097 39.9999165097406 40.9982174055593 42.0015800687924 43.0000084620834 43.999205285247 44.9999028718957 45.9998424328235 46.9996914494887 48.0000383432468 49.0000185974967 50.0000295873537 50.9997071237292 52.0004234269256 52.9999819662112 54.0002168677828 55.0002039493851 55.9998845681575 57.0002919770465 58.0001992434959 59.0000389801312 59.9996855771991 61.0000586006056 61.9983640126823 62.9999088404658 63.9999507143617 65.0001297071453 66.000807252449 67.0002295624429 67.999224001459 68.9999321149996 70.0003523440563 70.9999567629964 71.9999584422423 73.0001029685411 74.0000056391305 74.9983281831746 76.0003881524037 77.000196712086 77.9999523512993 79.0011296999452 79.9997871239997 80.9999405486313 82.0005573899027 83.0014682392037 84.0002826079027 85.0000343474061 86.0001590723828 86.9999918622821 88.0004264185605 88.9998960005315 90.0001742957134 90.9999066126389 91.9985440624867 92.9985373591453 94.0001704577922 95.0000421697048 95.9986663695365 96.9995005344692 97.9997885933721 99.0010329575109 100.000516857352 101.000230700432 101.999613748688 102.999518533392 103.998722420281 104.998982802239 105.999886129378 107.000090303983 107.99989598683 109.000065567066 109.998242069089 110.999906475493 111.999605836339 112.999338295054 113.999881640236 115.002052461819 115.999357816067 117.001070535165 118.00155911559 119.000277884281 120.0004208516 120.999583818163 122.000520121443 123.000495995845 124.001137740472 125.002171242466 125.999749597201 127.001677958158 127.999926253243 128.999667103328 129.998546738018 130.998003400529 132.000180725729 133.000006115616 133.999667290386 135.000720241953 136.000406073138 137.001379564467 137.998241511343 138.999316532365 140.000037539275 141.000075238064 142.00032912968 143.000589977635 144.002041867833 145.001725688856 146.000433861637 146.999822305669 147.999879033228 148.998170166144 150.000961223074 150.999402882836 151.998862477446 153.000206041134 153.999162901856 155.001615569725 156.000785486368 157.000585981163 157.998482309541 158.998272047302 160.000773091193 161.001058291978 161.999696500811 163.002057743889 164.000293454436 164.997760216851 166.000389365212 166.999452968328 167.99970820931 169.000447389798 170.001579856656 170.999514789056 172.001131141662 173.000814753419 173.998428785422 174.997950460987 176.000373729562 177.002059657538 177.99937852135 178.999656336414 180.001800789348 180.999179237684 182.001355611866 182.998036450995 184.000193853129 184.999143446721 185.998914241808 186.999191757438 187.999994118639 188.998875335777 189.999771588131 191.002597299173 192.001248283196 192.998888766299 194.001799127373 194.999094271563 195.997790824522 196.999467534308 197.999099533566 199.000494153044 200.000021294786 201.000727747787 201.998094513309 202.997961003027 204.000514772894 204.99858309926 206.001282034067 207.000944963331 208.000440191557 208.999354831282 210.001250118733 210.999937959289 212.000792761907 213.000320002512 214.000339676792 214.999416699684 216.000802417161 217.001783646428 217.998301246393 219.001723520536 220.00050770369 220.999958367623 221.999431233199 223.00027290896 223.998499128951 224.997469672306 225.99851680116 226.999431705209 228.00037962316 229.001603472857 229.998973942092 230.99816025487 232.00056821243 233.000528572547 233.99875955596 234.997960250409 236.002116120366 236.998882146301 237.999123605825 239.000548446629 240.001014448724 241.001186631954 242.000191570208 243.001641850553 243.9985668266 244.999357428814 245.999686425007 246.999680469918 248.000834492346 249.000222127546 249.997462155142 250.999783155242 251.997521585774 252.999363763962 253.998848266402 254.998669047667 255.998527016646 256.99941983937 257.998481700065 259.000925439236 259.999210923042 261.00150806574 262.002333889969 263.001428387419 263.998081424347 265.001376854082 265.999357156945 267.000586580677 268.001202648956 268.998667608291 270.001214907143 270.997516432931 271.998515773422 273.00009092987 273.999298008393 275.000823628934 275.999001215478 276.998772676388 278.000959077202 279.001258773067 279.999265084749 280.999748188681 282.000662213863 282.998716851808 283.998333917499 285.001821537614 285.998543886868 286.998893734702 288.001446083463 288.99804222962 289.998600354235 290.997013794894 292.000738244088 292.998663987103 294.001639399887 295.001399720038 296.001708064326 297.000033088006 298.000470456573 299.000440462664 299.998533416677 301.001871308763 301.997346619662 302.999266870012 304.000301016786 305.000448925641 306.000627051158 307.000624811358 307.999928186302 308.998760120349 309.997896979468 310.998455216673 312.000157519922 312.998923118149 313.998194331198 315.000191053076 315.999729188382 317.000301355463 318.001206193761 318.998872438526 319.997979133224 320.998635787071 321.999779098105 322.998659731179 324.001858127353 324.999583505383 326.000412883628 326.998929804574 328.001666140706 328.999307603249 330.000062712385 330.999324097223 332.000590424312 332.998399927432 333.998018858694 334.998749218665 336.00225291458 337.000872176016 338.000983143996 338.998478787897 339.998644820972 340.997978304934 341.999854742038 342.997780248712 344.000367217142 345.001263687504 346.002062355641 346.99775898979 348.000897387265 349.001566083179 350.001733973058 351.000935499675 352.000624875381 353.002331853203 354.002644831526 354.999264603416 355.998412951062 357.000949844745 357.999650748048 359.001296667478 359.999298445039 360.998884253391 362.001489990615 363.000849598971 364.000498436375 364.998148880265 366.000032378015 366.999690631522 368.000017805436 369.001677223483 370.002023054913 370.99807328231 372.001185717425 373.000505312605 373.997865326414 375.000186777511 376.002087540815 376.998011832414 378.000182521229 379.002188158864 380.000807018411 380.998023170139 382.002275904702 383.000698236671 383.997458989727 384.999504813151 385.998830448772 387.000373926235 388.001357747685 389.000088109364 389.999573316947 390.999418491575 392.000997730007 392.99965197649 393.999411009458 394.999757204554 396.00014961027 396.99916648492 397.998900142646 399.002349550635 399.999140024269 401.001771134112 402.001742149233 402.999707457481 404.002284022044 404.997599838166 405.999002346286 407.000097010456 407.997701871446 409.000387694572 409.998440210126 410.999440999626 411.998162159337 413.000604773447 413.999892180446 414.997408560871 415.998422020903 416.99914507491 418.001736347942 419.000305285513 419.997919774103 420.999668821114 421.998326380479 422.999001325837 423.998368553214 424.99840502662 425.999412418794 427.000482279702 428.0008010039 428.998727905164 429.999591739707 430.999682451008 431.997523692327 433.00075766791 433.999188609208 434.998530749223 435.998685246295 436.99856750061 438.002111223604 439.000638860235 439.998562681578 441.002295452275 442.001618402378 443.001574373044 444.000344369278 445.002728042857 446.00189950417 446.998269784237 447.999042447876 448.999078236103 449.999286521663 451.002683627982 451.997769236112 453.000344804172 453.998144202959 455.002927458968 456.000157900985 456.999960640432 457.99884229219 459.000247658315 460.000022618012 460.997728945156 461.999097387899 462.999401029112 463.9993903621 465.00045429762 465.997967299923 467.000290255923 467.99907674969 468.999044828873 469.998408054336 471.001808511745 472.0001539558 473.002402665249 473.998499388185 475.001077035353 475.998484239634 477.001063907338 478.001013244642 479.000632330048 480.001859280753 480.999626872 481.998137544306 483.000661549188 483.999850266172 484.99833834434 485.998835263524 487.000227493901 487.99904844892 489.000398366808 489.997380604812 490.999422827021 491.999985491232 492.999089471466 493.999847073091 494.998026248628 495.998774760845 496.998077893761 498.00127231088 498.997627026078 500.001811211482 501.002217405154 501.999116849907 503.001607534649 504.001487214602 505.000543266316 506.000249490001 507.000837432484 507.998807244117 509.001082214385 510.002772963936 511.000628230748 511.999201226228 513.002726614791 514.000514096186 515.000242682768 515.998421031113 517.001316086841 517.999574479225 518.999929960779 519.999371267163 521.000424849244 521.997926121681 522.9988933708 524.001769184482 524.999688697722 525.999178270312 527.000644675571 527.999751230709 528.998028298129 529.999854704624 530.998577664367 532.001223603992 532.999173228614 533.998738900872 535.000442731556 535.999609338327 536.999147277024 538.000977400055 538.997753336909 540.00245951407 541.001728402443 541.999172895292 543.001931241613 543.998964980322 545.001014345115 546.001595748442 547.000851958024 547.998392415098 549.000782387331 549.999215065143 550.996274499471 552.001577469254 553.001010306356 554.001574489177 554.998447742392 555.999327627111 556.998892490311 558.001356452217 558.998773861045 560.00091781268 561.001103911056 561.997038543699 563.001719218016 563.99782327972 564.999593111249 566.00018360522 566.997678129046 568.001363842981 569.000527617325 570.002250110387 571.000335990832 572.002144367016 573.002100395961 573.998575348293 575.00112320081 576.002418090959 577.001392336726 578.001098485702 579.000755779018 580.000583963811 581.001422723491 582.002616303854 583.001470885633 583.998743983739 584.998087747859 586.000124504733 587.000241089884 588.002558721504 588.997445442816 590.001680791023 590.998943935223 591.998619776817 593.000559445338 593.997433322552 594.999844029012 595.99879399073 596.999670898087 598.001372200507 598.999766488309 599.998031820623 601.000279392583 601.998148937951 602.998737670621 603.998133697813 605.000881814509 606.000922406908 606.998991918177 607.998661547383 608.998926729488 610.000919326984 610.999086760703 611.99859620435 612.999993391502 613.998746481557 615.000269931373 615.999098965896 616.998971267165 617.999720323742 619.001508578679 619.999498368707 621.001376808724 621.999825912551 622.999739224083 624.001715908293 625.003058248536 626.000213553132 626.998911553134 627.99873535208 628.997509399114 630.001654797238 630.998753380594 632.000597400267 633.000353941675 634.000178708096 634.996721728346 635.999084568243 636.998933856293 638.000151352086 638.998778658212 640.001007963285 640.998158149673 641.99876805857 642.999154332639 644.00258027808 645.000700046494 645.998408005753 646.999832868619 647.998734960169 648.998349463841 649.999519774418 651.001753649628 651.999562158815 652.996320485243 654.001325879144 654.99982758792 656.000277122983 656.998445891823 658.002361530517 659.001476615505 659.999095116099 661.001425591958 661.998627906554 662.998958507316 663.998926346219 665.001429703207 665.999482753037 667.001048934693 667.999596375814 668.998738132926 670.002760433163 671.001100923217 672.000915341153 672.99989280137 674.004074040994 675.002638816355 676.001368237361 677.00077046208 677.999147552825 678.999413746493 680.00129911205 681.001537026065 681.999807811059 682.997488141395 684.001642796631 685.00049504615 686.000059056337 687.002029950535 688.000636897611 688.999879648864 689.99892613561 691.001635225124 691.999595494944 693.001864152184 693.999231747261 695.00050126013 695.999638822027 696.998001090618 698.001345739112 699.000678799144 699.999976474602 701.000867355572 702.000217139975 702.998309562541 703.998564445375 705.002716152406 705.998505763469 706.998832082452 707.999648382786 709.001878810139 709.999663713875 710.998318402768 711.99817453928 713.001183702367 713.999138918961 714.99606331871 716.000457236141 716.999640354791 717.999970807054 718.999317938532 719.998220001757 721.000478281872 722.001343296895 723.000292262611 724.001761972204 725.00051543209 725.998435633236 726.996461555636 727.999515027108 728.998845463161 730.000044582805 730.998214911812 731.99877125819 733.000008021012 734.000166916991 734.998242964224 735.997083462431 736.999079449764 738.00027297072 738.998176605313 739.999792219607 741.000378856149 742.001045144838 742.999260127242 744.001273498494 744.997623611433 746.003578933881 747.001053880777 748.002331060188 748.998270498629 749.998918689811 751.000718307344 752.000745793361 752.999280265425 753.9997037091 754.999729844463 756.000633719284 756.998931248849 757.999050568791 758.998545059079 759.998325441322 760.99897999842 762.000644396808 763.00022120829 764.001128443476 764.99987235018 766.002228685241 766.998387843968 768.00060892513 768.998072480235 769.998875234459 771.002621214704 771.99745377785 772.998759752114 774.001589164453 774.997802038132 776.000540962025 776.998214254935 777.998527189225 778.999321340568 779.998037974973 781.000281626342 782.000668265255 783.000967576855 783.999526295285 785.002713092535 786.001463316577 786.999375325264 787.997495457005 788.997342734057 789.999531428137 790.996239054325 792.000677446593 793.003174895622 794.0019507936 795.000356405244 796.000548069808 796.999538760509 798.001513537888 799.000517859487 799.999394765401 800.997663897544 801.998996701039 803.000613176475 803.999857512644 805.001604972311 806.001476482394 807.000002255408 808.0015955369 808.999803919652 810.000223738991 810.998677735125 811.997122164449 813.002815527793 813.999019309772 815.000540713408 815.999074732558 817.000848953017 817.999929646535 819.000123196066 820.000345218085 821.002140245203 821.998411359727 823.004120235063 823.997128056307 825.001575532626 826.000958653309 826.999531781683 827.999335998853 829.000959021845 830.000036986703 831.001840307408 831.997620673089 833.000607633122 834.000845121616 834.999374093249 835.999890506363 836.999607453046 838.00061379435 838.999710100332 840.002750183345 841.001544578351 841.997259938234 843.002602999524 844.003294161085 844.998565329084 846.001094534577 847.000573900359 847.998043980803 849.000369348615 849.999620019099 851.000478986695 852.001828873207 853.002777284918 853.999713533194 855.000435257363 855.997160931696 856.99831919986 857.999847030581 859.001060042183 860.001779310226 861.00180998794 861.997232055586 862.996336313263 863.997456816455 864.997387815929 866.001296785813 867.001906577968 868.000509937616 869.002022286588 869.998640991639 871.002113609148 871.999556857533 872.997078663463 873.999158395849 874.999139142217 875.999868436051 876.996106113821 878.002377637503 878.996538021653 880.000499712759 880.999116383899 881.999510087755 882.998531928444 883.998459905327 885.001088208854 886.000524776072 886.998266653338 888.000187288969 889.001061512392 889.997621121173 890.999563443428 891.99669917866 892.999597411316 894.001244024975 895.003940640866 896.000423040242 897.000841396123 898.000383649334 899.002553711109 899.998886156536 900.997161994807 901.998650662601 902.999048756491 903.998141506926 904.998939504518 906.001208824909 907.001794790395 908.002101499912 908.999647110273 909.998865186934 910.998452631558 912.000534336187 913.000363052714 913.999020287282 914.997626775487 915.996441522147 916.995640026843 918.002780503974 918.999648103757 919.997865110235 921.000879736301 921.999213317979 922.999657142076 923.997298984045 924.996343424293 925.99824963272 926.998971658455 927.997635069748 929.000539043937 930.000235063299 931.001642579105 931.998587673999 933.000495583197 933.999298968565 934.99560259768 935.997928583901 937.001209027592 937.999487034989 938.998265708077 939.998834693989 940.999563639336 942.000214043863 942.999494662244 944.000488762164 945.001576779341 946.000602923348 947.00146137942 947.99791365859 948.997203588963 949.997816868896 951.000099507909 951.997712227641 953.002231037601 953.998733444537 954.999918139459 956.003154161377 956.999706268858 957.999012891544 959.000757244757 960.000632826471 960.997980237139 961.997940522122 963.000335864053 963.999096523621 965.000846044596 965.998659451572 967.001050692547 967.999951399375 969.00359927789 970.002512822855 971.001573417088 971.999183795461 973.000042300355 973.999301411134 974.998858874383 976.001618452356 976.998034866548 978.000606270469 979.001447186818 979.998174129692 980.999686382335 981.999682322051 983.000713260489 983.999392074794 985.002190533562 985.998100826443 987.000335099021 988.002917353664 989.000146297486 989.998655708739 991.001209600438 992.000503973603 992.99981436043 994.001833485082 995.002278525768 996.001376979665 997.002697457653 997.997564849008 999.000795318333 999.997974242433                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.75421847636688E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235220917 2.00032305351418 2.99997706920428 4.00020652575636 5.00017765356718 5.99987386523929 6.99992986169374 8.00015222544736 9.00001629657595 10.0003907564317 10.9999225312334 12.0011917331697 13.0004167661797 14.0001851856313 14.999994882676 15.9999212816219 16.9998928340077 18.001557135895 19.0001008889328 20.0002623321475 21.0003388570032 22.0000320194044 23.0003024693482 24.0000302306606 25.0002215809221 26.0000562557312 27.0000013430227 28.0001032976586 28.9999218083746 29.9999268941535 31.0000579062611 31.9998611197245 33.0002322208858 34.00040562674 34.9996708409784 36.0002613741492 36.9998093107175 37.9999196461269 39.0000829506525 39.9999165069561 40.9982174021791 42.001580060274 43.0000084490142 43.9992052840013 44.999902864201 45.9998424176682 46.9996914506483 48.0000383313745 49.0000186047652 50.0000295757982 50.9997071347429 52.0004234015041 52.9999819813616 54.0002168664989 55.0002039601465 55.9998845709404 57.0002919696835 58.0001992371518 59.0000389752369 59.9996855639704 61.0000586020347 61.9983640014593 62.9999088199199 63.9999507147144 65.0001297061443 66.0008072733827 67.0002295641604 67.9992239980007 68.999932110543 70.0003523360823 70.9999567588205 71.9999584492053 73.0001029589095 74.0000056349627 74.998328178971 76.0003881548811 77.0001967057486 77.9999523233667 79.0011297068854 79.9997871032054 80.9999405331715 82.0005573828911 83.0014682321873 84.0002826166749 85.0000343337676 86.0001590659706 86.9999918590611 88.0004264112651 88.9998959848602 90.0001742915059 90.999906598552 91.9985440290845 92.9985373705625 94.0001704544314 95.0000421372118 95.9986663745331 96.9995005243617 97.9997885942228 99.0010329687227 100.000516857209 101.000230689158 101.999613741863 102.999518523792 103.998722401774 104.998982812662 105.999886102617 107.00009028805 107.999895958416 109.000065551018 109.998242075246 110.999906466719 111.999605817795 112.999338301909 113.999881608037 115.002052477702 115.999357808201 117.001070498856 118.001559098993 119.000277861081 120.000420835842 120.999583806399 122.000520114209 123.000495981487 124.001137734328 125.002171199613 125.999749614441 127.001677922669 127.999926234871 128.999667098978 129.998546730082 130.998003399364 132.000180708686 133.000006114654 133.999667267326 135.00072023825 136.00040604262 137.001379575076 137.998241504616 138.999316514277 140.000037513408 141.00007521619 142.000329079124 143.000589977482 144.002041856981 145.001725676392 146.000433857139 146.999822300208 147.999879043871 148.998170173406 150.000961210022 150.99940285703 151.998862459138 153.000206018828 153.999162886186 155.001615563493 156.0007854924 157.000585970719 157.998482269628 158.998272019767 160.000773076309 161.00105828326 161.99969645605 163.002057734644 164.000293436329 164.997760212098 166.000389357606 166.999452961739 167.999708215802 169.000447381391 170.001579849032 170.999514781965 172.001131148326 173.000814755978 173.998428780926 174.997950458087 176.000373700318 177.00205961259 177.999378482913 178.999656330908 180.001800776716 180.999179250349 182.001355609588 182.99803643466 184.000193846227 184.999143421817 185.998914201636 186.99919174402 187.999994096504 188.998875287843 189.999771581323 191.002597298926 192.001248263699 192.998888717734 194.001799129356 194.999094260332 195.997790798351 196.999467545511 197.999099513913 199.000494125905 200.000021272129 201.000727749747 201.998094485207 202.997961001671 204.000514764895 204.998583069438 206.001282010761 207.000944976281 208.000440180421 208.999354799387 210.001250088344 210.999937962884 212.000792736942 213.000319999862 214.000339605166 214.999416671177 216.000802388701 217.001783605733 217.998301229856 219.001723515584 220.000507707742 220.999958325308 221.999431206531 223.000272885757 223.998499133101 224.997469687523 225.998516765031 226.999431717055 228.000379619677 229.001603453473 229.998973928872 230.998160246535 232.000568188369 233.000528529816 233.998759539547 234.997960281789 236.002116112357 236.998882117301 237.999123581449 239.000548440835 240.001014433586 241.001186620229 242.00019157128 243.00164182798 243.998566789635 244.999357422025 245.999686445669 246.99968044271 248.000834501244 249.000222106531 249.997462147519 250.999783138631 251.997521592147 252.99936375922 253.998848213376 254.998669035502 255.998527015876 256.999419814993 257.998481692621 259.000925423952 259.999210959222 261.001508057674 262.002333950305 263.00142836747 263.998081384071 265.001376867745 265.999357155928 267.000586561819 268.001202634427 268.998667600377 270.001214885316 270.997516425675 271.998515748091 273.000090909096 273.999298012928 275.000823610866 275.999001255478 276.998772656435 278.00095905863 279.001258742246 279.999265066257 280.999748138156 282.000662194844 282.998716831049 283.998333916042 285.001821527111 285.998543869317 286.998893741696 288.001446092227 288.998042263581 289.998600335121 290.997013780667 292.000738194745 292.998663981487 294.001639412996 295.00139970431 296.001708063381 297.00003305684 298.000470448038 299.000440448515 299.998533406741 301.001871296114 301.997346636201 302.999266809678 304.000301009004 305.000448900097 306.000627012537 307.000624804353 307.999928199802 308.998760147812 309.997896988373 310.998455199679 312.000157522925 312.998923079698 313.998194345246 315.000191030378 315.999729192426 317.000301328402 318.001206171878 318.998872392094 319.997979139483 320.998635779262 321.999779077019 322.998659733457 324.001858160083 324.99958350947 326.00041287783 326.998929820498 328.001666086217 328.999307594993 330.000062704341 330.999324092325 332.000590431565 332.998399903426 333.998018833719 334.998749217397 336.002252888446 337.000872149614 338.000983161093 338.998478801043 339.998644803282 340.997978300405 341.999854715427 342.997780220586 344.000367234114 345.001263635126 346.002062357516 346.997758990804 348.000897371049 349.001566100489 350.001733990597 351.00093544467 352.000624850049 353.002331810739 354.002644789275 354.999264609991 355.99841298549 357.000949783642 357.999650724024 359.001296667226 359.999298423801 360.99888421226 362.001489963488 363.00084963319 364.000498453683 364.998148854662 366.000032376781 366.99969062904 368.000017812879 369.001677254583 370.002023056659 370.998073261505 372.001185712162 373.000505279322 373.997865291337 375.00018681217 376.002087506595 376.99801183882 378.000182510235 379.002188162856 380.00080699851 380.998023125933 382.002275862818 383.000698214418 383.997458959615 384.999504776608 385.998830431922 387.000373944349 388.001357768788 389.00008813839 389.999573293204 390.999418486105 392.000997717926 392.999651936942 393.99941102303 394.999757169111 396.000149601107 396.999166524483 397.998900114058 399.002349535362 399.999140033387 401.001771105512 402.001742133638 402.999707476398 404.002283947132 404.997599830405 405.999002358689 407.000096947289 407.997701876779 409.000387662393 409.998440221845 410.999440980152 411.998162194614 413.000604770438 413.999892158895 414.997408573588 415.998421986082 416.999145042432 418.001736331624 419.000305267829 419.997919732061 420.999668798677 421.998326375682 422.999001266553 423.998368571603 424.998405033206 425.999412380089 427.000482322752 428.00080097781 428.998727891811 429.999591729985 430.999682478505 431.997523660805 433.000757646705 433.999188582516 434.998530790526 435.998685221744 436.998567541054 438.002111162095 439.000638835211 439.998562691271 441.00229544442 442.001618389548 443.0015743538 444.000344328885 445.002728049221 446.001899491463 446.998269753886 447.999042460036 448.999078228837 449.999286495602 451.002683617322 451.997769203817 453.00034479982 453.998144180061 455.002927470358 456.000157908578 456.999960611317 457.998842306188 459.000247674021 460.000022604691 460.997728936269 461.999097380155 462.999401033891 463.999390346262 465.000454259209 465.997967290721 467.000290228798 467.99907682531 468.999044840268 469.998408040939 471.00180848156 472.000153981374 473.002402665751 473.998499386953 475.00107702691 475.998484247285 477.00106387289 478.001013234503 479.000632331719 480.001859291716 480.999626825728 481.998137503966 483.000661557369 483.999850256134 484.998338359758 485.998835277152 487.00022749607 487.999048419694 489.000398310806 489.997380583019 490.999422843833 491.999985483315 492.999089480185 493.999847121561 494.998026224195 495.998774783218 496.99807792227 498.00127233579 498.997627045017 500.001811205176 501.002217417278 501.999116859285 503.001607563665 504.001487220951 505.000543252054 506.00024942023 507.000837455187 507.998807263154 509.001082230354 510.002772994043 511.000628205156 511.999201265102 513.00272663814 514.000514108056 515.000242687566 515.998421019787 517.001316080974 517.999574421569 518.99992996088 519.999371313933 521.000424899563 521.997926120345 522.998893388017 524.001769204324 524.999688720251 525.999178318851 527.000644645355 527.99975123932 528.99802826244 529.999854715594 530.998577713211 532.001223554035 532.999173277679 533.998738880228 535.000442731339 535.999609375235 536.999147284529 538.000977350739 538.997753282408 540.002459507945 541.001728375266 541.999172906686 543.001931243318 543.998965001006 545.001014331335 546.001595745788 547.000851960327 547.998392377563 549.000782388455 549.999215105954 550.996274494699 552.001577482922 553.0010103446 554.001574441166 554.998447762665 555.999327686539 556.998892493948 558.001356440817 558.998773867588 560.000917869938 561.001103902635 561.9970385081 563.00171923055 563.997823321382 564.999593100291 566.000183570478 566.997678115067 568.001363792203 569.000527597613 570.002250047863 571.000336030839 572.002144362391 573.002100404834 573.998575421514 575.001123194714 576.002418091039 577.001392376536 578.001098462543 579.000755730417 580.000584008408 581.001422770372 582.002616271246 583.001470916623 583.998743934916 584.998087760853 586.000124478222 587.000241096339 588.002558688052 588.99744538349 590.001680802881 590.998943910488 591.998619792886 593.000559437225 593.997433291382 594.999844003204 595.998794021194 596.999670876337 598.001372189949 598.99976654972 599.998031820141 601.000279411054 601.998148942025 602.998737646195 603.998133689925 605.000881811244 606.000922400197 606.99899192062 607.998661571586 608.998926722012 610.000919301819 610.999086756813 611.998596225118 612.999993406867 613.998746441147 615.000269941156 615.999099036423 616.998971234217 617.999720340739 619.001508601639 619.999498403442 621.001376845631 621.999825900821 622.999739223947 624.001715928076 625.003058229207 626.000213565553 626.99891155991 627.998735295475 628.997509370154 630.001654830454 630.998753401381 632.000597414949 633.000353980583 634.000178688646 634.996721727649 635.999084570552 636.99893382491 638.000151338012 638.998778644428 640.001008026495 640.998158206924 641.998768033699 642.999154341604 644.002580262515 645.000700042986 645.998407986393 646.999832880249 647.998734910571 648.998349480213 649.999519816801 651.001753684192 651.99956215745 652.996320451312 654.001325856178 654.999827585587 656.000277125836 656.998445955251 658.002361548062 659.001476550103 659.99909517718 661.001425607054 661.998627842417 662.998958497669 663.998926361543 665.001429652224 665.999482710066 667.001048925822 667.999596389819 668.99873809634 670.002760482753 671.001100947116 672.00091529155 672.999892800151 674.004074078268 675.00263884303 676.001368209174 677.000770454921 677.999147542277 678.999413808706 680.001299104722 681.00153703306 681.999807820457 682.997488102559 684.001642784647 685.000495045961 686.000059104161 687.002029965367 688.000636915182 688.999879625166 689.998926146926 691.001635213024 691.99959548963 693.001864183972 693.999231754298 695.000501241292 695.99963886696 696.99800113013 698.001345772205 699.000678755051 699.999976503613 701.000867308805 702.000217122989 702.998309548059 703.998564435326 705.002716140412 705.99850575287 706.998832079613 707.999648377226 709.00187879054 709.99966369727 710.998318375615 711.998174482601 713.001183749435 713.999138930904 714.996063323284 716.0004572512 716.999640375833 717.999970761365 718.999317943713 719.998220101273 721.000478253782 722.001343295932 723.000292347722 724.001761968742 725.000515375351 725.99843570251 726.996461524322 727.999515041073 728.998845436911 730.000044633361 730.998214926381 731.998771321335 733.000008029629 734.000166973213 734.998243021053 735.997083466907 736.999079441286 738.000272982706 738.998176568035 739.999792203306 741.000378873597 742.001045140302 742.999260057519 744.001273519194 744.997623630907 746.003578993958 747.001053922836 748.002331071421 748.998270491668 749.998918685394 751.000718316645 752.000745747824 752.999280344931 753.999703657769 754.999729840451 756.000633657117 756.998931259263 757.99905064344 758.99854510124 759.998325397653 760.998979977306 762.000644427627 763.000221234392 764.001128480524 764.999872357046 766.002228724608 766.998387903988 768.000608915546 768.99807246143 769.99887524027 771.002621226743 771.997453756857 772.998759720385 774.001589210789 774.997802022652 776.000540966799 776.998214210425 777.998527191739 778.999321336473 779.998038018301 781.000281589861 782.000668264106 783.000967588523 783.999526267202 785.002713051526 786.001463274234 786.999375265608 787.997495480958 788.997342723525 789.999531471565 790.996239051779 792.000677466747 793.003174921374 794.001950787885 795.000356401007 796.000548050923 796.999538761847 798.001513537556 799.000517949191 799.999394733438 800.997663903166 801.998996711503 803.000613191951 803.999857577092 805.001604945018 806.001476477676 807.000002255411 808.001595492757 808.999803895347 810.000223786074 810.998677753712 811.997122163026 813.002815556456 813.999019247865 815.000540740282 815.999074762757 817.000849000275 817.999929660377 819.000123140004 820.000345229537 821.002140232625 821.99841142972 823.004120291799 823.997128147115 825.001575528969 826.000958693426 826.999531825647 827.999336054039 829.000959070315 830.000036987916 831.001840293596 831.997620646986 833.000607642583 834.000845094509 834.999374058606 835.999890485279 836.999607460789 838.000613886568 838.999710166893 840.002750222066 841.001544573867 841.997259973057 843.002603041771 844.00329409267 844.998565287261 846.001094550534 847.000573870986 847.998043937396 849.000369307067 849.999619998198 851.000478933565 852.001828910358 853.002777336425 853.999713587292 855.000435303137 855.997160918895 856.998319245031 857.999847043121 859.001060116573 860.00177933944 861.001810015053 861.997232075131 862.996336299914 863.997456832306 864.997387792542 866.001296823737 867.001906550458 868.000509933497 869.002022339786 869.99864101886 871.002113627015 871.999556815504 872.997078633043 873.999158377339 874.999139210125 875.999868419303 876.996106127317 878.002377716145 878.996538095552 880.000499697483 880.99911642202 881.99951007095 882.998531910345 883.998459855294 885.001088247458 886.000524880493 886.998266665453 888.000187278989 889.001061570808 889.99762111736 890.999563437664 891.996699207977 892.999597423681 894.001244101438 895.003940640846 896.000423090926 897.000841402853 898.000383666444 899.002553738277 899.998886258228 900.997161930902 901.998650642278 902.999048754464 903.998141502435 904.998939593005 906.001208842152 907.001794793214 908.002101473356 908.99964709607 909.998865216215 910.998452653996 912.0005343476 913.000363103037 913.999020315936 914.997626750339 915.996441549319 916.995639976781 918.002780524094 918.999648104466 919.997865092698 921.000879698297 921.999213298579 922.999657075982 923.997298967992 924.996343447213 925.998249754218 926.998971590217 927.997635158638 929.000539096311 930.000234996244 931.001642597909 931.998587701298 933.000495495899 933.999298951213 934.995602679848 935.997928650049 937.001209025064 937.999487069103 938.998265642286 939.998834682979 940.999563641176 942.000214090511 942.999494667629 944.000488808197 945.001576757332 946.000602902063 947.001461413565 947.997913643001 948.997203628628 949.997816870289 951.000099515989 951.99771233148 953.00223115804 953.998733416192 954.99991819278 956.003154246916 956.999706409286 957.999012857082 959.000757255795 960.000632800837 960.99798022449 961.997940488768 963.000335873585 963.999096503062 965.000846099547 965.998659463718 967.001050663172 967.999951368 969.003599268273 970.002512810217 971.001573340764 971.999183765538 973.000042318404 973.999301389333 974.998858918658 976.00161846317 976.998034921245 978.000606264284 979.001447171265 979.998174169 980.999686435904 981.999682316346 983.000713276674 983.999392099039 985.002190603154 985.998100809227 987.000335073303 988.002917362297 989.000146312763 989.998655720343 991.001209612271 992.000504007652 992.999814384066 994.001833522826 995.002278609176 996.001377025786 997.002697439395 997.997564873439 999.000795279541 999.997974315859                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.79411343313199E-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235220861 2.00032305351583 2.99997706920323 4.00020652575781 5.000177653568 5.99987386523896 6.99992986169474 8.00015222544855 9.00001629657545 10.0003907564296 10.9999225312344 12.0011917331724 13.0004167661808 14.0001851856323 14.9999948826767 15.9999212816229 16.9998928340068 18.001557135896 19.0001008889349 20.0002623321483 21.0003388570035 22.0000320194038 23.0003024693498 24.0000302306597 25.0002215809243 26.0000562557323 27.0000013430233 28.0001032976595 28.9999218083767 29.9999268941527 31.0000579062605 31.999861119726 33.0002322208863 34.0004056267403 34.9996708409797 36.0002613741497 36.9998093107179 37.9999196461268 39.0000829506531 39.9999165069564 40.9982174021787 42.0015800602741 43.0000084490151 43.9992052840029 44.9999028642003 45.9998424176686 46.9996914506486 48.000038331376 49.0000186047663 50.0000295757996 50.9997071347435 52.0004234015049 52.9999819813625 54.0002168664987 55.0002039601467 55.9998845709413 57.0002919696841 58.00019923715 59.0000389752389 59.9996855639709 61.0000586020341 61.9983640014594 62.9999088199222 63.9999507147166 65.0001297061449 66.0008072733839 67.0002295641614 67.9992239980021 68.9999321105441 70.0003523360807 70.9999567588217 71.9999584492076 73.0001029589111 74.0000056349629 74.9983281789703 76.0003881548818 77.0001967057494 77.9999523233699 79.0011297068869 79.9997871032059 80.9999405331749 82.0005573828929 83.0014682321873 84.0002826166749 85.0000343337684 86.0001590659716 86.9999918590622 88.0004264112642 88.9998959848604 90.000174291507 90.9999065985545 91.9985440290852 92.9985373705636 94.0001704544327 95.0000421372123 95.9986663745339 96.9995005243644 97.9997885942222 99.0010329687244 100.000516857209 101.000230689157 101.999613741865 102.999518523793 103.998722401773 104.998982812663 105.999886102617 107.000090288052 107.999895958416 109.000065551019 109.998242075249 110.999906466722 111.999605817796 112.99933830191 113.999881608038 115.002052477703 115.999357808203 117.001070498855 118.001559098994 119.000277861083 120.000420835844 120.9995838064 122.000520114208 123.000495981489 124.00113773433 125.002171199613 125.999749614441 127.001677922671 127.999926234873 128.999667098978 129.998546730084 130.998003399365 132.000180708686 133.000006114655 133.999667267328 135.000720238251 136.000406042619 137.001379575075 137.998241504617 138.999316514277 140.000037513409 141.000075216191 142.000329079125 143.000589977483 144.002041856982 145.001725676393 146.00043385714 146.999822300207 147.999879043869 148.998170173407 150.00096121002 150.999402857031 151.99886245914 153.000206018829 153.999162886188 155.001615563494 156.000785492401 157.00058597072 157.998482269627 158.998272019771 160.000773076309 161.001058283262 161.999696456052 163.002057734645 164.000293436329 164.997760212099 166.000389357607 166.999452961738 167.999708215802 169.000447381393 170.001579849033 170.999514781966 172.001131148326 173.000814755978 173.998428780927 174.997950458087 176.00037370032 177.00205961259 177.999378482915 178.99965633091 180.001800776716 180.999179250351 182.001355609591 182.998036434661 184.000193846231 184.999143421818 185.998914201639 186.999191744021 187.999994096505 188.998875287843 189.999771581325 191.002597298927 192.001248263703 192.998888717734 194.001799129355 194.999094260334 195.997790798353 196.999467545513 197.999099513913 199.000494125905 200.00002127213 201.000727749749 201.998094485208 202.997961001672 204.000514764897 204.998583069438 206.001282010761 207.000944976283 208.000440180421 208.999354799386 210.001250088346 210.999937962888 212.000792736943 213.000319999864 214.000339605165 214.99941667118 216.0008023887 217.001783605733 217.998301229855 219.001723515586 220.000507707744 220.999958325311 221.999431206531 223.000272885759 223.998499133101 224.997469687523 225.998516765032 226.999431717056 228.000379619681 229.001603453474 229.998973928871 230.998160246536 232.00056818837 233.000528529816 233.998759539548 234.997960281788 236.00211611236 236.998882117303 237.999123581451 239.000548440837 240.001014433587 241.001186620232 242.00019157128 243.001641827982 243.998566789638 244.999357422026 245.999686445672 246.999680442711 248.000834501245 249.000222106534 249.99746214752 250.999783138633 251.997521592149 252.999363759222 253.998848213379 254.998669035502 255.998527015878 256.999419814996 257.99848169262 259.000925423953 259.999210959221 261.001508057675 262.002333950307 263.001428367472 263.998081384072 265.001376867746 265.999357155929 267.000586561818 268.001202634431 268.998667600375 270.001214885319 270.997516425678 271.998515748094 273.000090909099 273.999298012929 275.000823610867 275.999001255478 276.998772656434 278.000959058634 279.001258742248 279.999265066259 280.999748138159 282.000662194846 282.998716831049 283.998333916043 285.001821527112 285.998543869318 286.998893741696 288.001446092228 288.998042263584 289.998600335123 290.997013780668 292.000738194747 292.998663981487 294.001639412997 295.001399704312 296.001708063384 297.00003305684 298.000470448039 299.000440448516 299.998533406742 301.001871296114 301.997346636202 302.999266809679 304.000301009007 305.000448900099 306.000627012539 307.000624804355 307.999928199804 308.998760147814 309.997896988375 310.99845519968 312.000157522927 312.998923079699 313.99819434525 315.000191030377 315.999729192428 317.000301328403 318.001206171881 318.998872392095 319.997979139487 320.998635779263 321.99977907702 322.998659733458 324.001858160085 324.999583509472 326.000412877831 326.998929820499 328.001666086221 328.999307594996 330.000062704343 330.999324092324 332.000590431567 332.998399903428 333.998018833721 334.998749217398 336.002252888449 337.000872149616 338.000983161095 338.998478801046 339.998644803284 340.997978300405 341.999854715429 342.99778022059 344.000367234116 345.001263635129 346.002062357515 346.997758990806 348.000897371052 349.00156610049 350.001733990598 351.000935444671 352.000624850049 353.002331810741 354.002644789276 354.999264609992 355.998412985492 357.000949783645 357.999650724026 359.001296667228 359.999298423802 360.998884212262 362.001489963489 363.000849633191 364.000498453684 364.998148854668 366.00003237678 366.999690629042 368.000017812882 369.001677254583 370.00202305666 370.998073261508 372.001185712165 373.000505279325 373.997865291338 375.000186812173 376.002087506595 376.998011838821 378.000182510237 379.002188162857 380.00080699851 380.998023125933 382.00227586282 383.00069821442 383.997458959618 384.99950477661 385.998830431923 387.000373944349 388.001357768789 389.000088138393 389.999573293207 390.999418486107 392.000997717929 392.999651936942 393.999411023029 394.999757169113 396.00014960111 396.999166524484 397.99890011406 399.002349535362 399.999140033388 401.001771105514 402.001742133641 402.999707476398 404.002283947134 404.997599830408 405.999002358691 407.000096947291 407.997701876781 409.000387662396 409.998440221846 410.999440980153 411.998162194616 413.00060477044 413.999892158896 414.997408573591 415.998421986085 416.999145042431 418.001736331626 419.00030526783 419.997919732061 420.999668798682 421.998326375684 422.999001266555 423.998368571606 424.998405033208 425.999412380088 427.000482322754 428.000800977812 428.998727891812 429.999591729985 430.999682478505 431.997523660807 433.000757646709 433.99918858252 434.998530790527 435.998685221745 436.998567541056 438.002111162097 439.000638835215 439.998562691273 441.002295444423 442.001618389549 443.001574353802 444.000344328887 445.002728049226 446.001899491465 446.998269753889 447.99904246004 448.999078228839 449.999286495605 451.002683617323 451.997769203821 453.000344799823 453.998144180062 455.00292747036 456.000157908582 456.999960611319 457.998842306189 459.000247674024 460.000022604691 460.997728936269 461.99909738016 462.999401033896 463.999390346267 465.000454259213 465.997967290722 467.000290228801 467.999076825316 468.999044840269 469.998408040939 471.001808481561 472.000153981377 473.002402665752 473.998499386955 475.001077026913 475.998484247289 477.00106387289 478.001013234507 479.000632331723 480.001859291719 480.999626825728 481.998137503968 483.000661557371 483.999850256135 484.998338359762 485.998835277153 487.000227496071 487.999048419696 489.000398310808 489.99738058302 490.999422843835 491.999985483317 492.999089480188 493.999847121562 494.998026224196 495.998774783222 496.99807792227 498.001272335786 498.997627045022 500.001811205181 501.002217417278 501.999116859286 503.001607563667 504.001487220952 505.000543252056 506.000249420228 507.000837455187 507.998807263155 509.001082230358 510.002772994045 511.000628205156 511.999201265104 513.002726638142 514.000514108057 515.000242687569 515.998421019785 517.001316080978 517.99957442157 518.999929960882 519.999371313936 521.000424899564 521.997926120347 522.998893388014 524.001769204327 524.999688720251 525.999178318851 527.000644645354 527.99975123932 528.998028262441 529.999854715595 530.998577713215 532.001223554036 532.999173277682 533.998738880231 535.000442731343 535.999609375238 536.999147284532 538.00097735074 538.997753282411 540.002459507948 541.00172837527 541.999172906687 543.001931243321 543.998965001007 545.001014331336 546.001595745792 547.000851960331 547.998392377568 549.000782388457 549.999215105956 550.996274494701 552.001577482924 553.001010344601 554.001574441167 554.998447762666 555.999327686544 556.99889249395 558.001356440818 558.99877386759 560.00091786994 561.001103902636 561.997038508102 563.001719230551 563.997823321385 564.999593100292 566.000183570482 566.99767811507 568.0013637922 569.000527597614 570.002250047864 571.000336030841 572.002144362395 573.00210040484 573.998575421517 575.001123194717 576.002418091045 577.001392376538 578.001098462542 579.000755730416 580.000584008411 581.001422770374 582.002616271249 583.001470916627 583.998743934919 584.998087760856 586.000124478222 587.000241096345 588.002558688056 588.997445383491 590.001680802884 590.998943910491 591.998619792887 593.000559437225 593.997433291383 594.999844003208 595.998794021196 596.999670876339 598.001372189951 598.999766549722 599.998031820142 601.000279411057 601.99814894203 602.998737646198 603.998133689927 605.000881811245 606.000922400197 606.998991920622 607.998661571589 608.998926722011 610.00091930182 610.999086756815 611.998596225122 612.999993406868 613.998746441149 615.000269941157 615.999099036425 616.998971234219 617.999720340741 619.001508601639 619.999498403442 621.00137684563 621.999825900824 622.999739223951 624.001715928077 625.00305822921 626.000213565554 626.998911559914 627.998735295478 628.997509370155 630.001654830456 630.998753401386 632.000597414956 633.000353980584 634.000178688647 634.996721727649 635.999084570553 636.998933824912 638.000151338015 638.998778644429 640.001008026495 640.998158206929 641.998768033703 642.999154341606 644.002580262518 645.000700042987 645.998407986394 646.999832880248 647.998734910573 648.998349480215 649.999519816804 651.001753684193 651.999562157452 652.996320451312 654.001325856183 654.999827585589 656.000277125838 656.998445955252 658.002361548064 659.00147655011 659.999095177182 661.001425607053 661.998627842421 662.99895849767 663.998926361542 665.001429652231 665.999482710066 667.001048925826 667.999596389824 668.998738096344 670.002760482756 671.001100947117 672.00091529155 672.999892800158 674.00407407827 675.002638843031 676.001368209175 677.000770454923 677.999147542278 678.999413808708 680.001299104723 681.001537033064 681.999807820455 682.997488102559 684.001642784651 685.000495045962 686.000059104166 687.00202996537 688.000636915185 688.999879625169 689.998926146927 691.001635213025 691.999595489635 693.001864183975 693.999231754302 695.000501241294 695.999638866962 696.998001130134 698.001345772208 699.000678755053 699.999976503615 701.000867308805 702.00021712299 702.998309548066 703.998564435329 705.002716140409 705.998505752874 706.998832079614 707.99964837723 709.001878790542 709.999663697273 710.998318375617 711.9981744826 713.001183749439 713.999138930908 714.996063323287 716.000457251199 716.999640375834 717.999970761367 718.999317943711 719.998220101275 721.000478253784 722.001343295935 723.000292347726 724.001761968742 725.000515375353 725.998435702511 726.996461524327 727.999515041078 728.998845436913 730.000044633362 730.998214926383 731.998771321337 733.000008029634 734.000166973215 734.998243021057 735.99708346691 736.99907944129 738.000272982707 738.998176568036 739.999792203306 741.000378873602 742.001045140302 742.999260057519 744.001273519197 744.997623630912 746.00357899396 747.001053922839 748.002331071422 748.998270491671 749.998918685394 751.000718316648 752.000745747826 752.999280344931 753.999703657772 754.99972984045 756.000633657119 756.998931259265 757.99905064344 758.998545101244 759.998325397655 760.998979977306 762.000644427631 763.0002212344 764.001128480528 764.999872357049 766.002228724609 766.998387903992 768.000608915548 768.99807246143 769.998875240272 771.002621226741 771.997453756862 772.998759720387 774.001589210793 774.997802022658 776.000540966801 776.998214210428 777.998527191742 778.999321336475 779.998038018305 781.000281589863 782.000668264109 783.000967588523 783.999526267204 785.002713051527 786.001463274241 786.999375265612 787.997495480961 788.99734272353 789.999531471569 790.996239051785 792.000677466751 793.003174921377 794.001950787886 795.00035640101 796.000548050926 796.999538761849 798.00151353756 799.000517949193 799.999394733441 800.997663903166 801.998996711504 803.000613191952 803.999857577091 805.001604945019 806.001476477678 807.000002255417 808.001595492759 808.999803895352 810.000223786076 810.998677753719 811.997122163028 813.002815556458 813.999019247863 815.000540740288 815.999074762758 817.00084900028 817.999929660381 819.000123140005 820.00034522954 821.002140232626 821.998411429726 823.0041202918 823.997128147119 825.001575528969 826.000958693429 826.99953182565 827.999336054041 829.000959070316 830.00003698792 831.001840293602 831.997620646992 833.000607642585 834.000845094512 834.999374058609 835.999890485282 836.999607460796 838.000613886572 838.999710166892 840.00275022207 841.001544573871 841.997259973062 843.002603041773 844.003294092674 844.998565287261 846.00109455054 847.000573870988 847.998043937401 849.000369307069 849.999619998204 851.000478933569 852.001828910359 853.002777336427 853.999713587293 855.000435303138 855.997160918898 856.998319245033 857.999847043122 859.001060116577 860.001779339441 861.001810015058 861.997232075134 862.996336299915 863.997456832306 864.997387792543 866.00129682374 867.001906550461 868.000509933502 869.002022339787 869.998641018861 871.002113627017 871.999556815507 872.997078633041 873.999158377346 874.99913921013 875.999868419306 876.996106127318 878.002377716149 878.996538095558 880.000499697484 880.999116422022 881.999510070958 882.998531910347 883.9984598553 885.001088247464 886.000524880501 886.998266665454 888.000187278993 889.00106157081 889.997621117367 890.999563437667 891.996699207979 892.999597423682 894.001244101441 895.003940640852 896.000423090931 897.000841402855 898.000383666445 899.002553738281 899.998886258231 900.997161930907 901.998650642282 902.999048754467 903.998141502436 904.998939593006 906.001208842155 907.001794793217 908.00210147336 908.999647096076 909.998865216221 910.998452653999 912.0005343476 913.000363103042 913.999020315942 914.997626750342 915.996441549321 916.995639976784 918.002780524093 918.999648104468 919.997865092698 921.000879698301 921.99921329858 922.999657075985 923.997298967993 924.996343447218 925.998249754222 926.998971590219 927.997635158639 929.000539096316 930.000234996248 931.001642597911 931.9985877013 933.000495495903 933.999298951216 934.995602679851 935.997928650051 937.001209025065 937.999487069107 938.998265642284 939.998834682981 940.999563641185 942.000214090513 942.999494667629 944.000488808201 945.00157675734 946.000602902066 947.001461413562 947.997913643005 948.99720362863 949.997816870292 951.000099515993 951.99771233148 953.00223115804 953.99873341619 954.999918192781 956.003154246919 956.999706409288 957.999012857088 959.000757255796 960.000632800839 960.997980224496 961.997940488777 963.000335873585 963.999096503062 965.000846099547 965.998659463721 967.001050663176 967.999951368 969.003599268278 970.002512810217 971.001573340767 971.999183765543 973.000042318407 973.999301389336 974.998858918662 976.001618463169 976.998034921252 978.000606264289 979.001447171269 979.998174169001 980.999686435911 981.999682316353 983.000713276678 983.999392099044 985.002190603153 985.998100809229 987.000335073306 988.002917362299 989.00014631277 989.998655720344 991.001209612272 992.000504007654 992.999814384066 994.001833522824 995.002278609178 996.00137702579 997.002697439398 997.997564873444 999.000795279544 999.997974315864                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3781794141871E-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235220915 2.00032305351416 2.9999770692047 4.00020652575652 5.00017765356784 5.99987386523947 6.99992986169402 8.00015222544755 9.00001629657678 10.0003907564314 10.9999225312334 12.00119173317 13.0004167661799 14.000185185632 14.9999948826756 15.999921281622 16.999892834008 18.0015571358953 19.0001008889325 20.000262332148 21.0003388570032 22.0000320194047 23.0003024693485 24.0000302306603 25.0002215809226 26.0000562557317 27.0000013430223 28.0001032976586 28.9999218083752 29.9999268941535 31.0000579062617 31.9998611197244 33.0002322208862 34.0004056267401 34.9996708409775 36.0002613741487 36.9998093107177 37.9999196461267 39.0000829506529 39.9999165069562 40.99821740218 42.001580060274 43.0000084490138 43.9992052840012 44.9999028642008 45.9998424176681 46.999691450648 48.0000383313748 49.0000186047658 50.0000295757979 50.9997071347436 52.0004234015051 52.9999819813612 54.0002168664999 55.0002039601463 55.9998845709407 57.0002919696843 58.0001992371523 59.000038975237 59.9996855639711 61.0000586020352 61.9983640014588 62.9999088199194 63.9999507147143 65.0001297061446 66.0008072733835 67.0002295641602 67.9992239980003 68.9999321105428 70.0003523360826 70.9999567588205 71.9999584492052 73.0001029589102 74.0000056349628 74.9983281789711 76.0003881548814 77.0001967057485 77.9999523233669 79.001129706885 79.9997871032054 80.9999405331717 82.0005573828909 83.0014682321871 84.0002826166747 85.000034333768 86.0001590659702 86.999991859061 88.0004264112655 88.9998959848605 90.0001742915054 90.9999065985513 91.9985440290844 92.9985373705622 94.0001704544321 95.0000421372126 95.9986663745335 96.9995005243605 97.9997885942231 99.0010329687225 100.000516857209 101.000230689157 101.999613741863 102.999518523793 103.998722401774 104.998982812663 105.999886102617 107.00009028805 107.999895958415 109.000065551018 109.998242075247 110.99990646672 111.999605817796 112.999338301908 113.999881608037 115.002052477702 115.999357808201 117.001070498857 118.001559098993 119.000277861081 120.000420835842 120.9995838064 122.000520114209 123.000495981488 124.001137734328 125.002171199612 125.999749614442 127.00167792267 127.999926234871 128.999667098979 129.998546730081 130.998003399364 132.000180708685 133.000006114655 133.999667267327 135.00072023825 136.00040604262 137.001379575075 137.998241504616 138.999316514276 140.000037513408 141.00007521619 142.000329079123 143.000589977481 144.002041856981 145.001725676392 146.000433857139 146.999822300209 147.999879043871 148.998170173407 150.000961210021 150.999402857031 151.998862459139 153.000206018828 153.999162886186 155.001615563492 156.0007854924 157.000585970719 157.998482269627 158.998272019768 160.00077307631 161.00105828326 161.99969645605 163.002057734644 164.000293436329 164.997760212099 166.000389357605 166.999452961738 167.999708215803 169.000447381391 170.001579849032 170.999514781965 172.001131148327 173.000814755978 173.998428780926 174.997950458087 176.000373700318 177.002059612591 177.999378482913 178.999656330909 180.001800776715 180.999179250349 182.001355609587 182.99803643466 184.000193846226 184.999143421818 185.998914201637 186.999191744021 187.999994096504 188.998875287844 189.999771581324 191.002597298927 192.0012482637 192.998888717734 194.001799129354 194.999094260333 195.997790798352 196.99946754551 197.999099513912 199.000494125904 200.000021272129 201.000727749748 201.998094485207 202.997961001672 204.000514764895 204.998583069439 206.001282010761 207.000944976282 208.00044018042 208.999354799387 210.001250088345 210.999937962884 212.000792736942 213.000319999863 214.000339605167 214.999416671177 216.000802388701 217.001783605733 217.998301229856 219.001723515583 220.000507707742 220.999958325308 221.999431206531 223.000272885757 223.9984991331 224.997469687522 225.998516765031 226.999431717056 228.000379619678 229.001603453473 229.998973928871 230.998160246536 232.00056818837 233.000528529816 233.998759539547 234.997960281789 236.002116112357 236.998882117301 237.999123581449 239.000548440835 240.001014433586 241.00118662023 242.00019157128 243.00164182798 243.998566789635 244.999357422025 245.99968644567 246.999680442711 248.000834501245 249.000222106531 249.997462147519 250.999783138632 251.997521592146 252.999363759221 253.998848213376 254.998669035502 255.998527015877 256.999419814995 257.998481692622 259.000925423951 259.999210959221 261.001508057674 262.002333950306 263.00142836747 263.998081384071 265.001376867745 265.999357155928 267.000586561819 268.001202634427 268.998667600378 270.001214885317 270.997516425675 271.998515748091 273.000090909097 273.999298012929 275.000823610866 275.999001255477 276.998772656436 278.00095905863 279.001258742246 279.999265066258 280.999748138156 282.000662194844 282.99871683105 283.998333916043 285.00182152711 285.998543869317 286.998893741697 288.001446092226 288.998042263582 289.99860033512 290.997013780667 292.000738194747 292.998663981488 294.001639412995 295.00139970431 296.001708063381 297.00003305684 298.000470448036 299.000440448515 299.998533406741 301.001871296114 301.997346636202 302.999266809678 304.000301009005 305.000448900097 306.000627012536 307.000624804354 307.999928199803 308.998760147812 309.997896988373 310.998455199678 312.000157522925 312.998923079698 313.998194345248 315.000191030376 315.999729192427 317.000301328401 318.001206171878 318.998872392094 319.997979139482 320.998635779262 321.999779077019 322.998659733457 324.001858160083 324.99958350947 326.000412877832 326.998929820498 328.001666086217 328.999307594993 330.000062704338 330.999324092325 332.000590431565 332.998399903427 333.998018833718 334.998749217397 336.002252888446 337.000872149615 338.000983161094 338.998478801042 339.998644803284 340.997978300405 341.999854715428 342.997780220588 344.000367234113 345.001263635126 346.002062357516 346.997758990805 348.00089737105 349.001566100489 350.001733990598 351.00093544467 352.00062485005 353.002331810739 354.002644789274 354.999264609992 355.998412985491 357.000949783641 357.999650724024 359.001296667228 359.9992984238 360.998884212261 362.001489963486 363.00084963319 364.000498453683 364.998148854661 366.000032376779 366.999690629041 368.000017812882 369.001677254583 370.002023056658 370.998073261505 372.001185712161 373.000505279324 373.997865291337 375.00018681217 376.002087506595 376.998011838821 378.000182510234 379.002188162857 380.00080699851 380.998023125935 382.002275862817 383.000698214418 383.997458959614 384.999504776608 385.998830431922 387.000373944349 388.001357768788 389.00008813839 389.999573293205 390.999418486107 392.000997717926 392.999651936943 393.999411023028 394.999757169112 396.000149601108 396.999166524482 397.998900114059 399.002349535362 399.999140033385 401.001771105512 402.001742133637 402.999707476399 404.002283947133 404.997599830406 405.999002358689 407.000096947287 407.997701876779 409.000387662394 409.998440221846 410.999440980151 411.998162194614 413.000604770437 413.999892158894 414.997408573587 415.998421986083 416.999145042432 418.001736331625 419.00030526783 419.997919732061 420.999668798675 421.998326375683 422.999001266553 423.998368571604 424.998405033205 425.99941238009 427.000482322752 428.00080097781 428.998727891812 429.999591729986 430.999682478504 431.997523660805 433.000757646705 433.999188582516 434.998530790526 435.998685221744 436.998567541053 438.002111162096 439.000638835212 439.998562691272 441.00229544442 442.00161838955 443.001574353801 444.000344328884 445.00272804922 446.001899491464 446.998269753885 447.999042460036 448.999078228839 449.999286495601 451.002683617321 451.997769203818 453.00034479982 453.998144180061 455.002927470356 456.000157908578 456.999960611318 457.998842306187 459.000247674022 460.00002260469 460.99772893627 461.999097380156 462.99940103389 463.999390346263 465.000454259209 465.99796729072 467.000290228799 467.999076825312 468.999044840266 469.99840804094 471.001808481559 472.000153981375 473.002402665748 473.998499386953 475.00107702691 475.998484247287 477.00106387289 478.001013234504 479.000632331719 480.001859291716 480.999626825729 481.998137503968 483.000661557369 483.999850256136 484.998338359758 485.998835277151 487.00022749607 487.999048419695 489.000398310806 489.99738058302 490.999422843833 491.999985483315 492.999089480186 493.99984712156 494.998026224196 495.998774783219 496.998077922271 498.001272335789 498.997627045017 500.001811205177 501.002217417279 501.999116859286 503.001607563666 504.001487220953 505.000543252055 506.00024942023 507.000837455186 507.998807263154 509.001082230353 510.002772994044 511.000628205157 511.999201265102 513.00272663814 514.000514108058 515.000242687566 515.998421019788 517.001316080976 517.999574421571 518.999929960881 519.999371313933 521.000424899564 521.997926120347 522.998893388016 524.001769204323 524.999688720251 525.999178318851 527.000644645356 527.99975123932 528.998028262441 529.999854715595 530.998577713212 532.001223554034 532.999173277678 533.998738880231 535.000442731339 535.999609375236 536.999147284529 538.00097735074 538.997753282409 540.002459507945 541.001728375267 541.999172906686 543.001931243319 543.998965001006 545.001014331334 546.001595745789 547.000851960328 547.998392377564 549.000782388456 549.999215105955 550.996274494699 552.001577482922 553.001010344598 554.001574441167 554.998447762666 555.99932768654 556.998892493945 558.001356440817 558.998773867589 560.000917869937 561.001103902636 561.997038508101 563.001719230547 563.997823321381 564.999593100294 566.000183570477 566.997678115067 568.001363792203 569.000527597613 570.002250047863 571.000336030839 572.00214436239 573.002100404834 573.998575421511 575.001123194715 576.002418091038 577.001392376536 578.001098462542 579.000755730417 580.000584008409 581.001422770373 582.002616271248 583.001470916625 583.998743934917 584.998087760854 586.000124478222 587.000241096339 588.002558688052 588.997445383489 590.001680802882 590.998943910489 591.998619792887 593.000559437226 593.997433291384 594.999844003205 595.998794021194 596.999670876337 598.001372189949 598.999766549721 599.998031820141 601.000279411054 601.998148942025 602.998737646196 603.998133689926 605.000881811244 606.000922400197 606.99899192062 607.998661571589 608.998926722012 610.000919301821 610.999086756813 611.99859622512 612.999993406866 613.998746441147 615.000269941155 615.999099036422 616.998971234218 617.999720340739 619.00150860164 619.999498403442 621.001376845631 621.99982590082 622.999739223948 624.001715928073 625.003058229209 626.000213565553 626.99891155991 627.998735295477 628.997509370155 630.001654830455 630.998753401383 632.000597414951 633.000353980584 634.000178688647 634.99672172765 635.999084570553 636.99893382491 638.000151338014 638.998778644429 640.001008026494 640.998158206926 641.998768033699 642.999154341603 644.002580262516 645.000700042986 645.998407986393 646.99983288025 647.99873491057 648.998349480212 649.999519816801 651.001753684194 651.99956215745 652.996320451314 654.001325856178 654.999827585586 656.000277125836 656.99844595525 658.002361548062 659.001476550104 659.99909517718 661.001425607055 661.998627842417 662.99895849767 663.998926361543 665.001429652225 665.999482710067 667.001048925821 667.999596389819 668.99873809634 670.002760482753 671.001100947117 672.000915291546 672.999892800152 674.004074078268 675.002638843029 676.001368209175 677.000770454923 677.999147542278 678.999413808704 680.001299104719 681.001537033061 681.999807820457 682.997488102558 684.001642784647 685.00049504596 686.000059104159 687.002029965367 688.000636915183 688.999879625168 689.998926146924 691.001635213024 691.999595489629 693.001864183973 693.999231754299 695.000501241291 695.99963886696 696.99800113013 698.001345772207 699.000678755052 699.999976503614 701.000867308805 702.00021712299 702.998309548058 703.998564435327 705.002716140413 705.998505752871 706.998832079613 707.999648377228 709.00187879054 709.999663697268 710.998318375616 711.9981744826 713.001183749437 713.999138930903 714.996063323286 716.000457251201 716.999640375834 717.999970761366 718.999317943711 719.998220101274 721.000478253785 722.001343295934 723.00029234772 724.001761968741 725.000515375351 725.998435702511 726.996461524325 727.999515041075 728.998845436913 730.000044633363 730.99821492638 731.998771321335 733.000008029629 734.000166973215 734.998243021054 735.997083466908 736.999079441288 738.000272982704 738.998176568037 739.999792203309 741.000378873598 742.001045140301 742.99926005752 744.001273519193 744.997623630906 746.003578993959 747.001053922836 748.002331071422 748.998270491671 749.998918685392 751.000718316646 752.000745747826 752.999280344931 753.999703657769 754.999729840452 756.00063365712 756.998931259265 757.99905064344 758.998545101241 759.998325397651 760.998979977306 762.000644427626 763.000221234391 764.001128480526 764.999872357047 766.002228724607 766.998387903989 768.000608915547 768.998072461432 769.998875240271 771.002621226746 771.997453756856 772.998759720386 774.001589210789 774.997802022654 776.000540966798 776.998214210428 777.99852719174 778.999321336474 779.998038018303 781.000281589861 782.000668264107 783.000967588522 783.999526267202 785.002713051526 786.001463274235 786.99937526561 787.99749548096 788.997342723526 789.999531471565 790.996239051778 792.000677466748 793.003174921375 794.001950787884 795.000356401006 796.000548050922 796.999538761846 798.001513537558 799.000517949188 799.999394733441 800.997663903167 801.998996711504 803.00061319195 803.999857577092 805.001604945017 806.001476477677 807.00000225541 808.001595492758 808.999803895348 810.000223786075 810.998677753712 811.997122163027 813.002815556457 813.999019247867 815.000540740284 815.999074762757 817.000849000275 817.999929660378 819.000123140003 820.000345229536 821.002140232625 821.998411429719 823.0041202918 823.997128147116 825.001575528968 826.000958693427 826.999531825647 827.999336054039 829.000959070316 830.000036987916 831.001840293595 831.997620646986 833.000607642584 834.000845094511 834.999374058605 835.999890485281 836.999607460791 838.000613886568 838.999710166893 840.002750222067 841.001544573869 841.997259973057 843.002603041774 844.003294092669 844.998565287264 846.001094550533 847.000573870986 847.998043937397 849.000369307066 849.999619998198 851.000478933568 852.001828910359 853.002777336424 853.999713587292 855.000435303139 855.997160918896 856.998319245031 857.999847043124 859.001060116573 860.001779339438 861.001810015054 861.99723207513 862.996336299915 863.997456832305 864.997387792542 866.001296823738 867.001906550459 868.000509933498 869.002022339786 869.998641018859 871.002113627014 871.999556815504 872.997078633043 873.999158377338 874.999139210126 875.999868419303 876.996106127319 878.002377716145 878.996538095553 880.000499697481 880.999116422021 881.999510070951 882.998531910345 883.998459855294 885.001088247459 886.000524880493 886.998266665453 888.00018727899 889.001061570809 889.997621117362 890.999563437663 891.996699207975 892.999597423682 894.001244101436 895.003940640846 896.000423090927 897.000841402852 898.000383666443 899.002553738277 899.998886258228 900.997161930904 901.998650642279 902.999048754465 903.998141502435 904.998939593005 906.001208842154 907.001794793213 908.002101473355 908.999647096071 909.998865216215 910.998452653996 912.0005343476 913.000363103038 913.999020315936 914.99762675034 915.996441549317 916.995639976783 918.002780524094 918.999648104468 919.9978650927 921.000879698297 921.999213298579 922.999657075983 923.997298967992 924.996343447214 925.998249754219 926.998971590219 927.99763515864 929.000539096311 930.000234996245 931.001642597908 931.998587701297 933.0004954959 933.999298951213 934.995602679848 935.997928650045 937.001209025066 937.999487069103 938.998265642286 939.998834682978 940.999563641176 942.000214090511 942.999494667628 944.000488808197 945.001576757334 946.000602902063 947.001461413565 947.997913643001 948.997203628627 949.997816870288 951.00009951599 951.997712331479 953.002231158041 953.998733416193 954.99991819278 956.003154246915 956.999706409288 957.999012857084 959.000757255797 960.000632800838 960.997980224492 961.99794048877 963.000335873587 963.999096503063 965.000846099548 965.99865946372 967.001050663173 967.999951368 969.003599268274 970.002512810215 971.001573340763 971.99918376554 973.000042318404 973.999301389335 974.998858918657 976.00161846317 976.998034921244 978.000606264284 979.001447171265 979.998174169001 980.999686435905 981.999682316348 983.000713276676 983.999392099041 985.002190603154 985.998100809227 987.000335073303 988.0029173623 989.000146312762 989.998655720345 991.001209612272 992.000504007653 992.999814384067 994.001833522825 995.002278609175 996.001377025785 997.002697439394 997.997564873439 999.000795279542 999.997974315861                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.11024638341423E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235220992 2.00032305351402 2.99997706920424 4.00020652575669 5.00017765356745 5.99987386523903 6.9999298616931 8.00015222544767 9.00001629657599 10.0003907564316 10.9999225312339 12.0011917331702 13.0004167661801 14.0001851856317 14.999994882676 15.999921281622 16.9998928340076 18.0015571358948 19.000100888933 20.0002623321482 21.0003388570033 22.0000320194043 23.0003024693486 24.0000302306609 25.0002215809221 26.0000562557312 27.000001343023 28.0001032976585 28.9999218083747 29.9999268941536 31.0000579062611 31.9998611197245 33.000232220886 34.00040562674 34.9996708409791 36.0002613741487 36.9998093107175 37.9999196461273 39.0000829506527 39.9999165069559 40.99821740218 42.0015800602744 43.0000084490149 43.999205284002 44.9999028642005 45.9998424176683 46.9996914506485 48.0000383313744 49.0000186047652 50.0000295757972 50.9997071347432 52.000423401504 52.9999819813616 54.0002168664996 55.0002039601463 55.9998845709409 57.0002919696833 58.000199237152 59.0000389752373 59.9996855639704 61.0000586020355 61.9983640014591 62.9999088199202 63.9999507147143 65.0001297061445 66.0008072733832 67.0002295641602 67.9992239980005 68.9999321105424 70.0003523360827 70.9999567588204 71.9999584492053 73.00010295891 74.0000056349631 74.9983281789716 76.0003881548809 77.0001967057481 77.9999523233671 79.0011297068856 79.9997871032055 80.9999405331723 82.0005573828912 83.0014682321867 84.0002826166743 85.0000343337673 86.0001590659702 86.9999918590608 88.0004264112654 88.9998959848606 90.0001742915058 90.9999065985518 91.9985440290838 92.9985373705628 94.000170454433 95.0000421372122 95.9986663745334 96.9995005243609 97.9997885942235 99.0010329687227 100.000516857209 101.000230689158 101.999613741863 102.999518523792 103.998722401774 104.998982812662 105.999886102617 107.00009028805 107.999895958416 109.000065551018 109.998242075247 110.99990646672 111.999605817796 112.999338301909 113.999881608037 115.002052477703 115.999357808201 117.001070498856 118.001559098993 119.000277861081 120.000420835842 120.9995838064 122.00052011421 123.000495981487 124.001137734327 125.002171199613 125.999749614442 127.00167792267 127.999926234871 128.999667098979 129.998546730082 130.998003399364 132.000180708685 133.000006114654 133.999667267327 135.00072023825 136.00040604262 137.001379575076 137.998241504616 138.999316514276 140.000037513409 141.00007521619 142.000329079124 143.000589977482 144.002041856981 145.001725676393 146.000433857139 146.999822300208 147.999879043872 148.998170173407 150.000961210021 150.99940285703 151.998862459139 153.000206018828 153.999162886186 155.001615563493 156.0007854924 157.000585970719 157.998482269627 158.998272019767 160.000773076309 161.00105828326 161.999696456049 163.002057734645 164.000293436329 164.997760212097 166.000389357605 166.999452961739 167.999708215803 169.000447381391 170.001579849032 170.999514781965 172.001131148326 173.000814755978 173.998428780926 174.997950458087 176.000373700318 177.00205961259 177.999378482913 178.999656330909 180.001800776717 180.999179250349 182.001355609587 182.99803643466 184.000193846227 184.999143421817 185.998914201636 186.999191744021 187.999994096504 188.998875287844 189.999771581323 191.002597298926 192.001248263699 192.998888717733 194.001799129355 194.999094260332 195.997790798351 196.99946754551 197.999099513913 199.000494125905 200.000021272129 201.000727749748 201.998094485208 202.997961001671 204.000514764895 204.998583069438 206.001282010761 207.000944976281 208.000440180421 208.999354799386 210.001250088344 210.999937962885 212.000792736943 213.000319999862 214.000339605166 214.999416671178 216.000802388702 217.001783605733 217.998301229856 219.001723515584 220.000507707743 220.999958325308 221.999431206531 223.000272885757 223.9984991331 224.997469687523 225.998516765031 226.999431717056 228.000379619677 229.001603453473 229.998973928872 230.998160246535 232.000568188369 233.000528529817 233.998759539546 234.997960281789 236.002116112357 236.998882117302 237.999123581449 239.000548440834 240.001014433585 241.001186620229 242.00019157128 243.001641827981 243.998566789635 244.999357422025 245.999686445669 246.99968044271 248.000834501244 249.000222106532 249.997462147519 250.999783138631 251.997521592147 252.999363759221 253.998848213376 254.998669035501 255.998527015876 256.999419814993 257.998481692621 259.000925423952 259.999210959221 261.001508057674 262.002333950306 263.00142836747 263.998081384071 265.001376867745 265.999357155928 267.000586561819 268.001202634427 268.998667600376 270.001214885316 270.997516425675 271.998515748091 273.000090909097 273.999298012928 275.000823610866 275.999001255477 276.998772656435 278.000959058631 279.001258742247 279.999265066258 280.999748138156 282.000662194845 282.998716831049 283.998333916042 285.001821527111 285.998543869317 286.998893741697 288.001446092227 288.998042263581 289.998600335122 290.997013780667 292.000738194746 292.998663981488 294.001639412997 295.00139970431 296.001708063381 297.000033056839 298.000470448038 299.000440448514 299.998533406741 301.001871296114 301.997346636201 302.999266809678 304.000301009005 305.000448900097 306.000627012536 307.000624804354 307.999928199803 308.998760147812 309.997896988372 310.998455199679 312.000157522925 312.998923079698 313.998194345246 315.000191030378 315.999729192427 317.000301328403 318.001206171878 318.998872392094 319.997979139484 320.998635779261 321.999779077019 322.998659733457 324.001858160083 324.99958350947 326.00041287783 326.998929820498 328.001666086217 328.999307594994 330.00006270434 330.999324092325 332.000590431565 332.998399903426 333.99801883372 334.998749217398 336.002252888445 337.000872149615 338.000983161093 338.998478801043 339.998644803283 340.997978300405 341.999854715428 342.997780220587 344.000367234115 345.001263635127 346.002062357516 346.997758990804 348.00089737105 349.001566100489 350.001733990598 351.000935444669 352.000624850049 353.002331810739 354.002644789275 354.999264609991 355.99841298549 357.000949783643 357.999650724024 359.001296667226 359.9992984238 360.99888421226 362.001489963488 363.00084963319 364.000498453682 364.998148854662 366.000032376781 366.99969062904 368.00001781288 369.001677254582 370.002023056659 370.998073261505 372.001185712162 373.000505279323 373.997865291337 375.000186812171 376.002087506595 376.99801183882 378.000182510234 379.002188162856 380.00080699851 380.998023125933 382.002275862818 383.000698214419 383.997458959615 384.999504776608 385.998830431922 387.000373944349 388.001357768787 389.000088138389 389.999573293204 390.999418486105 392.000997717926 392.999651936942 393.99941102303 394.999757169111 396.000149601107 396.999166524483 397.998900114059 399.002349535362 399.999140033387 401.001771105512 402.001742133638 402.999707476399 404.002283947133 404.997599830405 405.999002358688 407.000096947289 407.99770187678 409.000387662393 409.998440221844 410.999440980152 411.998162194614 413.000604770438 413.999892158894 414.997408573587 415.998421986083 416.999145042432 418.001736331624 419.000305267829 419.997919732061 420.999668798677 421.998326375682 422.999001266553 423.998368571602 424.998405033206 425.999412380089 427.000482322752 428.000800977811 428.998727891812 429.999591729985 430.999682478506 431.997523660805 433.000757646706 433.999188582514 434.998530790525 435.998685221745 436.998567541054 438.002111162095 439.000638835212 439.998562691272 441.002295444421 442.001618389549 443.0015743538 444.000344328884 445.002728049222 446.001899491463 446.998269753886 447.999042460036 448.999078228837 449.999286495602 451.002683617323 451.997769203817 453.000344799821 453.99814418006 455.002927470357 456.000157908578 456.999960611316 457.998842306188 459.000247674022 460.00002260469 460.997728936269 461.999097380155 462.99940103389 463.999390346263 465.000454259209 465.99796729072 467.000290228798 467.999076825311 468.999044840268 469.998408040939 471.00180848156 472.000153981374 473.002402665751 473.998499386953 475.00107702691 475.998484247286 477.001063872891 478.001013234503 479.000632331719 480.001859291716 480.999626825728 481.998137503967 483.000661557368 483.999850256135 484.998338359759 485.998835277151 487.00022749607 487.999048419693 489.000398310806 489.997380583019 490.999422843832 491.999985483316 492.999089480185 493.999847121561 494.998026224196 495.998774783218 496.998077922271 498.001272335789 498.997627045017 500.001811205176 501.002217417278 501.999116859286 503.001607563665 504.001487220952 505.000543252054 506.00024942023 507.000837455187 507.998807263154 509.001082230354 510.002772994043 511.000628205156 511.999201265102 513.002726638139 514.000514108056 515.000242687566 515.998421019786 517.001316080974 517.999574421569 518.99992996088 519.999371313933 521.000424899564 521.997926120346 522.998893388016 524.001769204325 524.999688720251 525.999178318851 527.000644645355 527.99975123932 528.998028262441 529.999854715594 530.998577713211 532.001223554035 532.99917327768 533.99873888023 535.00044273134 535.999609375236 536.99914728453 538.000977350738 538.997753282409 540.002459507946 541.001728375266 541.999172906686 543.00193124332 543.998965001006 545.001014331334 546.001595745789 547.000851960328 547.998392377564 549.000782388455 549.999215105955 550.996274494698 552.001577482923 553.001010344599 554.001574441167 554.998447762666 555.999327686539 556.998892493948 558.001356440817 558.998773867588 560.000917869937 561.001103902635 561.997038508099 563.00171923055 563.997823321382 564.999593100292 566.000183570477 566.997678115068 568.001363792203 569.000527597614 570.002250047863 571.00033603084 572.002144362392 573.002100404834 573.998575421514 575.001123194714 576.002418091041 577.001392376535 578.001098462543 579.000755730417 580.000584008408 581.001422770373 582.002616271247 583.001470916624 583.998743934916 584.998087760854 586.000124478223 587.00024109634 588.002558688053 588.997445383489 590.001680802881 590.998943910489 591.998619792887 593.000559437226 593.997433291383 594.999844003204 595.998794021194 596.999670876337 598.001372189948 598.99976654972 599.998031820142 601.000279411055 601.998148942024 602.998737646195 603.998133689925 605.000881811244 606.000922400196 606.998991920621 607.998661571586 608.998926722012 610.000919301819 610.999086756814 611.998596225119 612.999993406867 613.998746441147 615.000269941156 615.999099036422 616.998971234218 617.99972034074 619.00150860164 619.999498403442 621.00137684563 621.999825900821 622.999739223949 624.001715928074 625.003058229207 626.000213565553 626.99891155991 627.998735295476 628.997509370155 630.001654830455 630.998753401381 632.000597414949 633.000353980583 634.000178688646 634.996721727648 635.999084570552 636.99893382491 638.000151338012 638.998778644429 640.001008026494 640.998158206924 641.998768033699 642.999154341604 644.002580262515 645.000700042986 645.998407986394 646.999832880249 647.99873491057 648.998349480214 649.999519816801 651.001753684191 651.99956215745 652.996320451311 654.001325856178 654.999827585587 656.000277125834 656.99844595525 658.002361548062 659.001476550104 659.999095177179 661.001425607053 661.998627842418 662.998958497669 663.998926361543 665.001429652225 665.999482710066 667.001048925823 667.99959638982 668.998738096341 670.002760482754 671.001100947116 672.000915291549 672.999892800151 674.004074078269 675.00263884303 676.001368209175 677.000770454921 677.999147542277 678.999413808706 680.001299104721 681.001537033061 681.999807820459 682.997488102558 684.001642784647 685.00049504596 686.000059104162 687.002029965367 688.000636915183 688.999879625168 689.998926146925 691.001635213024 691.99959548963 693.001864183972 693.999231754298 695.000501241293 695.999638866961 696.99800113013 698.001345772204 699.000678755051 699.999976503612 701.000867308804 702.00021712299 702.998309548058 703.998564435327 705.002716140412 705.998505752871 706.998832079613 707.999648377226 709.001878790541 709.999663697269 710.998318375614 711.9981744826 713.001183749435 713.999138930902 714.996063323285 716.000457251199 716.999640375832 717.999970761365 718.999317943712 719.998220101273 721.000478253781 722.001343295933 723.000292347723 724.001761968741 725.000515375351 725.998435702511 726.996461524322 727.999515041075 728.998845436912 730.000044633362 730.998214926381 731.998771321335 733.000008029629 734.000166973214 734.998243021053 735.997083466907 736.999079441287 738.000272982705 738.998176568035 739.999792203308 741.000378873598 742.001045140302 742.999260057519 744.001273519195 744.997623630908 746.003578993958 747.001053922836 748.002331071422 748.998270491667 749.998918685394 751.000718316645 752.000745747824 752.999280344932 753.99970365777 754.999729840451 756.000633657117 756.998931259263 757.99905064344 758.99854510124 759.998325397654 760.998979977306 762.000644427626 763.000221234393 764.001128480525 764.999872357047 766.002228724607 766.998387903988 768.000608915547 768.998072461431 769.99887524027 771.002621226745 771.997453756857 772.998759720386 774.001589210788 774.997802022652 776.000540966799 776.998214210426 777.998527191739 778.999321336473 779.998038018302 781.00028158986 782.000668264107 783.000967588521 783.999526267203 785.002713051526 786.001463274233 786.999375265609 787.997495480959 788.997342723525 789.999531471566 790.996239051779 792.000677466748 793.003174921373 794.001950787885 795.000356401006 796.000548050923 796.999538761847 798.001513537556 799.000517949191 799.999394733439 800.997663903167 801.998996711504 803.00061319195 803.999857577092 805.001604945017 806.001476477677 807.000002255412 808.001595492756 808.999803895348 810.000223786073 810.998677753713 811.997122163026 813.002815556455 813.999019247865 815.000540740282 815.999074762757 817.000849000275 817.999929660377 819.000123140004 820.000345229537 821.002140232625 821.99841142972 823.0041202918 823.997128147115 825.00157552897 826.000958693426 826.999531825647 827.999336054039 829.000959070316 830.000036987916 831.001840293596 831.997620646985 833.000607642583 834.00084509451 834.999374058606 835.999890485279 836.999607460789 838.000613886568 838.999710166893 840.002750222065 841.001544573867 841.997259973058 843.002603041772 844.003294092671 844.998565287262 846.001094550533 847.000573870986 847.998043937398 849.000369307068 849.999619998197 851.000478933564 852.001828910358 853.002777336424 853.999713587293 855.000435303137 855.997160918896 856.998319245032 857.999847043121 859.001060116573 860.001779339439 861.001810015054 861.99723207513 862.996336299913 863.997456832305 864.997387792542 866.001296823737 867.001906550459 868.000509933498 869.002022339785 869.99864101886 871.002113627015 871.999556815506 872.997078633043 873.999158377339 874.999139210126 875.999868419304 876.996106127316 878.002377716146 878.996538095552 880.000499697482 880.999116422021 881.99951007095 882.998531910345 883.998459855294 885.001088247458 886.000524880493 886.998266665452 888.000187278989 889.001061570807 889.99762111736 890.999563437663 891.996699207977 892.99959742368 894.001244101437 895.003940640846 896.000423090926 897.000841402852 898.000383666444 899.002553738277 899.998886258228 900.997161930902 901.998650642278 902.999048754464 903.998141502435 904.998939593005 906.001208842151 907.001794793214 908.002101473357 908.999647096071 909.998865216216 910.998452653996 912.000534347599 913.000363103037 913.999020315936 914.997626750337 915.996441549319 916.995639976781 918.002780524092 918.999648104467 919.997865092698 921.000879698298 921.999213298579 922.999657075982 923.997298967992 924.996343447213 925.998249754219 926.998971590219 927.997635158639 929.000539096312 930.000234996244 931.001642597909 931.998587701298 933.0004954959 933.999298951214 934.995602679847 935.997928650049 937.001209025065 937.999487069102 938.998265642286 939.998834682979 940.999563641176 942.000214090511 942.99949466763 944.000488808198 945.001576757334 946.000602902064 947.001461413563 947.997913643002 948.997203628626 949.997816870287 951.000099515989 951.99771233148 953.00223115804 953.998733416191 954.99991819278 956.003154246916 956.999706409287 957.999012857083 959.000757255796 960.000632800839 960.997980224491 961.997940488769 963.000335873585 963.999096503062 965.000846099547 965.998659463718 967.001050663172 967.999951367999 969.003599268273 970.002512810216 971.001573340765 971.999183765538 973.000042318403 973.999301389333 974.998858918658 976.001618463169 976.998034921245 978.000606264285 979.001447171264 979.998174169001 980.999686435905 981.999682316346 983.000713276674 983.99939209904 985.002190603154 985.998100809228 987.000335073303 988.002917362298 989.000146312764 989.998655720344 991.001209612271 992.000504007654 992.999814384066 994.001833522824 995.002278609175 996.001377025787 997.002697439395 997.99756487344 999.000795279541 999.99797431586                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.08825678005099E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00010235220918 2.0003230535147 2.99997706920413 4.00020652575644 5.00017765356706 5.99987386523937 6.99992986169356 8.00015222544768 9.0000162965764 10.0003907564311 10.9999225312335 12.0011917331697 13.00041676618 14.0001851856313 14.9999948826758 15.9999212816218 16.999892834008 18.0015571358947 19.000100888933 20.0002623321476 21.0003388570038 22.0000320194044 23.0003024693482 24.0000302306608 25.000221580922 26.0000562557314 27.000001343023 28.0001032976584 28.9999218083744 29.999926894154 31.0000579062616 31.9998611197248 33.0002322208861 34.0004056267394 34.9996708409791 36.0002613741489 36.9998093107178 37.9999196461265 39.0000829506529 39.9999165069564 40.9982174021797 42.0015800602735 43.000008449014 43.999205284002 44.9999028642013 45.999842417668 46.999691450648 48.0000383313742 49.0000186047655 50.0000295757977 50.9997071347431 52.0004234015042 52.9999819813615 54.0002168664992 55.0002039601467 55.9998845709405 57.0002919696836 58.0001992371513 59.0000389752372 59.9996855639706 61.0000586020346 61.9983640014593 62.9999088199199 63.999950714714 65.0001297061446 66.0008072733829 67.0002295641605 67.9992239980004 68.9999321105426 70.0003523360822 70.9999567588204 71.9999584492051 73.0001029589099 74.0000056349627 74.9983281789712 76.0003881548811 77.0001967057485 77.9999523233664 79.0011297068858 79.9997871032054 80.9999405331717 82.0005573828911 83.0014682321869 84.0002826166746 85.0000343337673 86.00015906597 86.9999918590608 88.0004264112655 88.9998959848604 90.0001742915058 90.999906598552 91.9985440290845 92.9985373705621 94.0001704544321 95.0000421372117 95.9986663745333 96.9995005243611 97.9997885942233 99.001032968723 100.000516857209 101.000230689157 101.999613741863 102.999518523792 103.998722401774 104.998982812663 105.999886102616 107.00009028805 107.999895958415 109.000065551018 109.998242075246 110.99990646672 111.999605817796 112.99933830191 113.999881608037 115.002052477703 115.999357808201 117.001070498857 118.001559098994 119.000277861082 120.000420835842 120.9995838064 122.000520114209 123.000495981488 124.001137734328 125.002171199612 125.999749614441 127.001677922669 127.99992623487 128.999667098979 129.998546730082 130.998003399364 132.000180708685 133.000006114654 133.999667267327 135.00072023825 136.00040604262 137.001379575076 137.998241504616 138.999316514277 140.000037513408 141.00007521619 142.000329079124 143.000589977482 144.002041856981 145.001725676392 146.000433857139 146.999822300208 147.999879043871 148.998170173406 150.000961210021 150.99940285703 151.998862459138 153.000206018828 153.999162886186 155.001615563493 156.0007854924 157.000585970719 157.998482269627 158.998272019767 160.000773076309 161.00105828326 161.999696456049 163.002057734645 164.000293436329 164.997760212098 166.000389357606 166.999452961739 167.999708215803 169.00044738139 170.001579849031 170.999514781965 172.001131148327 173.000814755978 173.998428780927 174.997950458087 176.000373700318 177.00205961259 177.999378482913 178.999656330908 180.001800776717 180.999179250349 182.001355609588 182.998036434661 184.000193846227 184.999143421818 185.998914201637 186.999191744021 187.999994096504 188.998875287843 189.999771581323 191.002597298925 192.001248263699 192.998888717734 194.001799129356 194.999094260332 195.997790798352 196.999467545511 197.999099513912 199.000494125904 200.000021272129 201.000727749748 201.998094485207 202.997961001672 204.000514764895 204.998583069438 206.001282010761 207.000944976281 208.000440180421 208.999354799387 210.001250088344 210.999937962885 212.000792736943 213.000319999863 214.000339605166 214.999416671177 216.000802388701 217.001783605732 217.998301229855 219.001723515584 220.000507707743 220.999958325309 221.99943120653 223.000272885757 223.9984991331 224.997469687522 225.998516765031 226.999431717055 228.000379619677 229.001603453473 229.998973928872 230.998160246535 232.000568188369 233.000528529817 233.998759539547 234.997960281789 236.002116112356 236.998882117302 237.999123581448 239.000548440835 240.001014433586 241.001186620229 242.00019157128 243.00164182798 243.998566789635 244.999357422025 245.999686445669 246.999680442709 248.000834501245 249.000222106532 249.997462147519 250.999783138631 251.997521592147 252.999363759221 253.998848213376 254.998669035502 255.998527015876 256.999419814993 257.998481692621 259.000925423951 259.999210959222 261.001508057674 262.002333950306 263.001428367471 263.998081384071 265.001376867745 265.999357155928 267.000586561819 268.001202634428 268.998667600377 270.001214885316 270.997516425675 271.998515748091 273.000090909097 273.999298012929 275.000823610866 275.999001255478 276.998772656435 278.00095905863 279.001258742248 279.999265066258 280.999748138156 282.000662194844 282.99871683105 283.998333916042 285.001821527111 285.998543869316 286.998893741697 288.001446092227 288.998042263581 289.998600335121 290.997013780667 292.000738194746 292.998663981488 294.001639412997 295.00139970431 296.001708063381 297.00003305684 298.000470448037 299.000440448515 299.998533406741 301.001871296114 301.997346636201 302.999266809678 304.000301009005 305.000448900097 306.000627012537 307.000624804354 307.999928199802 308.998760147813 309.997896988373 310.998455199678 312.000157522924 312.998923079697 313.998194345246 315.000191030378 315.999729192427 317.000301328402 318.001206171879 318.998872392094 319.997979139485 320.998635779262 321.999779077019 322.998659733457 324.001858160083 324.999583509469 326.000412877831 326.998929820498 328.001666086216 328.999307594994 330.00006270434 330.999324092325 332.000590431566 332.998399903427 333.998018833719 334.998749217397 336.002252888446 337.000872149615 338.000983161093 338.998478801043 339.998644803284 340.997978300405 341.999854715427 342.997780220587 344.000367234113 345.001263635126 346.002062357517 346.997758990804 348.000897371049 349.00156610049 350.001733990597 351.00093544467 352.000624850049 353.002331810738 354.002644789275 354.999264609992 355.99841298549 357.000949783642 357.999650724024 359.001296667226 359.999298423801 360.998884212261 362.001489963488 363.00084963319 364.000498453682 364.998148854662 366.000032376781 366.99969062904 368.000017812879 369.001677254583 370.002023056659 370.998073261506 372.001185712162 373.000505279323 373.997865291338 375.000186812171 376.002087506595 376.998011838821 378.000182510234 379.002188162856 380.00080699851 380.998023125933 382.002275862819 383.000698214419 383.997458959614 384.999504776608 385.998830431921 387.000373944349 388.001357768788 389.000088138389 389.999573293205 390.999418486105 392.000997717925 392.999651936942 393.99941102303 394.999757169111 396.000149601108 396.999166524483 397.998900114058 399.002349535362 399.999140033388 401.001771105512 402.001742133638 402.999707476398 404.002283947132 404.997599830405 405.999002358689 407.000096947289 407.99770187678 409.000387662394 409.998440221845 410.999440980153 411.998162194614 413.000604770439 413.999892158894 414.997408573588 415.998421986082 416.999145042432 418.001736331624 419.00030526783 419.997919732061 420.999668798677 421.998326375683 422.999001266554 423.998368571604 424.998405033206 425.999412380089 427.000482322753 428.00080097781 428.998727891812 429.999591729986 430.999682478506 431.997523660805 433.000757646704 433.999188582516 434.998530790526 435.998685221745 436.998567541054 438.002111162096 439.000638835212 439.998562691273 441.002295444422 442.001618389548 443.0015743538 444.000344328885 445.002728049222 446.001899491463 446.998269753885 447.999042460036 448.999078228837 449.999286495602 451.002683617323 451.997769203817 453.00034479982 453.99814418006 455.002927470356 456.000157908577 456.999960611317 457.998842306189 459.000247674023 460.000022604691 460.997728936269 461.999097380155 462.99940103389 463.999390346263 465.000454259209 465.997967290721 467.000290228798 467.999076825311 468.999044840268 469.998408040939 471.00180848156 472.000153981375 473.002402665751 473.998499386953 475.00107702691 475.998484247286 477.001063872891 478.001013234502 479.00063233172 480.001859291716 480.999626825729 481.998137503967 483.000661557368 483.999850256135 484.99833835976 485.998835277152 487.00022749607 487.999048419694 489.000398310806 489.99738058302 490.999422843832 491.999985483316 492.999089480185 493.999847121561 494.998026224195 495.998774783219 496.998077922271 498.001272335789 498.997627045017 500.001811205176 501.002217417278 501.999116859285 503.001607563666 504.001487220951 505.000543252054 506.000249420231 507.000837455188 507.998807263155 509.001082230354 510.002772994043 511.000628205157 511.999201265103 513.002726638139 514.000514108055 515.000242687566 515.998421019786 517.001316080974 517.999574421569 518.999929960878 519.999371313933 521.000424899565 521.997926120346 522.998893388017 524.001769204324 524.99968872025 525.999178318851 527.000644645355 527.999751239321 528.99802826244 529.999854715593 530.998577713211 532.001223554034 532.99917327768 533.998738880229 535.00044273134 535.999609375235 536.999147284529 538.000977350738 538.997753282409 540.002459507946 541.001728375267 541.999172906686 543.001931243319 543.998965001007 545.001014331334 546.001595745789 547.000851960328 547.998392377564 549.000782388457 549.999215105956 550.996274494699 552.001577482923 553.0010103446 554.001574441167 554.998447762666 555.999327686539 556.998892493948 558.001356440817 558.998773867588 560.000917869939 561.001103902635 561.997038508101 563.00171923055 563.997823321382 564.999593100292 566.000183570477 566.997678115068 568.001363792203 569.000527597613 570.002250047864 571.00033603084 572.00214436239 573.002100404833 573.998575421512 575.001123194714 576.002418091039 577.001392376535 578.001098462545 579.000755730416 580.000584008408 581.001422770373 582.002616271246 583.001470916626 583.998743934916 584.998087760853 586.000124478223 587.00024109634 588.002558688052 588.99744538349 590.00168080288 590.998943910488 591.998619792886 593.000559437227 593.997433291382 594.999844003204 595.998794021194 596.999670876338 598.001372189948 598.99976654972 599.998031820141 601.000279411055 601.998148942024 602.998737646196 603.998133689925 605.000881811244 606.000922400198 606.99899192062 607.998661571586 608.998926722012 610.000919301818 610.999086756813 611.998596225118 612.999993406867 613.998746441146 615.000269941156 615.999099036422 616.998971234217 617.999720340739 619.001508601641 619.999498403442 621.001376845631 621.999825900822 622.999739223949 624.001715928075 625.003058229207 626.000213565553 626.99891155991 627.998735295476 628.997509370154 630.001654830455 630.998753401383 632.00059741495 633.000353980584 634.000178688647 634.996721727648 635.999084570554 636.998933824908 638.000151338012 638.998778644428 640.001008026495 640.998158206926 641.9987680337 642.999154341604 644.002580262515 645.000700042986 645.998407986393 646.999832880249 647.998734910569 648.998349480213 649.999519816802 651.001753684192 651.999562157451 652.996320451311 654.001325856179 654.999827585588 656.000277125834 656.998445955251 658.002361548062 659.001476550104 659.99909517718 661.001425607053 661.998627842419 662.998958497669 663.998926361542 665.001429652226 665.999482710066 667.001048925823 667.999596389819 668.998738096339 670.002760482753 671.001100947116 672.000915291551 672.999892800153 674.004074078267 675.002638843029 676.001368209176 677.00077045492 677.999147542278 678.999413808705 680.001299104722 681.00153703306 681.999807820457 682.997488102559 684.001642784647 685.00049504596 686.000059104161 687.002029965368 688.000636915183 688.999879625167 689.998926146926 691.001635213024 691.99959548963 693.001864183971 693.999231754299 695.000501241291 695.999638866962 696.99800113013 698.001345772205 699.000678755051 699.999976503612 701.000867308805 702.00021712299 702.998309548059 703.998564435326 705.002716140412 705.998505752872 706.998832079614 707.999648377227 709.001878790542 709.999663697271 710.998318375615 711.9981744826 713.001183749435 713.999138930903 714.996063323285 716.0004572512 716.999640375833 717.999970761365 718.999317943711 719.998220101274 721.000478253783 722.001343295932 723.000292347721 724.001761968741 725.000515375351 725.99843570251 726.996461524323 727.999515041074 728.998845436912 730.000044633362 730.99821492638 731.998771321335 733.000008029628 734.000166973212 734.998243021054 735.997083466907 736.999079441289 738.000272982707 738.998176568035 739.999792203307 741.000378873598 742.001045140302 742.999260057519 744.001273519194 744.997623630906 746.003578993959 747.001053922836 748.00233107142 748.998270491668 749.998918685394 751.000718316647 752.000745747824 752.999280344932 753.99970365777 754.999729840451 756.000633657118 756.998931259264 757.999050643441 758.99854510124 759.998325397654 760.998979977308 762.000644427626 763.000221234393 764.001128480525 764.999872357047 766.002228724608 766.998387903988 768.000608915547 768.99807246143 769.998875240269 771.002621226745 771.997453756856 772.998759720385 774.001589210789 774.997802022653 776.000540966799 776.998214210426 777.99852719174 778.999321336472 779.998038018301 781.00028158986 782.000668264106 783.000967588522 783.999526267202 785.002713051528 786.001463274234 786.99937526561 787.997495480958 788.997342723527 789.999531471566 790.99623905178 792.000677466748 793.003174921373 794.001950787884 795.000356401007 796.000548050923 796.999538761847 798.001513537558 799.00051794919 799.999394733439 800.997663903166 801.998996711505 803.000613191951 803.999857577092 805.001604945018 806.001476477677 807.000002255412 808.001595492758 808.999803895347 810.000223786073 810.998677753713 811.997122163026 813.002815556456 813.999019247865 815.000540740284 815.999074762757 817.000849000275 817.999929660377 819.000123140004 820.000345229538 821.002140232625 821.998411429722 823.004120291799 823.997128147115 825.00157552897 826.000958693427 826.999531825648 827.99933605404 829.000959070315 830.000036987916 831.001840293597 831.997620646987 833.000607642583 834.00084509451 834.999374058607 835.999890485279 836.999607460789 838.000613886568 838.999710166894 840.002750222065 841.001544573867 841.997259973058 843.002603041772 844.003294092671 844.998565287261 846.001094550534 847.000573870987 847.998043937399 849.000369307068 849.999619998197 851.000478933566 852.001828910357 853.002777336426 853.999713587293 855.000435303137 855.997160918896 856.998319245032 857.999847043122 859.001060116574 860.001779339439 861.001810015054 861.99723207513 862.996336299915 863.997456832306 864.997387792544 866.001296823736 867.001906550459 868.000509933496 869.002022339786 869.998641018859 871.002113627015 871.999556815503 872.997078633045 873.99915837734 874.999139210125 875.999868419303 876.996106127316 878.002377716145 878.996538095553 880.000499697483 880.999116422019 881.999510070951 882.998531910345 883.998459855294 885.001088247458 886.000524880494 886.998266665452 888.000187278989 889.001061570806 889.997621117359 890.999563437663 891.996699207978 892.999597423681 894.001244101437 895.003940640845 896.000423090927 897.000841402854 898.000383666444 899.002553738277 899.998886258228 900.997161930903 901.998650642279 902.999048754464 903.998141502434 904.998939593006 906.001208842153 907.001794793214 908.002101473357 908.999647096069 909.998865216216 910.998452653996 912.000534347599 913.000363103038 913.999020315936 914.997626750339 915.99644154932 916.995639976781 918.002780524093 918.999648104467 919.997865092698 921.0008796983 921.999213298579 922.999657075982 923.997298967991 924.996343447214 925.998249754218 926.998971590218 927.997635158638 929.000539096311 930.000234996243 931.001642597909 931.998587701298 933.000495495901 933.999298951214 934.995602679849 935.997928650048 937.001209025065 937.999487069103 938.998265642286 939.998834682979 940.999563641176 942.000214090511 942.999494667629 944.000488808198 945.001576757333 946.000602902063 947.001461413564 947.997913643001 948.997203628627 949.997816870289 951.00009951599 951.997712331481 953.00223115804 953.998733416192 954.99991819278 956.003154246917 956.999706409286 957.999012857082 959.000757255796 960.000632800838 960.997980224491 961.997940488767 963.000335873587 963.999096503062 965.000846099546 965.998659463718 967.001050663171 967.999951368001 969.003599268273 970.002512810215 971.001573340764 971.99918376554 973.000042318404 973.999301389333 974.998858918657 976.001618463169 976.998034921245 978.000606264283 979.001447171266 979.998174169001 980.999686435904 981.999682316347 983.000713276674 983.999392099039 985.002190603153 985.998100809228 987.000335073303 988.002917362298 989.000146312764 989.998655720343 991.00120961227 992.000504007653 992.999814384066 994.001833522825 995.002278609176 996.001377025786 997.002697439396 997.997564873439 999.000795279541 999.99797431586                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.45785475507726E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729573815 3 3.99999787975007 4.99997835943322 5.99997390464758 7 7.999987451689 9.00000358395913 10.0000037736904 11.0000140356973 11.9999699864642 13 14.000037272413 15.0000153317749                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.49438160454571E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000687487029 3 3.99998951409899 4.99995596134636 5.99997390464758 7 7.999987451689 8.99999161826818 10.0000041515294 11.0000456659526 11.99998696001 13 14.0000281754994 14.9999974451615                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000196042273956588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09244487496107E-10 2.62792725918026E-10 3.25316361919268E-10 3.56429824538257E-09 2.15421083975711E-08 2.04817012600984E-07 7.59071511144959E-10 3.70804231317902E-05 0.000434754404642801 0.00281165031346151 0.0602725962415975 0.163568282890492 1.40970423498349E-09 25.1945458098347 23.2482416047908 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00521836994718666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.464729915523388 1.19215727765283 1.38231813859444 5.00887074164824 13.9354401225892 7.37409176574968 3.2254089900537 5.67457199939103 12.5810344797732 7.4152865131517 11.5204991890581 13.9101248802242 5.99004526724259 15.8556681960964 14.2274128293176                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4686990506184E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.000004590861 2.00000729575029 2.99999999999047 3.99999788039016 4.99997836071139 5.99997390462853 6.99999999997776 7.99998745166359 9.0000035846578 10.0000037733944 11.0000140367574 11.9999699872219 12.9999999999587 14.0000372729438 15.0000153325012                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.000004590861 2.00000729575029 2.99999999999047 3.99999788039016 4.99997836071139 5.99997390462853 6.99999999997776 7.99998745166359 9.0000035846578 10.0000037733944 11.0000140367574 11.9999699872219 12.9999999999587 14.0000372729438 15.0000153325012                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.94585711001808E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459179201 2.00000729743787 3.00000000278348 3.9999978906262 4.99997837453685 5.99997391021452 7.00000000649478 7.9999874591116 9.00000359767208 10.0000037670344 11.0000140201638 11.9999700126501 13.0000000120617 14.0000372783365 15.0000153340648                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">не число не число не число не число не число не число не число не число не число не число не число не число не число не число не число                                                                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">не число не число не число не число не число не число не число не число не число не число не число не число не число не число не число                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000316276676988124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989442062140497 1.98714854596713 2.96831255930171 3.64913218669279 5.08511636860215 5.93659929888269 6.92606263837064 7.91548774236817 9.05498065907408 10.0884336607075 12.0310786029503 11.5339640035302 12.862687756974 14.0340055578695 14.4401541667127                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989442062140497 1.98714854596713 2.96831255930171 3.64913218669279 5.08511636860215 5.93659929888269 6.92606263837064 7.91548774236817 9.05498065907408 10.0884336607075 12.0310786029503 11.5339640035302 12.862687756974 14.0340055578695 14.4401541667127                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000316276676989992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989442062140453 1.98714854596703 2.96831255930156 3.64913218669294 5.08511636860151 5.93659929888233 6.92606263837033 7.91548774236775 9.05498065907322 10.0884336607079 12.0310786029492 11.5339640035318 12.8626877569734 14.0340055578678 14.4401541667134                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.22340703538906E-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00583994410560248 0.0140299869904296 0.0173906277398359 0.0876754446371735 0.706713873963066 10.8485946267469 0.0405781313929504 10.7117100521381 8.98995449622625 9.67549393993224 14.8745579186862 12.0091056233965 0.0753593868726221 18.8171341481969 11.1430703142214                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.98117402578324E-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000713942618 3 3.99999848775568 4.99997836073472 5.99997390464758 7 7.999987451689 9.00000358465443 10.000004328257 11.0000140376608 11.9999699875179 13 14.0000372728501 15.0000153326343                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1735462394864E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086403 2.00000727426261 2.99999999999954 3.99999868285488 4.99997797618123 5.99997390464667 6.99999999999893 7.99998745168778 9.00000296988448 9.99998942831817 11.0000111293948 11.9999722881107 12.999999999998 14.0000360397164 15.0000169774178                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086403 2.00000727426261 2.99999999999954 3.99999868285488 4.99997797618123 5.99997390464667 6.99999999999893 7.99998745168778 9.00000296988448 9.99998942831817 11.0000111293948 11.9999722881107 12.999999999998 14.0000360397164 15.0000169774178                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.17354632077441E-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086403 2.0000072742626 2.99999999999954 3.99999868285492 4.99997797618121 5.99997390464667 6.99999999999893 7.99998745168778 9.00000296988445 9.99998942831816 11.0000111293947 11.9999722881108 12.999999999998 14.0000360397163 15.0000169774179                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.19960871586019E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729576256 3.00000000000001 3.9999978801819 4.99997836073473 5.99997390464758 7.00000000000002 7.99998745168903 9.00000358465439 10.0000037737148 11.0000140376607 11.9999699875179 13 14.0000372728501 15.0000153326343                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.11563558949167E-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729576253 3 3.99999788018194 4.99997836073474 5.9999739046476 7.00000000000002 7.99998745168902 9.00000358465443 10.0000037737148 11.0000140376607 11.9999699875179 13 14.0000372728501 15.0000153326343                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.44199511958676E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729576256 3 3.9999978801819 4.99997836073472 5.99997390464758 7 7.99998745168901 9.00000358465443 10.0000037737148 11.0000140376608 11.9999699875179 13 14.0000372728501 15.0000153326343                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729576256 3 3.9999978801819 4.99997836073472 5.99997390464758 7 7.99998745168901 9.00000358465443 10.0000037737148 11.0000140376608 11.9999699875179 13 14.0000372728501 15.0000153326343                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.49574240872877E-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00000459086418 2.00000729576256 3 3.99999788018189 4.99997836073472 5.99997390464759 7 7.999987451689 9.00000358465444 10.0000037737148 11.0000140376607 11.9999699875179 13 14.0000372728501 15.0000153326343                                                                                                   </t>
+  </si>
+  <si>
+    <t>sun\test_Alexey\1 50</t>
+  </si>
+  <si>
+    <t>sun\test_Alexey\2 1000</t>
+  </si>
+  <si>
+    <t>sun\test_Alexey\3 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,13 +1917,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1461,21 +2238,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="C534" sqref="C534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B1" t="s">
@@ -1495,7 +2272,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B2" t="s">
@@ -1515,7 +2292,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B3" t="s">
@@ -1535,7 +2312,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B4" t="s">
@@ -1555,7 +2332,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B5" t="s">
@@ -1575,7 +2352,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B6" t="s">
@@ -1595,7 +2372,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B7" t="s">
@@ -1615,7 +2392,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B8" t="s">
@@ -1635,7 +2412,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B9" t="s">
@@ -1655,7 +2432,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B10" t="s">
@@ -1675,7 +2452,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B11" t="s">
@@ -1695,7 +2472,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B12" t="s">
@@ -1715,7 +2492,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B13" t="s">
@@ -1735,7 +2512,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B14" t="s">
@@ -1755,7 +2532,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B15" t="s">
@@ -1775,7 +2552,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B16" t="s">
@@ -1795,7 +2572,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B17" t="s">
@@ -1815,7 +2592,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B18" t="s">
@@ -1835,7 +2612,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B19" t="s">
@@ -1855,7 +2632,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B20" t="s">
@@ -1875,7 +2652,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B21" t="s">
@@ -1895,7 +2672,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B22" t="s">
@@ -1915,7 +2692,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B23" t="s">
@@ -1935,7 +2712,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B24" t="s">
@@ -1955,7 +2732,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B25" t="s">
@@ -1975,7 +2752,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B26" t="s">
@@ -1995,7 +2772,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B27" t="s">
@@ -2015,7 +2792,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B28" t="s">
@@ -2035,7 +2812,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B29" t="s">
@@ -2055,7 +2832,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B30" t="s">
@@ -2075,7 +2852,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B31" t="s">
@@ -2095,7 +2872,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B32" t="s">
@@ -2115,7 +2892,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B33" t="s">
@@ -2135,7 +2912,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B34" t="s">
@@ -2155,7 +2932,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B35" t="s">
@@ -2175,7 +2952,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B36" t="s">
@@ -2195,7 +2972,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B37" t="s">
@@ -2215,7 +2992,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B38" t="s">
@@ -2235,7 +3012,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B39" t="s">
@@ -2255,7 +3032,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B40" t="s">
@@ -2275,7 +3052,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B41" t="s">
@@ -2295,7 +3072,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B42" t="s">
@@ -2315,7 +3092,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B43" t="s">
@@ -2335,7 +3112,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B44" t="s">
@@ -2355,7 +3132,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B45" t="s">
@@ -2375,7 +3152,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B46" t="s">
@@ -2395,7 +3172,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B47" t="s">
@@ -2415,7 +3192,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B48" t="s">
@@ -2435,7 +3212,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B49" t="s">
@@ -2455,7 +3232,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B50" t="s">
@@ -2475,7 +3252,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B51" t="s">
@@ -2495,7 +3272,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B52" t="s">
@@ -2515,7 +3292,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B53" t="s">
@@ -2535,7 +3312,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B54" t="s">
@@ -2555,7 +3332,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B55" t="s">
@@ -2575,7 +3352,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B56" t="s">
@@ -2595,7 +3372,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B57" t="s">
@@ -2615,7 +3392,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B58" t="s">
@@ -2635,7 +3412,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B59" t="s">
@@ -2655,7 +3432,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B60" t="s">
@@ -2675,7 +3452,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B61" t="s">
@@ -2695,7 +3472,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B62" t="s">
@@ -2715,7 +3492,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B63" t="s">
@@ -2735,7 +3512,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B64" t="s">
@@ -2755,7 +3532,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B65" t="s">
@@ -2775,7 +3552,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B66" t="s">
@@ -2795,7 +3572,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B67" t="s">
@@ -2815,7 +3592,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B68" t="s">
@@ -2835,7 +3612,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B69" t="s">
@@ -2855,7 +3632,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B70" t="s">
@@ -2875,7 +3652,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B71" t="s">
@@ -2895,7 +3672,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B72" t="s">
@@ -2915,7 +3692,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B73" t="s">
@@ -2935,7 +3712,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B74" t="s">
@@ -2955,7 +3732,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B75" t="s">
@@ -2975,7 +3752,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B76" t="s">
@@ -2995,7 +3772,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B77" t="s">
@@ -3015,7 +3792,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B78" t="s">
@@ -3035,7 +3812,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B79" t="s">
@@ -3055,7 +3832,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B80" t="s">
@@ -3075,7 +3852,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B81" t="s">
@@ -3095,7 +3872,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B82" t="s">
@@ -3115,7 +3892,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B83" t="s">
@@ -3135,7 +3912,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B84" t="s">
@@ -3155,7 +3932,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B85" t="s">
@@ -3175,7 +3952,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B86" t="s">
@@ -3195,7 +3972,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B87" t="s">
@@ -3215,7 +3992,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B88" t="s">
@@ -3235,7 +4012,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B89" t="s">
@@ -3255,7 +4032,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B90" t="s">
@@ -3275,7 +4052,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B91" t="s">
@@ -3295,7 +4072,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B92" t="s">
@@ -3315,7 +4092,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B93" t="s">
@@ -3335,7 +4112,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B94" t="s">
@@ -3355,7 +4132,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B95" t="s">
@@ -3375,7 +4152,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B96" t="s">
@@ -3395,7 +4172,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B97" t="s">
@@ -3415,7 +4192,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B98" t="s">
@@ -3435,7 +4212,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B99" t="s">
@@ -3455,7 +4232,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B100" t="s">
@@ -3475,7 +4252,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B101" t="s">
@@ -3495,7 +4272,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B102" t="s">
@@ -3515,7 +4292,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B103" t="s">
@@ -3535,7 +4312,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B104" t="s">
@@ -3555,7 +4332,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B105" t="s">
@@ -3575,7 +4352,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B106" t="s">
@@ -3595,7 +4372,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B107" t="s">
@@ -3615,7 +4392,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B108" t="s">
@@ -3635,7 +4412,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B109" t="s">
@@ -3655,7 +4432,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B110" t="s">
@@ -3675,7 +4452,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B111" t="s">
@@ -3695,7 +4472,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B112" t="s">
@@ -3715,7 +4492,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B113" t="s">
@@ -3735,7 +4512,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B114" t="s">
@@ -3755,7 +4532,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B115" t="s">
@@ -3775,7 +4552,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B116" t="s">
@@ -3795,7 +4572,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B117" t="s">
@@ -3815,7 +4592,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B118" t="s">
@@ -3835,7 +4612,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B119" t="s">
@@ -3855,7 +4632,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B120" t="s">
@@ -3875,7 +4652,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B121" t="s">
@@ -3895,7 +4672,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B122" t="s">
@@ -3915,7 +4692,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B123" t="s">
@@ -3935,7 +4712,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B124" t="s">
@@ -3955,7 +4732,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B125" t="s">
@@ -3975,7 +4752,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B126" t="s">
@@ -3995,7 +4772,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B127" t="s">
@@ -4015,7 +4792,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B128" t="s">
@@ -4035,7 +4812,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B129" t="s">
@@ -4055,7 +4832,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B130" t="s">
@@ -4075,7 +4852,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B131" t="s">
@@ -4095,7 +4872,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B132" t="s">
@@ -4115,7 +4892,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B133" t="s">
@@ -4135,7 +4912,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B134" t="s">
@@ -4155,7 +4932,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B135" t="s">
@@ -4175,7 +4952,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B136" t="s">
@@ -4195,7 +4972,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B137" t="s">
@@ -4215,7 +4992,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B138" t="s">
@@ -4235,7 +5012,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B139" t="s">
@@ -4255,7 +5032,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B140" t="s">
@@ -4275,7 +5052,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B141" t="s">
@@ -4295,7 +5072,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B142" t="s">
@@ -4315,7 +5092,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B143" t="s">
@@ -4335,7 +5112,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B144" t="s">
@@ -4355,7 +5132,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B145" t="s">
@@ -4375,7 +5152,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B146" t="s">
@@ -4395,7 +5172,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B147" t="s">
@@ -4415,7 +5192,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B148" t="s">
@@ -4435,7 +5212,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B149" t="s">
@@ -4455,7 +5232,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B150" t="s">
@@ -4475,7 +5252,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B151" t="s">
@@ -4495,7 +5272,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B152" t="s">
@@ -4515,7 +5292,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B153" t="s">
@@ -4535,7 +5312,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B154" t="s">
@@ -4555,7 +5332,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B155" t="s">
@@ -4575,7 +5352,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B156" t="s">
@@ -4595,7 +5372,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B157" t="s">
@@ -4615,7 +5392,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B158" t="s">
@@ -4635,7 +5412,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B159" t="s">
@@ -4655,7 +5432,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B160" t="s">
@@ -4675,7 +5452,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B161" t="s">
@@ -4695,7 +5472,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B162" t="s">
@@ -4715,7 +5492,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B163" t="s">
@@ -4735,7 +5512,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B164" t="s">
@@ -4755,7 +5532,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B165" t="s">
@@ -4775,7 +5552,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B166" t="s">
@@ -4795,7 +5572,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B167" t="s">
@@ -4815,7 +5592,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B168" t="s">
@@ -4835,7 +5612,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B169" t="s">
@@ -4855,7 +5632,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B170" t="s">
@@ -4875,7 +5652,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B171" t="s">
@@ -4895,7 +5672,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B172" t="s">
@@ -4915,7 +5692,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B173" t="s">
@@ -4935,7 +5712,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B174" t="s">
@@ -4955,7 +5732,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B175" t="s">
@@ -4975,7 +5752,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B176" t="s">
@@ -4995,7 +5772,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B177" t="s">
@@ -5015,7 +5792,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B178" t="s">
@@ -5035,7 +5812,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B179" t="s">
@@ -5055,7 +5832,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B180" t="s">
@@ -5075,7 +5852,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B181" t="s">
@@ -5095,7 +5872,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B182" t="s">
@@ -5115,7 +5892,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B183" t="s">
@@ -5135,7 +5912,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B184" t="s">
@@ -5155,7 +5932,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B185" t="s">
@@ -5175,7 +5952,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B186" t="s">
@@ -5195,7 +5972,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B187" t="s">
@@ -5215,7 +5992,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B188" t="s">
@@ -5235,7 +6012,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B189" t="s">
@@ -5255,7 +6032,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B190" t="s">
@@ -5275,7 +6052,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B191" t="s">
@@ -5295,7 +6072,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B192" t="s">
@@ -5315,7 +6092,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B193" t="s">
@@ -5335,7 +6112,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B194" t="s">
@@ -5355,7 +6132,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B195" t="s">
@@ -5375,7 +6152,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B196" t="s">
@@ -5395,7 +6172,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B197" t="s">
@@ -5415,7 +6192,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B198" t="s">
@@ -5435,7 +6212,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B199" t="s">
@@ -5455,7 +6232,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B200" t="s">
@@ -5475,7 +6252,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B201" t="s">
@@ -5495,7 +6272,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B202" t="s">
@@ -5515,7 +6292,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B203" t="s">
@@ -5535,7 +6312,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B204" t="s">
@@ -5555,7 +6332,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B205" t="s">
@@ -5575,7 +6352,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B206" t="s">
@@ -5595,7 +6372,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B207" t="s">
@@ -5615,7 +6392,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B208" t="s">
@@ -5635,7 +6412,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B209" t="s">
@@ -5655,7 +6432,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B210" t="s">
@@ -5675,7 +6452,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B211" t="s">
@@ -5695,7 +6472,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B212" t="s">
@@ -5715,7 +6492,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B213" t="s">
@@ -5735,7 +6512,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B214" t="s">
@@ -5755,7 +6532,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B215" t="s">
@@ -5775,7 +6552,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B216" t="s">
@@ -5795,7 +6572,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B217" t="s">
@@ -5815,7 +6592,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B218" t="s">
@@ -5835,7 +6612,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B219" t="s">
@@ -5855,7 +6632,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B220" t="s">
@@ -5875,7 +6652,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B221" t="s">
@@ -5895,7 +6672,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B222" t="s">
@@ -5915,7 +6692,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B223" t="s">
@@ -5935,7 +6712,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B224" t="s">
@@ -5955,7 +6732,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B225" t="s">
@@ -5975,7 +6752,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B226" t="s">
@@ -5995,7 +6772,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B227" t="s">
@@ -6015,7 +6792,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B228" t="s">
@@ -6035,7 +6812,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B229" t="s">
@@ -6055,7 +6832,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B230" t="s">
@@ -6075,7 +6852,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B231" t="s">
@@ -6095,7 +6872,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B232" t="s">
@@ -6115,7 +6892,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B233" t="s">
@@ -6135,7 +6912,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B234" t="s">
@@ -6155,7 +6932,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B235" t="s">
@@ -6175,7 +6952,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B236" t="s">
@@ -6195,7 +6972,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B237" t="s">
@@ -6215,7 +6992,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B238" t="s">
@@ -6235,7 +7012,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B239" t="s">
@@ -6255,7 +7032,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B240" t="s">
@@ -6275,7 +7052,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B241" t="s">
@@ -6295,7 +7072,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B242" t="s">
@@ -6315,7 +7092,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B243" t="s">
@@ -6335,7 +7112,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B244" t="s">
@@ -6355,7 +7132,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B245" t="s">
@@ -6375,7 +7152,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B246" t="s">
@@ -6395,7 +7172,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B247" t="s">
@@ -6415,7 +7192,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B248" t="s">
@@ -6435,7 +7212,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B249" t="s">
@@ -6455,7 +7232,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B250" t="s">
@@ -6475,7 +7252,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B251" t="s">
@@ -6495,7 +7272,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B252" t="s">
@@ -6515,7 +7292,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B253" t="s">
@@ -6535,7 +7312,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B254" t="s">
@@ -6555,7 +7332,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B255" t="s">
@@ -6575,7 +7352,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B256" t="s">
@@ -6595,7 +7372,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B257" t="s">
@@ -6615,7 +7392,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B258" t="s">
@@ -6635,7 +7412,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B259" t="s">
@@ -6655,7 +7432,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B260" t="s">
@@ -6675,7 +7452,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B261" t="s">
@@ -6695,7 +7472,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B262" t="s">
@@ -6715,7 +7492,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B263" t="s">
@@ -6735,7 +7512,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B264" t="s">
@@ -6755,7 +7532,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B265" t="s">
@@ -6775,7 +7552,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B266" t="s">
@@ -6795,7 +7572,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B267" t="s">
@@ -6815,7 +7592,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B268" t="s">
@@ -6835,7 +7612,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B269" t="s">
@@ -6855,7 +7632,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B270" t="s">
@@ -6875,7 +7652,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B271" t="s">
@@ -6895,7 +7672,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B272" t="s">
@@ -6915,7 +7692,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B273" t="s">
@@ -6935,7 +7712,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B274" t="s">
@@ -6955,7 +7732,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B275" t="s">
@@ -6975,7 +7752,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B276" t="s">
@@ -6995,7 +7772,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B277" t="s">
@@ -7015,7 +7792,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B278" t="s">
@@ -7035,7 +7812,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B279" t="s">
@@ -7055,7 +7832,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B280" t="s">
@@ -7075,7 +7852,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B281" t="s">
@@ -7095,7 +7872,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B282" t="s">
@@ -7115,7 +7892,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B283" t="s">
@@ -7135,7 +7912,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B284" t="s">
@@ -7155,7 +7932,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B285" t="s">
@@ -7175,7 +7952,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B286" t="s">
@@ -7195,7 +7972,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B287" t="s">
@@ -7215,7 +7992,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B288" t="s">
@@ -7235,7 +8012,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B289" t="s">
@@ -7255,7 +8032,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B290" t="s">
@@ -7275,7 +8052,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B291" t="s">
@@ -7295,7 +8072,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B292" t="s">
@@ -7315,7 +8092,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B293" t="s">
@@ -7335,7 +8112,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B294" t="s">
@@ -7355,7 +8132,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B295" t="s">
@@ -7375,7 +8152,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B296" t="s">
@@ -7395,7 +8172,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B297" t="s">
@@ -7415,7 +8192,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B298" t="s">
@@ -7435,7 +8212,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B299" t="s">
@@ -7455,7 +8232,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B300" t="s">
@@ -7475,7 +8252,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B301" t="s">
@@ -7495,7 +8272,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B302" t="s">
@@ -7515,7 +8292,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B303" t="s">
@@ -7535,7 +8312,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B304" t="s">
@@ -7555,7 +8332,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B305" t="s">
@@ -7575,7 +8352,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B306" t="s">
@@ -7595,7 +8372,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B307" t="s">
@@ -7615,7 +8392,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B308" t="s">
@@ -7635,7 +8412,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B309" t="s">
@@ -7655,7 +8432,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B310" t="s">
@@ -7675,7 +8452,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B311" t="s">
@@ -7695,7 +8472,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B312" t="s">
@@ -7715,7 +8492,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B313" t="s">
@@ -7735,7 +8512,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B314" t="s">
@@ -7755,7 +8532,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B315" t="s">
@@ -7775,7 +8552,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B316" t="s">
@@ -7795,7 +8572,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B317" t="s">
@@ -7815,7 +8592,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B318" t="s">
@@ -7835,7 +8612,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B319" t="s">
@@ -7855,7 +8632,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B320" t="s">
@@ -7875,7 +8652,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B321" t="s">
@@ -7895,7 +8672,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B322" t="s">
@@ -7915,7 +8692,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B323" t="s">
@@ -7935,7 +8712,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B324" t="s">
@@ -7955,7 +8732,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B325" t="s">
@@ -7975,7 +8752,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B326" t="s">
@@ -7995,7 +8772,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B327" t="s">
@@ -8015,7 +8792,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B328" t="s">
@@ -8035,7 +8812,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B329" t="s">
@@ -8055,7 +8832,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B330" t="s">
@@ -8075,7 +8852,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B331" t="s">
@@ -8095,7 +8872,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B332" t="s">
@@ -8115,7 +8892,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B333" t="s">
@@ -8135,7 +8912,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B334" t="s">
@@ -8155,7 +8932,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B335" t="s">
@@ -8175,7 +8952,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B336" t="s">
@@ -8195,7 +8972,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="3" t="s">
         <v>347</v>
       </c>
       <c r="B337" t="s">
@@ -8215,7 +8992,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B338" t="s">
@@ -8235,7 +9012,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B339" t="s">
@@ -8255,7 +9032,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B340" t="s">
@@ -8275,7 +9052,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B341" t="s">
@@ -8295,7 +9072,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B342" t="s">
@@ -8315,7 +9092,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B343" t="s">
@@ -8335,7 +9112,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B344" t="s">
@@ -8355,7 +9132,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B345" t="s">
@@ -8375,7 +9152,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B346" t="s">
@@ -8395,7 +9172,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B347" t="s">
@@ -8415,7 +9192,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B348" t="s">
@@ -8435,7 +9212,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B349" t="s">
@@ -8455,7 +9232,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B350" t="s">
@@ -8475,7 +9252,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B351" t="s">
@@ -8495,7 +9272,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B352" t="s">
@@ -8515,7 +9292,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B353" t="s">
@@ -8535,7 +9312,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B354" t="s">
@@ -8555,7 +9332,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B355" t="s">
@@ -8575,7 +9352,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B356" t="s">
@@ -8595,7 +9372,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B357" t="s">
@@ -8615,7 +9392,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B358" t="s">
@@ -8635,7 +9412,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B359" t="s">
@@ -8655,7 +9432,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B360" t="s">
@@ -8675,7 +9452,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B361" t="s">
@@ -8695,7 +9472,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B362" t="s">
@@ -8715,7 +9492,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B363" t="s">
@@ -8735,7 +9512,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B364" t="s">
@@ -8755,7 +9532,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B365" t="s">
@@ -8775,7 +9552,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B366" t="s">
@@ -8795,7 +9572,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B367" t="s">
@@ -8815,7 +9592,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B368" t="s">
@@ -8835,7 +9612,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B369" t="s">
@@ -8855,7 +9632,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B370" t="s">
@@ -8875,7 +9652,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B371" t="s">
@@ -8895,7 +9672,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B372" t="s">
@@ -8915,7 +9692,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B373" t="s">
@@ -8935,7 +9712,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B374" t="s">
@@ -8955,7 +9732,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B375" t="s">
@@ -8975,7 +9752,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B376" t="s">
@@ -8995,7 +9772,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B377" t="s">
@@ -9015,7 +9792,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B378" t="s">
@@ -9035,7 +9812,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B379" t="s">
@@ -9055,7 +9832,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B380" t="s">
@@ -9075,7 +9852,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B381" t="s">
@@ -9095,7 +9872,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B382" t="s">
@@ -9115,7 +9892,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B383" t="s">
@@ -9135,7 +9912,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B384" t="s">
@@ -9155,7 +9932,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B385" t="s">
@@ -9175,7 +9952,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B386" t="s">
@@ -9195,7 +9972,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B387" t="s">
@@ -9215,7 +9992,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B388" t="s">
@@ -9235,7 +10012,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B389" t="s">
@@ -9255,7 +10032,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B390" t="s">
@@ -9275,7 +10052,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B391" t="s">
@@ -9295,7 +10072,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B392" t="s">
@@ -9315,7 +10092,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B393" t="s">
@@ -9335,7 +10112,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B394" t="s">
@@ -9355,7 +10132,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B395" t="s">
@@ -9375,7 +10152,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B396" t="s">
@@ -9395,7 +10172,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B397" t="s">
@@ -9415,7 +10192,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B398" t="s">
@@ -9435,7 +10212,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B399" t="s">
@@ -9455,7 +10232,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B400" t="s">
@@ -9475,7 +10252,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B401" t="s">
@@ -9495,7 +10272,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B402" t="s">
@@ -9515,7 +10292,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B403" t="s">
@@ -9535,7 +10312,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B404" t="s">
@@ -9555,7 +10332,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B405" t="s">
@@ -9575,7 +10352,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B406" t="s">
@@ -9595,7 +10372,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B407" t="s">
@@ -9615,7 +10392,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B408" t="s">
@@ -9635,7 +10412,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B409" t="s">
@@ -9655,7 +10432,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B410" t="s">
@@ -9675,7 +10452,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B411" t="s">
@@ -9695,7 +10472,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B412" t="s">
@@ -9715,7 +10492,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B413" t="s">
@@ -9735,7 +10512,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B414" t="s">
@@ -9755,7 +10532,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B415" t="s">
@@ -9775,7 +10552,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B416" t="s">
@@ -9795,7 +10572,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B417" t="s">
@@ -9815,7 +10592,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B418" t="s">
@@ -9835,7 +10612,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B419" t="s">
@@ -9855,7 +10632,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B420" t="s">
@@ -9875,7 +10652,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B421" t="s">
@@ -9895,7 +10672,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B422" t="s">
@@ -9915,7 +10692,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B423" t="s">
@@ -9935,7 +10712,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B424" t="s">
@@ -9955,7 +10732,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B425" t="s">
@@ -9975,7 +10752,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B426" t="s">
@@ -9995,7 +10772,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B427" t="s">
@@ -10015,7 +10792,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B428" t="s">
@@ -10035,7 +10812,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B429" t="s">
@@ -10055,7 +10832,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B430" t="s">
@@ -10075,7 +10852,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B431" t="s">
@@ -10095,7 +10872,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B432" t="s">
@@ -10115,7 +10892,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="3" t="s">
         <v>353</v>
       </c>
       <c r="B433" t="s">
@@ -10132,6 +10909,3186 @@
       </c>
       <c r="F433" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>2</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B435" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>37</v>
+      </c>
+      <c r="E436" t="s">
+        <v>362</v>
+      </c>
+      <c r="F436" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+      <c r="E437" t="s">
+        <v>364</v>
+      </c>
+      <c r="F437" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>9</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>68</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>11</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440" t="s">
+        <v>368</v>
+      </c>
+      <c r="F440" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B441" t="s">
+        <v>13</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1000</v>
+      </c>
+      <c r="E441" t="s">
+        <v>370</v>
+      </c>
+      <c r="F441" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B442" t="s">
+        <v>13</v>
+      </c>
+      <c r="C442" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442">
+        <v>1000</v>
+      </c>
+      <c r="E442" t="s">
+        <v>372</v>
+      </c>
+      <c r="F442" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B443" t="s">
+        <v>13</v>
+      </c>
+      <c r="C443" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B444" t="s">
+        <v>13</v>
+      </c>
+      <c r="C444" t="s">
+        <v>68</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B445" t="s">
+        <v>13</v>
+      </c>
+      <c r="C445" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445" t="s">
+        <v>375</v>
+      </c>
+      <c r="F445" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B446" t="s">
+        <v>18</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+      <c r="E446" t="s">
+        <v>376</v>
+      </c>
+      <c r="F446" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B447" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447" t="s">
+        <v>378</v>
+      </c>
+      <c r="F447" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B448" t="s">
+        <v>18</v>
+      </c>
+      <c r="C448" t="s">
+        <v>9</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B449" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" t="s">
+        <v>68</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B450" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450" t="s">
+        <v>382</v>
+      </c>
+      <c r="F450" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B451" t="s">
+        <v>18</v>
+      </c>
+      <c r="C451" t="s">
+        <v>11</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>1</v>
+      </c>
+      <c r="F451" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B452" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>385</v>
+      </c>
+      <c r="F452" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B453" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" t="s">
+        <v>9</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453" t="s">
+        <v>386</v>
+      </c>
+      <c r="F453" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B454" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" t="s">
+        <v>68</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>386</v>
+      </c>
+      <c r="F454" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B455" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" t="s">
+        <v>11</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455" t="s">
+        <v>389</v>
+      </c>
+      <c r="F455" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>12</v>
+      </c>
+      <c r="E456" t="s">
+        <v>391</v>
+      </c>
+      <c r="F456" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B457" t="s">
+        <v>4</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>391</v>
+      </c>
+      <c r="F457" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>16</v>
+      </c>
+      <c r="E458" t="s">
+        <v>394</v>
+      </c>
+      <c r="F458" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459">
+        <v>18</v>
+      </c>
+      <c r="E459" t="s">
+        <v>396</v>
+      </c>
+      <c r="F459" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>9</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460" t="s">
+        <v>398</v>
+      </c>
+      <c r="F460" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>68</v>
+      </c>
+      <c r="D461">
+        <v>38</v>
+      </c>
+      <c r="E461" t="s">
+        <v>400</v>
+      </c>
+      <c r="F461" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>11</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
+        <v>402</v>
+      </c>
+      <c r="F462" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B463" t="s">
+        <v>13</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1000</v>
+      </c>
+      <c r="E463" t="s">
+        <v>404</v>
+      </c>
+      <c r="F463" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B464" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>1000</v>
+      </c>
+      <c r="E464" t="s">
+        <v>406</v>
+      </c>
+      <c r="F464" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B465" t="s">
+        <v>13</v>
+      </c>
+      <c r="C465" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465" t="s">
+        <v>408</v>
+      </c>
+      <c r="F465" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B466" t="s">
+        <v>13</v>
+      </c>
+      <c r="C466" t="s">
+        <v>68</v>
+      </c>
+      <c r="D466">
+        <v>1000</v>
+      </c>
+      <c r="E466" t="s">
+        <v>410</v>
+      </c>
+      <c r="F466" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B467" t="s">
+        <v>13</v>
+      </c>
+      <c r="C467" t="s">
+        <v>11</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467" t="s">
+        <v>412</v>
+      </c>
+      <c r="F467" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B468" t="s">
+        <v>18</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>8</v>
+      </c>
+      <c r="E468" t="s">
+        <v>413</v>
+      </c>
+      <c r="F468" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B469" t="s">
+        <v>18</v>
+      </c>
+      <c r="C469" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469">
+        <v>9</v>
+      </c>
+      <c r="E469" t="s">
+        <v>415</v>
+      </c>
+      <c r="F469" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B470" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+      <c r="F470" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B471" t="s">
+        <v>18</v>
+      </c>
+      <c r="C471" t="s">
+        <v>68</v>
+      </c>
+      <c r="D471">
+        <v>11</v>
+      </c>
+      <c r="E471" t="s">
+        <v>418</v>
+      </c>
+      <c r="F471" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B472" t="s">
+        <v>18</v>
+      </c>
+      <c r="C472" t="s">
+        <v>11</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B473" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473" t="s">
+        <v>421</v>
+      </c>
+      <c r="F473" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B474" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" t="s">
+        <v>7</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474" t="s">
+        <v>423</v>
+      </c>
+      <c r="F474" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B475" t="s">
+        <v>23</v>
+      </c>
+      <c r="C475" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>425</v>
+      </c>
+      <c r="F475" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B476" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476" t="s">
+        <v>68</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476" t="s">
+        <v>427</v>
+      </c>
+      <c r="F476" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B477" t="s">
+        <v>23</v>
+      </c>
+      <c r="C477" t="s">
+        <v>11</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477" t="s">
+        <v>429</v>
+      </c>
+      <c r="F477" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>5</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B479" t="s">
+        <v>4</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>3</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>466</v>
+      </c>
+      <c r="E480" t="s">
+        <v>433</v>
+      </c>
+      <c r="F480" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>7</v>
+      </c>
+      <c r="D481">
+        <v>22</v>
+      </c>
+      <c r="E481" t="s">
+        <v>435</v>
+      </c>
+      <c r="F481" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482" t="s">
+        <v>437</v>
+      </c>
+      <c r="F482" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" t="s">
+        <v>68</v>
+      </c>
+      <c r="D483">
+        <v>28</v>
+      </c>
+      <c r="E483" t="s">
+        <v>439</v>
+      </c>
+      <c r="F483" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" t="s">
+        <v>11</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484" t="s">
+        <v>441</v>
+      </c>
+      <c r="F484" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B485" t="s">
+        <v>13</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1000</v>
+      </c>
+      <c r="E485" t="s">
+        <v>443</v>
+      </c>
+      <c r="F485" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486" t="s">
+        <v>13</v>
+      </c>
+      <c r="C486" t="s">
+        <v>7</v>
+      </c>
+      <c r="D486">
+        <v>1000</v>
+      </c>
+      <c r="E486" t="s">
+        <v>445</v>
+      </c>
+      <c r="F486" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" t="s">
+        <v>13</v>
+      </c>
+      <c r="C487" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487" t="s">
+        <v>447</v>
+      </c>
+      <c r="F487" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>13</v>
+      </c>
+      <c r="C488" t="s">
+        <v>68</v>
+      </c>
+      <c r="D488">
+        <v>1000</v>
+      </c>
+      <c r="E488" t="s">
+        <v>449</v>
+      </c>
+      <c r="F488" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" t="s">
+        <v>11</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
+        <v>451</v>
+      </c>
+      <c r="F489" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B490" t="s">
+        <v>18</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>5</v>
+      </c>
+      <c r="E490" t="s">
+        <v>452</v>
+      </c>
+      <c r="F490" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B491" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491">
+        <v>3</v>
+      </c>
+      <c r="E491" t="s">
+        <v>454</v>
+      </c>
+      <c r="F491" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B492" t="s">
+        <v>18</v>
+      </c>
+      <c r="C492" t="s">
+        <v>9</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B493" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" t="s">
+        <v>68</v>
+      </c>
+      <c r="D493">
+        <v>4</v>
+      </c>
+      <c r="E493" t="s">
+        <v>457</v>
+      </c>
+      <c r="F493" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B494" t="s">
+        <v>18</v>
+      </c>
+      <c r="C494" t="s">
+        <v>11</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B495" t="s">
+        <v>23</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495" t="s">
+        <v>460</v>
+      </c>
+      <c r="F495" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B496" t="s">
+        <v>23</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
+        <v>462</v>
+      </c>
+      <c r="F496" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B497" t="s">
+        <v>23</v>
+      </c>
+      <c r="C497" t="s">
+        <v>9</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>464</v>
+      </c>
+      <c r="F497" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B498" t="s">
+        <v>23</v>
+      </c>
+      <c r="C498" t="s">
+        <v>68</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>465</v>
+      </c>
+      <c r="F498" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B499" t="s">
+        <v>23</v>
+      </c>
+      <c r="C499" t="s">
+        <v>11</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>467</v>
+      </c>
+      <c r="F499" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500" t="s">
+        <v>467</v>
+      </c>
+      <c r="F500" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B501" t="s">
+        <v>4</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501" t="s">
+        <v>41</v>
+      </c>
+      <c r="F501" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502" t="s">
+        <v>41</v>
+      </c>
+      <c r="F502" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+      <c r="C503" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+      <c r="E503" t="s">
+        <v>41</v>
+      </c>
+      <c r="F503" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504" t="s">
+        <v>9</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504" t="s">
+        <v>41</v>
+      </c>
+      <c r="F504" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505" t="s">
+        <v>68</v>
+      </c>
+      <c r="D505">
+        <v>0</v>
+      </c>
+      <c r="E505" t="s">
+        <v>41</v>
+      </c>
+      <c r="F505" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>11</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506" t="s">
+        <v>41</v>
+      </c>
+      <c r="F506" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B507" t="s">
+        <v>13</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507" t="s">
+        <v>41</v>
+      </c>
+      <c r="F507" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B508" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508" t="s">
+        <v>41</v>
+      </c>
+      <c r="F508" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B509" t="s">
+        <v>13</v>
+      </c>
+      <c r="C509" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+      <c r="E509" t="s">
+        <v>41</v>
+      </c>
+      <c r="F509" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B510" t="s">
+        <v>13</v>
+      </c>
+      <c r="C510" t="s">
+        <v>68</v>
+      </c>
+      <c r="D510">
+        <v>0</v>
+      </c>
+      <c r="E510" t="s">
+        <v>41</v>
+      </c>
+      <c r="F510" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B511" t="s">
+        <v>13</v>
+      </c>
+      <c r="C511" t="s">
+        <v>11</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511" t="s">
+        <v>41</v>
+      </c>
+      <c r="F511" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B512" t="s">
+        <v>18</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512" t="s">
+        <v>41</v>
+      </c>
+      <c r="F512" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B513" t="s">
+        <v>18</v>
+      </c>
+      <c r="C513" t="s">
+        <v>7</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>41</v>
+      </c>
+      <c r="F513" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B514" t="s">
+        <v>18</v>
+      </c>
+      <c r="C514" t="s">
+        <v>9</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>41</v>
+      </c>
+      <c r="F514" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B515" t="s">
+        <v>18</v>
+      </c>
+      <c r="C515" t="s">
+        <v>68</v>
+      </c>
+      <c r="D515">
+        <v>0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>41</v>
+      </c>
+      <c r="F515" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B516" t="s">
+        <v>18</v>
+      </c>
+      <c r="C516" t="s">
+        <v>11</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>41</v>
+      </c>
+      <c r="F516" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B517" t="s">
+        <v>23</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>41</v>
+      </c>
+      <c r="F517" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B518" t="s">
+        <v>23</v>
+      </c>
+      <c r="C518" t="s">
+        <v>7</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>41</v>
+      </c>
+      <c r="F518" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B519" t="s">
+        <v>23</v>
+      </c>
+      <c r="C519" t="s">
+        <v>9</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519" t="s">
+        <v>41</v>
+      </c>
+      <c r="F519" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B520" t="s">
+        <v>23</v>
+      </c>
+      <c r="C520" t="s">
+        <v>68</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520" t="s">
+        <v>41</v>
+      </c>
+      <c r="F520" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B521" t="s">
+        <v>23</v>
+      </c>
+      <c r="C521" t="s">
+        <v>11</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521" t="s">
+        <v>41</v>
+      </c>
+      <c r="F521" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>54</v>
+      </c>
+      <c r="E522" t="s">
+        <v>489</v>
+      </c>
+      <c r="F522" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B523" t="s">
+        <v>4</v>
+      </c>
+      <c r="C523" t="s">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>17</v>
+      </c>
+      <c r="E523" t="s">
+        <v>491</v>
+      </c>
+      <c r="F523" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>58</v>
+      </c>
+      <c r="E524" t="s">
+        <v>493</v>
+      </c>
+      <c r="F524" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B525" t="s">
+        <v>5</v>
+      </c>
+      <c r="C525" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525">
+        <v>26</v>
+      </c>
+      <c r="E525" t="s">
+        <v>495</v>
+      </c>
+      <c r="F525" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B526" t="s">
+        <v>5</v>
+      </c>
+      <c r="C526" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526">
+        <v>10</v>
+      </c>
+      <c r="E526" t="s">
+        <v>497</v>
+      </c>
+      <c r="F526" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C527" t="s">
+        <v>68</v>
+      </c>
+      <c r="D527">
+        <v>24</v>
+      </c>
+      <c r="E527" t="s">
+        <v>499</v>
+      </c>
+      <c r="F527" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B528" t="s">
+        <v>5</v>
+      </c>
+      <c r="C528" t="s">
+        <v>11</v>
+      </c>
+      <c r="D528">
+        <v>11</v>
+      </c>
+      <c r="E528" t="s">
+        <v>501</v>
+      </c>
+      <c r="F528" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B529" t="s">
+        <v>13</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>1000</v>
+      </c>
+      <c r="E529" t="s">
+        <v>503</v>
+      </c>
+      <c r="F529" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B530" t="s">
+        <v>13</v>
+      </c>
+      <c r="C530" t="s">
+        <v>7</v>
+      </c>
+      <c r="D530">
+        <v>1000</v>
+      </c>
+      <c r="E530" t="s">
+        <v>505</v>
+      </c>
+      <c r="F530" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B531" t="s">
+        <v>13</v>
+      </c>
+      <c r="C531" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531">
+        <v>1000</v>
+      </c>
+      <c r="E531" t="s">
+        <v>507</v>
+      </c>
+      <c r="F531" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B532" t="s">
+        <v>13</v>
+      </c>
+      <c r="C532" t="s">
+        <v>68</v>
+      </c>
+      <c r="D532">
+        <v>1000</v>
+      </c>
+      <c r="E532" t="s">
+        <v>509</v>
+      </c>
+      <c r="F532" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B533" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" t="s">
+        <v>11</v>
+      </c>
+      <c r="D533">
+        <v>1000</v>
+      </c>
+      <c r="E533" t="s">
+        <v>511</v>
+      </c>
+      <c r="F533" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B534" t="s">
+        <v>18</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>17</v>
+      </c>
+      <c r="E534" t="s">
+        <v>513</v>
+      </c>
+      <c r="F534" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B535" t="s">
+        <v>18</v>
+      </c>
+      <c r="C535" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535">
+        <v>11</v>
+      </c>
+      <c r="E535" t="s">
+        <v>515</v>
+      </c>
+      <c r="F535" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B536" t="s">
+        <v>18</v>
+      </c>
+      <c r="C536" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536">
+        <v>5</v>
+      </c>
+      <c r="E536" t="s">
+        <v>517</v>
+      </c>
+      <c r="F536" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B537" t="s">
+        <v>18</v>
+      </c>
+      <c r="C537" t="s">
+        <v>68</v>
+      </c>
+      <c r="D537">
+        <v>10</v>
+      </c>
+      <c r="E537" t="s">
+        <v>519</v>
+      </c>
+      <c r="F537" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B538" t="s">
+        <v>18</v>
+      </c>
+      <c r="C538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D538">
+        <v>5</v>
+      </c>
+      <c r="E538" t="s">
+        <v>521</v>
+      </c>
+      <c r="F538" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B539" t="s">
+        <v>23</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539" t="s">
+        <v>523</v>
+      </c>
+      <c r="F539" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B540" t="s">
+        <v>23</v>
+      </c>
+      <c r="C540" t="s">
+        <v>7</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540" t="s">
+        <v>525</v>
+      </c>
+      <c r="F540" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B541" t="s">
+        <v>23</v>
+      </c>
+      <c r="C541" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541" t="s">
+        <v>527</v>
+      </c>
+      <c r="F541" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B542" t="s">
+        <v>23</v>
+      </c>
+      <c r="C542" t="s">
+        <v>68</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+      <c r="E542" t="s">
+        <v>529</v>
+      </c>
+      <c r="F542" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B543" t="s">
+        <v>23</v>
+      </c>
+      <c r="C543" t="s">
+        <v>11</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543" t="s">
+        <v>531</v>
+      </c>
+      <c r="F543" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C544" t="s">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>57</v>
+      </c>
+      <c r="E544" t="s">
+        <v>533</v>
+      </c>
+      <c r="F544" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B545" t="s">
+        <v>4</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>18</v>
+      </c>
+      <c r="E545" t="s">
+        <v>535</v>
+      </c>
+      <c r="F545" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>16</v>
+      </c>
+      <c r="E546" t="s">
+        <v>537</v>
+      </c>
+      <c r="F546" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547">
+        <v>12</v>
+      </c>
+      <c r="E547" t="s">
+        <v>539</v>
+      </c>
+      <c r="F547" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548" t="s">
+        <v>9</v>
+      </c>
+      <c r="D548">
+        <v>6</v>
+      </c>
+      <c r="E548" t="s">
+        <v>541</v>
+      </c>
+      <c r="F548" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+      <c r="C549" t="s">
+        <v>68</v>
+      </c>
+      <c r="D549">
+        <v>8</v>
+      </c>
+      <c r="E549" t="s">
+        <v>543</v>
+      </c>
+      <c r="F549" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" t="s">
+        <v>11</v>
+      </c>
+      <c r="D550">
+        <v>6</v>
+      </c>
+      <c r="E550" t="s">
+        <v>545</v>
+      </c>
+      <c r="F550" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B551" t="s">
+        <v>5</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>16</v>
+      </c>
+      <c r="E551" t="s">
+        <v>537</v>
+      </c>
+      <c r="F551" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="C552" t="s">
+        <v>7</v>
+      </c>
+      <c r="D552">
+        <v>12</v>
+      </c>
+      <c r="E552" t="s">
+        <v>539</v>
+      </c>
+      <c r="F552" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B553" t="s">
+        <v>5</v>
+      </c>
+      <c r="C553" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553">
+        <v>6</v>
+      </c>
+      <c r="E553" t="s">
+        <v>541</v>
+      </c>
+      <c r="F553" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B554" t="s">
+        <v>5</v>
+      </c>
+      <c r="C554" t="s">
+        <v>68</v>
+      </c>
+      <c r="D554">
+        <v>8</v>
+      </c>
+      <c r="E554" t="s">
+        <v>543</v>
+      </c>
+      <c r="F554" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B555" t="s">
+        <v>5</v>
+      </c>
+      <c r="C555" t="s">
+        <v>11</v>
+      </c>
+      <c r="D555">
+        <v>6</v>
+      </c>
+      <c r="E555" t="s">
+        <v>545</v>
+      </c>
+      <c r="F555" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B556" t="s">
+        <v>13</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>23</v>
+      </c>
+      <c r="E556" t="s">
+        <v>547</v>
+      </c>
+      <c r="F556" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B557" t="s">
+        <v>13</v>
+      </c>
+      <c r="C557" t="s">
+        <v>7</v>
+      </c>
+      <c r="D557">
+        <v>1000</v>
+      </c>
+      <c r="E557" t="s">
+        <v>549</v>
+      </c>
+      <c r="F557" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B558" t="s">
+        <v>13</v>
+      </c>
+      <c r="C558" t="s">
+        <v>9</v>
+      </c>
+      <c r="D558">
+        <v>6</v>
+      </c>
+      <c r="E558" t="s">
+        <v>551</v>
+      </c>
+      <c r="F558" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B559" t="s">
+        <v>13</v>
+      </c>
+      <c r="C559" t="s">
+        <v>68</v>
+      </c>
+      <c r="D559">
+        <v>64</v>
+      </c>
+      <c r="E559" t="s">
+        <v>553</v>
+      </c>
+      <c r="F559" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B560" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" t="s">
+        <v>11</v>
+      </c>
+      <c r="D560">
+        <v>6</v>
+      </c>
+      <c r="E560" t="s">
+        <v>555</v>
+      </c>
+      <c r="F560" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B561" t="s">
+        <v>18</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>8</v>
+      </c>
+      <c r="E561" t="s">
+        <v>557</v>
+      </c>
+      <c r="F561" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B562" t="s">
+        <v>18</v>
+      </c>
+      <c r="C562" t="s">
+        <v>7</v>
+      </c>
+      <c r="D562">
+        <v>5</v>
+      </c>
+      <c r="E562" t="s">
+        <v>559</v>
+      </c>
+      <c r="F562" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B563" t="s">
+        <v>18</v>
+      </c>
+      <c r="C563" t="s">
+        <v>9</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="E563" t="s">
+        <v>561</v>
+      </c>
+      <c r="F563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B564" t="s">
+        <v>18</v>
+      </c>
+      <c r="C564" t="s">
+        <v>68</v>
+      </c>
+      <c r="D564">
+        <v>4</v>
+      </c>
+      <c r="E564" t="s">
+        <v>563</v>
+      </c>
+      <c r="F564" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B565" t="s">
+        <v>18</v>
+      </c>
+      <c r="C565" t="s">
+        <v>11</v>
+      </c>
+      <c r="D565">
+        <v>2</v>
+      </c>
+      <c r="E565" t="s">
+        <v>565</v>
+      </c>
+      <c r="F565" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B566" t="s">
+        <v>23</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="E566" t="s">
+        <v>567</v>
+      </c>
+      <c r="F566" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B567" t="s">
+        <v>23</v>
+      </c>
+      <c r="C567" t="s">
+        <v>7</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567" t="s">
+        <v>569</v>
+      </c>
+      <c r="F567" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B568" t="s">
+        <v>23</v>
+      </c>
+      <c r="C568" t="s">
+        <v>9</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568" t="s">
+        <v>571</v>
+      </c>
+      <c r="F568" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B569" t="s">
+        <v>23</v>
+      </c>
+      <c r="C569" t="s">
+        <v>68</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569" t="s">
+        <v>573</v>
+      </c>
+      <c r="F569" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B570" t="s">
+        <v>23</v>
+      </c>
+      <c r="C570" t="s">
+        <v>11</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>575</v>
+      </c>
+      <c r="F570" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B571" t="s">
+        <v>0</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>68</v>
+      </c>
+      <c r="E571" t="s">
+        <v>577</v>
+      </c>
+      <c r="F571" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B572" t="s">
+        <v>4</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1</v>
+      </c>
+      <c r="D572">
+        <v>26</v>
+      </c>
+      <c r="E572" t="s">
+        <v>579</v>
+      </c>
+      <c r="F572" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>1000</v>
+      </c>
+      <c r="E573" t="s">
+        <v>581</v>
+      </c>
+      <c r="F573" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B574" t="s">
+        <v>5</v>
+      </c>
+      <c r="C574" t="s">
+        <v>7</v>
+      </c>
+      <c r="D574">
+        <v>1000</v>
+      </c>
+      <c r="E574" t="s">
+        <v>583</v>
+      </c>
+      <c r="F574" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B575" t="s">
+        <v>5</v>
+      </c>
+      <c r="C575" t="s">
+        <v>9</v>
+      </c>
+      <c r="D575">
+        <v>13</v>
+      </c>
+      <c r="E575" t="s">
+        <v>585</v>
+      </c>
+      <c r="F575" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+      <c r="C576" t="s">
+        <v>68</v>
+      </c>
+      <c r="D576">
+        <v>13</v>
+      </c>
+      <c r="E576" t="s">
+        <v>585</v>
+      </c>
+      <c r="F576" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" t="s">
+        <v>11</v>
+      </c>
+      <c r="D577">
+        <v>21</v>
+      </c>
+      <c r="E577" t="s">
+        <v>588</v>
+      </c>
+      <c r="F577" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B578" t="s">
+        <v>13</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1</v>
+      </c>
+      <c r="D578">
+        <v>19</v>
+      </c>
+      <c r="E578" t="s">
+        <v>41</v>
+      </c>
+      <c r="F578" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B579" t="s">
+        <v>13</v>
+      </c>
+      <c r="C579" t="s">
+        <v>7</v>
+      </c>
+      <c r="D579">
+        <v>14</v>
+      </c>
+      <c r="E579" t="s">
+        <v>41</v>
+      </c>
+      <c r="F579" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B580" t="s">
+        <v>13</v>
+      </c>
+      <c r="C580" t="s">
+        <v>9</v>
+      </c>
+      <c r="D580">
+        <v>1000</v>
+      </c>
+      <c r="E580" t="s">
+        <v>592</v>
+      </c>
+      <c r="F580" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B581" t="s">
+        <v>13</v>
+      </c>
+      <c r="C581" t="s">
+        <v>68</v>
+      </c>
+      <c r="D581">
+        <v>1000</v>
+      </c>
+      <c r="E581" t="s">
+        <v>592</v>
+      </c>
+      <c r="F581" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B582" t="s">
+        <v>13</v>
+      </c>
+      <c r="C582" t="s">
+        <v>11</v>
+      </c>
+      <c r="D582">
+        <v>1000</v>
+      </c>
+      <c r="E582" t="s">
+        <v>595</v>
+      </c>
+      <c r="F582" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B583" t="s">
+        <v>18</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>19</v>
+      </c>
+      <c r="E583" t="s">
+        <v>597</v>
+      </c>
+      <c r="F583" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B584" t="s">
+        <v>18</v>
+      </c>
+      <c r="C584" t="s">
+        <v>7</v>
+      </c>
+      <c r="D584">
+        <v>7</v>
+      </c>
+      <c r="E584" t="s">
+        <v>599</v>
+      </c>
+      <c r="F584" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B585" t="s">
+        <v>18</v>
+      </c>
+      <c r="C585" t="s">
+        <v>9</v>
+      </c>
+      <c r="D585">
+        <v>3</v>
+      </c>
+      <c r="E585" t="s">
+        <v>601</v>
+      </c>
+      <c r="F585" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B586" t="s">
+        <v>18</v>
+      </c>
+      <c r="C586" t="s">
+        <v>68</v>
+      </c>
+      <c r="D586">
+        <v>3</v>
+      </c>
+      <c r="E586" t="s">
+        <v>601</v>
+      </c>
+      <c r="F586" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B587" t="s">
+        <v>18</v>
+      </c>
+      <c r="C587" t="s">
+        <v>11</v>
+      </c>
+      <c r="D587">
+        <v>3</v>
+      </c>
+      <c r="E587" t="s">
+        <v>604</v>
+      </c>
+      <c r="F587" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B588" t="s">
+        <v>23</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588" t="s">
+        <v>606</v>
+      </c>
+      <c r="F588" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B589" t="s">
+        <v>23</v>
+      </c>
+      <c r="C589" t="s">
+        <v>7</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589" t="s">
+        <v>608</v>
+      </c>
+      <c r="F589" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B590" t="s">
+        <v>23</v>
+      </c>
+      <c r="C590" t="s">
+        <v>9</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>610</v>
+      </c>
+      <c r="F590" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B591" t="s">
+        <v>23</v>
+      </c>
+      <c r="C591" t="s">
+        <v>68</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
+        <v>610</v>
+      </c>
+      <c r="F591" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B592" t="s">
+        <v>23</v>
+      </c>
+      <c r="C592" t="s">
+        <v>11</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
+        <v>613</v>
+      </c>
+      <c r="F592" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
